--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint Journal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>Task Name</t>
   </si>
@@ -254,9 +255,6 @@
     <t>26-30 hours (1-2 days)</t>
   </si>
   <si>
-    <t>Story Development</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -264,6 +262,69 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Development Outline</t>
+  </si>
+  <si>
+    <t>Projecct Development</t>
+  </si>
+  <si>
+    <t>Story Document</t>
+  </si>
+  <si>
+    <t>Story Progressoin</t>
+  </si>
+  <si>
+    <t>Character Progression</t>
+  </si>
+  <si>
+    <t>Possible Complications</t>
+  </si>
+  <si>
+    <t>Gameplay Elements Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Elements </t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>AJAY VENKAT</t>
+  </si>
+  <si>
+    <t>NEFARIOUS</t>
+  </si>
+  <si>
+    <t>JOURNAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL W : </t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>SPRID</t>
+  </si>
+  <si>
+    <t>Well First I am going to start off by creating a bumper sphere using the rigidbody to check if the collisions are registered. For jumping I will be using the inbuilt add force for jumping so it doesn’t get messy. Unity has inbuilt physics for a reason, they are the leading Physics experts okay, so if you use the system right and use it alongside your systems then you can have a good experience with player control, you just have to make sure your motor has the ability to turn of the rigid body without you having to access the component through the gameobject.</t>
+  </si>
+  <si>
+    <t>Today I have decided to fully harness the potential of the Unity Editor using the rigibody system. In my movement using the motor I will be using the rigibody.position element in order to make sure that the rbody always knows where I am at so I won't be getting collider issues throughout the game. I will also make sure that the gravity and phsyics is fully under my control whenever i need it to be.</t>
   </si>
 </sst>
 </file>
@@ -274,7 +335,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +380,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +483,35 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -423,14 +558,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,12 +780,160 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFDDAB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -612,38 +1029,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:L233" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:L233" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="C7:L233"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="REF TAG" dataDxfId="21"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="20"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="19"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="18"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="17"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="16"/>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="15"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="14"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="13"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="12"/>
+    <tableColumn id="1" name="REF TAG" dataDxfId="23"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="22"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="21"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="20"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="19"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="18"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="17"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="16"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="15"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="C7:L233"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="REF TAG" dataDxfId="9"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="8"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="7"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="6"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="5"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="4"/>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="3"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="2"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="1"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="0"/>
+    <tableColumn id="1" name="REF TAG" dataDxfId="11"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="10"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="9"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="8"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="7"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="6"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="5"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="4"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="3"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -917,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -946,7 +1363,7 @@
       </c>
       <c r="E4" s="12">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43240</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -955,7 +1372,7 @@
         <v>73</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="90">
@@ -972,7 +1389,7 @@
         <v>74</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="3:13">
@@ -1019,12 +1436,14 @@
         <v>18</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="21">
         <v>43236</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="31">
+        <v>43236</v>
+      </c>
     </row>
     <row r="9" spans="3:13">
       <c r="C9" s="13"/>
@@ -1032,9 +1451,11 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
       <c r="K9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="10"/>
     </row>
@@ -1044,7 +1465,9 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
@@ -1054,12 +1477,18 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="3:13">
       <c r="C12" s="13"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1084,7 +1513,9 @@
       <c r="K14" s="21">
         <v>43236</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="30">
+        <v>43238</v>
+      </c>
     </row>
     <row r="15" spans="3:13">
       <c r="C15" s="16"/>
@@ -1129,7 +1560,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -2472,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2482,7 +2913,7 @@
     <col min="2" max="2" width="3.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="2" customWidth="1"/>
@@ -2501,7 +2932,7 @@
       </c>
       <c r="E4" s="12">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43240</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -2510,9 +2941,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="28.5">
+    <row r="5" spans="3:12" ht="57">
       <c r="D5" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
@@ -2549,57 +2980,81 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="51.75" customHeight="1">
+    <row r="8" spans="3:12" ht="26.25" customHeight="1">
       <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="15">
+        <v>3</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.1</v>
+      </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="15"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.05</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
     </row>
     <row r="10" spans="3:12">
       <c r="C10" s="15"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.05</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="15"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="25"/>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.05</v>
+      </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" s="15"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2611,37 +3066,55 @@
     </row>
     <row r="13" spans="3:12">
       <c r="C13" s="15"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="15">
+        <v>2</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="3:12" ht="29.25" customHeight="1">
+    <row r="14" spans="3:12" ht="15" customHeight="1">
       <c r="C14" s="15"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0</v>
+      </c>
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="15"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="25"/>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
     </row>
@@ -5132,4 +5605,4865 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K370"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="32" customFormat="1">
+      <c r="B1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" s="32" customFormat="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" s="40" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" s="45" customFormat="1" ht="46.7" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" s="48" customFormat="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="50">
+        <f>SUM(F9:F531)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="27.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="208.7" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="67"/>
+      <c r="B9" s="61">
+        <v>43128</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64">
+        <v>1</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="1:11" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A10" s="67"/>
+      <c r="B10" s="61">
+        <v>43129</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64">
+        <v>2</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="67"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="67"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="67"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="67"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="67"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="67"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="67"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="67"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="67"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="67"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="67"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="67"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="67"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="67"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="67"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="67"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="67"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="67"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="67"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="67"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="67"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="67"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="66"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="67"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="67"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="67"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="66"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="67"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="67"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="66"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="67"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="66"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="67"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="66"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="67"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="66"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="67"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="66"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="67"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="66"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="67"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="66"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="67"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="66"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="67"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="66"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="67"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="66"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="67"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="66"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="67"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="66"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="67"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="66"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50" s="67"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="66"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="67"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="66"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="67"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="66"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="67"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="66"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A54" s="67"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A55" s="67"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="66"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="67"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="66"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A57" s="67"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="66"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A58" s="67"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="66"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A59" s="67"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="66"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A60" s="67"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="66"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A61" s="67"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="66"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A62" s="67"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="66"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A63" s="67"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="66"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A64" s="67"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="66"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A65" s="67"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="66"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A66" s="67"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="66"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A67" s="67"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="66"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A68" s="67"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="66"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A69" s="67"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="66"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A70" s="67"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="66"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A71" s="67"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="66"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A72" s="67"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="66"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A73" s="67"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="66"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A74" s="67"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="66"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A75" s="67"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="66"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A76" s="67"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="66"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A77" s="67"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="66"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A78" s="67"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="66"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A79" s="67"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="66"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A80" s="67"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="66"/>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A81" s="67"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="66"/>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A82" s="67"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="66"/>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A83" s="67"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="66"/>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A84" s="67"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="66"/>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A85" s="67"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="66"/>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A86" s="67"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="66"/>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A87" s="67"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="66"/>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A88" s="67"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="66"/>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A89" s="67"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="66"/>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A90" s="67"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="66"/>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A91" s="67"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="66"/>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A92" s="67"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="66"/>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A93" s="67"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="66"/>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A94" s="67"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="66"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A95" s="67"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="66"/>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A96" s="67"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="66"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A97" s="67"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="66"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A98" s="67"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="66"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A99" s="67"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="66"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A100" s="67"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="66"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A101" s="67"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="66"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A102" s="67"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="66"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A103" s="67"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="66"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A104" s="67"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="66"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A105" s="67"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="66"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A106" s="67"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="66"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A107" s="67"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="66"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A108" s="67"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="66"/>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A109" s="67"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="66"/>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A110" s="67"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="66"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A111" s="67"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="66"/>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A112" s="67"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="66"/>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A113" s="67"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="66"/>
+    </row>
+    <row r="114" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A114" s="67"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="66"/>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A115" s="67"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="66"/>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A116" s="67"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="66"/>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A117" s="67"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A118" s="67"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="65"/>
+      <c r="K118" s="66"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A119" s="67"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="65"/>
+      <c r="J119" s="65"/>
+      <c r="K119" s="66"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A120" s="67"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="63"/>
+      <c r="F120" s="63"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="66"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A121" s="67"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="66"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A122" s="67"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="66"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A123" s="67"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="63"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="66"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A124" s="67"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="66"/>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A125" s="67"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="64"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="66"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A126" s="67"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="66"/>
+    </row>
+    <row r="127" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A127" s="67"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="66"/>
+    </row>
+    <row r="128" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A128" s="67"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="66"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A129" s="67"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="64"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="66"/>
+    </row>
+    <row r="130" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A130" s="67"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="64"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="66"/>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A131" s="67"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="66"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A132" s="67"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="64"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="65"/>
+      <c r="J132" s="65"/>
+      <c r="K132" s="66"/>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A133" s="67"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="64"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="65"/>
+      <c r="J133" s="65"/>
+      <c r="K133" s="66"/>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A134" s="67"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="64"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="65"/>
+      <c r="J134" s="65"/>
+      <c r="K134" s="66"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A135" s="67"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="64"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="65"/>
+      <c r="J135" s="65"/>
+      <c r="K135" s="66"/>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A136" s="67"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="65"/>
+      <c r="J136" s="65"/>
+      <c r="K136" s="66"/>
+    </row>
+    <row r="137" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A137" s="67"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="64"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="65"/>
+      <c r="J137" s="65"/>
+      <c r="K137" s="66"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A138" s="67"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="64"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="66"/>
+    </row>
+    <row r="139" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A139" s="67"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="63"/>
+      <c r="G139" s="64"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="66"/>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A140" s="67"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="64"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="66"/>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A141" s="67"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="63"/>
+      <c r="E141" s="63"/>
+      <c r="F141" s="63"/>
+      <c r="G141" s="64"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="66"/>
+    </row>
+    <row r="142" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A142" s="67"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="63"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="63"/>
+      <c r="G142" s="64"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="66"/>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A143" s="67"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="64"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
+      <c r="J143" s="65"/>
+      <c r="K143" s="66"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A144" s="67"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="63"/>
+      <c r="G144" s="64"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
+      <c r="J144" s="65"/>
+      <c r="K144" s="66"/>
+    </row>
+    <row r="145" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A145" s="67"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="63"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="64"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="65"/>
+      <c r="J145" s="65"/>
+      <c r="K145" s="66"/>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A146" s="67"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="64"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="65"/>
+      <c r="J146" s="65"/>
+      <c r="K146" s="66"/>
+    </row>
+    <row r="147" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A147" s="67"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="62"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="63"/>
+      <c r="G147" s="64"/>
+      <c r="H147" s="65"/>
+      <c r="I147" s="65"/>
+      <c r="J147" s="65"/>
+      <c r="K147" s="66"/>
+    </row>
+    <row r="148" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A148" s="67"/>
+      <c r="B148" s="61"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="63"/>
+      <c r="G148" s="64"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="65"/>
+      <c r="K148" s="66"/>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A149" s="67"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="62"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="63"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="65"/>
+      <c r="J149" s="65"/>
+      <c r="K149" s="66"/>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A150" s="67"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="62"/>
+      <c r="D150" s="63"/>
+      <c r="E150" s="63"/>
+      <c r="F150" s="63"/>
+      <c r="G150" s="64"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="65"/>
+      <c r="J150" s="65"/>
+      <c r="K150" s="66"/>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A151" s="67"/>
+      <c r="B151" s="61"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="63"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="64"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="65"/>
+      <c r="J151" s="65"/>
+      <c r="K151" s="66"/>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A152" s="67"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="64"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="65"/>
+      <c r="J152" s="65"/>
+      <c r="K152" s="66"/>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A153" s="67"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="62"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="63"/>
+      <c r="F153" s="63"/>
+      <c r="G153" s="64"/>
+      <c r="H153" s="65"/>
+      <c r="I153" s="65"/>
+      <c r="J153" s="65"/>
+      <c r="K153" s="66"/>
+    </row>
+    <row r="154" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A154" s="67"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="62"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="64"/>
+      <c r="H154" s="65"/>
+      <c r="I154" s="65"/>
+      <c r="J154" s="65"/>
+      <c r="K154" s="66"/>
+    </row>
+    <row r="155" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A155" s="67"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="64"/>
+      <c r="H155" s="65"/>
+      <c r="I155" s="65"/>
+      <c r="J155" s="65"/>
+      <c r="K155" s="66"/>
+    </row>
+    <row r="156" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A156" s="67"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="62"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="64"/>
+      <c r="H156" s="65"/>
+      <c r="I156" s="65"/>
+      <c r="J156" s="65"/>
+      <c r="K156" s="66"/>
+    </row>
+    <row r="157" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A157" s="67"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="62"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="64"/>
+      <c r="H157" s="65"/>
+      <c r="I157" s="65"/>
+      <c r="J157" s="65"/>
+      <c r="K157" s="66"/>
+    </row>
+    <row r="158" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A158" s="67"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="64"/>
+      <c r="H158" s="65"/>
+      <c r="I158" s="65"/>
+      <c r="J158" s="65"/>
+      <c r="K158" s="66"/>
+    </row>
+    <row r="159" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A159" s="67"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="62"/>
+      <c r="D159" s="63"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="63"/>
+      <c r="G159" s="64"/>
+      <c r="H159" s="65"/>
+      <c r="I159" s="65"/>
+      <c r="J159" s="65"/>
+      <c r="K159" s="66"/>
+    </row>
+    <row r="160" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A160" s="67"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="62"/>
+      <c r="D160" s="63"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="63"/>
+      <c r="G160" s="64"/>
+      <c r="H160" s="65"/>
+      <c r="I160" s="65"/>
+      <c r="J160" s="65"/>
+      <c r="K160" s="66"/>
+    </row>
+    <row r="161" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A161" s="67"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="62"/>
+      <c r="D161" s="63"/>
+      <c r="E161" s="63"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="64"/>
+      <c r="H161" s="65"/>
+      <c r="I161" s="65"/>
+      <c r="J161" s="65"/>
+      <c r="K161" s="66"/>
+    </row>
+    <row r="162" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A162" s="67"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="62"/>
+      <c r="D162" s="63"/>
+      <c r="E162" s="63"/>
+      <c r="F162" s="63"/>
+      <c r="G162" s="64"/>
+      <c r="H162" s="65"/>
+      <c r="I162" s="65"/>
+      <c r="J162" s="65"/>
+      <c r="K162" s="66"/>
+    </row>
+    <row r="163" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A163" s="67"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="62"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="64"/>
+      <c r="H163" s="65"/>
+      <c r="I163" s="65"/>
+      <c r="J163" s="65"/>
+      <c r="K163" s="66"/>
+    </row>
+    <row r="164" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A164" s="67"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="64"/>
+      <c r="H164" s="65"/>
+      <c r="I164" s="65"/>
+      <c r="J164" s="65"/>
+      <c r="K164" s="66"/>
+    </row>
+    <row r="165" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A165" s="67"/>
+      <c r="B165" s="61"/>
+      <c r="C165" s="62"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="63"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="64"/>
+      <c r="H165" s="65"/>
+      <c r="I165" s="65"/>
+      <c r="J165" s="65"/>
+      <c r="K165" s="66"/>
+    </row>
+    <row r="166" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A166" s="67"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="62"/>
+      <c r="D166" s="63"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="63"/>
+      <c r="G166" s="64"/>
+      <c r="H166" s="65"/>
+      <c r="I166" s="65"/>
+      <c r="J166" s="65"/>
+      <c r="K166" s="66"/>
+    </row>
+    <row r="167" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A167" s="67"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="62"/>
+      <c r="D167" s="63"/>
+      <c r="E167" s="63"/>
+      <c r="F167" s="63"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="65"/>
+      <c r="I167" s="65"/>
+      <c r="J167" s="65"/>
+      <c r="K167" s="66"/>
+    </row>
+    <row r="168" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A168" s="67"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="62"/>
+      <c r="D168" s="63"/>
+      <c r="E168" s="63"/>
+      <c r="F168" s="63"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="65"/>
+      <c r="I168" s="65"/>
+      <c r="J168" s="65"/>
+      <c r="K168" s="66"/>
+    </row>
+    <row r="169" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A169" s="67"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="62"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="63"/>
+      <c r="F169" s="63"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="65"/>
+      <c r="I169" s="65"/>
+      <c r="J169" s="65"/>
+      <c r="K169" s="66"/>
+    </row>
+    <row r="170" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A170" s="67"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="63"/>
+      <c r="F170" s="63"/>
+      <c r="G170" s="64"/>
+      <c r="H170" s="65"/>
+      <c r="I170" s="65"/>
+      <c r="J170" s="65"/>
+      <c r="K170" s="66"/>
+    </row>
+    <row r="171" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A171" s="67"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="63"/>
+      <c r="E171" s="63"/>
+      <c r="F171" s="63"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="65"/>
+      <c r="I171" s="65"/>
+      <c r="J171" s="65"/>
+      <c r="K171" s="66"/>
+    </row>
+    <row r="172" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A172" s="67"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="62"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="63"/>
+      <c r="G172" s="64"/>
+      <c r="H172" s="65"/>
+      <c r="I172" s="65"/>
+      <c r="J172" s="65"/>
+      <c r="K172" s="66"/>
+    </row>
+    <row r="173" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A173" s="67"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="62"/>
+      <c r="D173" s="63"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="63"/>
+      <c r="G173" s="64"/>
+      <c r="H173" s="65"/>
+      <c r="I173" s="65"/>
+      <c r="J173" s="65"/>
+      <c r="K173" s="66"/>
+    </row>
+    <row r="174" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A174" s="67"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="62"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="63"/>
+      <c r="F174" s="63"/>
+      <c r="G174" s="64"/>
+      <c r="H174" s="65"/>
+      <c r="I174" s="65"/>
+      <c r="J174" s="65"/>
+      <c r="K174" s="66"/>
+    </row>
+    <row r="175" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A175" s="67"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="62"/>
+      <c r="D175" s="63"/>
+      <c r="E175" s="63"/>
+      <c r="F175" s="63"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="65"/>
+      <c r="I175" s="65"/>
+      <c r="J175" s="65"/>
+      <c r="K175" s="66"/>
+    </row>
+    <row r="176" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A176" s="67"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="62"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="64"/>
+      <c r="H176" s="65"/>
+      <c r="I176" s="65"/>
+      <c r="J176" s="65"/>
+      <c r="K176" s="66"/>
+    </row>
+    <row r="177" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A177" s="67"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="62"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="63"/>
+      <c r="F177" s="63"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="65"/>
+      <c r="I177" s="65"/>
+      <c r="J177" s="65"/>
+      <c r="K177" s="66"/>
+    </row>
+    <row r="178" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A178" s="67"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="62"/>
+      <c r="D178" s="63"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="63"/>
+      <c r="G178" s="64"/>
+      <c r="H178" s="65"/>
+      <c r="I178" s="65"/>
+      <c r="J178" s="65"/>
+      <c r="K178" s="66"/>
+    </row>
+    <row r="179" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A179" s="67"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="62"/>
+      <c r="D179" s="63"/>
+      <c r="E179" s="63"/>
+      <c r="F179" s="63"/>
+      <c r="G179" s="64"/>
+      <c r="H179" s="65"/>
+      <c r="I179" s="65"/>
+      <c r="J179" s="65"/>
+      <c r="K179" s="66"/>
+    </row>
+    <row r="180" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A180" s="67"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="64"/>
+      <c r="H180" s="65"/>
+      <c r="I180" s="65"/>
+      <c r="J180" s="65"/>
+      <c r="K180" s="66"/>
+    </row>
+    <row r="181" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A181" s="67"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="62"/>
+      <c r="D181" s="63"/>
+      <c r="E181" s="63"/>
+      <c r="F181" s="63"/>
+      <c r="G181" s="64"/>
+      <c r="H181" s="65"/>
+      <c r="I181" s="65"/>
+      <c r="J181" s="65"/>
+      <c r="K181" s="66"/>
+    </row>
+    <row r="182" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A182" s="67"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="63"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="64"/>
+      <c r="H182" s="65"/>
+      <c r="I182" s="65"/>
+      <c r="J182" s="65"/>
+      <c r="K182" s="66"/>
+    </row>
+    <row r="183" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A183" s="67"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="62"/>
+      <c r="D183" s="63"/>
+      <c r="E183" s="63"/>
+      <c r="F183" s="63"/>
+      <c r="G183" s="64"/>
+      <c r="H183" s="65"/>
+      <c r="I183" s="65"/>
+      <c r="J183" s="65"/>
+      <c r="K183" s="66"/>
+    </row>
+    <row r="184" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A184" s="67"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="62"/>
+      <c r="D184" s="63"/>
+      <c r="E184" s="63"/>
+      <c r="F184" s="63"/>
+      <c r="G184" s="64"/>
+      <c r="H184" s="65"/>
+      <c r="I184" s="65"/>
+      <c r="J184" s="65"/>
+      <c r="K184" s="66"/>
+    </row>
+    <row r="185" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A185" s="67"/>
+      <c r="B185" s="61"/>
+      <c r="C185" s="62"/>
+      <c r="D185" s="63"/>
+      <c r="E185" s="63"/>
+      <c r="F185" s="63"/>
+      <c r="G185" s="64"/>
+      <c r="H185" s="65"/>
+      <c r="I185" s="65"/>
+      <c r="J185" s="65"/>
+      <c r="K185" s="66"/>
+    </row>
+    <row r="186" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A186" s="67"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="62"/>
+      <c r="D186" s="63"/>
+      <c r="E186" s="63"/>
+      <c r="F186" s="63"/>
+      <c r="G186" s="64"/>
+      <c r="H186" s="65"/>
+      <c r="I186" s="65"/>
+      <c r="J186" s="65"/>
+      <c r="K186" s="66"/>
+    </row>
+    <row r="187" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A187" s="67"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="62"/>
+      <c r="D187" s="63"/>
+      <c r="E187" s="63"/>
+      <c r="F187" s="63"/>
+      <c r="G187" s="64"/>
+      <c r="H187" s="65"/>
+      <c r="I187" s="65"/>
+      <c r="J187" s="65"/>
+      <c r="K187" s="66"/>
+    </row>
+    <row r="188" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A188" s="67"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="62"/>
+      <c r="D188" s="63"/>
+      <c r="E188" s="63"/>
+      <c r="F188" s="63"/>
+      <c r="G188" s="64"/>
+      <c r="H188" s="65"/>
+      <c r="I188" s="65"/>
+      <c r="J188" s="65"/>
+      <c r="K188" s="66"/>
+    </row>
+    <row r="189" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A189" s="67"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="62"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="63"/>
+      <c r="F189" s="63"/>
+      <c r="G189" s="64"/>
+      <c r="H189" s="65"/>
+      <c r="I189" s="65"/>
+      <c r="J189" s="65"/>
+      <c r="K189" s="66"/>
+    </row>
+    <row r="190" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A190" s="67"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="62"/>
+      <c r="D190" s="63"/>
+      <c r="E190" s="63"/>
+      <c r="F190" s="63"/>
+      <c r="G190" s="64"/>
+      <c r="H190" s="65"/>
+      <c r="I190" s="65"/>
+      <c r="J190" s="65"/>
+      <c r="K190" s="66"/>
+    </row>
+    <row r="191" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A191" s="67"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="62"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="63"/>
+      <c r="F191" s="63"/>
+      <c r="G191" s="64"/>
+      <c r="H191" s="65"/>
+      <c r="I191" s="65"/>
+      <c r="J191" s="65"/>
+      <c r="K191" s="66"/>
+    </row>
+    <row r="192" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A192" s="67"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="62"/>
+      <c r="D192" s="63"/>
+      <c r="E192" s="63"/>
+      <c r="F192" s="63"/>
+      <c r="G192" s="64"/>
+      <c r="H192" s="65"/>
+      <c r="I192" s="65"/>
+      <c r="J192" s="65"/>
+      <c r="K192" s="66"/>
+    </row>
+    <row r="193" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A193" s="67"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="62"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="63"/>
+      <c r="F193" s="63"/>
+      <c r="G193" s="64"/>
+      <c r="H193" s="65"/>
+      <c r="I193" s="65"/>
+      <c r="J193" s="65"/>
+      <c r="K193" s="66"/>
+    </row>
+    <row r="194" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A194" s="67"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="62"/>
+      <c r="D194" s="63"/>
+      <c r="E194" s="63"/>
+      <c r="F194" s="63"/>
+      <c r="G194" s="64"/>
+      <c r="H194" s="65"/>
+      <c r="I194" s="65"/>
+      <c r="J194" s="65"/>
+      <c r="K194" s="66"/>
+    </row>
+    <row r="195" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A195" s="67"/>
+      <c r="B195" s="61"/>
+      <c r="C195" s="62"/>
+      <c r="D195" s="63"/>
+      <c r="E195" s="63"/>
+      <c r="F195" s="63"/>
+      <c r="G195" s="64"/>
+      <c r="H195" s="65"/>
+      <c r="I195" s="65"/>
+      <c r="J195" s="65"/>
+      <c r="K195" s="66"/>
+    </row>
+    <row r="196" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A196" s="67"/>
+      <c r="B196" s="61"/>
+      <c r="C196" s="62"/>
+      <c r="D196" s="63"/>
+      <c r="E196" s="63"/>
+      <c r="F196" s="63"/>
+      <c r="G196" s="64"/>
+      <c r="H196" s="65"/>
+      <c r="I196" s="65"/>
+      <c r="J196" s="65"/>
+      <c r="K196" s="66"/>
+    </row>
+    <row r="197" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A197" s="67"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="62"/>
+      <c r="D197" s="63"/>
+      <c r="E197" s="63"/>
+      <c r="F197" s="63"/>
+      <c r="G197" s="64"/>
+      <c r="H197" s="65"/>
+      <c r="I197" s="65"/>
+      <c r="J197" s="65"/>
+      <c r="K197" s="66"/>
+    </row>
+    <row r="198" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A198" s="67"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="62"/>
+      <c r="D198" s="63"/>
+      <c r="E198" s="63"/>
+      <c r="F198" s="63"/>
+      <c r="G198" s="64"/>
+      <c r="H198" s="65"/>
+      <c r="I198" s="65"/>
+      <c r="J198" s="65"/>
+      <c r="K198" s="66"/>
+    </row>
+    <row r="199" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A199" s="67"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="62"/>
+      <c r="D199" s="63"/>
+      <c r="E199" s="63"/>
+      <c r="F199" s="63"/>
+      <c r="G199" s="64"/>
+      <c r="H199" s="65"/>
+      <c r="I199" s="65"/>
+      <c r="J199" s="65"/>
+      <c r="K199" s="66"/>
+    </row>
+    <row r="200" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A200" s="67"/>
+      <c r="B200" s="61"/>
+      <c r="C200" s="62"/>
+      <c r="D200" s="63"/>
+      <c r="E200" s="63"/>
+      <c r="F200" s="63"/>
+      <c r="G200" s="64"/>
+      <c r="H200" s="65"/>
+      <c r="I200" s="65"/>
+      <c r="J200" s="65"/>
+      <c r="K200" s="66"/>
+    </row>
+    <row r="201" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A201" s="67"/>
+      <c r="B201" s="61"/>
+      <c r="C201" s="62"/>
+      <c r="D201" s="63"/>
+      <c r="E201" s="63"/>
+      <c r="F201" s="63"/>
+      <c r="G201" s="64"/>
+      <c r="H201" s="65"/>
+      <c r="I201" s="65"/>
+      <c r="J201" s="65"/>
+      <c r="K201" s="66"/>
+    </row>
+    <row r="202" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A202" s="67"/>
+      <c r="B202" s="61"/>
+      <c r="C202" s="62"/>
+      <c r="D202" s="63"/>
+      <c r="E202" s="63"/>
+      <c r="F202" s="63"/>
+      <c r="G202" s="64"/>
+      <c r="H202" s="65"/>
+      <c r="I202" s="65"/>
+      <c r="J202" s="65"/>
+      <c r="K202" s="66"/>
+    </row>
+    <row r="203" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A203" s="67"/>
+      <c r="B203" s="61"/>
+      <c r="C203" s="62"/>
+      <c r="D203" s="63"/>
+      <c r="E203" s="63"/>
+      <c r="F203" s="63"/>
+      <c r="G203" s="64"/>
+      <c r="H203" s="65"/>
+      <c r="I203" s="65"/>
+      <c r="J203" s="65"/>
+      <c r="K203" s="66"/>
+    </row>
+    <row r="204" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A204" s="67"/>
+      <c r="B204" s="61"/>
+      <c r="C204" s="62"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+      <c r="G204" s="64"/>
+      <c r="H204" s="65"/>
+      <c r="I204" s="65"/>
+      <c r="J204" s="65"/>
+      <c r="K204" s="66"/>
+    </row>
+    <row r="205" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A205" s="67"/>
+      <c r="B205" s="61"/>
+      <c r="C205" s="62"/>
+      <c r="D205" s="63"/>
+      <c r="E205" s="63"/>
+      <c r="F205" s="63"/>
+      <c r="G205" s="64"/>
+      <c r="H205" s="65"/>
+      <c r="I205" s="65"/>
+      <c r="J205" s="65"/>
+      <c r="K205" s="66"/>
+    </row>
+    <row r="206" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A206" s="67"/>
+      <c r="B206" s="61"/>
+      <c r="C206" s="62"/>
+      <c r="D206" s="63"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="63"/>
+      <c r="G206" s="64"/>
+      <c r="H206" s="65"/>
+      <c r="I206" s="65"/>
+      <c r="J206" s="65"/>
+      <c r="K206" s="66"/>
+    </row>
+    <row r="207" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A207" s="67"/>
+      <c r="B207" s="61"/>
+      <c r="C207" s="62"/>
+      <c r="D207" s="63"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
+      <c r="G207" s="64"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="65"/>
+      <c r="K207" s="66"/>
+    </row>
+    <row r="208" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A208" s="67"/>
+      <c r="B208" s="61"/>
+      <c r="C208" s="62"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="64"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="66"/>
+    </row>
+    <row r="209" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A209" s="67"/>
+      <c r="B209" s="61"/>
+      <c r="C209" s="62"/>
+      <c r="D209" s="63"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="63"/>
+      <c r="G209" s="64"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="66"/>
+    </row>
+    <row r="210" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A210" s="67"/>
+      <c r="B210" s="61"/>
+      <c r="C210" s="62"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="64"/>
+      <c r="H210" s="65"/>
+      <c r="I210" s="65"/>
+      <c r="J210" s="65"/>
+      <c r="K210" s="66"/>
+    </row>
+    <row r="211" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A211" s="67"/>
+      <c r="B211" s="61"/>
+      <c r="C211" s="62"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="63"/>
+      <c r="F211" s="63"/>
+      <c r="G211" s="64"/>
+      <c r="H211" s="65"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="65"/>
+      <c r="K211" s="66"/>
+    </row>
+    <row r="212" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A212" s="67"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="62"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
+      <c r="F212" s="63"/>
+      <c r="G212" s="64"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="66"/>
+    </row>
+    <row r="213" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A213" s="67"/>
+      <c r="B213" s="61"/>
+      <c r="C213" s="62"/>
+      <c r="D213" s="63"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="63"/>
+      <c r="G213" s="64"/>
+      <c r="H213" s="65"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="65"/>
+      <c r="K213" s="66"/>
+    </row>
+    <row r="214" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A214" s="67"/>
+      <c r="B214" s="61"/>
+      <c r="C214" s="62"/>
+      <c r="D214" s="63"/>
+      <c r="E214" s="63"/>
+      <c r="F214" s="63"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="65"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="65"/>
+      <c r="K214" s="66"/>
+    </row>
+    <row r="215" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A215" s="67"/>
+      <c r="B215" s="61"/>
+      <c r="C215" s="62"/>
+      <c r="D215" s="63"/>
+      <c r="E215" s="63"/>
+      <c r="F215" s="63"/>
+      <c r="G215" s="64"/>
+      <c r="H215" s="65"/>
+      <c r="I215" s="65"/>
+      <c r="J215" s="65"/>
+      <c r="K215" s="66"/>
+    </row>
+    <row r="216" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A216" s="67"/>
+      <c r="B216" s="61"/>
+      <c r="C216" s="62"/>
+      <c r="D216" s="63"/>
+      <c r="E216" s="63"/>
+      <c r="F216" s="63"/>
+      <c r="G216" s="64"/>
+      <c r="H216" s="65"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="65"/>
+      <c r="K216" s="66"/>
+    </row>
+    <row r="217" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A217" s="67"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="62"/>
+      <c r="D217" s="63"/>
+      <c r="E217" s="63"/>
+      <c r="F217" s="63"/>
+      <c r="G217" s="64"/>
+      <c r="H217" s="65"/>
+      <c r="I217" s="65"/>
+      <c r="J217" s="65"/>
+      <c r="K217" s="66"/>
+    </row>
+    <row r="218" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A218" s="67"/>
+      <c r="B218" s="61"/>
+      <c r="C218" s="62"/>
+      <c r="D218" s="63"/>
+      <c r="E218" s="63"/>
+      <c r="F218" s="63"/>
+      <c r="G218" s="64"/>
+      <c r="H218" s="65"/>
+      <c r="I218" s="65"/>
+      <c r="J218" s="65"/>
+      <c r="K218" s="66"/>
+    </row>
+    <row r="219" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A219" s="67"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="62"/>
+      <c r="D219" s="63"/>
+      <c r="E219" s="63"/>
+      <c r="F219" s="63"/>
+      <c r="G219" s="64"/>
+      <c r="H219" s="65"/>
+      <c r="I219" s="65"/>
+      <c r="J219" s="65"/>
+      <c r="K219" s="66"/>
+    </row>
+    <row r="220" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A220" s="67"/>
+      <c r="B220" s="61"/>
+      <c r="C220" s="62"/>
+      <c r="D220" s="63"/>
+      <c r="E220" s="63"/>
+      <c r="F220" s="63"/>
+      <c r="G220" s="64"/>
+      <c r="H220" s="65"/>
+      <c r="I220" s="65"/>
+      <c r="J220" s="65"/>
+      <c r="K220" s="66"/>
+    </row>
+    <row r="221" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A221" s="67"/>
+      <c r="B221" s="61"/>
+      <c r="C221" s="62"/>
+      <c r="D221" s="63"/>
+      <c r="E221" s="63"/>
+      <c r="F221" s="63"/>
+      <c r="G221" s="64"/>
+      <c r="H221" s="65"/>
+      <c r="I221" s="65"/>
+      <c r="J221" s="65"/>
+      <c r="K221" s="66"/>
+    </row>
+    <row r="222" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A222" s="67"/>
+      <c r="B222" s="61"/>
+      <c r="C222" s="62"/>
+      <c r="D222" s="63"/>
+      <c r="E222" s="63"/>
+      <c r="F222" s="63"/>
+      <c r="G222" s="64"/>
+      <c r="H222" s="65"/>
+      <c r="I222" s="65"/>
+      <c r="J222" s="65"/>
+      <c r="K222" s="66"/>
+    </row>
+    <row r="223" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A223" s="67"/>
+      <c r="B223" s="61"/>
+      <c r="C223" s="62"/>
+      <c r="D223" s="63"/>
+      <c r="E223" s="63"/>
+      <c r="F223" s="63"/>
+      <c r="G223" s="64"/>
+      <c r="H223" s="65"/>
+      <c r="I223" s="65"/>
+      <c r="J223" s="65"/>
+      <c r="K223" s="66"/>
+    </row>
+    <row r="224" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A224" s="67"/>
+      <c r="B224" s="61"/>
+      <c r="C224" s="62"/>
+      <c r="D224" s="63"/>
+      <c r="E224" s="63"/>
+      <c r="F224" s="63"/>
+      <c r="G224" s="64"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="65"/>
+      <c r="K224" s="66"/>
+    </row>
+    <row r="225" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A225" s="67"/>
+      <c r="B225" s="61"/>
+      <c r="C225" s="62"/>
+      <c r="D225" s="63"/>
+      <c r="E225" s="63"/>
+      <c r="F225" s="63"/>
+      <c r="G225" s="64"/>
+      <c r="H225" s="65"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="65"/>
+      <c r="K225" s="66"/>
+    </row>
+    <row r="226" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A226" s="67"/>
+      <c r="B226" s="61"/>
+      <c r="C226" s="62"/>
+      <c r="D226" s="63"/>
+      <c r="E226" s="63"/>
+      <c r="F226" s="63"/>
+      <c r="G226" s="64"/>
+      <c r="H226" s="65"/>
+      <c r="I226" s="65"/>
+      <c r="J226" s="65"/>
+      <c r="K226" s="66"/>
+    </row>
+    <row r="227" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A227" s="67"/>
+      <c r="B227" s="61"/>
+      <c r="C227" s="62"/>
+      <c r="D227" s="63"/>
+      <c r="E227" s="63"/>
+      <c r="F227" s="63"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+      <c r="K227" s="66"/>
+    </row>
+    <row r="228" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A228" s="67"/>
+      <c r="B228" s="61"/>
+      <c r="C228" s="62"/>
+      <c r="D228" s="63"/>
+      <c r="E228" s="63"/>
+      <c r="F228" s="63"/>
+      <c r="G228" s="64"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="66"/>
+    </row>
+    <row r="229" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A229" s="67"/>
+      <c r="B229" s="61"/>
+      <c r="C229" s="62"/>
+      <c r="D229" s="63"/>
+      <c r="E229" s="63"/>
+      <c r="F229" s="63"/>
+      <c r="G229" s="64"/>
+      <c r="H229" s="65"/>
+      <c r="I229" s="65"/>
+      <c r="J229" s="65"/>
+      <c r="K229" s="66"/>
+    </row>
+    <row r="230" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A230" s="67"/>
+      <c r="B230" s="61"/>
+      <c r="C230" s="62"/>
+      <c r="D230" s="63"/>
+      <c r="E230" s="63"/>
+      <c r="F230" s="63"/>
+      <c r="G230" s="64"/>
+      <c r="H230" s="65"/>
+      <c r="I230" s="65"/>
+      <c r="J230" s="65"/>
+      <c r="K230" s="66"/>
+    </row>
+    <row r="231" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A231" s="67"/>
+      <c r="B231" s="61"/>
+      <c r="C231" s="62"/>
+      <c r="D231" s="63"/>
+      <c r="E231" s="63"/>
+      <c r="F231" s="63"/>
+      <c r="G231" s="64"/>
+      <c r="H231" s="65"/>
+      <c r="I231" s="65"/>
+      <c r="J231" s="65"/>
+      <c r="K231" s="66"/>
+    </row>
+    <row r="232" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A232" s="67"/>
+      <c r="B232" s="61"/>
+      <c r="C232" s="62"/>
+      <c r="D232" s="63"/>
+      <c r="E232" s="63"/>
+      <c r="F232" s="63"/>
+      <c r="G232" s="64"/>
+      <c r="H232" s="65"/>
+      <c r="I232" s="65"/>
+      <c r="J232" s="65"/>
+      <c r="K232" s="66"/>
+    </row>
+    <row r="233" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A233" s="67"/>
+      <c r="B233" s="61"/>
+      <c r="C233" s="62"/>
+      <c r="D233" s="63"/>
+      <c r="E233" s="63"/>
+      <c r="F233" s="63"/>
+      <c r="G233" s="64"/>
+      <c r="H233" s="65"/>
+      <c r="I233" s="65"/>
+      <c r="J233" s="65"/>
+      <c r="K233" s="66"/>
+    </row>
+    <row r="234" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A234" s="67"/>
+      <c r="B234" s="61"/>
+      <c r="C234" s="62"/>
+      <c r="D234" s="63"/>
+      <c r="E234" s="63"/>
+      <c r="F234" s="63"/>
+      <c r="G234" s="64"/>
+      <c r="H234" s="65"/>
+      <c r="I234" s="65"/>
+      <c r="J234" s="65"/>
+      <c r="K234" s="66"/>
+    </row>
+    <row r="235" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A235" s="67"/>
+      <c r="B235" s="61"/>
+      <c r="C235" s="62"/>
+      <c r="D235" s="63"/>
+      <c r="E235" s="63"/>
+      <c r="F235" s="63"/>
+      <c r="G235" s="64"/>
+      <c r="H235" s="65"/>
+      <c r="I235" s="65"/>
+      <c r="J235" s="65"/>
+      <c r="K235" s="66"/>
+    </row>
+    <row r="236" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A236" s="67"/>
+      <c r="B236" s="61"/>
+      <c r="C236" s="62"/>
+      <c r="D236" s="63"/>
+      <c r="E236" s="63"/>
+      <c r="F236" s="63"/>
+      <c r="G236" s="64"/>
+      <c r="H236" s="65"/>
+      <c r="I236" s="65"/>
+      <c r="J236" s="65"/>
+      <c r="K236" s="66"/>
+    </row>
+    <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A237" s="67"/>
+      <c r="B237" s="61"/>
+      <c r="C237" s="62"/>
+      <c r="D237" s="63"/>
+      <c r="E237" s="63"/>
+      <c r="F237" s="63"/>
+      <c r="G237" s="64"/>
+      <c r="H237" s="65"/>
+      <c r="I237" s="65"/>
+      <c r="J237" s="65"/>
+      <c r="K237" s="66"/>
+    </row>
+    <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A238" s="67"/>
+      <c r="B238" s="61"/>
+      <c r="C238" s="62"/>
+      <c r="D238" s="63"/>
+      <c r="E238" s="63"/>
+      <c r="F238" s="63"/>
+      <c r="G238" s="64"/>
+      <c r="H238" s="65"/>
+      <c r="I238" s="65"/>
+      <c r="J238" s="65"/>
+      <c r="K238" s="66"/>
+    </row>
+    <row r="239" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A239" s="67"/>
+      <c r="B239" s="61"/>
+      <c r="C239" s="62"/>
+      <c r="D239" s="63"/>
+      <c r="E239" s="63"/>
+      <c r="F239" s="63"/>
+      <c r="G239" s="64"/>
+      <c r="H239" s="65"/>
+      <c r="I239" s="65"/>
+      <c r="J239" s="65"/>
+      <c r="K239" s="66"/>
+    </row>
+    <row r="240" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A240" s="67"/>
+      <c r="B240" s="61"/>
+      <c r="C240" s="62"/>
+      <c r="D240" s="63"/>
+      <c r="E240" s="63"/>
+      <c r="F240" s="63"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="65"/>
+      <c r="I240" s="65"/>
+      <c r="J240" s="65"/>
+      <c r="K240" s="66"/>
+    </row>
+    <row r="241" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A241" s="67"/>
+      <c r="B241" s="61"/>
+      <c r="C241" s="62"/>
+      <c r="D241" s="63"/>
+      <c r="E241" s="63"/>
+      <c r="F241" s="63"/>
+      <c r="G241" s="64"/>
+      <c r="H241" s="65"/>
+      <c r="I241" s="65"/>
+      <c r="J241" s="65"/>
+      <c r="K241" s="66"/>
+    </row>
+    <row r="242" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A242" s="67"/>
+      <c r="B242" s="61"/>
+      <c r="C242" s="62"/>
+      <c r="D242" s="63"/>
+      <c r="E242" s="63"/>
+      <c r="F242" s="63"/>
+      <c r="G242" s="64"/>
+      <c r="H242" s="65"/>
+      <c r="I242" s="65"/>
+      <c r="J242" s="65"/>
+      <c r="K242" s="66"/>
+    </row>
+    <row r="243" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A243" s="67"/>
+      <c r="B243" s="61"/>
+      <c r="C243" s="62"/>
+      <c r="D243" s="63"/>
+      <c r="E243" s="63"/>
+      <c r="F243" s="63"/>
+      <c r="G243" s="64"/>
+      <c r="H243" s="65"/>
+      <c r="I243" s="65"/>
+      <c r="J243" s="65"/>
+      <c r="K243" s="66"/>
+    </row>
+    <row r="244" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A244" s="67"/>
+      <c r="B244" s="61"/>
+      <c r="C244" s="62"/>
+      <c r="D244" s="63"/>
+      <c r="E244" s="63"/>
+      <c r="F244" s="63"/>
+      <c r="G244" s="64"/>
+      <c r="H244" s="65"/>
+      <c r="I244" s="65"/>
+      <c r="J244" s="65"/>
+      <c r="K244" s="66"/>
+    </row>
+    <row r="245" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A245" s="67"/>
+      <c r="B245" s="61"/>
+      <c r="C245" s="62"/>
+      <c r="D245" s="63"/>
+      <c r="E245" s="63"/>
+      <c r="F245" s="63"/>
+      <c r="G245" s="64"/>
+      <c r="H245" s="65"/>
+      <c r="I245" s="65"/>
+      <c r="J245" s="65"/>
+      <c r="K245" s="66"/>
+    </row>
+    <row r="246" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A246" s="67"/>
+      <c r="B246" s="61"/>
+      <c r="C246" s="62"/>
+      <c r="D246" s="63"/>
+      <c r="E246" s="63"/>
+      <c r="F246" s="63"/>
+      <c r="G246" s="64"/>
+      <c r="H246" s="65"/>
+      <c r="I246" s="65"/>
+      <c r="J246" s="65"/>
+      <c r="K246" s="66"/>
+    </row>
+    <row r="247" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A247" s="67"/>
+      <c r="B247" s="61"/>
+      <c r="C247" s="62"/>
+      <c r="D247" s="63"/>
+      <c r="E247" s="63"/>
+      <c r="F247" s="63"/>
+      <c r="G247" s="64"/>
+      <c r="H247" s="65"/>
+      <c r="I247" s="65"/>
+      <c r="J247" s="65"/>
+      <c r="K247" s="66"/>
+    </row>
+    <row r="248" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A248" s="67"/>
+      <c r="B248" s="61"/>
+      <c r="C248" s="62"/>
+      <c r="D248" s="63"/>
+      <c r="E248" s="63"/>
+      <c r="F248" s="63"/>
+      <c r="G248" s="64"/>
+      <c r="H248" s="65"/>
+      <c r="I248" s="65"/>
+      <c r="J248" s="65"/>
+      <c r="K248" s="66"/>
+    </row>
+    <row r="249" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A249" s="67"/>
+      <c r="B249" s="61"/>
+      <c r="C249" s="62"/>
+      <c r="D249" s="63"/>
+      <c r="E249" s="63"/>
+      <c r="F249" s="63"/>
+      <c r="G249" s="64"/>
+      <c r="H249" s="65"/>
+      <c r="I249" s="65"/>
+      <c r="J249" s="65"/>
+      <c r="K249" s="66"/>
+    </row>
+    <row r="250" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A250" s="67"/>
+      <c r="B250" s="61"/>
+      <c r="C250" s="62"/>
+      <c r="D250" s="63"/>
+      <c r="E250" s="63"/>
+      <c r="F250" s="63"/>
+      <c r="G250" s="64"/>
+      <c r="H250" s="65"/>
+      <c r="I250" s="65"/>
+      <c r="J250" s="65"/>
+      <c r="K250" s="66"/>
+    </row>
+    <row r="251" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A251" s="67"/>
+      <c r="B251" s="61"/>
+      <c r="C251" s="62"/>
+      <c r="D251" s="63"/>
+      <c r="E251" s="63"/>
+      <c r="F251" s="63"/>
+      <c r="G251" s="64"/>
+      <c r="H251" s="65"/>
+      <c r="I251" s="65"/>
+      <c r="J251" s="65"/>
+      <c r="K251" s="66"/>
+    </row>
+    <row r="252" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A252" s="67"/>
+      <c r="B252" s="61"/>
+      <c r="C252" s="62"/>
+      <c r="D252" s="63"/>
+      <c r="E252" s="63"/>
+      <c r="F252" s="63"/>
+      <c r="G252" s="64"/>
+      <c r="H252" s="65"/>
+      <c r="I252" s="65"/>
+      <c r="J252" s="65"/>
+      <c r="K252" s="66"/>
+    </row>
+    <row r="253" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A253" s="67"/>
+      <c r="B253" s="61"/>
+      <c r="C253" s="62"/>
+      <c r="D253" s="63"/>
+      <c r="E253" s="63"/>
+      <c r="F253" s="63"/>
+      <c r="G253" s="64"/>
+      <c r="H253" s="65"/>
+      <c r="I253" s="65"/>
+      <c r="J253" s="65"/>
+      <c r="K253" s="66"/>
+    </row>
+    <row r="254" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A254" s="67"/>
+      <c r="B254" s="61"/>
+      <c r="C254" s="62"/>
+      <c r="D254" s="63"/>
+      <c r="E254" s="63"/>
+      <c r="F254" s="63"/>
+      <c r="G254" s="64"/>
+      <c r="H254" s="65"/>
+      <c r="I254" s="65"/>
+      <c r="J254" s="65"/>
+      <c r="K254" s="66"/>
+    </row>
+    <row r="255" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A255" s="67"/>
+      <c r="B255" s="61"/>
+      <c r="C255" s="62"/>
+      <c r="D255" s="63"/>
+      <c r="E255" s="63"/>
+      <c r="F255" s="63"/>
+      <c r="G255" s="64"/>
+      <c r="H255" s="65"/>
+      <c r="I255" s="65"/>
+      <c r="J255" s="65"/>
+      <c r="K255" s="66"/>
+    </row>
+    <row r="256" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A256" s="67"/>
+      <c r="B256" s="61"/>
+      <c r="C256" s="62"/>
+      <c r="D256" s="63"/>
+      <c r="E256" s="63"/>
+      <c r="F256" s="63"/>
+      <c r="G256" s="64"/>
+      <c r="H256" s="65"/>
+      <c r="I256" s="65"/>
+      <c r="J256" s="65"/>
+      <c r="K256" s="66"/>
+    </row>
+    <row r="257" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A257" s="67"/>
+      <c r="B257" s="61"/>
+      <c r="C257" s="62"/>
+      <c r="D257" s="63"/>
+      <c r="E257" s="63"/>
+      <c r="F257" s="63"/>
+      <c r="G257" s="64"/>
+      <c r="H257" s="65"/>
+      <c r="I257" s="65"/>
+      <c r="J257" s="65"/>
+      <c r="K257" s="66"/>
+    </row>
+    <row r="258" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A258" s="67"/>
+      <c r="B258" s="61"/>
+      <c r="C258" s="62"/>
+      <c r="D258" s="63"/>
+      <c r="E258" s="63"/>
+      <c r="F258" s="63"/>
+      <c r="G258" s="64"/>
+      <c r="H258" s="65"/>
+      <c r="I258" s="65"/>
+      <c r="J258" s="65"/>
+      <c r="K258" s="66"/>
+    </row>
+    <row r="259" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A259" s="67"/>
+      <c r="B259" s="61"/>
+      <c r="C259" s="62"/>
+      <c r="D259" s="63"/>
+      <c r="E259" s="63"/>
+      <c r="F259" s="63"/>
+      <c r="G259" s="64"/>
+      <c r="H259" s="65"/>
+      <c r="I259" s="65"/>
+      <c r="J259" s="65"/>
+      <c r="K259" s="66"/>
+    </row>
+    <row r="260" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A260" s="67"/>
+      <c r="B260" s="61"/>
+      <c r="C260" s="62"/>
+      <c r="D260" s="63"/>
+      <c r="E260" s="63"/>
+      <c r="F260" s="63"/>
+      <c r="G260" s="64"/>
+      <c r="H260" s="65"/>
+      <c r="I260" s="65"/>
+      <c r="J260" s="65"/>
+      <c r="K260" s="66"/>
+    </row>
+    <row r="261" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A261" s="67"/>
+      <c r="B261" s="61"/>
+      <c r="C261" s="62"/>
+      <c r="D261" s="63"/>
+      <c r="E261" s="63"/>
+      <c r="F261" s="63"/>
+      <c r="G261" s="64"/>
+      <c r="H261" s="65"/>
+      <c r="I261" s="65"/>
+      <c r="J261" s="65"/>
+      <c r="K261" s="66"/>
+    </row>
+    <row r="262" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A262" s="67"/>
+      <c r="B262" s="61"/>
+      <c r="C262" s="62"/>
+      <c r="D262" s="63"/>
+      <c r="E262" s="63"/>
+      <c r="F262" s="63"/>
+      <c r="G262" s="64"/>
+      <c r="H262" s="65"/>
+      <c r="I262" s="65"/>
+      <c r="J262" s="65"/>
+      <c r="K262" s="66"/>
+    </row>
+    <row r="263" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A263" s="67"/>
+      <c r="B263" s="61"/>
+      <c r="C263" s="62"/>
+      <c r="D263" s="63"/>
+      <c r="E263" s="63"/>
+      <c r="F263" s="63"/>
+      <c r="G263" s="64"/>
+      <c r="H263" s="65"/>
+      <c r="I263" s="65"/>
+      <c r="J263" s="65"/>
+      <c r="K263" s="66"/>
+    </row>
+    <row r="264" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A264" s="67"/>
+      <c r="B264" s="61"/>
+      <c r="C264" s="62"/>
+      <c r="D264" s="63"/>
+      <c r="E264" s="63"/>
+      <c r="F264" s="63"/>
+      <c r="G264" s="64"/>
+      <c r="H264" s="65"/>
+      <c r="I264" s="65"/>
+      <c r="J264" s="65"/>
+      <c r="K264" s="66"/>
+    </row>
+    <row r="265" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A265" s="67"/>
+      <c r="B265" s="61"/>
+      <c r="C265" s="62"/>
+      <c r="D265" s="63"/>
+      <c r="E265" s="63"/>
+      <c r="F265" s="63"/>
+      <c r="G265" s="64"/>
+      <c r="H265" s="65"/>
+      <c r="I265" s="65"/>
+      <c r="J265" s="65"/>
+      <c r="K265" s="66"/>
+    </row>
+    <row r="266" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A266" s="67"/>
+      <c r="B266" s="61"/>
+      <c r="C266" s="62"/>
+      <c r="D266" s="63"/>
+      <c r="E266" s="63"/>
+      <c r="F266" s="63"/>
+      <c r="G266" s="64"/>
+      <c r="H266" s="65"/>
+      <c r="I266" s="65"/>
+      <c r="J266" s="65"/>
+      <c r="K266" s="66"/>
+    </row>
+    <row r="267" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A267" s="67"/>
+      <c r="B267" s="61"/>
+      <c r="C267" s="62"/>
+      <c r="D267" s="63"/>
+      <c r="E267" s="63"/>
+      <c r="F267" s="63"/>
+      <c r="G267" s="64"/>
+      <c r="H267" s="65"/>
+      <c r="I267" s="65"/>
+      <c r="J267" s="65"/>
+      <c r="K267" s="66"/>
+    </row>
+    <row r="268" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A268" s="67"/>
+      <c r="B268" s="61"/>
+      <c r="C268" s="62"/>
+      <c r="D268" s="63"/>
+      <c r="E268" s="63"/>
+      <c r="F268" s="63"/>
+      <c r="G268" s="64"/>
+      <c r="H268" s="65"/>
+      <c r="I268" s="65"/>
+      <c r="J268" s="65"/>
+      <c r="K268" s="66"/>
+    </row>
+    <row r="269" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A269" s="67"/>
+      <c r="B269" s="61"/>
+      <c r="C269" s="62"/>
+      <c r="D269" s="63"/>
+      <c r="E269" s="63"/>
+      <c r="F269" s="63"/>
+      <c r="G269" s="64"/>
+      <c r="H269" s="65"/>
+      <c r="I269" s="65"/>
+      <c r="J269" s="65"/>
+      <c r="K269" s="66"/>
+    </row>
+    <row r="270" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A270" s="67"/>
+      <c r="B270" s="61"/>
+      <c r="C270" s="62"/>
+      <c r="D270" s="63"/>
+      <c r="E270" s="63"/>
+      <c r="F270" s="63"/>
+      <c r="G270" s="64"/>
+      <c r="H270" s="65"/>
+      <c r="I270" s="65"/>
+      <c r="J270" s="65"/>
+      <c r="K270" s="66"/>
+    </row>
+    <row r="271" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A271" s="67"/>
+      <c r="B271" s="61"/>
+      <c r="C271" s="62"/>
+      <c r="D271" s="63"/>
+      <c r="E271" s="63"/>
+      <c r="F271" s="63"/>
+      <c r="G271" s="64"/>
+      <c r="H271" s="65"/>
+      <c r="I271" s="65"/>
+      <c r="J271" s="65"/>
+      <c r="K271" s="66"/>
+    </row>
+    <row r="272" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A272" s="67"/>
+      <c r="B272" s="61"/>
+      <c r="C272" s="62"/>
+      <c r="D272" s="63"/>
+      <c r="E272" s="63"/>
+      <c r="F272" s="63"/>
+      <c r="G272" s="64"/>
+      <c r="H272" s="65"/>
+      <c r="I272" s="65"/>
+      <c r="J272" s="65"/>
+      <c r="K272" s="66"/>
+    </row>
+    <row r="273" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A273" s="67"/>
+      <c r="B273" s="61"/>
+      <c r="C273" s="62"/>
+      <c r="D273" s="63"/>
+      <c r="E273" s="63"/>
+      <c r="F273" s="63"/>
+      <c r="G273" s="64"/>
+      <c r="H273" s="65"/>
+      <c r="I273" s="65"/>
+      <c r="J273" s="65"/>
+      <c r="K273" s="66"/>
+    </row>
+    <row r="274" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A274" s="67"/>
+      <c r="B274" s="61"/>
+      <c r="C274" s="62"/>
+      <c r="D274" s="63"/>
+      <c r="E274" s="63"/>
+      <c r="F274" s="63"/>
+      <c r="G274" s="64"/>
+      <c r="H274" s="65"/>
+      <c r="I274" s="65"/>
+      <c r="J274" s="65"/>
+      <c r="K274" s="66"/>
+    </row>
+    <row r="275" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A275" s="67"/>
+      <c r="B275" s="61"/>
+      <c r="C275" s="62"/>
+      <c r="D275" s="63"/>
+      <c r="E275" s="63"/>
+      <c r="F275" s="63"/>
+      <c r="G275" s="64"/>
+      <c r="H275" s="65"/>
+      <c r="I275" s="65"/>
+      <c r="J275" s="65"/>
+      <c r="K275" s="66"/>
+    </row>
+    <row r="276" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A276" s="67"/>
+      <c r="B276" s="61"/>
+      <c r="C276" s="62"/>
+      <c r="D276" s="63"/>
+      <c r="E276" s="63"/>
+      <c r="F276" s="63"/>
+      <c r="G276" s="64"/>
+      <c r="H276" s="65"/>
+      <c r="I276" s="65"/>
+      <c r="J276" s="65"/>
+      <c r="K276" s="66"/>
+    </row>
+    <row r="277" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A277" s="67"/>
+      <c r="B277" s="61"/>
+      <c r="C277" s="62"/>
+      <c r="D277" s="63"/>
+      <c r="E277" s="63"/>
+      <c r="F277" s="63"/>
+      <c r="G277" s="64"/>
+      <c r="H277" s="65"/>
+      <c r="I277" s="65"/>
+      <c r="J277" s="65"/>
+      <c r="K277" s="66"/>
+    </row>
+    <row r="278" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A278" s="67"/>
+      <c r="B278" s="61"/>
+      <c r="C278" s="62"/>
+      <c r="D278" s="63"/>
+      <c r="E278" s="63"/>
+      <c r="F278" s="63"/>
+      <c r="G278" s="64"/>
+      <c r="H278" s="65"/>
+      <c r="I278" s="65"/>
+      <c r="J278" s="65"/>
+      <c r="K278" s="66"/>
+    </row>
+    <row r="279" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A279" s="67"/>
+      <c r="B279" s="61"/>
+      <c r="C279" s="62"/>
+      <c r="D279" s="63"/>
+      <c r="E279" s="63"/>
+      <c r="F279" s="63"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="65"/>
+      <c r="I279" s="65"/>
+      <c r="J279" s="65"/>
+      <c r="K279" s="66"/>
+    </row>
+    <row r="280" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A280" s="67"/>
+      <c r="B280" s="61"/>
+      <c r="C280" s="62"/>
+      <c r="D280" s="63"/>
+      <c r="E280" s="63"/>
+      <c r="F280" s="63"/>
+      <c r="G280" s="64"/>
+      <c r="H280" s="65"/>
+      <c r="I280" s="65"/>
+      <c r="J280" s="65"/>
+      <c r="K280" s="66"/>
+    </row>
+    <row r="281" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A281" s="67"/>
+      <c r="B281" s="61"/>
+      <c r="C281" s="62"/>
+      <c r="D281" s="63"/>
+      <c r="E281" s="63"/>
+      <c r="F281" s="63"/>
+      <c r="G281" s="64"/>
+      <c r="H281" s="65"/>
+      <c r="I281" s="65"/>
+      <c r="J281" s="65"/>
+      <c r="K281" s="66"/>
+    </row>
+    <row r="282" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A282" s="67"/>
+      <c r="B282" s="61"/>
+      <c r="C282" s="62"/>
+      <c r="D282" s="63"/>
+      <c r="E282" s="63"/>
+      <c r="F282" s="63"/>
+      <c r="G282" s="64"/>
+      <c r="H282" s="65"/>
+      <c r="I282" s="65"/>
+      <c r="J282" s="65"/>
+      <c r="K282" s="66"/>
+    </row>
+    <row r="283" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A283" s="67"/>
+      <c r="B283" s="61"/>
+      <c r="C283" s="62"/>
+      <c r="D283" s="63"/>
+      <c r="E283" s="63"/>
+      <c r="F283" s="63"/>
+      <c r="G283" s="64"/>
+      <c r="H283" s="65"/>
+      <c r="I283" s="65"/>
+      <c r="J283" s="65"/>
+      <c r="K283" s="66"/>
+    </row>
+    <row r="284" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A284" s="67"/>
+      <c r="B284" s="61"/>
+      <c r="C284" s="62"/>
+      <c r="D284" s="63"/>
+      <c r="E284" s="63"/>
+      <c r="F284" s="63"/>
+      <c r="G284" s="64"/>
+      <c r="H284" s="65"/>
+      <c r="I284" s="65"/>
+      <c r="J284" s="65"/>
+      <c r="K284" s="66"/>
+    </row>
+    <row r="285" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A285" s="67"/>
+      <c r="B285" s="61"/>
+      <c r="C285" s="62"/>
+      <c r="D285" s="63"/>
+      <c r="E285" s="63"/>
+      <c r="F285" s="63"/>
+      <c r="G285" s="64"/>
+      <c r="H285" s="65"/>
+      <c r="I285" s="65"/>
+      <c r="J285" s="65"/>
+      <c r="K285" s="66"/>
+    </row>
+    <row r="286" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A286" s="67"/>
+      <c r="B286" s="61"/>
+      <c r="C286" s="62"/>
+      <c r="D286" s="63"/>
+      <c r="E286" s="63"/>
+      <c r="F286" s="63"/>
+      <c r="G286" s="64"/>
+      <c r="H286" s="65"/>
+      <c r="I286" s="65"/>
+      <c r="J286" s="65"/>
+      <c r="K286" s="66"/>
+    </row>
+    <row r="287" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A287" s="67"/>
+      <c r="B287" s="61"/>
+      <c r="C287" s="62"/>
+      <c r="D287" s="63"/>
+      <c r="E287" s="63"/>
+      <c r="F287" s="63"/>
+      <c r="G287" s="64"/>
+      <c r="H287" s="65"/>
+      <c r="I287" s="65"/>
+      <c r="J287" s="65"/>
+      <c r="K287" s="66"/>
+    </row>
+    <row r="288" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A288" s="67"/>
+      <c r="B288" s="61"/>
+      <c r="C288" s="62"/>
+      <c r="D288" s="63"/>
+      <c r="E288" s="63"/>
+      <c r="F288" s="63"/>
+      <c r="G288" s="64"/>
+      <c r="H288" s="65"/>
+      <c r="I288" s="65"/>
+      <c r="J288" s="65"/>
+      <c r="K288" s="66"/>
+    </row>
+    <row r="289" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A289" s="67"/>
+      <c r="B289" s="61"/>
+      <c r="C289" s="62"/>
+      <c r="D289" s="63"/>
+      <c r="E289" s="63"/>
+      <c r="F289" s="63"/>
+      <c r="G289" s="64"/>
+      <c r="H289" s="65"/>
+      <c r="I289" s="65"/>
+      <c r="J289" s="65"/>
+      <c r="K289" s="66"/>
+    </row>
+    <row r="290" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A290" s="67"/>
+      <c r="B290" s="61"/>
+      <c r="C290" s="62"/>
+      <c r="D290" s="63"/>
+      <c r="E290" s="63"/>
+      <c r="F290" s="63"/>
+      <c r="G290" s="64"/>
+      <c r="H290" s="65"/>
+      <c r="I290" s="65"/>
+      <c r="J290" s="65"/>
+      <c r="K290" s="66"/>
+    </row>
+    <row r="291" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A291" s="67"/>
+      <c r="B291" s="61"/>
+      <c r="C291" s="62"/>
+      <c r="D291" s="63"/>
+      <c r="E291" s="63"/>
+      <c r="F291" s="63"/>
+      <c r="G291" s="64"/>
+      <c r="H291" s="65"/>
+      <c r="I291" s="65"/>
+      <c r="J291" s="65"/>
+      <c r="K291" s="66"/>
+    </row>
+    <row r="292" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A292" s="67"/>
+      <c r="B292" s="61"/>
+      <c r="C292" s="62"/>
+      <c r="D292" s="63"/>
+      <c r="E292" s="63"/>
+      <c r="F292" s="63"/>
+      <c r="G292" s="64"/>
+      <c r="H292" s="65"/>
+      <c r="I292" s="65"/>
+      <c r="J292" s="65"/>
+      <c r="K292" s="66"/>
+    </row>
+    <row r="293" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A293" s="67"/>
+      <c r="B293" s="61"/>
+      <c r="C293" s="62"/>
+      <c r="D293" s="63"/>
+      <c r="E293" s="63"/>
+      <c r="F293" s="63"/>
+      <c r="G293" s="64"/>
+      <c r="H293" s="65"/>
+      <c r="I293" s="65"/>
+      <c r="J293" s="65"/>
+      <c r="K293" s="66"/>
+    </row>
+    <row r="294" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A294" s="67"/>
+      <c r="B294" s="61"/>
+      <c r="C294" s="62"/>
+      <c r="D294" s="63"/>
+      <c r="E294" s="63"/>
+      <c r="F294" s="63"/>
+      <c r="G294" s="64"/>
+      <c r="H294" s="65"/>
+      <c r="I294" s="65"/>
+      <c r="J294" s="65"/>
+      <c r="K294" s="66"/>
+    </row>
+    <row r="295" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A295" s="67"/>
+      <c r="B295" s="61"/>
+      <c r="C295" s="62"/>
+      <c r="D295" s="63"/>
+      <c r="E295" s="63"/>
+      <c r="F295" s="63"/>
+      <c r="G295" s="64"/>
+      <c r="H295" s="65"/>
+      <c r="I295" s="65"/>
+      <c r="J295" s="65"/>
+      <c r="K295" s="66"/>
+    </row>
+    <row r="296" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A296" s="67"/>
+      <c r="B296" s="61"/>
+      <c r="C296" s="62"/>
+      <c r="D296" s="63"/>
+      <c r="E296" s="63"/>
+      <c r="F296" s="63"/>
+      <c r="G296" s="64"/>
+      <c r="H296" s="65"/>
+      <c r="I296" s="65"/>
+      <c r="J296" s="65"/>
+      <c r="K296" s="66"/>
+    </row>
+    <row r="297" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A297" s="67"/>
+      <c r="B297" s="61"/>
+      <c r="C297" s="62"/>
+      <c r="D297" s="63"/>
+      <c r="E297" s="63"/>
+      <c r="F297" s="63"/>
+      <c r="G297" s="64"/>
+      <c r="H297" s="65"/>
+      <c r="I297" s="65"/>
+      <c r="J297" s="65"/>
+      <c r="K297" s="66"/>
+    </row>
+    <row r="298" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A298" s="67"/>
+      <c r="B298" s="61"/>
+      <c r="C298" s="62"/>
+      <c r="D298" s="63"/>
+      <c r="E298" s="63"/>
+      <c r="F298" s="63"/>
+      <c r="G298" s="64"/>
+      <c r="H298" s="65"/>
+      <c r="I298" s="65"/>
+      <c r="J298" s="65"/>
+      <c r="K298" s="66"/>
+    </row>
+    <row r="299" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A299" s="67"/>
+      <c r="B299" s="61"/>
+      <c r="C299" s="62"/>
+      <c r="D299" s="63"/>
+      <c r="E299" s="63"/>
+      <c r="F299" s="63"/>
+      <c r="G299" s="64"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="66"/>
+    </row>
+    <row r="300" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A300" s="67"/>
+      <c r="B300" s="61"/>
+      <c r="C300" s="62"/>
+      <c r="D300" s="63"/>
+      <c r="E300" s="63"/>
+      <c r="F300" s="63"/>
+      <c r="G300" s="64"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="66"/>
+    </row>
+    <row r="301" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A301" s="67"/>
+      <c r="B301" s="61"/>
+      <c r="C301" s="62"/>
+      <c r="D301" s="63"/>
+      <c r="E301" s="63"/>
+      <c r="F301" s="63"/>
+      <c r="G301" s="64"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="66"/>
+    </row>
+    <row r="302" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A302" s="67"/>
+      <c r="B302" s="61"/>
+      <c r="C302" s="62"/>
+      <c r="D302" s="63"/>
+      <c r="E302" s="63"/>
+      <c r="F302" s="63"/>
+      <c r="G302" s="64"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="66"/>
+    </row>
+    <row r="303" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A303" s="67"/>
+      <c r="B303" s="61"/>
+      <c r="C303" s="62"/>
+      <c r="D303" s="63"/>
+      <c r="E303" s="63"/>
+      <c r="F303" s="63"/>
+      <c r="G303" s="64"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="66"/>
+    </row>
+    <row r="304" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A304" s="67"/>
+      <c r="B304" s="61"/>
+      <c r="C304" s="62"/>
+      <c r="D304" s="63"/>
+      <c r="E304" s="63"/>
+      <c r="F304" s="63"/>
+      <c r="G304" s="64"/>
+      <c r="H304" s="65"/>
+      <c r="I304" s="65"/>
+      <c r="J304" s="65"/>
+      <c r="K304" s="66"/>
+    </row>
+    <row r="305" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A305" s="67"/>
+      <c r="B305" s="61"/>
+      <c r="C305" s="62"/>
+      <c r="D305" s="63"/>
+      <c r="E305" s="63"/>
+      <c r="F305" s="63"/>
+      <c r="G305" s="64"/>
+      <c r="H305" s="65"/>
+      <c r="I305" s="65"/>
+      <c r="J305" s="65"/>
+      <c r="K305" s="66"/>
+    </row>
+    <row r="306" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A306" s="67"/>
+      <c r="B306" s="61"/>
+      <c r="C306" s="62"/>
+      <c r="D306" s="63"/>
+      <c r="E306" s="63"/>
+      <c r="F306" s="63"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="65"/>
+      <c r="I306" s="65"/>
+      <c r="J306" s="65"/>
+      <c r="K306" s="66"/>
+    </row>
+    <row r="307" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A307" s="67"/>
+      <c r="B307" s="61"/>
+      <c r="C307" s="62"/>
+      <c r="D307" s="63"/>
+      <c r="E307" s="63"/>
+      <c r="F307" s="63"/>
+      <c r="G307" s="64"/>
+      <c r="H307" s="65"/>
+      <c r="I307" s="65"/>
+      <c r="J307" s="65"/>
+      <c r="K307" s="66"/>
+    </row>
+    <row r="308" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A308" s="67"/>
+      <c r="B308" s="61"/>
+      <c r="C308" s="62"/>
+      <c r="D308" s="63"/>
+      <c r="E308" s="63"/>
+      <c r="F308" s="63"/>
+      <c r="G308" s="64"/>
+      <c r="H308" s="65"/>
+      <c r="I308" s="65"/>
+      <c r="J308" s="65"/>
+      <c r="K308" s="66"/>
+    </row>
+    <row r="309" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A309" s="67"/>
+      <c r="B309" s="61"/>
+      <c r="C309" s="62"/>
+      <c r="D309" s="63"/>
+      <c r="E309" s="63"/>
+      <c r="F309" s="63"/>
+      <c r="G309" s="64"/>
+      <c r="H309" s="65"/>
+      <c r="I309" s="65"/>
+      <c r="J309" s="65"/>
+      <c r="K309" s="66"/>
+    </row>
+    <row r="310" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A310" s="67"/>
+      <c r="B310" s="61"/>
+      <c r="C310" s="62"/>
+      <c r="D310" s="63"/>
+      <c r="E310" s="63"/>
+      <c r="F310" s="63"/>
+      <c r="G310" s="64"/>
+      <c r="H310" s="65"/>
+      <c r="I310" s="65"/>
+      <c r="J310" s="65"/>
+      <c r="K310" s="66"/>
+    </row>
+    <row r="311" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A311" s="67"/>
+      <c r="B311" s="61"/>
+      <c r="C311" s="62"/>
+      <c r="D311" s="63"/>
+      <c r="E311" s="63"/>
+      <c r="F311" s="63"/>
+      <c r="G311" s="64"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="65"/>
+      <c r="J311" s="65"/>
+      <c r="K311" s="66"/>
+    </row>
+    <row r="312" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A312" s="67"/>
+      <c r="B312" s="61"/>
+      <c r="C312" s="62"/>
+      <c r="D312" s="63"/>
+      <c r="E312" s="63"/>
+      <c r="F312" s="63"/>
+      <c r="G312" s="64"/>
+      <c r="H312" s="65"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="65"/>
+      <c r="K312" s="66"/>
+    </row>
+    <row r="313" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A313" s="67"/>
+      <c r="B313" s="61"/>
+      <c r="C313" s="62"/>
+      <c r="D313" s="63"/>
+      <c r="E313" s="63"/>
+      <c r="F313" s="63"/>
+      <c r="G313" s="64"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="65"/>
+      <c r="K313" s="66"/>
+    </row>
+    <row r="314" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A314" s="67"/>
+      <c r="B314" s="61"/>
+      <c r="C314" s="62"/>
+      <c r="D314" s="63"/>
+      <c r="E314" s="63"/>
+      <c r="F314" s="63"/>
+      <c r="G314" s="64"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="66"/>
+    </row>
+    <row r="315" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A315" s="67"/>
+      <c r="B315" s="61"/>
+      <c r="C315" s="62"/>
+      <c r="D315" s="63"/>
+      <c r="E315" s="63"/>
+      <c r="F315" s="63"/>
+      <c r="G315" s="64"/>
+      <c r="H315" s="65"/>
+      <c r="I315" s="65"/>
+      <c r="J315" s="65"/>
+      <c r="K315" s="66"/>
+    </row>
+    <row r="316" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A316" s="67"/>
+      <c r="B316" s="61"/>
+      <c r="C316" s="62"/>
+      <c r="D316" s="63"/>
+      <c r="E316" s="63"/>
+      <c r="F316" s="63"/>
+      <c r="G316" s="64"/>
+      <c r="H316" s="65"/>
+      <c r="I316" s="65"/>
+      <c r="J316" s="65"/>
+      <c r="K316" s="66"/>
+    </row>
+    <row r="317" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A317" s="67"/>
+      <c r="B317" s="61"/>
+      <c r="C317" s="62"/>
+      <c r="D317" s="63"/>
+      <c r="E317" s="63"/>
+      <c r="F317" s="63"/>
+      <c r="G317" s="64"/>
+      <c r="H317" s="65"/>
+      <c r="I317" s="65"/>
+      <c r="J317" s="65"/>
+      <c r="K317" s="66"/>
+    </row>
+    <row r="318" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A318" s="67"/>
+      <c r="B318" s="61"/>
+      <c r="C318" s="62"/>
+      <c r="D318" s="63"/>
+      <c r="E318" s="63"/>
+      <c r="F318" s="63"/>
+      <c r="G318" s="64"/>
+      <c r="H318" s="65"/>
+      <c r="I318" s="65"/>
+      <c r="J318" s="65"/>
+      <c r="K318" s="66"/>
+    </row>
+    <row r="319" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A319" s="67"/>
+      <c r="B319" s="61"/>
+      <c r="C319" s="62"/>
+      <c r="D319" s="63"/>
+      <c r="E319" s="63"/>
+      <c r="F319" s="63"/>
+      <c r="G319" s="64"/>
+      <c r="H319" s="65"/>
+      <c r="I319" s="65"/>
+      <c r="J319" s="65"/>
+      <c r="K319" s="66"/>
+    </row>
+    <row r="320" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A320" s="67"/>
+      <c r="B320" s="61"/>
+      <c r="C320" s="62"/>
+      <c r="D320" s="63"/>
+      <c r="E320" s="63"/>
+      <c r="F320" s="63"/>
+      <c r="G320" s="64"/>
+      <c r="H320" s="65"/>
+      <c r="I320" s="65"/>
+      <c r="J320" s="65"/>
+      <c r="K320" s="66"/>
+    </row>
+    <row r="321" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A321" s="67"/>
+      <c r="B321" s="61"/>
+      <c r="C321" s="62"/>
+      <c r="D321" s="63"/>
+      <c r="E321" s="63"/>
+      <c r="F321" s="63"/>
+      <c r="G321" s="64"/>
+      <c r="H321" s="65"/>
+      <c r="I321" s="65"/>
+      <c r="J321" s="65"/>
+      <c r="K321" s="66"/>
+    </row>
+    <row r="322" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A322" s="67"/>
+      <c r="B322" s="61"/>
+      <c r="C322" s="62"/>
+      <c r="D322" s="63"/>
+      <c r="E322" s="63"/>
+      <c r="F322" s="63"/>
+      <c r="G322" s="64"/>
+      <c r="H322" s="65"/>
+      <c r="I322" s="65"/>
+      <c r="J322" s="65"/>
+      <c r="K322" s="66"/>
+    </row>
+    <row r="323" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A323" s="67"/>
+      <c r="B323" s="61"/>
+      <c r="C323" s="62"/>
+      <c r="D323" s="63"/>
+      <c r="E323" s="63"/>
+      <c r="F323" s="63"/>
+      <c r="G323" s="64"/>
+      <c r="H323" s="65"/>
+      <c r="I323" s="65"/>
+      <c r="J323" s="65"/>
+      <c r="K323" s="66"/>
+    </row>
+    <row r="324" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A324" s="67"/>
+      <c r="B324" s="61"/>
+      <c r="C324" s="62"/>
+      <c r="D324" s="63"/>
+      <c r="E324" s="63"/>
+      <c r="F324" s="63"/>
+      <c r="G324" s="64"/>
+      <c r="H324" s="65"/>
+      <c r="I324" s="65"/>
+      <c r="J324" s="65"/>
+      <c r="K324" s="66"/>
+    </row>
+    <row r="325" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A325" s="67"/>
+      <c r="B325" s="61"/>
+      <c r="C325" s="62"/>
+      <c r="D325" s="63"/>
+      <c r="E325" s="63"/>
+      <c r="F325" s="63"/>
+      <c r="G325" s="64"/>
+      <c r="H325" s="65"/>
+      <c r="I325" s="65"/>
+      <c r="J325" s="65"/>
+      <c r="K325" s="66"/>
+    </row>
+    <row r="326" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A326" s="67"/>
+      <c r="B326" s="61"/>
+      <c r="C326" s="62"/>
+      <c r="D326" s="63"/>
+      <c r="E326" s="63"/>
+      <c r="F326" s="63"/>
+      <c r="G326" s="64"/>
+      <c r="H326" s="65"/>
+      <c r="I326" s="65"/>
+      <c r="J326" s="65"/>
+      <c r="K326" s="66"/>
+    </row>
+    <row r="327" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A327" s="67"/>
+      <c r="B327" s="61"/>
+      <c r="C327" s="62"/>
+      <c r="D327" s="63"/>
+      <c r="E327" s="63"/>
+      <c r="F327" s="63"/>
+      <c r="G327" s="64"/>
+      <c r="H327" s="65"/>
+      <c r="I327" s="65"/>
+      <c r="J327" s="65"/>
+      <c r="K327" s="66"/>
+    </row>
+    <row r="328" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A328" s="67"/>
+      <c r="B328" s="61"/>
+      <c r="C328" s="62"/>
+      <c r="D328" s="63"/>
+      <c r="E328" s="63"/>
+      <c r="F328" s="63"/>
+      <c r="G328" s="64"/>
+      <c r="H328" s="65"/>
+      <c r="I328" s="65"/>
+      <c r="J328" s="65"/>
+      <c r="K328" s="66"/>
+    </row>
+    <row r="329" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A329" s="67"/>
+      <c r="B329" s="61"/>
+      <c r="C329" s="62"/>
+      <c r="D329" s="63"/>
+      <c r="E329" s="63"/>
+      <c r="F329" s="63"/>
+      <c r="G329" s="64"/>
+      <c r="H329" s="65"/>
+      <c r="I329" s="65"/>
+      <c r="J329" s="65"/>
+      <c r="K329" s="66"/>
+    </row>
+    <row r="330" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A330" s="67"/>
+      <c r="B330" s="61"/>
+      <c r="C330" s="62"/>
+      <c r="D330" s="63"/>
+      <c r="E330" s="63"/>
+      <c r="F330" s="63"/>
+      <c r="G330" s="64"/>
+      <c r="H330" s="65"/>
+      <c r="I330" s="65"/>
+      <c r="J330" s="65"/>
+      <c r="K330" s="66"/>
+    </row>
+    <row r="331" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A331" s="67"/>
+      <c r="B331" s="61"/>
+      <c r="C331" s="62"/>
+      <c r="D331" s="63"/>
+      <c r="E331" s="63"/>
+      <c r="F331" s="63"/>
+      <c r="G331" s="64"/>
+      <c r="H331" s="65"/>
+      <c r="I331" s="65"/>
+      <c r="J331" s="65"/>
+      <c r="K331" s="66"/>
+    </row>
+    <row r="332" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A332" s="67"/>
+      <c r="B332" s="61"/>
+      <c r="C332" s="62"/>
+      <c r="D332" s="63"/>
+      <c r="E332" s="63"/>
+      <c r="F332" s="63"/>
+      <c r="G332" s="64"/>
+      <c r="H332" s="65"/>
+      <c r="I332" s="65"/>
+      <c r="J332" s="65"/>
+      <c r="K332" s="66"/>
+    </row>
+    <row r="333" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A333" s="67"/>
+      <c r="B333" s="61"/>
+      <c r="C333" s="62"/>
+      <c r="D333" s="63"/>
+      <c r="E333" s="63"/>
+      <c r="F333" s="63"/>
+      <c r="G333" s="64"/>
+      <c r="H333" s="65"/>
+      <c r="I333" s="65"/>
+      <c r="J333" s="65"/>
+      <c r="K333" s="66"/>
+    </row>
+    <row r="334" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A334" s="67"/>
+      <c r="B334" s="61"/>
+      <c r="C334" s="62"/>
+      <c r="D334" s="63"/>
+      <c r="E334" s="63"/>
+      <c r="F334" s="63"/>
+      <c r="G334" s="64"/>
+      <c r="H334" s="65"/>
+      <c r="I334" s="65"/>
+      <c r="J334" s="65"/>
+      <c r="K334" s="66"/>
+    </row>
+    <row r="335" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A335" s="67"/>
+      <c r="B335" s="61"/>
+      <c r="C335" s="62"/>
+      <c r="D335" s="63"/>
+      <c r="E335" s="63"/>
+      <c r="F335" s="63"/>
+      <c r="G335" s="64"/>
+      <c r="H335" s="65"/>
+      <c r="I335" s="65"/>
+      <c r="J335" s="65"/>
+      <c r="K335" s="66"/>
+    </row>
+    <row r="336" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A336" s="67"/>
+      <c r="B336" s="61"/>
+      <c r="C336" s="62"/>
+      <c r="D336" s="63"/>
+      <c r="E336" s="63"/>
+      <c r="F336" s="63"/>
+      <c r="G336" s="64"/>
+      <c r="H336" s="65"/>
+      <c r="I336" s="65"/>
+      <c r="J336" s="65"/>
+      <c r="K336" s="66"/>
+    </row>
+    <row r="337" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A337" s="67"/>
+      <c r="B337" s="61"/>
+      <c r="C337" s="62"/>
+      <c r="D337" s="63"/>
+      <c r="E337" s="63"/>
+      <c r="F337" s="63"/>
+      <c r="G337" s="64"/>
+      <c r="H337" s="65"/>
+      <c r="I337" s="65"/>
+      <c r="J337" s="65"/>
+      <c r="K337" s="66"/>
+    </row>
+    <row r="338" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A338" s="67"/>
+      <c r="B338" s="61"/>
+      <c r="C338" s="62"/>
+      <c r="D338" s="63"/>
+      <c r="E338" s="63"/>
+      <c r="F338" s="63"/>
+      <c r="G338" s="64"/>
+      <c r="H338" s="65"/>
+      <c r="I338" s="65"/>
+      <c r="J338" s="65"/>
+      <c r="K338" s="66"/>
+    </row>
+    <row r="339" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A339" s="67"/>
+      <c r="B339" s="61"/>
+      <c r="C339" s="62"/>
+      <c r="D339" s="63"/>
+      <c r="E339" s="63"/>
+      <c r="F339" s="63"/>
+      <c r="G339" s="64"/>
+      <c r="H339" s="65"/>
+      <c r="I339" s="65"/>
+      <c r="J339" s="65"/>
+      <c r="K339" s="66"/>
+    </row>
+    <row r="340" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A340" s="67"/>
+      <c r="B340" s="61"/>
+      <c r="C340" s="62"/>
+      <c r="D340" s="63"/>
+      <c r="E340" s="63"/>
+      <c r="F340" s="63"/>
+      <c r="G340" s="64"/>
+      <c r="H340" s="65"/>
+      <c r="I340" s="65"/>
+      <c r="J340" s="65"/>
+      <c r="K340" s="66"/>
+    </row>
+    <row r="341" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A341" s="67"/>
+      <c r="B341" s="61"/>
+      <c r="C341" s="62"/>
+      <c r="D341" s="63"/>
+      <c r="E341" s="63"/>
+      <c r="F341" s="63"/>
+      <c r="G341" s="64"/>
+      <c r="H341" s="65"/>
+      <c r="I341" s="65"/>
+      <c r="J341" s="65"/>
+      <c r="K341" s="66"/>
+    </row>
+    <row r="342" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A342" s="67"/>
+      <c r="B342" s="61"/>
+      <c r="C342" s="62"/>
+      <c r="D342" s="63"/>
+      <c r="E342" s="63"/>
+      <c r="F342" s="63"/>
+      <c r="G342" s="64"/>
+      <c r="H342" s="65"/>
+      <c r="I342" s="65"/>
+      <c r="J342" s="65"/>
+      <c r="K342" s="66"/>
+    </row>
+    <row r="343" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A343" s="67"/>
+      <c r="B343" s="61"/>
+      <c r="C343" s="62"/>
+      <c r="D343" s="63"/>
+      <c r="E343" s="63"/>
+      <c r="F343" s="63"/>
+      <c r="G343" s="64"/>
+      <c r="H343" s="65"/>
+      <c r="I343" s="65"/>
+      <c r="J343" s="65"/>
+      <c r="K343" s="66"/>
+    </row>
+    <row r="344" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A344" s="67"/>
+      <c r="B344" s="61"/>
+      <c r="C344" s="62"/>
+      <c r="D344" s="63"/>
+      <c r="E344" s="63"/>
+      <c r="F344" s="63"/>
+      <c r="G344" s="64"/>
+      <c r="H344" s="65"/>
+      <c r="I344" s="65"/>
+      <c r="J344" s="65"/>
+      <c r="K344" s="66"/>
+    </row>
+    <row r="345" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A345" s="67"/>
+      <c r="B345" s="61"/>
+      <c r="C345" s="62"/>
+      <c r="D345" s="63"/>
+      <c r="E345" s="63"/>
+      <c r="F345" s="63"/>
+      <c r="G345" s="64"/>
+      <c r="H345" s="65"/>
+      <c r="I345" s="65"/>
+      <c r="J345" s="65"/>
+      <c r="K345" s="66"/>
+    </row>
+    <row r="346" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A346" s="67"/>
+      <c r="B346" s="61"/>
+      <c r="C346" s="62"/>
+      <c r="D346" s="63"/>
+      <c r="E346" s="63"/>
+      <c r="F346" s="63"/>
+      <c r="G346" s="64"/>
+      <c r="H346" s="65"/>
+      <c r="I346" s="65"/>
+      <c r="J346" s="65"/>
+      <c r="K346" s="66"/>
+    </row>
+    <row r="347" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A347" s="67"/>
+      <c r="B347" s="61"/>
+      <c r="C347" s="62"/>
+      <c r="D347" s="63"/>
+      <c r="E347" s="63"/>
+      <c r="F347" s="63"/>
+      <c r="G347" s="64"/>
+      <c r="H347" s="65"/>
+      <c r="I347" s="65"/>
+      <c r="J347" s="65"/>
+      <c r="K347" s="66"/>
+    </row>
+    <row r="348" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A348" s="67"/>
+      <c r="B348" s="61"/>
+      <c r="C348" s="62"/>
+      <c r="D348" s="63"/>
+      <c r="E348" s="63"/>
+      <c r="F348" s="63"/>
+      <c r="G348" s="64"/>
+      <c r="H348" s="65"/>
+      <c r="I348" s="65"/>
+      <c r="J348" s="65"/>
+      <c r="K348" s="66"/>
+    </row>
+    <row r="349" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A349" s="67"/>
+      <c r="B349" s="61"/>
+      <c r="C349" s="62"/>
+      <c r="D349" s="63"/>
+      <c r="E349" s="63"/>
+      <c r="F349" s="63"/>
+      <c r="G349" s="64"/>
+      <c r="H349" s="65"/>
+      <c r="I349" s="65"/>
+      <c r="J349" s="65"/>
+      <c r="K349" s="66"/>
+    </row>
+    <row r="350" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A350" s="67"/>
+      <c r="B350" s="61"/>
+      <c r="C350" s="62"/>
+      <c r="D350" s="63"/>
+      <c r="E350" s="63"/>
+      <c r="F350" s="63"/>
+      <c r="G350" s="64"/>
+      <c r="H350" s="65"/>
+      <c r="I350" s="65"/>
+      <c r="J350" s="65"/>
+      <c r="K350" s="66"/>
+    </row>
+    <row r="351" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A351" s="67"/>
+      <c r="B351" s="61"/>
+      <c r="C351" s="62"/>
+      <c r="D351" s="63"/>
+      <c r="E351" s="63"/>
+      <c r="F351" s="63"/>
+      <c r="G351" s="64"/>
+      <c r="H351" s="65"/>
+      <c r="I351" s="65"/>
+      <c r="J351" s="65"/>
+      <c r="K351" s="66"/>
+    </row>
+    <row r="352" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A352" s="67"/>
+      <c r="B352" s="61"/>
+      <c r="C352" s="62"/>
+      <c r="D352" s="63"/>
+      <c r="E352" s="63"/>
+      <c r="F352" s="63"/>
+      <c r="G352" s="64"/>
+      <c r="H352" s="65"/>
+      <c r="I352" s="65"/>
+      <c r="J352" s="65"/>
+      <c r="K352" s="66"/>
+    </row>
+    <row r="353" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A353" s="67"/>
+      <c r="B353" s="61"/>
+      <c r="C353" s="62"/>
+      <c r="D353" s="63"/>
+      <c r="E353" s="63"/>
+      <c r="F353" s="63"/>
+      <c r="G353" s="64"/>
+      <c r="H353" s="65"/>
+      <c r="I353" s="65"/>
+      <c r="J353" s="65"/>
+      <c r="K353" s="66"/>
+    </row>
+    <row r="354" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A354" s="67"/>
+      <c r="B354" s="61"/>
+      <c r="C354" s="62"/>
+      <c r="D354" s="63"/>
+      <c r="E354" s="63"/>
+      <c r="F354" s="63"/>
+      <c r="G354" s="64"/>
+      <c r="H354" s="65"/>
+      <c r="I354" s="65"/>
+      <c r="J354" s="65"/>
+      <c r="K354" s="66"/>
+    </row>
+    <row r="355" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A355" s="67"/>
+      <c r="B355" s="61"/>
+      <c r="C355" s="62"/>
+      <c r="D355" s="63"/>
+      <c r="E355" s="63"/>
+      <c r="F355" s="63"/>
+      <c r="G355" s="64"/>
+      <c r="H355" s="65"/>
+      <c r="I355" s="65"/>
+      <c r="J355" s="65"/>
+      <c r="K355" s="66"/>
+    </row>
+    <row r="356" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A356" s="67"/>
+      <c r="B356" s="61"/>
+      <c r="C356" s="62"/>
+      <c r="D356" s="63"/>
+      <c r="E356" s="63"/>
+      <c r="F356" s="63"/>
+      <c r="G356" s="64"/>
+      <c r="H356" s="65"/>
+      <c r="I356" s="65"/>
+      <c r="J356" s="65"/>
+      <c r="K356" s="66"/>
+    </row>
+    <row r="357" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A357" s="67"/>
+      <c r="B357" s="61"/>
+      <c r="C357" s="62"/>
+      <c r="D357" s="63"/>
+      <c r="E357" s="63"/>
+      <c r="F357" s="63"/>
+      <c r="G357" s="64"/>
+      <c r="H357" s="65"/>
+      <c r="I357" s="65"/>
+      <c r="J357" s="65"/>
+      <c r="K357" s="66"/>
+    </row>
+    <row r="358" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A358" s="67"/>
+      <c r="B358" s="61"/>
+      <c r="C358" s="62"/>
+      <c r="D358" s="63"/>
+      <c r="E358" s="63"/>
+      <c r="F358" s="63"/>
+      <c r="G358" s="64"/>
+      <c r="H358" s="65"/>
+      <c r="I358" s="65"/>
+      <c r="J358" s="65"/>
+      <c r="K358" s="66"/>
+    </row>
+    <row r="359" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A359" s="67"/>
+      <c r="B359" s="61"/>
+      <c r="C359" s="62"/>
+      <c r="D359" s="63"/>
+      <c r="E359" s="63"/>
+      <c r="F359" s="63"/>
+      <c r="G359" s="64"/>
+      <c r="H359" s="65"/>
+      <c r="I359" s="65"/>
+      <c r="J359" s="65"/>
+      <c r="K359" s="66"/>
+    </row>
+    <row r="360" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A360" s="67"/>
+      <c r="B360" s="61"/>
+      <c r="C360" s="62"/>
+      <c r="D360" s="63"/>
+      <c r="E360" s="63"/>
+      <c r="F360" s="63"/>
+      <c r="G360" s="64"/>
+      <c r="H360" s="65"/>
+      <c r="I360" s="65"/>
+      <c r="J360" s="65"/>
+      <c r="K360" s="66"/>
+    </row>
+    <row r="361" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A361" s="67"/>
+      <c r="B361" s="61"/>
+      <c r="C361" s="62"/>
+      <c r="D361" s="63"/>
+      <c r="E361" s="63"/>
+      <c r="F361" s="63"/>
+      <c r="G361" s="64"/>
+      <c r="H361" s="65"/>
+      <c r="I361" s="65"/>
+      <c r="J361" s="65"/>
+      <c r="K361" s="66"/>
+    </row>
+    <row r="362" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A362" s="67"/>
+      <c r="B362" s="61"/>
+      <c r="C362" s="62"/>
+      <c r="D362" s="63"/>
+      <c r="E362" s="63"/>
+      <c r="F362" s="63"/>
+      <c r="G362" s="64"/>
+      <c r="H362" s="65"/>
+      <c r="I362" s="65"/>
+      <c r="J362" s="65"/>
+      <c r="K362" s="66"/>
+    </row>
+    <row r="363" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A363" s="67"/>
+      <c r="B363" s="61"/>
+      <c r="C363" s="62"/>
+      <c r="D363" s="63"/>
+      <c r="E363" s="63"/>
+      <c r="F363" s="63"/>
+      <c r="G363" s="64"/>
+      <c r="H363" s="65"/>
+      <c r="I363" s="65"/>
+      <c r="J363" s="65"/>
+      <c r="K363" s="66"/>
+    </row>
+    <row r="364" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A364" s="67"/>
+      <c r="B364" s="61"/>
+      <c r="C364" s="62"/>
+      <c r="D364" s="63"/>
+      <c r="E364" s="63"/>
+      <c r="F364" s="63"/>
+      <c r="G364" s="64"/>
+      <c r="H364" s="65"/>
+      <c r="I364" s="65"/>
+      <c r="J364" s="65"/>
+      <c r="K364" s="66"/>
+    </row>
+    <row r="365" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A365" s="67"/>
+      <c r="B365" s="61"/>
+      <c r="C365" s="62"/>
+      <c r="D365" s="63"/>
+      <c r="E365" s="63"/>
+      <c r="F365" s="63"/>
+      <c r="G365" s="64"/>
+      <c r="H365" s="65"/>
+      <c r="I365" s="65"/>
+      <c r="J365" s="65"/>
+      <c r="K365" s="66"/>
+    </row>
+    <row r="366" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A366" s="67"/>
+      <c r="B366" s="61"/>
+      <c r="C366" s="62"/>
+      <c r="D366" s="63"/>
+      <c r="E366" s="63"/>
+      <c r="F366" s="63"/>
+      <c r="G366" s="64"/>
+      <c r="H366" s="65"/>
+      <c r="I366" s="65"/>
+      <c r="J366" s="65"/>
+      <c r="K366" s="66"/>
+    </row>
+    <row r="367" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A367" s="67"/>
+      <c r="B367" s="61"/>
+      <c r="C367" s="62"/>
+      <c r="D367" s="63"/>
+      <c r="E367" s="63"/>
+      <c r="F367" s="63"/>
+      <c r="G367" s="64"/>
+      <c r="H367" s="65"/>
+      <c r="I367" s="65"/>
+      <c r="J367" s="65"/>
+      <c r="K367" s="66"/>
+    </row>
+    <row r="368" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A368" s="67"/>
+      <c r="B368" s="61"/>
+      <c r="C368" s="62"/>
+      <c r="D368" s="63"/>
+      <c r="E368" s="63"/>
+      <c r="F368" s="63"/>
+      <c r="G368" s="64"/>
+      <c r="H368" s="65"/>
+      <c r="I368" s="65"/>
+      <c r="J368" s="65"/>
+      <c r="K368" s="66"/>
+    </row>
+    <row r="369" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A369" s="67"/>
+      <c r="B369" s="61"/>
+      <c r="C369" s="62"/>
+      <c r="D369" s="63"/>
+      <c r="E369" s="63"/>
+      <c r="F369" s="63"/>
+      <c r="G369" s="64"/>
+      <c r="H369" s="65"/>
+      <c r="I369" s="65"/>
+      <c r="J369" s="65"/>
+      <c r="K369" s="66"/>
+    </row>
+    <row r="370" spans="1:11" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <conditionalFormatting sqref="E3:F5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" priority="3" operator="lessThan">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:G369">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>INDIRECT("B"&amp;ROW())=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B369">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
+      <formula>FLOOR(B9,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>Task Name</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Crouching/Sprinting</t>
-  </si>
-  <si>
-    <t>Sliding (Collider Change)</t>
   </si>
   <si>
     <t>Strafing</t>
@@ -326,6 +323,15 @@
   <si>
     <t>Today I have decided to fully harness the potential of the Unity Editor using the rigibody system. In my movement using the motor I will be using the rigibody.position element in order to make sure that the rbody always knows where I am at so I won't be getting collider issues throughout the game. I will also make sure that the gravity and phsyics is fully under my control whenever i need it to be.</t>
   </si>
+  <si>
+    <t>Begin Modelling Player</t>
+  </si>
+  <si>
+    <t>Record it</t>
+  </si>
+  <si>
+    <t>Multiple Controller Sripts</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +341,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +711,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -900,6 +912,9 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1029,8 +1044,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:L233" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="C7:L233"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:L235" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="C7:L235"/>
   <tableColumns count="10">
     <tableColumn id="1" name="REF TAG" dataDxfId="23"/>
     <tableColumn id="2" name="Task Name" dataDxfId="22"/>
@@ -1332,13 +1347,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="4" customWidth="1"/>
@@ -1355,27 +1370,27 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" s="4" customFormat="1" ht="17.25" customHeight="1"/>
-    <row r="2" spans="3:13" s="4" customFormat="1" ht="6" customHeight="1"/>
-    <row r="4" spans="3:13" ht="30">
+    <row r="1" spans="3:13" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:13" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="12">
         <f ca="1">TODAY()</f>
-        <v>43240</v>
+        <v>43247</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" ht="90">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="90" x14ac:dyDescent="0.25">
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1386,13 +1401,13 @@
         <v>43198</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="51.75" customHeight="1">
+    <row r="8" spans="3:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1445,7 +1460,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="13"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
@@ -1455,11 +1470,11 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="13"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
@@ -1471,7 +1486,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
       <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
@@ -1483,23 +1498,23 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="13"/>
       <c r="D12" s="6"/>
       <c r="E12" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="J13" s="8"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="3:13" ht="29.25" customHeight="1">
+    <row r="14" spans="3:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -1511,13 +1526,13 @@
         <v>0.2</v>
       </c>
       <c r="K14" s="21">
-        <v>43236</v>
+        <v>43256</v>
       </c>
       <c r="L14" s="30">
-        <v>43238</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
@@ -1529,7 +1544,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2" t="s">
@@ -1541,7 +1556,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
@@ -1553,7 +1568,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
@@ -1565,7 +1580,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2" t="s">
@@ -1577,7 +1592,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2" t="s">
@@ -1589,1297 +1604,1350 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J21" s="8"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="8">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K22" s="21">
         <v>43243</v>
       </c>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="3:12">
+      <c r="L22" s="30">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
       <c r="D23" s="6"/>
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="D24" s="6"/>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="3:12" ht="30">
+    <row r="25" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
       <c r="E25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="3:12" ht="30">
+    <row r="26" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="14"/>
       <c r="D26" s="6"/>
       <c r="E26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="14"/>
       <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="14"/>
       <c r="D28" s="6"/>
       <c r="E28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="3:12" ht="45">
+    <row r="29" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C29" s="14"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="3:12" ht="45">
+    <row r="30" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
       <c r="D31" s="6"/>
       <c r="E31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J32" s="8"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.1</v>
+      </c>
       <c r="K33" s="21">
-        <v>43248</v>
+        <v>43261</v>
       </c>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="3:12">
-      <c r="C34" s="14"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" s="68"/>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="21"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="14"/>
-      <c r="D35" s="6"/>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" s="68"/>
       <c r="E35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="21"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="14"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C36" s="68"/>
+      <c r="D36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+      <c r="K36" s="21"/>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="3:12" ht="30">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
       <c r="E37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.8</v>
+      </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
       <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="3:12">
-      <c r="J39" s="8"/>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" s="14"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="3:12">
-      <c r="C40" s="17"/>
-      <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="21">
-        <v>43191</v>
-      </c>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" s="14"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="3:12" ht="45">
-      <c r="C41" s="17"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="2" t="s">
-        <v>55</v>
-      </c>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J41" s="8"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="17"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="2" t="s">
-        <v>56</v>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J42" s="8"/>
-      <c r="K42" s="10"/>
+      <c r="K42" s="21">
+        <v>43191</v>
+      </c>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C43" s="17"/>
       <c r="D43" s="6"/>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="3:12" ht="75">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="17"/>
       <c r="D44" s="6"/>
-      <c r="F44" s="2" t="s">
-        <v>58</v>
+      <c r="E44" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="3:12" ht="30">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="17"/>
       <c r="D45" s="6"/>
-      <c r="G45" s="2" t="s">
-        <v>59</v>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="3:12" ht="30">
+    <row r="46" spans="3:12" ht="75" x14ac:dyDescent="0.25">
       <c r="C46" s="17"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="2" t="s">
-        <v>60</v>
+      <c r="F46" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" s="17"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="2" t="s">
-        <v>35</v>
+      <c r="G47" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="17"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="J48" s="8"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="3:12" ht="75">
-      <c r="C49" s="18"/>
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>68</v>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C49" s="17"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="J49" s="8"/>
-      <c r="K49" s="21">
-        <v>43195</v>
-      </c>
+      <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="3:12" ht="30">
-      <c r="C50" s="18"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J50" s="8"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" ht="75" x14ac:dyDescent="0.25">
       <c r="C51" s="18"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="2" t="s">
-        <v>46</v>
+      <c r="D51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J51" s="8"/>
-      <c r="K51" s="10"/>
+      <c r="K51" s="21">
+        <v>43195</v>
+      </c>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C52" s="18"/>
       <c r="D52" s="27"/>
       <c r="E52" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="3:12" ht="30">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="18"/>
       <c r="D53" s="27"/>
-      <c r="F53" s="2" t="s">
-        <v>52</v>
+      <c r="E53" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="3:12" ht="30">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="18"/>
       <c r="D54" s="27"/>
-      <c r="F54" s="2" t="s">
-        <v>53</v>
+      <c r="E54" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="18"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="2" t="s">
-        <v>48</v>
+      <c r="F55" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="3:12" ht="30">
+    <row r="56" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C56" s="18"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="2" t="s">
-        <v>49</v>
+      <c r="F56" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="3:12" ht="30">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="18"/>
       <c r="D57" s="27"/>
       <c r="E57" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C58" s="18"/>
       <c r="D58" s="27"/>
       <c r="E58" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="18"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J59" s="8"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="3:12">
-      <c r="C60" s="20"/>
-      <c r="D60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>69</v>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C60" s="18"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="J60" s="8"/>
-      <c r="K60" s="21">
-        <v>43198</v>
-      </c>
+      <c r="K60" s="10"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="3:12" ht="30">
-      <c r="C61" s="20"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2" t="s">
-        <v>62</v>
-      </c>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J61" s="8"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="3:12" ht="45">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="20"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="2" t="s">
-        <v>63</v>
+      <c r="D62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J62" s="8"/>
-      <c r="K62" s="10"/>
+      <c r="K62" s="21">
+        <v>43198</v>
+      </c>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="3:12" ht="30">
+    <row r="63" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C63" s="20"/>
       <c r="D63" s="6"/>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="3:12" ht="30">
+    <row r="64" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C64" s="20"/>
       <c r="D64" s="6"/>
       <c r="E64" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="3:12" ht="50.25" customHeight="1">
+    <row r="65" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C65" s="20"/>
       <c r="D65" s="6"/>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" s="20"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J66" s="8"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="20"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="J67" s="8"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J68" s="8"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J69" s="8"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J70" s="8"/>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J71" s="8"/>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J72" s="8"/>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J73" s="8"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J74" s="8"/>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J75" s="8"/>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J76" s="8"/>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J77" s="8"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J78" s="8"/>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J79" s="8"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J80" s="8"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="10:12">
+    <row r="81" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J81" s="8"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="10:12">
+    <row r="82" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J82" s="8"/>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="10:12">
+    <row r="83" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J83" s="8"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="10:12">
+    <row r="84" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J84" s="8"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="10:12">
+    <row r="85" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J85" s="8"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="10:12">
+    <row r="86" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J86" s="8"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="10:12">
+    <row r="87" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J87" s="8"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="10:12">
+    <row r="88" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J88" s="8"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="10:12">
+    <row r="89" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J89" s="8"/>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="10:12">
+    <row r="90" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J90" s="8"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="10:12">
+    <row r="91" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J91" s="8"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="10:12">
+    <row r="92" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J92" s="8"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="10:12">
+    <row r="93" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J93" s="8"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="10:12">
+    <row r="94" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J94" s="8"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="10:12">
+    <row r="95" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J95" s="8"/>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="10:12">
+    <row r="96" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J96" s="8"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="10:12">
+    <row r="97" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J97" s="8"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="10:12">
+    <row r="98" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J98" s="8"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="10:12">
+    <row r="99" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J99" s="8"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="10:12">
+    <row r="100" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J100" s="8"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="10:12">
+    <row r="101" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J101" s="8"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="10:12">
+    <row r="102" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J102" s="8"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" spans="10:12">
+    <row r="103" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J103" s="8"/>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="10:12">
+    <row r="104" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J104" s="8"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="10:12">
+    <row r="105" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J105" s="8"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="10:12">
+    <row r="106" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J106" s="8"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="10:12">
+    <row r="107" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J107" s="8"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="10:12">
+    <row r="108" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J108" s="8"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="10:12">
+    <row r="109" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J109" s="8"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="10:12">
+    <row r="110" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J110" s="8"/>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="10:12">
+    <row r="111" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J111" s="8"/>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="10:12">
+    <row r="112" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J112" s="8"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="10:12">
+    <row r="113" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J113" s="8"/>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="10:12">
+    <row r="114" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J114" s="8"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="10:12">
+    <row r="115" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J115" s="8"/>
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="10:12">
+    <row r="116" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J116" s="8"/>
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="10:12">
+    <row r="117" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J117" s="8"/>
       <c r="K117" s="10"/>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="10:12">
+    <row r="118" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J118" s="8"/>
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="10:12">
+    <row r="119" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J119" s="8"/>
       <c r="K119" s="10"/>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="10:12">
+    <row r="120" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J120" s="8"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="10:12">
+    <row r="121" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J121" s="8"/>
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
     </row>
-    <row r="122" spans="10:12">
+    <row r="122" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J122" s="8"/>
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="10:12">
+    <row r="123" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J123" s="8"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="10:12">
+    <row r="124" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J124" s="8"/>
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="10:12">
+    <row r="125" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J125" s="8"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="10:12">
+    <row r="126" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J126" s="8"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="10:12">
+    <row r="127" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J127" s="8"/>
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
     </row>
-    <row r="128" spans="10:12">
+    <row r="128" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J128" s="8"/>
       <c r="K128" s="10"/>
       <c r="L128" s="10"/>
     </row>
-    <row r="129" spans="10:12">
+    <row r="129" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J129" s="8"/>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="10:12">
+    <row r="130" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J130" s="8"/>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="10:12">
+    <row r="131" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J131" s="8"/>
       <c r="K131" s="10"/>
       <c r="L131" s="10"/>
     </row>
-    <row r="132" spans="10:12">
+    <row r="132" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J132" s="8"/>
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
     </row>
-    <row r="133" spans="10:12">
+    <row r="133" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J133" s="8"/>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
     </row>
-    <row r="134" spans="10:12">
+    <row r="134" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J134" s="8"/>
       <c r="K134" s="10"/>
       <c r="L134" s="10"/>
     </row>
-    <row r="135" spans="10:12">
+    <row r="135" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J135" s="8"/>
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
     </row>
-    <row r="136" spans="10:12">
+    <row r="136" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J136" s="8"/>
       <c r="K136" s="10"/>
       <c r="L136" s="10"/>
     </row>
-    <row r="137" spans="10:12">
+    <row r="137" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J137" s="8"/>
       <c r="K137" s="10"/>
       <c r="L137" s="10"/>
     </row>
-    <row r="138" spans="10:12">
+    <row r="138" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J138" s="8"/>
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
     </row>
-    <row r="139" spans="10:12">
+    <row r="139" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J139" s="8"/>
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
     </row>
-    <row r="140" spans="10:12">
+    <row r="140" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J140" s="8"/>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
     </row>
-    <row r="141" spans="10:12">
+    <row r="141" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J141" s="8"/>
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
     </row>
-    <row r="142" spans="10:12">
+    <row r="142" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J142" s="8"/>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
     </row>
-    <row r="143" spans="10:12">
+    <row r="143" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J143" s="8"/>
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
     </row>
-    <row r="144" spans="10:12">
+    <row r="144" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J144" s="8"/>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
     </row>
-    <row r="145" spans="10:12">
+    <row r="145" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J145" s="8"/>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
     </row>
-    <row r="146" spans="10:12">
+    <row r="146" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J146" s="8"/>
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
     </row>
-    <row r="147" spans="10:12">
+    <row r="147" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J147" s="8"/>
       <c r="K147" s="10"/>
       <c r="L147" s="10"/>
     </row>
-    <row r="148" spans="10:12">
+    <row r="148" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J148" s="8"/>
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
     </row>
-    <row r="149" spans="10:12">
+    <row r="149" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J149" s="8"/>
       <c r="K149" s="10"/>
       <c r="L149" s="10"/>
     </row>
-    <row r="150" spans="10:12">
+    <row r="150" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J150" s="8"/>
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
     </row>
-    <row r="151" spans="10:12">
+    <row r="151" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J151" s="8"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
     </row>
-    <row r="152" spans="10:12">
+    <row r="152" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J152" s="8"/>
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
     </row>
-    <row r="153" spans="10:12">
+    <row r="153" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J153" s="8"/>
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
     </row>
-    <row r="154" spans="10:12">
+    <row r="154" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J154" s="8"/>
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
     </row>
-    <row r="155" spans="10:12">
+    <row r="155" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J155" s="8"/>
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
     </row>
-    <row r="156" spans="10:12">
+    <row r="156" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J156" s="8"/>
       <c r="K156" s="10"/>
       <c r="L156" s="10"/>
     </row>
-    <row r="157" spans="10:12">
+    <row r="157" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J157" s="8"/>
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
     </row>
-    <row r="158" spans="10:12">
+    <row r="158" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J158" s="8"/>
       <c r="K158" s="10"/>
       <c r="L158" s="10"/>
     </row>
-    <row r="159" spans="10:12">
+    <row r="159" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J159" s="8"/>
       <c r="K159" s="10"/>
       <c r="L159" s="10"/>
     </row>
-    <row r="160" spans="10:12">
+    <row r="160" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J160" s="8"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
     </row>
-    <row r="161" spans="10:12">
+    <row r="161" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J161" s="8"/>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
     </row>
-    <row r="162" spans="10:12">
+    <row r="162" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J162" s="8"/>
       <c r="K162" s="10"/>
       <c r="L162" s="10"/>
     </row>
-    <row r="163" spans="10:12">
+    <row r="163" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J163" s="8"/>
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
     </row>
-    <row r="164" spans="10:12">
+    <row r="164" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J164" s="8"/>
       <c r="K164" s="10"/>
       <c r="L164" s="10"/>
     </row>
-    <row r="165" spans="10:12">
+    <row r="165" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J165" s="8"/>
       <c r="K165" s="10"/>
       <c r="L165" s="10"/>
     </row>
-    <row r="166" spans="10:12">
+    <row r="166" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J166" s="8"/>
       <c r="K166" s="10"/>
       <c r="L166" s="10"/>
     </row>
-    <row r="167" spans="10:12">
+    <row r="167" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J167" s="8"/>
       <c r="K167" s="10"/>
       <c r="L167" s="10"/>
     </row>
-    <row r="168" spans="10:12">
+    <row r="168" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J168" s="8"/>
       <c r="K168" s="10"/>
       <c r="L168" s="10"/>
     </row>
-    <row r="169" spans="10:12">
+    <row r="169" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J169" s="8"/>
       <c r="K169" s="10"/>
       <c r="L169" s="10"/>
     </row>
-    <row r="170" spans="10:12">
+    <row r="170" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J170" s="8"/>
       <c r="K170" s="10"/>
       <c r="L170" s="10"/>
     </row>
-    <row r="171" spans="10:12">
+    <row r="171" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J171" s="8"/>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
     </row>
-    <row r="172" spans="10:12">
+    <row r="172" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J172" s="8"/>
       <c r="K172" s="10"/>
       <c r="L172" s="10"/>
     </row>
-    <row r="173" spans="10:12">
+    <row r="173" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J173" s="8"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
     </row>
-    <row r="174" spans="10:12">
+    <row r="174" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J174" s="8"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
     </row>
-    <row r="175" spans="10:12">
+    <row r="175" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J175" s="8"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
     </row>
-    <row r="176" spans="10:12">
+    <row r="176" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J176" s="8"/>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
     </row>
-    <row r="177" spans="10:12">
+    <row r="177" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J177" s="8"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
     </row>
-    <row r="178" spans="10:12">
+    <row r="178" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J178" s="8"/>
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
     </row>
-    <row r="179" spans="10:12">
+    <row r="179" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J179" s="8"/>
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
     </row>
-    <row r="180" spans="10:12">
+    <row r="180" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J180" s="8"/>
       <c r="K180" s="10"/>
       <c r="L180" s="10"/>
     </row>
-    <row r="181" spans="10:12">
+    <row r="181" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J181" s="8"/>
       <c r="K181" s="10"/>
       <c r="L181" s="10"/>
     </row>
-    <row r="182" spans="10:12">
+    <row r="182" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J182" s="8"/>
       <c r="K182" s="10"/>
       <c r="L182" s="10"/>
     </row>
-    <row r="183" spans="10:12">
+    <row r="183" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J183" s="8"/>
       <c r="K183" s="10"/>
       <c r="L183" s="10"/>
     </row>
-    <row r="184" spans="10:12">
+    <row r="184" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J184" s="8"/>
       <c r="K184" s="10"/>
       <c r="L184" s="10"/>
     </row>
-    <row r="185" spans="10:12">
+    <row r="185" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J185" s="8"/>
       <c r="K185" s="10"/>
       <c r="L185" s="10"/>
     </row>
-    <row r="186" spans="10:12">
+    <row r="186" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J186" s="8"/>
       <c r="K186" s="10"/>
       <c r="L186" s="10"/>
     </row>
-    <row r="187" spans="10:12">
+    <row r="187" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J187" s="8"/>
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
     </row>
-    <row r="188" spans="10:12">
+    <row r="188" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J188" s="8"/>
       <c r="K188" s="10"/>
       <c r="L188" s="10"/>
     </row>
-    <row r="189" spans="10:12">
+    <row r="189" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J189" s="8"/>
       <c r="K189" s="10"/>
       <c r="L189" s="10"/>
     </row>
-    <row r="190" spans="10:12">
+    <row r="190" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J190" s="8"/>
       <c r="K190" s="10"/>
       <c r="L190" s="10"/>
     </row>
-    <row r="191" spans="10:12">
+    <row r="191" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J191" s="8"/>
       <c r="K191" s="10"/>
       <c r="L191" s="10"/>
     </row>
-    <row r="192" spans="10:12">
+    <row r="192" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J192" s="8"/>
       <c r="K192" s="10"/>
       <c r="L192" s="10"/>
     </row>
-    <row r="193" spans="10:12">
+    <row r="193" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J193" s="8"/>
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
     </row>
-    <row r="194" spans="10:12">
+    <row r="194" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J194" s="8"/>
       <c r="K194" s="10"/>
       <c r="L194" s="10"/>
     </row>
-    <row r="195" spans="10:12">
+    <row r="195" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J195" s="8"/>
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
     </row>
-    <row r="196" spans="10:12">
+    <row r="196" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J196" s="8"/>
       <c r="K196" s="10"/>
       <c r="L196" s="10"/>
     </row>
-    <row r="197" spans="10:12">
+    <row r="197" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J197" s="8"/>
       <c r="K197" s="10"/>
       <c r="L197" s="10"/>
     </row>
-    <row r="198" spans="10:12">
+    <row r="198" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J198" s="8"/>
       <c r="K198" s="10"/>
       <c r="L198" s="10"/>
     </row>
-    <row r="199" spans="10:12">
+    <row r="199" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J199" s="8"/>
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
     </row>
-    <row r="200" spans="10:12">
+    <row r="200" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J200" s="8"/>
       <c r="K200" s="10"/>
       <c r="L200" s="10"/>
     </row>
-    <row r="201" spans="10:12">
+    <row r="201" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J201" s="8"/>
       <c r="K201" s="10"/>
       <c r="L201" s="10"/>
     </row>
-    <row r="202" spans="10:12">
+    <row r="202" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J202" s="8"/>
       <c r="K202" s="10"/>
       <c r="L202" s="10"/>
     </row>
-    <row r="203" spans="10:12">
+    <row r="203" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J203" s="8"/>
       <c r="K203" s="10"/>
       <c r="L203" s="10"/>
     </row>
-    <row r="204" spans="10:12">
+    <row r="204" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J204" s="8"/>
       <c r="K204" s="10"/>
       <c r="L204" s="10"/>
     </row>
-    <row r="205" spans="10:12">
+    <row r="205" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J205" s="8"/>
       <c r="K205" s="10"/>
       <c r="L205" s="10"/>
     </row>
-    <row r="206" spans="10:12">
+    <row r="206" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J206" s="8"/>
       <c r="K206" s="10"/>
       <c r="L206" s="10"/>
     </row>
-    <row r="207" spans="10:12">
+    <row r="207" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J207" s="8"/>
       <c r="K207" s="10"/>
       <c r="L207" s="10"/>
     </row>
-    <row r="208" spans="10:12">
+    <row r="208" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J208" s="8"/>
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
     </row>
-    <row r="209" spans="10:12">
+    <row r="209" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J209" s="8"/>
       <c r="K209" s="10"/>
       <c r="L209" s="10"/>
     </row>
-    <row r="210" spans="10:12">
+    <row r="210" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J210" s="8"/>
       <c r="K210" s="10"/>
       <c r="L210" s="10"/>
     </row>
-    <row r="211" spans="10:12">
+    <row r="211" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J211" s="8"/>
       <c r="K211" s="10"/>
       <c r="L211" s="10"/>
     </row>
-    <row r="212" spans="10:12">
+    <row r="212" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J212" s="8"/>
       <c r="K212" s="10"/>
       <c r="L212" s="10"/>
     </row>
-    <row r="213" spans="10:12">
+    <row r="213" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J213" s="8"/>
       <c r="K213" s="10"/>
       <c r="L213" s="10"/>
     </row>
-    <row r="214" spans="10:12">
+    <row r="214" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J214" s="8"/>
       <c r="K214" s="10"/>
       <c r="L214" s="10"/>
     </row>
-    <row r="215" spans="10:12">
+    <row r="215" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J215" s="8"/>
       <c r="K215" s="10"/>
       <c r="L215" s="10"/>
     </row>
-    <row r="216" spans="10:12">
+    <row r="216" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J216" s="8"/>
       <c r="K216" s="10"/>
       <c r="L216" s="10"/>
     </row>
-    <row r="217" spans="10:12">
+    <row r="217" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J217" s="8"/>
       <c r="K217" s="10"/>
       <c r="L217" s="10"/>
     </row>
-    <row r="218" spans="10:12">
+    <row r="218" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J218" s="8"/>
       <c r="K218" s="10"/>
       <c r="L218" s="10"/>
     </row>
-    <row r="219" spans="10:12">
+    <row r="219" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J219" s="8"/>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
     </row>
-    <row r="220" spans="10:12">
+    <row r="220" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J220" s="8"/>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
     </row>
-    <row r="221" spans="10:12">
+    <row r="221" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J221" s="8"/>
       <c r="K221" s="10"/>
       <c r="L221" s="10"/>
     </row>
-    <row r="222" spans="10:12">
+    <row r="222" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J222" s="8"/>
       <c r="K222" s="10"/>
       <c r="L222" s="10"/>
     </row>
-    <row r="223" spans="10:12">
+    <row r="223" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J223" s="8"/>
       <c r="K223" s="10"/>
       <c r="L223" s="10"/>
     </row>
-    <row r="224" spans="10:12">
+    <row r="224" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J224" s="8"/>
       <c r="K224" s="10"/>
       <c r="L224" s="10"/>
     </row>
-    <row r="225" spans="10:12">
+    <row r="225" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J225" s="8"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
     </row>
-    <row r="226" spans="10:12">
+    <row r="226" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J226" s="8"/>
       <c r="K226" s="10"/>
       <c r="L226" s="10"/>
     </row>
-    <row r="227" spans="10:12">
+    <row r="227" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J227" s="8"/>
       <c r="K227" s="10"/>
       <c r="L227" s="10"/>
     </row>
-    <row r="228" spans="10:12">
+    <row r="228" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J228" s="8"/>
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
     </row>
-    <row r="229" spans="10:12">
+    <row r="229" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J229" s="8"/>
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
     </row>
-    <row r="230" spans="10:12">
+    <row r="230" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J230" s="8"/>
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
     </row>
-    <row r="231" spans="10:12">
+    <row r="231" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J231" s="8"/>
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
     </row>
-    <row r="232" spans="10:12">
+    <row r="232" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J232" s="8"/>
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
     </row>
-    <row r="233" spans="10:12">
+    <row r="233" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J233" s="8"/>
       <c r="K233" s="10"/>
       <c r="L233" s="10"/>
     </row>
+    <row r="234" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J234" s="8"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+    </row>
+    <row r="235" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J235" s="8"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J8:J233">
+  <conditionalFormatting sqref="J8:J235">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2907,7 +2975,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="4" customWidth="1"/>
@@ -2924,31 +2992,31 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="4" customFormat="1" ht="17.25" customHeight="1"/>
-    <row r="2" spans="3:12" s="4" customFormat="1" ht="6" customHeight="1"/>
-    <row r="4" spans="3:12" ht="30">
+    <row r="1" spans="3:12" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:12" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="12">
         <f ca="1">TODAY()</f>
-        <v>43240</v>
+        <v>43247</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="57">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="57" x14ac:dyDescent="0.25">
       <c r="D5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2980,10 +3048,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="26.25" customHeight="1">
+    <row r="8" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2998,11 +3066,11 @@
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="29"/>
       <c r="E9" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -3016,11 +3084,11 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="29"/>
       <c r="E10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -3034,11 +3102,11 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="29"/>
       <c r="E11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -3052,7 +3120,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="29"/>
       <c r="E12" s="15"/>
@@ -3064,10 +3132,10 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -3082,11 +3150,11 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="3:12" ht="15" customHeight="1">
+    <row r="14" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
       <c r="D14" s="29"/>
       <c r="E14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -3100,11 +3168,11 @@
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="29"/>
       <c r="E15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -3118,7 +3186,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="1"/>
       <c r="E16" s="15"/>
@@ -3130,7 +3198,7 @@
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
       <c r="D17" s="1"/>
       <c r="E17" s="15"/>
@@ -3142,7 +3210,7 @@
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="1"/>
       <c r="E18" s="15"/>
@@ -3154,7 +3222,7 @@
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="15"/>
@@ -3166,7 +3234,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15"/>
@@ -3178,7 +3246,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15"/>
@@ -3190,7 +3258,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="15"/>
@@ -3202,7 +3270,7 @@
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="1"/>
       <c r="E23" s="15"/>
@@ -3214,7 +3282,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="1"/>
       <c r="E24" s="15"/>
@@ -3226,7 +3294,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
       <c r="D25" s="1"/>
       <c r="E25" s="26"/>
@@ -3238,7 +3306,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15"/>
@@ -3250,7 +3318,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15"/>
@@ -3262,7 +3330,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="1"/>
       <c r="E28" s="15"/>
@@ -3274,7 +3342,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="15"/>
       <c r="D29" s="1"/>
       <c r="E29" s="15"/>
@@ -3286,7 +3354,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="15"/>
@@ -3298,7 +3366,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="15"/>
@@ -3310,7 +3378,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="15"/>
       <c r="D32" s="1"/>
       <c r="E32" s="15"/>
@@ -3322,7 +3390,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="15"/>
       <c r="D33" s="1"/>
       <c r="E33" s="15"/>
@@ -3334,7 +3402,7 @@
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="15"/>
       <c r="D34" s="1"/>
       <c r="E34" s="15"/>
@@ -3346,7 +3414,7 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="15"/>
       <c r="D35" s="1"/>
       <c r="E35" s="15"/>
@@ -3358,7 +3426,7 @@
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="15"/>
       <c r="D36" s="1"/>
       <c r="E36" s="15"/>
@@ -3370,7 +3438,7 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="15"/>
       <c r="D37" s="1"/>
       <c r="E37" s="15"/>
@@ -3382,7 +3450,7 @@
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="15"/>
       <c r="D38" s="1"/>
       <c r="E38" s="15"/>
@@ -3394,7 +3462,7 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
       <c r="D39" s="1"/>
       <c r="E39" s="15"/>
@@ -3406,7 +3474,7 @@
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
       <c r="D40" s="1"/>
       <c r="E40" s="15"/>
@@ -3418,7 +3486,7 @@
       <c r="K40" s="23"/>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
       <c r="D41" s="1"/>
       <c r="E41" s="15"/>
@@ -3430,7 +3498,7 @@
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
       <c r="D42" s="1"/>
       <c r="E42" s="15"/>
@@ -3442,7 +3510,7 @@
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
       <c r="D43" s="1"/>
       <c r="E43" s="15"/>
@@ -3454,7 +3522,7 @@
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
       <c r="D44" s="1"/>
       <c r="E44" s="15"/>
@@ -3466,7 +3534,7 @@
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
       <c r="D45" s="1"/>
       <c r="E45" s="15"/>
@@ -3478,7 +3546,7 @@
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
       <c r="D46" s="1"/>
       <c r="E46" s="15"/>
@@ -3490,7 +3558,7 @@
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
       <c r="D47" s="1"/>
       <c r="E47" s="15"/>
@@ -3502,7 +3570,7 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -3514,7 +3582,7 @@
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -3526,7 +3594,7 @@
       <c r="K49" s="23"/>
       <c r="L49" s="24"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -3538,7 +3606,7 @@
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -3550,7 +3618,7 @@
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -3562,7 +3630,7 @@
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -3574,7 +3642,7 @@
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -3586,7 +3654,7 @@
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -3598,7 +3666,7 @@
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -3610,7 +3678,7 @@
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -3622,7 +3690,7 @@
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -3634,7 +3702,7 @@
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -3646,7 +3714,7 @@
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -3658,7 +3726,7 @@
       <c r="K60" s="23"/>
       <c r="L60" s="24"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -3670,7 +3738,7 @@
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -3682,7 +3750,7 @@
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -3694,7 +3762,7 @@
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -3706,7 +3774,7 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
     </row>
-    <row r="65" spans="3:12" ht="50.25" customHeight="1">
+    <row r="65" spans="3:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -3718,7 +3786,7 @@
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -3730,7 +3798,7 @@
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -3742,7 +3810,7 @@
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -3754,7 +3822,7 @@
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -3766,7 +3834,7 @@
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -3778,7 +3846,7 @@
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -3790,7 +3858,7 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -3802,7 +3870,7 @@
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -3814,7 +3882,7 @@
       <c r="K73" s="24"/>
       <c r="L73" s="24"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -3826,7 +3894,7 @@
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -3838,7 +3906,7 @@
       <c r="K75" s="24"/>
       <c r="L75" s="24"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -3850,7 +3918,7 @@
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -3862,7 +3930,7 @@
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -3874,7 +3942,7 @@
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -3886,7 +3954,7 @@
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -3898,7 +3966,7 @@
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -3910,7 +3978,7 @@
       <c r="K81" s="24"/>
       <c r="L81" s="24"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
@@ -3922,7 +3990,7 @@
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
@@ -3934,7 +4002,7 @@
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
@@ -3946,7 +4014,7 @@
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
@@ -3958,7 +4026,7 @@
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
     </row>
-    <row r="86" spans="3:12">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -3970,7 +4038,7 @@
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -3982,7 +4050,7 @@
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -3994,7 +4062,7 @@
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -4006,7 +4074,7 @@
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -4018,7 +4086,7 @@
       <c r="K90" s="24"/>
       <c r="L90" s="24"/>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -4030,7 +4098,7 @@
       <c r="K91" s="24"/>
       <c r="L91" s="24"/>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
@@ -4042,7 +4110,7 @@
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
@@ -4054,7 +4122,7 @@
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
@@ -4066,7 +4134,7 @@
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
@@ -4078,7 +4146,7 @@
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -4090,7 +4158,7 @@
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
     </row>
-    <row r="97" spans="3:12">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -4102,7 +4170,7 @@
       <c r="K97" s="24"/>
       <c r="L97" s="24"/>
     </row>
-    <row r="98" spans="3:12">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
@@ -4114,7 +4182,7 @@
       <c r="K98" s="24"/>
       <c r="L98" s="24"/>
     </row>
-    <row r="99" spans="3:12">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -4126,7 +4194,7 @@
       <c r="K99" s="24"/>
       <c r="L99" s="24"/>
     </row>
-    <row r="100" spans="3:12">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -4138,7 +4206,7 @@
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
     </row>
-    <row r="101" spans="3:12">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
@@ -4150,7 +4218,7 @@
       <c r="K101" s="24"/>
       <c r="L101" s="24"/>
     </row>
-    <row r="102" spans="3:12">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -4162,7 +4230,7 @@
       <c r="K102" s="24"/>
       <c r="L102" s="24"/>
     </row>
-    <row r="103" spans="3:12">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
@@ -4174,7 +4242,7 @@
       <c r="K103" s="24"/>
       <c r="L103" s="24"/>
     </row>
-    <row r="104" spans="3:12">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
@@ -4186,7 +4254,7 @@
       <c r="K104" s="24"/>
       <c r="L104" s="24"/>
     </row>
-    <row r="105" spans="3:12">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
@@ -4198,7 +4266,7 @@
       <c r="K105" s="24"/>
       <c r="L105" s="24"/>
     </row>
-    <row r="106" spans="3:12">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
@@ -4210,7 +4278,7 @@
       <c r="K106" s="24"/>
       <c r="L106" s="24"/>
     </row>
-    <row r="107" spans="3:12">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -4222,7 +4290,7 @@
       <c r="K107" s="24"/>
       <c r="L107" s="24"/>
     </row>
-    <row r="108" spans="3:12">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
@@ -4234,7 +4302,7 @@
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
     </row>
-    <row r="109" spans="3:12">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -4246,7 +4314,7 @@
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
     </row>
-    <row r="110" spans="3:12">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -4258,7 +4326,7 @@
       <c r="K110" s="24"/>
       <c r="L110" s="24"/>
     </row>
-    <row r="111" spans="3:12">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
@@ -4270,7 +4338,7 @@
       <c r="K111" s="24"/>
       <c r="L111" s="24"/>
     </row>
-    <row r="112" spans="3:12">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
@@ -4282,7 +4350,7 @@
       <c r="K112" s="24"/>
       <c r="L112" s="24"/>
     </row>
-    <row r="113" spans="3:12">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
@@ -4294,7 +4362,7 @@
       <c r="K113" s="24"/>
       <c r="L113" s="24"/>
     </row>
-    <row r="114" spans="3:12">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
@@ -4306,7 +4374,7 @@
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
     </row>
-    <row r="115" spans="3:12">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
@@ -4318,7 +4386,7 @@
       <c r="K115" s="24"/>
       <c r="L115" s="24"/>
     </row>
-    <row r="116" spans="3:12">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
@@ -4330,7 +4398,7 @@
       <c r="K116" s="24"/>
       <c r="L116" s="24"/>
     </row>
-    <row r="117" spans="3:12">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
@@ -4342,7 +4410,7 @@
       <c r="K117" s="24"/>
       <c r="L117" s="24"/>
     </row>
-    <row r="118" spans="3:12">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
@@ -4354,7 +4422,7 @@
       <c r="K118" s="24"/>
       <c r="L118" s="24"/>
     </row>
-    <row r="119" spans="3:12">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
@@ -4366,7 +4434,7 @@
       <c r="K119" s="24"/>
       <c r="L119" s="24"/>
     </row>
-    <row r="120" spans="3:12">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
@@ -4378,7 +4446,7 @@
       <c r="K120" s="24"/>
       <c r="L120" s="24"/>
     </row>
-    <row r="121" spans="3:12">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
@@ -4390,7 +4458,7 @@
       <c r="K121" s="24"/>
       <c r="L121" s="24"/>
     </row>
-    <row r="122" spans="3:12">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
@@ -4402,7 +4470,7 @@
       <c r="K122" s="24"/>
       <c r="L122" s="24"/>
     </row>
-    <row r="123" spans="3:12">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
@@ -4414,7 +4482,7 @@
       <c r="K123" s="24"/>
       <c r="L123" s="24"/>
     </row>
-    <row r="124" spans="3:12">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
@@ -4426,7 +4494,7 @@
       <c r="K124" s="24"/>
       <c r="L124" s="24"/>
     </row>
-    <row r="125" spans="3:12">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
@@ -4438,7 +4506,7 @@
       <c r="K125" s="24"/>
       <c r="L125" s="24"/>
     </row>
-    <row r="126" spans="3:12">
+    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
@@ -4450,7 +4518,7 @@
       <c r="K126" s="24"/>
       <c r="L126" s="24"/>
     </row>
-    <row r="127" spans="3:12">
+    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
@@ -4462,7 +4530,7 @@
       <c r="K127" s="24"/>
       <c r="L127" s="24"/>
     </row>
-    <row r="128" spans="3:12">
+    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
@@ -4474,7 +4542,7 @@
       <c r="K128" s="24"/>
       <c r="L128" s="24"/>
     </row>
-    <row r="129" spans="3:12">
+    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
@@ -4486,7 +4554,7 @@
       <c r="K129" s="24"/>
       <c r="L129" s="24"/>
     </row>
-    <row r="130" spans="3:12">
+    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
@@ -4498,7 +4566,7 @@
       <c r="K130" s="24"/>
       <c r="L130" s="24"/>
     </row>
-    <row r="131" spans="3:12">
+    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
@@ -4510,7 +4578,7 @@
       <c r="K131" s="24"/>
       <c r="L131" s="24"/>
     </row>
-    <row r="132" spans="3:12">
+    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -4522,7 +4590,7 @@
       <c r="K132" s="24"/>
       <c r="L132" s="24"/>
     </row>
-    <row r="133" spans="3:12">
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
@@ -4534,7 +4602,7 @@
       <c r="K133" s="24"/>
       <c r="L133" s="24"/>
     </row>
-    <row r="134" spans="3:12">
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -4546,7 +4614,7 @@
       <c r="K134" s="24"/>
       <c r="L134" s="24"/>
     </row>
-    <row r="135" spans="3:12">
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
@@ -4558,7 +4626,7 @@
       <c r="K135" s="24"/>
       <c r="L135" s="24"/>
     </row>
-    <row r="136" spans="3:12">
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -4570,7 +4638,7 @@
       <c r="K136" s="24"/>
       <c r="L136" s="24"/>
     </row>
-    <row r="137" spans="3:12">
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
@@ -4582,7 +4650,7 @@
       <c r="K137" s="24"/>
       <c r="L137" s="24"/>
     </row>
-    <row r="138" spans="3:12">
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
@@ -4594,7 +4662,7 @@
       <c r="K138" s="24"/>
       <c r="L138" s="24"/>
     </row>
-    <row r="139" spans="3:12">
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -4606,7 +4674,7 @@
       <c r="K139" s="24"/>
       <c r="L139" s="24"/>
     </row>
-    <row r="140" spans="3:12">
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
@@ -4618,7 +4686,7 @@
       <c r="K140" s="24"/>
       <c r="L140" s="24"/>
     </row>
-    <row r="141" spans="3:12">
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
@@ -4630,7 +4698,7 @@
       <c r="K141" s="24"/>
       <c r="L141" s="24"/>
     </row>
-    <row r="142" spans="3:12">
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
@@ -4642,7 +4710,7 @@
       <c r="K142" s="24"/>
       <c r="L142" s="24"/>
     </row>
-    <row r="143" spans="3:12">
+    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
@@ -4654,7 +4722,7 @@
       <c r="K143" s="24"/>
       <c r="L143" s="24"/>
     </row>
-    <row r="144" spans="3:12">
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -4666,7 +4734,7 @@
       <c r="K144" s="24"/>
       <c r="L144" s="24"/>
     </row>
-    <row r="145" spans="3:12">
+    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
@@ -4678,7 +4746,7 @@
       <c r="K145" s="24"/>
       <c r="L145" s="24"/>
     </row>
-    <row r="146" spans="3:12">
+    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
@@ -4690,7 +4758,7 @@
       <c r="K146" s="24"/>
       <c r="L146" s="24"/>
     </row>
-    <row r="147" spans="3:12">
+    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
@@ -4702,7 +4770,7 @@
       <c r="K147" s="24"/>
       <c r="L147" s="24"/>
     </row>
-    <row r="148" spans="3:12">
+    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
@@ -4714,7 +4782,7 @@
       <c r="K148" s="24"/>
       <c r="L148" s="24"/>
     </row>
-    <row r="149" spans="3:12">
+    <row r="149" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
@@ -4726,7 +4794,7 @@
       <c r="K149" s="24"/>
       <c r="L149" s="24"/>
     </row>
-    <row r="150" spans="3:12">
+    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4738,7 +4806,7 @@
       <c r="K150" s="24"/>
       <c r="L150" s="24"/>
     </row>
-    <row r="151" spans="3:12">
+    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
@@ -4750,7 +4818,7 @@
       <c r="K151" s="24"/>
       <c r="L151" s="24"/>
     </row>
-    <row r="152" spans="3:12">
+    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -4762,7 +4830,7 @@
       <c r="K152" s="24"/>
       <c r="L152" s="24"/>
     </row>
-    <row r="153" spans="3:12">
+    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -4774,7 +4842,7 @@
       <c r="K153" s="24"/>
       <c r="L153" s="24"/>
     </row>
-    <row r="154" spans="3:12">
+    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -4786,7 +4854,7 @@
       <c r="K154" s="24"/>
       <c r="L154" s="24"/>
     </row>
-    <row r="155" spans="3:12">
+    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -4798,7 +4866,7 @@
       <c r="K155" s="24"/>
       <c r="L155" s="24"/>
     </row>
-    <row r="156" spans="3:12">
+    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -4810,7 +4878,7 @@
       <c r="K156" s="24"/>
       <c r="L156" s="24"/>
     </row>
-    <row r="157" spans="3:12">
+    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -4822,7 +4890,7 @@
       <c r="K157" s="24"/>
       <c r="L157" s="24"/>
     </row>
-    <row r="158" spans="3:12">
+    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -4834,7 +4902,7 @@
       <c r="K158" s="24"/>
       <c r="L158" s="24"/>
     </row>
-    <row r="159" spans="3:12">
+    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -4846,7 +4914,7 @@
       <c r="K159" s="24"/>
       <c r="L159" s="24"/>
     </row>
-    <row r="160" spans="3:12">
+    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -4858,7 +4926,7 @@
       <c r="K160" s="24"/>
       <c r="L160" s="24"/>
     </row>
-    <row r="161" spans="3:12">
+    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -4870,7 +4938,7 @@
       <c r="K161" s="24"/>
       <c r="L161" s="24"/>
     </row>
-    <row r="162" spans="3:12">
+    <row r="162" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
@@ -4882,7 +4950,7 @@
       <c r="K162" s="24"/>
       <c r="L162" s="24"/>
     </row>
-    <row r="163" spans="3:12">
+    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -4894,7 +4962,7 @@
       <c r="K163" s="24"/>
       <c r="L163" s="24"/>
     </row>
-    <row r="164" spans="3:12">
+    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
@@ -4906,7 +4974,7 @@
       <c r="K164" s="24"/>
       <c r="L164" s="24"/>
     </row>
-    <row r="165" spans="3:12">
+    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
@@ -4918,7 +4986,7 @@
       <c r="K165" s="24"/>
       <c r="L165" s="24"/>
     </row>
-    <row r="166" spans="3:12">
+    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -4930,7 +4998,7 @@
       <c r="K166" s="24"/>
       <c r="L166" s="24"/>
     </row>
-    <row r="167" spans="3:12">
+    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -4942,7 +5010,7 @@
       <c r="K167" s="24"/>
       <c r="L167" s="24"/>
     </row>
-    <row r="168" spans="3:12">
+    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -4954,7 +5022,7 @@
       <c r="K168" s="24"/>
       <c r="L168" s="24"/>
     </row>
-    <row r="169" spans="3:12">
+    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -4966,7 +5034,7 @@
       <c r="K169" s="24"/>
       <c r="L169" s="24"/>
     </row>
-    <row r="170" spans="3:12">
+    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -4978,7 +5046,7 @@
       <c r="K170" s="24"/>
       <c r="L170" s="24"/>
     </row>
-    <row r="171" spans="3:12">
+    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -4990,7 +5058,7 @@
       <c r="K171" s="24"/>
       <c r="L171" s="24"/>
     </row>
-    <row r="172" spans="3:12">
+    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -5002,7 +5070,7 @@
       <c r="K172" s="24"/>
       <c r="L172" s="24"/>
     </row>
-    <row r="173" spans="3:12">
+    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -5014,7 +5082,7 @@
       <c r="K173" s="24"/>
       <c r="L173" s="24"/>
     </row>
-    <row r="174" spans="3:12">
+    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -5026,7 +5094,7 @@
       <c r="K174" s="24"/>
       <c r="L174" s="24"/>
     </row>
-    <row r="175" spans="3:12">
+    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -5038,7 +5106,7 @@
       <c r="K175" s="24"/>
       <c r="L175" s="24"/>
     </row>
-    <row r="176" spans="3:12">
+    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -5050,7 +5118,7 @@
       <c r="K176" s="24"/>
       <c r="L176" s="24"/>
     </row>
-    <row r="177" spans="3:12">
+    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -5062,7 +5130,7 @@
       <c r="K177" s="24"/>
       <c r="L177" s="24"/>
     </row>
-    <row r="178" spans="3:12">
+    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -5074,7 +5142,7 @@
       <c r="K178" s="24"/>
       <c r="L178" s="24"/>
     </row>
-    <row r="179" spans="3:12">
+    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -5086,7 +5154,7 @@
       <c r="K179" s="24"/>
       <c r="L179" s="24"/>
     </row>
-    <row r="180" spans="3:12">
+    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -5098,7 +5166,7 @@
       <c r="K180" s="24"/>
       <c r="L180" s="24"/>
     </row>
-    <row r="181" spans="3:12">
+    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -5110,7 +5178,7 @@
       <c r="K181" s="24"/>
       <c r="L181" s="24"/>
     </row>
-    <row r="182" spans="3:12">
+    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -5122,7 +5190,7 @@
       <c r="K182" s="24"/>
       <c r="L182" s="24"/>
     </row>
-    <row r="183" spans="3:12">
+    <row r="183" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -5134,7 +5202,7 @@
       <c r="K183" s="24"/>
       <c r="L183" s="24"/>
     </row>
-    <row r="184" spans="3:12">
+    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -5146,7 +5214,7 @@
       <c r="K184" s="24"/>
       <c r="L184" s="24"/>
     </row>
-    <row r="185" spans="3:12">
+    <row r="185" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -5158,7 +5226,7 @@
       <c r="K185" s="24"/>
       <c r="L185" s="24"/>
     </row>
-    <row r="186" spans="3:12">
+    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -5170,7 +5238,7 @@
       <c r="K186" s="24"/>
       <c r="L186" s="24"/>
     </row>
-    <row r="187" spans="3:12">
+    <row r="187" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -5182,7 +5250,7 @@
       <c r="K187" s="24"/>
       <c r="L187" s="24"/>
     </row>
-    <row r="188" spans="3:12">
+    <row r="188" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -5194,7 +5262,7 @@
       <c r="K188" s="24"/>
       <c r="L188" s="24"/>
     </row>
-    <row r="189" spans="3:12">
+    <row r="189" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -5206,7 +5274,7 @@
       <c r="K189" s="24"/>
       <c r="L189" s="24"/>
     </row>
-    <row r="190" spans="3:12">
+    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5218,7 +5286,7 @@
       <c r="K190" s="24"/>
       <c r="L190" s="24"/>
     </row>
-    <row r="191" spans="3:12">
+    <row r="191" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5230,7 +5298,7 @@
       <c r="K191" s="24"/>
       <c r="L191" s="24"/>
     </row>
-    <row r="192" spans="3:12">
+    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -5242,7 +5310,7 @@
       <c r="K192" s="24"/>
       <c r="L192" s="24"/>
     </row>
-    <row r="193" spans="3:12">
+    <row r="193" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -5254,7 +5322,7 @@
       <c r="K193" s="24"/>
       <c r="L193" s="24"/>
     </row>
-    <row r="194" spans="3:12">
+    <row r="194" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -5266,7 +5334,7 @@
       <c r="K194" s="24"/>
       <c r="L194" s="24"/>
     </row>
-    <row r="195" spans="3:12">
+    <row r="195" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -5278,7 +5346,7 @@
       <c r="K195" s="24"/>
       <c r="L195" s="24"/>
     </row>
-    <row r="196" spans="3:12">
+    <row r="196" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -5290,7 +5358,7 @@
       <c r="K196" s="24"/>
       <c r="L196" s="24"/>
     </row>
-    <row r="197" spans="3:12">
+    <row r="197" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -5302,7 +5370,7 @@
       <c r="K197" s="24"/>
       <c r="L197" s="24"/>
     </row>
-    <row r="198" spans="3:12">
+    <row r="198" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5314,7 +5382,7 @@
       <c r="K198" s="24"/>
       <c r="L198" s="24"/>
     </row>
-    <row r="199" spans="3:12">
+    <row r="199" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -5326,7 +5394,7 @@
       <c r="K199" s="24"/>
       <c r="L199" s="24"/>
     </row>
-    <row r="200" spans="3:12">
+    <row r="200" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -5338,7 +5406,7 @@
       <c r="K200" s="24"/>
       <c r="L200" s="24"/>
     </row>
-    <row r="201" spans="3:12">
+    <row r="201" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -5350,7 +5418,7 @@
       <c r="K201" s="24"/>
       <c r="L201" s="24"/>
     </row>
-    <row r="202" spans="3:12">
+    <row r="202" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -5362,7 +5430,7 @@
       <c r="K202" s="24"/>
       <c r="L202" s="24"/>
     </row>
-    <row r="203" spans="3:12">
+    <row r="203" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -5374,7 +5442,7 @@
       <c r="K203" s="24"/>
       <c r="L203" s="24"/>
     </row>
-    <row r="204" spans="3:12">
+    <row r="204" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -5386,7 +5454,7 @@
       <c r="K204" s="24"/>
       <c r="L204" s="24"/>
     </row>
-    <row r="205" spans="3:12">
+    <row r="205" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -5398,7 +5466,7 @@
       <c r="K205" s="24"/>
       <c r="L205" s="24"/>
     </row>
-    <row r="206" spans="3:12">
+    <row r="206" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -5410,7 +5478,7 @@
       <c r="K206" s="24"/>
       <c r="L206" s="24"/>
     </row>
-    <row r="207" spans="3:12">
+    <row r="207" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -5422,7 +5490,7 @@
       <c r="K207" s="24"/>
       <c r="L207" s="24"/>
     </row>
-    <row r="208" spans="3:12">
+    <row r="208" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C208" s="15"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -5434,7 +5502,7 @@
       <c r="K208" s="24"/>
       <c r="L208" s="24"/>
     </row>
-    <row r="209" spans="3:12">
+    <row r="209" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C209" s="15"/>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -5446,7 +5514,7 @@
       <c r="K209" s="24"/>
       <c r="L209" s="24"/>
     </row>
-    <row r="210" spans="3:12">
+    <row r="210" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -5458,7 +5526,7 @@
       <c r="K210" s="24"/>
       <c r="L210" s="24"/>
     </row>
-    <row r="211" spans="3:12">
+    <row r="211" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -5470,7 +5538,7 @@
       <c r="K211" s="24"/>
       <c r="L211" s="24"/>
     </row>
-    <row r="212" spans="3:12">
+    <row r="212" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -5482,107 +5550,107 @@
       <c r="K212" s="24"/>
       <c r="L212" s="24"/>
     </row>
-    <row r="213" spans="3:12">
+    <row r="213" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J213" s="8"/>
       <c r="K213" s="10"/>
       <c r="L213" s="10"/>
     </row>
-    <row r="214" spans="3:12">
+    <row r="214" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J214" s="8"/>
       <c r="K214" s="10"/>
       <c r="L214" s="10"/>
     </row>
-    <row r="215" spans="3:12">
+    <row r="215" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J215" s="8"/>
       <c r="K215" s="10"/>
       <c r="L215" s="10"/>
     </row>
-    <row r="216" spans="3:12">
+    <row r="216" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J216" s="8"/>
       <c r="K216" s="10"/>
       <c r="L216" s="10"/>
     </row>
-    <row r="217" spans="3:12">
+    <row r="217" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J217" s="8"/>
       <c r="K217" s="10"/>
       <c r="L217" s="10"/>
     </row>
-    <row r="218" spans="3:12">
+    <row r="218" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J218" s="8"/>
       <c r="K218" s="10"/>
       <c r="L218" s="10"/>
     </row>
-    <row r="219" spans="3:12">
+    <row r="219" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J219" s="8"/>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
     </row>
-    <row r="220" spans="3:12">
+    <row r="220" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J220" s="8"/>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
     </row>
-    <row r="221" spans="3:12">
+    <row r="221" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J221" s="8"/>
       <c r="K221" s="10"/>
       <c r="L221" s="10"/>
     </row>
-    <row r="222" spans="3:12">
+    <row r="222" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J222" s="8"/>
       <c r="K222" s="10"/>
       <c r="L222" s="10"/>
     </row>
-    <row r="223" spans="3:12">
+    <row r="223" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J223" s="8"/>
       <c r="K223" s="10"/>
       <c r="L223" s="10"/>
     </row>
-    <row r="224" spans="3:12">
+    <row r="224" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J224" s="8"/>
       <c r="K224" s="10"/>
       <c r="L224" s="10"/>
     </row>
-    <row r="225" spans="10:12">
+    <row r="225" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J225" s="8"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
     </row>
-    <row r="226" spans="10:12">
+    <row r="226" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J226" s="8"/>
       <c r="K226" s="10"/>
       <c r="L226" s="10"/>
     </row>
-    <row r="227" spans="10:12">
+    <row r="227" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J227" s="8"/>
       <c r="K227" s="10"/>
       <c r="L227" s="10"/>
     </row>
-    <row r="228" spans="10:12">
+    <row r="228" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J228" s="8"/>
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
     </row>
-    <row r="229" spans="10:12">
+    <row r="229" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J229" s="8"/>
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
     </row>
-    <row r="230" spans="10:12">
+    <row r="230" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J230" s="8"/>
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
     </row>
-    <row r="231" spans="10:12">
+    <row r="231" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J231" s="8"/>
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
     </row>
-    <row r="232" spans="10:12">
+    <row r="232" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J232" s="8"/>
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
     </row>
-    <row r="233" spans="10:12">
+    <row r="233" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J233" s="8"/>
       <c r="K233" s="10"/>
       <c r="L233" s="10"/>
@@ -5611,11 +5679,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="68" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
@@ -5624,14 +5692,14 @@
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1">
+    <row r="1" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:11" s="32" customFormat="1">
+    <row r="2" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="31"/>
       <c r="C2" s="33"/>
@@ -5639,30 +5707,30 @@
       <c r="E2" s="33"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:11" s="40" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:11" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37"/>
       <c r="C3" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:11" s="45" customFormat="1" ht="46.7" customHeight="1">
+    <row r="4" spans="1:11" s="45" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="41"/>
       <c r="C4" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="44"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:11" s="48" customFormat="1">
+    <row r="5" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="47"/>
       <c r="C5" s="42"/>
@@ -5674,12 +5742,12 @@
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="50">
         <f>SUM(F9:F531)</f>
@@ -5691,7 +5759,7 @@
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="55"/>
       <c r="C7" s="50"/>
@@ -5703,41 +5771,41 @@
       <c r="I7" s="53"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="27.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="27.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="E8" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="58" t="s">
         <v>93</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>94</v>
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="60"/>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="208.7" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="208.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67"/>
       <c r="B9" s="61">
         <v>43128</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="63"/>
       <c r="F9" s="63"/>
@@ -5749,14 +5817,14 @@
       <c r="J9" s="65"/>
       <c r="K9" s="66"/>
     </row>
-    <row r="10" spans="1:11" ht="73.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
       <c r="B10" s="61">
         <v>43129</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="63"/>
       <c r="F10" s="63"/>
@@ -5768,7 +5836,7 @@
       <c r="J10" s="65"/>
       <c r="K10" s="66"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67"/>
       <c r="B11" s="61"/>
       <c r="C11" s="62"/>
@@ -5781,7 +5849,7 @@
       <c r="J11" s="65"/>
       <c r="K11" s="66"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67"/>
       <c r="B12" s="61"/>
       <c r="C12" s="62"/>
@@ -5794,7 +5862,7 @@
       <c r="J12" s="65"/>
       <c r="K12" s="66"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67"/>
       <c r="B13" s="61"/>
       <c r="C13" s="62"/>
@@ -5807,7 +5875,7 @@
       <c r="J13" s="65"/>
       <c r="K13" s="66"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62"/>
@@ -5820,7 +5888,7 @@
       <c r="J14" s="65"/>
       <c r="K14" s="66"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67"/>
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
@@ -5833,7 +5901,7 @@
       <c r="J15" s="65"/>
       <c r="K15" s="66"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="61"/>
       <c r="C16" s="62"/>
@@ -5846,7 +5914,7 @@
       <c r="J16" s="65"/>
       <c r="K16" s="66"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67"/>
       <c r="B17" s="61"/>
       <c r="C17" s="62"/>
@@ -5859,7 +5927,7 @@
       <c r="J17" s="65"/>
       <c r="K17" s="66"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67"/>
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>
@@ -5872,7 +5940,7 @@
       <c r="J18" s="65"/>
       <c r="K18" s="66"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67"/>
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
@@ -5885,7 +5953,7 @@
       <c r="J19" s="65"/>
       <c r="K19" s="66"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67"/>
       <c r="B20" s="61"/>
       <c r="C20" s="62"/>
@@ -5898,7 +5966,7 @@
       <c r="J20" s="65"/>
       <c r="K20" s="66"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67"/>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
@@ -5911,7 +5979,7 @@
       <c r="J21" s="65"/>
       <c r="K21" s="66"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67"/>
       <c r="B22" s="61"/>
       <c r="C22" s="62"/>
@@ -5924,7 +5992,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="66"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67"/>
       <c r="B23" s="61"/>
       <c r="C23" s="62"/>
@@ -5937,7 +6005,7 @@
       <c r="J23" s="65"/>
       <c r="K23" s="66"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="67"/>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
@@ -5950,7 +6018,7 @@
       <c r="J24" s="65"/>
       <c r="K24" s="66"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67"/>
       <c r="B25" s="61"/>
       <c r="C25" s="62"/>
@@ -5963,7 +6031,7 @@
       <c r="J25" s="65"/>
       <c r="K25" s="66"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67"/>
       <c r="B26" s="61"/>
       <c r="C26" s="62"/>
@@ -5976,7 +6044,7 @@
       <c r="J26" s="65"/>
       <c r="K26" s="66"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
@@ -5989,7 +6057,7 @@
       <c r="J27" s="65"/>
       <c r="K27" s="66"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
       <c r="B28" s="61"/>
       <c r="C28" s="62"/>
@@ -6002,7 +6070,7 @@
       <c r="J28" s="65"/>
       <c r="K28" s="66"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67"/>
       <c r="B29" s="61"/>
       <c r="C29" s="62"/>
@@ -6015,7 +6083,7 @@
       <c r="J29" s="65"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="67"/>
       <c r="B30" s="61"/>
       <c r="C30" s="62"/>
@@ -6028,7 +6096,7 @@
       <c r="J30" s="65"/>
       <c r="K30" s="66"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67"/>
       <c r="B31" s="61"/>
       <c r="C31" s="62"/>
@@ -6041,7 +6109,7 @@
       <c r="J31" s="65"/>
       <c r="K31" s="66"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="67"/>
       <c r="B32" s="61"/>
       <c r="C32" s="62"/>
@@ -6054,7 +6122,7 @@
       <c r="J32" s="65"/>
       <c r="K32" s="66"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="67"/>
       <c r="B33" s="61"/>
       <c r="C33" s="62"/>
@@ -6067,7 +6135,7 @@
       <c r="J33" s="65"/>
       <c r="K33" s="66"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="67"/>
       <c r="B34" s="61"/>
       <c r="C34" s="62"/>
@@ -6080,7 +6148,7 @@
       <c r="J34" s="65"/>
       <c r="K34" s="66"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67"/>
       <c r="B35" s="61"/>
       <c r="C35" s="62"/>
@@ -6093,7 +6161,7 @@
       <c r="J35" s="65"/>
       <c r="K35" s="66"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67"/>
       <c r="B36" s="61"/>
       <c r="C36" s="62"/>
@@ -6106,7 +6174,7 @@
       <c r="J36" s="65"/>
       <c r="K36" s="66"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="67"/>
       <c r="B37" s="61"/>
       <c r="C37" s="62"/>
@@ -6119,7 +6187,7 @@
       <c r="J37" s="65"/>
       <c r="K37" s="66"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67"/>
       <c r="B38" s="61"/>
       <c r="C38" s="62"/>
@@ -6132,7 +6200,7 @@
       <c r="J38" s="65"/>
       <c r="K38" s="66"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
       <c r="B39" s="61"/>
       <c r="C39" s="62"/>
@@ -6145,7 +6213,7 @@
       <c r="J39" s="65"/>
       <c r="K39" s="66"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="67"/>
       <c r="B40" s="61"/>
       <c r="C40" s="62"/>
@@ -6158,7 +6226,7 @@
       <c r="J40" s="65"/>
       <c r="K40" s="66"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="B41" s="61"/>
       <c r="C41" s="62"/>
@@ -6171,7 +6239,7 @@
       <c r="J41" s="65"/>
       <c r="K41" s="66"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67"/>
       <c r="B42" s="61"/>
       <c r="C42" s="62"/>
@@ -6184,7 +6252,7 @@
       <c r="J42" s="65"/>
       <c r="K42" s="66"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="67"/>
       <c r="B43" s="61"/>
       <c r="C43" s="62"/>
@@ -6197,7 +6265,7 @@
       <c r="J43" s="65"/>
       <c r="K43" s="66"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67"/>
       <c r="B44" s="61"/>
       <c r="C44" s="62"/>
@@ -6210,7 +6278,7 @@
       <c r="J44" s="65"/>
       <c r="K44" s="66"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="67"/>
       <c r="B45" s="61"/>
       <c r="C45" s="62"/>
@@ -6223,7 +6291,7 @@
       <c r="J45" s="65"/>
       <c r="K45" s="66"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="67"/>
       <c r="B46" s="61"/>
       <c r="C46" s="62"/>
@@ -6236,7 +6304,7 @@
       <c r="J46" s="65"/>
       <c r="K46" s="66"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67"/>
       <c r="B47" s="61"/>
       <c r="C47" s="62"/>
@@ -6249,7 +6317,7 @@
       <c r="J47" s="65"/>
       <c r="K47" s="66"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="67"/>
       <c r="B48" s="61"/>
       <c r="C48" s="62"/>
@@ -6262,7 +6330,7 @@
       <c r="J48" s="65"/>
       <c r="K48" s="66"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="67"/>
       <c r="B49" s="61"/>
       <c r="C49" s="62"/>
@@ -6275,7 +6343,7 @@
       <c r="J49" s="65"/>
       <c r="K49" s="66"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="67"/>
       <c r="B50" s="61"/>
       <c r="C50" s="62"/>
@@ -6288,7 +6356,7 @@
       <c r="J50" s="65"/>
       <c r="K50" s="66"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="67"/>
       <c r="B51" s="61"/>
       <c r="C51" s="62"/>
@@ -6301,7 +6369,7 @@
       <c r="J51" s="65"/>
       <c r="K51" s="66"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="67"/>
       <c r="B52" s="61"/>
       <c r="C52" s="62"/>
@@ -6314,7 +6382,7 @@
       <c r="J52" s="65"/>
       <c r="K52" s="66"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="67"/>
       <c r="B53" s="61"/>
       <c r="C53" s="62"/>
@@ -6327,7 +6395,7 @@
       <c r="J53" s="65"/>
       <c r="K53" s="66"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="67"/>
       <c r="B54" s="61"/>
       <c r="C54" s="62"/>
@@ -6340,7 +6408,7 @@
       <c r="J54" s="65"/>
       <c r="K54" s="66"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="67"/>
       <c r="B55" s="61"/>
       <c r="C55" s="62"/>
@@ -6353,7 +6421,7 @@
       <c r="J55" s="65"/>
       <c r="K55" s="66"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67"/>
       <c r="B56" s="61"/>
       <c r="C56" s="62"/>
@@ -6366,7 +6434,7 @@
       <c r="J56" s="65"/>
       <c r="K56" s="66"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="67"/>
       <c r="B57" s="61"/>
       <c r="C57" s="62"/>
@@ -6379,7 +6447,7 @@
       <c r="J57" s="65"/>
       <c r="K57" s="66"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="67"/>
       <c r="B58" s="61"/>
       <c r="C58" s="62"/>
@@ -6392,7 +6460,7 @@
       <c r="J58" s="65"/>
       <c r="K58" s="66"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="67"/>
       <c r="B59" s="61"/>
       <c r="C59" s="62"/>
@@ -6405,7 +6473,7 @@
       <c r="J59" s="65"/>
       <c r="K59" s="66"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="67"/>
       <c r="B60" s="61"/>
       <c r="C60" s="62"/>
@@ -6418,7 +6486,7 @@
       <c r="J60" s="65"/>
       <c r="K60" s="66"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="67"/>
       <c r="B61" s="61"/>
       <c r="C61" s="62"/>
@@ -6431,7 +6499,7 @@
       <c r="J61" s="65"/>
       <c r="K61" s="66"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="67"/>
       <c r="B62" s="61"/>
       <c r="C62" s="62"/>
@@ -6444,7 +6512,7 @@
       <c r="J62" s="65"/>
       <c r="K62" s="66"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="67"/>
       <c r="B63" s="61"/>
       <c r="C63" s="62"/>
@@ -6457,7 +6525,7 @@
       <c r="J63" s="65"/>
       <c r="K63" s="66"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="67"/>
       <c r="B64" s="61"/>
       <c r="C64" s="62"/>
@@ -6470,7 +6538,7 @@
       <c r="J64" s="65"/>
       <c r="K64" s="66"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="67"/>
       <c r="B65" s="61"/>
       <c r="C65" s="62"/>
@@ -6483,7 +6551,7 @@
       <c r="J65" s="65"/>
       <c r="K65" s="66"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="67"/>
       <c r="B66" s="61"/>
       <c r="C66" s="62"/>
@@ -6496,7 +6564,7 @@
       <c r="J66" s="65"/>
       <c r="K66" s="66"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="67"/>
       <c r="B67" s="61"/>
       <c r="C67" s="62"/>
@@ -6509,7 +6577,7 @@
       <c r="J67" s="65"/>
       <c r="K67" s="66"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="67"/>
       <c r="B68" s="61"/>
       <c r="C68" s="62"/>
@@ -6522,7 +6590,7 @@
       <c r="J68" s="65"/>
       <c r="K68" s="66"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="67"/>
       <c r="B69" s="61"/>
       <c r="C69" s="62"/>
@@ -6535,7 +6603,7 @@
       <c r="J69" s="65"/>
       <c r="K69" s="66"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="67"/>
       <c r="B70" s="61"/>
       <c r="C70" s="62"/>
@@ -6548,7 +6616,7 @@
       <c r="J70" s="65"/>
       <c r="K70" s="66"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="67"/>
       <c r="B71" s="61"/>
       <c r="C71" s="62"/>
@@ -6561,7 +6629,7 @@
       <c r="J71" s="65"/>
       <c r="K71" s="66"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="67"/>
       <c r="B72" s="61"/>
       <c r="C72" s="62"/>
@@ -6574,7 +6642,7 @@
       <c r="J72" s="65"/>
       <c r="K72" s="66"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="67"/>
       <c r="B73" s="61"/>
       <c r="C73" s="62"/>
@@ -6587,7 +6655,7 @@
       <c r="J73" s="65"/>
       <c r="K73" s="66"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="67"/>
       <c r="B74" s="61"/>
       <c r="C74" s="62"/>
@@ -6600,7 +6668,7 @@
       <c r="J74" s="65"/>
       <c r="K74" s="66"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
       <c r="B75" s="61"/>
       <c r="C75" s="62"/>
@@ -6613,7 +6681,7 @@
       <c r="J75" s="65"/>
       <c r="K75" s="66"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="67"/>
       <c r="B76" s="61"/>
       <c r="C76" s="62"/>
@@ -6626,7 +6694,7 @@
       <c r="J76" s="65"/>
       <c r="K76" s="66"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="67"/>
       <c r="B77" s="61"/>
       <c r="C77" s="62"/>
@@ -6639,7 +6707,7 @@
       <c r="J77" s="65"/>
       <c r="K77" s="66"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="67"/>
       <c r="B78" s="61"/>
       <c r="C78" s="62"/>
@@ -6652,7 +6720,7 @@
       <c r="J78" s="65"/>
       <c r="K78" s="66"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
       <c r="B79" s="61"/>
       <c r="C79" s="62"/>
@@ -6665,7 +6733,7 @@
       <c r="J79" s="65"/>
       <c r="K79" s="66"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="67"/>
       <c r="B80" s="61"/>
       <c r="C80" s="62"/>
@@ -6678,7 +6746,7 @@
       <c r="J80" s="65"/>
       <c r="K80" s="66"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="67"/>
       <c r="B81" s="61"/>
       <c r="C81" s="62"/>
@@ -6691,7 +6759,7 @@
       <c r="J81" s="65"/>
       <c r="K81" s="66"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="67"/>
       <c r="B82" s="61"/>
       <c r="C82" s="62"/>
@@ -6704,7 +6772,7 @@
       <c r="J82" s="65"/>
       <c r="K82" s="66"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="67"/>
       <c r="B83" s="61"/>
       <c r="C83" s="62"/>
@@ -6717,7 +6785,7 @@
       <c r="J83" s="65"/>
       <c r="K83" s="66"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="67"/>
       <c r="B84" s="61"/>
       <c r="C84" s="62"/>
@@ -6730,7 +6798,7 @@
       <c r="J84" s="65"/>
       <c r="K84" s="66"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="67"/>
       <c r="B85" s="61"/>
       <c r="C85" s="62"/>
@@ -6743,7 +6811,7 @@
       <c r="J85" s="65"/>
       <c r="K85" s="66"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="67"/>
       <c r="B86" s="61"/>
       <c r="C86" s="62"/>
@@ -6756,7 +6824,7 @@
       <c r="J86" s="65"/>
       <c r="K86" s="66"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="67"/>
       <c r="B87" s="61"/>
       <c r="C87" s="62"/>
@@ -6769,7 +6837,7 @@
       <c r="J87" s="65"/>
       <c r="K87" s="66"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="67"/>
       <c r="B88" s="61"/>
       <c r="C88" s="62"/>
@@ -6782,7 +6850,7 @@
       <c r="J88" s="65"/>
       <c r="K88" s="66"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="67"/>
       <c r="B89" s="61"/>
       <c r="C89" s="62"/>
@@ -6795,7 +6863,7 @@
       <c r="J89" s="65"/>
       <c r="K89" s="66"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="67"/>
       <c r="B90" s="61"/>
       <c r="C90" s="62"/>
@@ -6808,7 +6876,7 @@
       <c r="J90" s="65"/>
       <c r="K90" s="66"/>
     </row>
-    <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="67"/>
       <c r="B91" s="61"/>
       <c r="C91" s="62"/>
@@ -6821,7 +6889,7 @@
       <c r="J91" s="65"/>
       <c r="K91" s="66"/>
     </row>
-    <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="67"/>
       <c r="B92" s="61"/>
       <c r="C92" s="62"/>
@@ -6834,7 +6902,7 @@
       <c r="J92" s="65"/>
       <c r="K92" s="66"/>
     </row>
-    <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="67"/>
       <c r="B93" s="61"/>
       <c r="C93" s="62"/>
@@ -6847,7 +6915,7 @@
       <c r="J93" s="65"/>
       <c r="K93" s="66"/>
     </row>
-    <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="67"/>
       <c r="B94" s="61"/>
       <c r="C94" s="62"/>
@@ -6860,7 +6928,7 @@
       <c r="J94" s="65"/>
       <c r="K94" s="66"/>
     </row>
-    <row r="95" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="95" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="67"/>
       <c r="B95" s="61"/>
       <c r="C95" s="62"/>
@@ -6873,7 +6941,7 @@
       <c r="J95" s="65"/>
       <c r="K95" s="66"/>
     </row>
-    <row r="96" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="96" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="67"/>
       <c r="B96" s="61"/>
       <c r="C96" s="62"/>
@@ -6886,7 +6954,7 @@
       <c r="J96" s="65"/>
       <c r="K96" s="66"/>
     </row>
-    <row r="97" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="97" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="67"/>
       <c r="B97" s="61"/>
       <c r="C97" s="62"/>
@@ -6899,7 +6967,7 @@
       <c r="J97" s="65"/>
       <c r="K97" s="66"/>
     </row>
-    <row r="98" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="98" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="67"/>
       <c r="B98" s="61"/>
       <c r="C98" s="62"/>
@@ -6912,7 +6980,7 @@
       <c r="J98" s="65"/>
       <c r="K98" s="66"/>
     </row>
-    <row r="99" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="99" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="67"/>
       <c r="B99" s="61"/>
       <c r="C99" s="62"/>
@@ -6925,7 +6993,7 @@
       <c r="J99" s="65"/>
       <c r="K99" s="66"/>
     </row>
-    <row r="100" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="100" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="67"/>
       <c r="B100" s="61"/>
       <c r="C100" s="62"/>
@@ -6938,7 +7006,7 @@
       <c r="J100" s="65"/>
       <c r="K100" s="66"/>
     </row>
-    <row r="101" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="101" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="67"/>
       <c r="B101" s="61"/>
       <c r="C101" s="62"/>
@@ -6951,7 +7019,7 @@
       <c r="J101" s="65"/>
       <c r="K101" s="66"/>
     </row>
-    <row r="102" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="102" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="67"/>
       <c r="B102" s="61"/>
       <c r="C102" s="62"/>
@@ -6964,7 +7032,7 @@
       <c r="J102" s="65"/>
       <c r="K102" s="66"/>
     </row>
-    <row r="103" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="103" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="67"/>
       <c r="B103" s="61"/>
       <c r="C103" s="62"/>
@@ -6977,7 +7045,7 @@
       <c r="J103" s="65"/>
       <c r="K103" s="66"/>
     </row>
-    <row r="104" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="104" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="67"/>
       <c r="B104" s="61"/>
       <c r="C104" s="62"/>
@@ -6990,7 +7058,7 @@
       <c r="J104" s="65"/>
       <c r="K104" s="66"/>
     </row>
-    <row r="105" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="105" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="67"/>
       <c r="B105" s="61"/>
       <c r="C105" s="62"/>
@@ -7003,7 +7071,7 @@
       <c r="J105" s="65"/>
       <c r="K105" s="66"/>
     </row>
-    <row r="106" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="106" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="67"/>
       <c r="B106" s="61"/>
       <c r="C106" s="62"/>
@@ -7016,7 +7084,7 @@
       <c r="J106" s="65"/>
       <c r="K106" s="66"/>
     </row>
-    <row r="107" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="107" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="67"/>
       <c r="B107" s="61"/>
       <c r="C107" s="62"/>
@@ -7029,7 +7097,7 @@
       <c r="J107" s="65"/>
       <c r="K107" s="66"/>
     </row>
-    <row r="108" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="108" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="67"/>
       <c r="B108" s="61"/>
       <c r="C108" s="62"/>
@@ -7042,7 +7110,7 @@
       <c r="J108" s="65"/>
       <c r="K108" s="66"/>
     </row>
-    <row r="109" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="109" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="67"/>
       <c r="B109" s="61"/>
       <c r="C109" s="62"/>
@@ -7055,7 +7123,7 @@
       <c r="J109" s="65"/>
       <c r="K109" s="66"/>
     </row>
-    <row r="110" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="110" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="67"/>
       <c r="B110" s="61"/>
       <c r="C110" s="62"/>
@@ -7068,7 +7136,7 @@
       <c r="J110" s="65"/>
       <c r="K110" s="66"/>
     </row>
-    <row r="111" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="111" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="67"/>
       <c r="B111" s="61"/>
       <c r="C111" s="62"/>
@@ -7081,7 +7149,7 @@
       <c r="J111" s="65"/>
       <c r="K111" s="66"/>
     </row>
-    <row r="112" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="112" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="67"/>
       <c r="B112" s="61"/>
       <c r="C112" s="62"/>
@@ -7094,7 +7162,7 @@
       <c r="J112" s="65"/>
       <c r="K112" s="66"/>
     </row>
-    <row r="113" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="113" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="67"/>
       <c r="B113" s="61"/>
       <c r="C113" s="62"/>
@@ -7107,7 +7175,7 @@
       <c r="J113" s="65"/>
       <c r="K113" s="66"/>
     </row>
-    <row r="114" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="114" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="67"/>
       <c r="B114" s="61"/>
       <c r="C114" s="62"/>
@@ -7120,7 +7188,7 @@
       <c r="J114" s="65"/>
       <c r="K114" s="66"/>
     </row>
-    <row r="115" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="115" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="67"/>
       <c r="B115" s="61"/>
       <c r="C115" s="62"/>
@@ -7133,7 +7201,7 @@
       <c r="J115" s="65"/>
       <c r="K115" s="66"/>
     </row>
-    <row r="116" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="116" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="67"/>
       <c r="B116" s="61"/>
       <c r="C116" s="62"/>
@@ -7146,7 +7214,7 @@
       <c r="J116" s="65"/>
       <c r="K116" s="66"/>
     </row>
-    <row r="117" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="117" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="67"/>
       <c r="B117" s="61"/>
       <c r="C117" s="62"/>
@@ -7159,7 +7227,7 @@
       <c r="J117" s="65"/>
       <c r="K117" s="66"/>
     </row>
-    <row r="118" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="118" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="67"/>
       <c r="B118" s="61"/>
       <c r="C118" s="62"/>
@@ -7172,7 +7240,7 @@
       <c r="J118" s="65"/>
       <c r="K118" s="66"/>
     </row>
-    <row r="119" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="119" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="67"/>
       <c r="B119" s="61"/>
       <c r="C119" s="62"/>
@@ -7185,7 +7253,7 @@
       <c r="J119" s="65"/>
       <c r="K119" s="66"/>
     </row>
-    <row r="120" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="120" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="67"/>
       <c r="B120" s="61"/>
       <c r="C120" s="62"/>
@@ -7198,7 +7266,7 @@
       <c r="J120" s="65"/>
       <c r="K120" s="66"/>
     </row>
-    <row r="121" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="121" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="67"/>
       <c r="B121" s="61"/>
       <c r="C121" s="62"/>
@@ -7211,7 +7279,7 @@
       <c r="J121" s="65"/>
       <c r="K121" s="66"/>
     </row>
-    <row r="122" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="122" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="67"/>
       <c r="B122" s="61"/>
       <c r="C122" s="62"/>
@@ -7224,7 +7292,7 @@
       <c r="J122" s="65"/>
       <c r="K122" s="66"/>
     </row>
-    <row r="123" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="123" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="67"/>
       <c r="B123" s="61"/>
       <c r="C123" s="62"/>
@@ -7237,7 +7305,7 @@
       <c r="J123" s="65"/>
       <c r="K123" s="66"/>
     </row>
-    <row r="124" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="124" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="67"/>
       <c r="B124" s="61"/>
       <c r="C124" s="62"/>
@@ -7250,7 +7318,7 @@
       <c r="J124" s="65"/>
       <c r="K124" s="66"/>
     </row>
-    <row r="125" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="125" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="67"/>
       <c r="B125" s="61"/>
       <c r="C125" s="62"/>
@@ -7263,7 +7331,7 @@
       <c r="J125" s="65"/>
       <c r="K125" s="66"/>
     </row>
-    <row r="126" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="126" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="67"/>
       <c r="B126" s="61"/>
       <c r="C126" s="62"/>
@@ -7276,7 +7344,7 @@
       <c r="J126" s="65"/>
       <c r="K126" s="66"/>
     </row>
-    <row r="127" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="127" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="67"/>
       <c r="B127" s="61"/>
       <c r="C127" s="62"/>
@@ -7289,7 +7357,7 @@
       <c r="J127" s="65"/>
       <c r="K127" s="66"/>
     </row>
-    <row r="128" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="128" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="67"/>
       <c r="B128" s="61"/>
       <c r="C128" s="62"/>
@@ -7302,7 +7370,7 @@
       <c r="J128" s="65"/>
       <c r="K128" s="66"/>
     </row>
-    <row r="129" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="129" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="67"/>
       <c r="B129" s="61"/>
       <c r="C129" s="62"/>
@@ -7315,7 +7383,7 @@
       <c r="J129" s="65"/>
       <c r="K129" s="66"/>
     </row>
-    <row r="130" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="130" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="67"/>
       <c r="B130" s="61"/>
       <c r="C130" s="62"/>
@@ -7328,7 +7396,7 @@
       <c r="J130" s="65"/>
       <c r="K130" s="66"/>
     </row>
-    <row r="131" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="131" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="67"/>
       <c r="B131" s="61"/>
       <c r="C131" s="62"/>
@@ -7341,7 +7409,7 @@
       <c r="J131" s="65"/>
       <c r="K131" s="66"/>
     </row>
-    <row r="132" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="132" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="67"/>
       <c r="B132" s="61"/>
       <c r="C132" s="62"/>
@@ -7354,7 +7422,7 @@
       <c r="J132" s="65"/>
       <c r="K132" s="66"/>
     </row>
-    <row r="133" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="133" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="67"/>
       <c r="B133" s="61"/>
       <c r="C133" s="62"/>
@@ -7367,7 +7435,7 @@
       <c r="J133" s="65"/>
       <c r="K133" s="66"/>
     </row>
-    <row r="134" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="134" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="67"/>
       <c r="B134" s="61"/>
       <c r="C134" s="62"/>
@@ -7380,7 +7448,7 @@
       <c r="J134" s="65"/>
       <c r="K134" s="66"/>
     </row>
-    <row r="135" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="135" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="67"/>
       <c r="B135" s="61"/>
       <c r="C135" s="62"/>
@@ -7393,7 +7461,7 @@
       <c r="J135" s="65"/>
       <c r="K135" s="66"/>
     </row>
-    <row r="136" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="136" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="67"/>
       <c r="B136" s="61"/>
       <c r="C136" s="62"/>
@@ -7406,7 +7474,7 @@
       <c r="J136" s="65"/>
       <c r="K136" s="66"/>
     </row>
-    <row r="137" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="137" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="67"/>
       <c r="B137" s="61"/>
       <c r="C137" s="62"/>
@@ -7419,7 +7487,7 @@
       <c r="J137" s="65"/>
       <c r="K137" s="66"/>
     </row>
-    <row r="138" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="138" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="67"/>
       <c r="B138" s="61"/>
       <c r="C138" s="62"/>
@@ -7432,7 +7500,7 @@
       <c r="J138" s="65"/>
       <c r="K138" s="66"/>
     </row>
-    <row r="139" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="139" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="67"/>
       <c r="B139" s="61"/>
       <c r="C139" s="62"/>
@@ -7445,7 +7513,7 @@
       <c r="J139" s="65"/>
       <c r="K139" s="66"/>
     </row>
-    <row r="140" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="140" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="67"/>
       <c r="B140" s="61"/>
       <c r="C140" s="62"/>
@@ -7458,7 +7526,7 @@
       <c r="J140" s="65"/>
       <c r="K140" s="66"/>
     </row>
-    <row r="141" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="141" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="67"/>
       <c r="B141" s="61"/>
       <c r="C141" s="62"/>
@@ -7471,7 +7539,7 @@
       <c r="J141" s="65"/>
       <c r="K141" s="66"/>
     </row>
-    <row r="142" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="142" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="67"/>
       <c r="B142" s="61"/>
       <c r="C142" s="62"/>
@@ -7484,7 +7552,7 @@
       <c r="J142" s="65"/>
       <c r="K142" s="66"/>
     </row>
-    <row r="143" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="143" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="67"/>
       <c r="B143" s="61"/>
       <c r="C143" s="62"/>
@@ -7497,7 +7565,7 @@
       <c r="J143" s="65"/>
       <c r="K143" s="66"/>
     </row>
-    <row r="144" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="144" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="67"/>
       <c r="B144" s="61"/>
       <c r="C144" s="62"/>
@@ -7510,7 +7578,7 @@
       <c r="J144" s="65"/>
       <c r="K144" s="66"/>
     </row>
-    <row r="145" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="145" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="67"/>
       <c r="B145" s="61"/>
       <c r="C145" s="62"/>
@@ -7523,7 +7591,7 @@
       <c r="J145" s="65"/>
       <c r="K145" s="66"/>
     </row>
-    <row r="146" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="146" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="67"/>
       <c r="B146" s="61"/>
       <c r="C146" s="62"/>
@@ -7536,7 +7604,7 @@
       <c r="J146" s="65"/>
       <c r="K146" s="66"/>
     </row>
-    <row r="147" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="147" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="67"/>
       <c r="B147" s="61"/>
       <c r="C147" s="62"/>
@@ -7549,7 +7617,7 @@
       <c r="J147" s="65"/>
       <c r="K147" s="66"/>
     </row>
-    <row r="148" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="148" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="67"/>
       <c r="B148" s="61"/>
       <c r="C148" s="62"/>
@@ -7562,7 +7630,7 @@
       <c r="J148" s="65"/>
       <c r="K148" s="66"/>
     </row>
-    <row r="149" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="149" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="67"/>
       <c r="B149" s="61"/>
       <c r="C149" s="62"/>
@@ -7575,7 +7643,7 @@
       <c r="J149" s="65"/>
       <c r="K149" s="66"/>
     </row>
-    <row r="150" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="150" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="67"/>
       <c r="B150" s="61"/>
       <c r="C150" s="62"/>
@@ -7588,7 +7656,7 @@
       <c r="J150" s="65"/>
       <c r="K150" s="66"/>
     </row>
-    <row r="151" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="151" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="67"/>
       <c r="B151" s="61"/>
       <c r="C151" s="62"/>
@@ -7601,7 +7669,7 @@
       <c r="J151" s="65"/>
       <c r="K151" s="66"/>
     </row>
-    <row r="152" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="152" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="67"/>
       <c r="B152" s="61"/>
       <c r="C152" s="62"/>
@@ -7614,7 +7682,7 @@
       <c r="J152" s="65"/>
       <c r="K152" s="66"/>
     </row>
-    <row r="153" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="153" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="67"/>
       <c r="B153" s="61"/>
       <c r="C153" s="62"/>
@@ -7627,7 +7695,7 @@
       <c r="J153" s="65"/>
       <c r="K153" s="66"/>
     </row>
-    <row r="154" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="154" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="67"/>
       <c r="B154" s="61"/>
       <c r="C154" s="62"/>
@@ -7640,7 +7708,7 @@
       <c r="J154" s="65"/>
       <c r="K154" s="66"/>
     </row>
-    <row r="155" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="155" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="67"/>
       <c r="B155" s="61"/>
       <c r="C155" s="62"/>
@@ -7653,7 +7721,7 @@
       <c r="J155" s="65"/>
       <c r="K155" s="66"/>
     </row>
-    <row r="156" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="156" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="67"/>
       <c r="B156" s="61"/>
       <c r="C156" s="62"/>
@@ -7666,7 +7734,7 @@
       <c r="J156" s="65"/>
       <c r="K156" s="66"/>
     </row>
-    <row r="157" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="157" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="67"/>
       <c r="B157" s="61"/>
       <c r="C157" s="62"/>
@@ -7679,7 +7747,7 @@
       <c r="J157" s="65"/>
       <c r="K157" s="66"/>
     </row>
-    <row r="158" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="158" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="67"/>
       <c r="B158" s="61"/>
       <c r="C158" s="62"/>
@@ -7692,7 +7760,7 @@
       <c r="J158" s="65"/>
       <c r="K158" s="66"/>
     </row>
-    <row r="159" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="159" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="67"/>
       <c r="B159" s="61"/>
       <c r="C159" s="62"/>
@@ -7705,7 +7773,7 @@
       <c r="J159" s="65"/>
       <c r="K159" s="66"/>
     </row>
-    <row r="160" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="160" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="67"/>
       <c r="B160" s="61"/>
       <c r="C160" s="62"/>
@@ -7718,7 +7786,7 @@
       <c r="J160" s="65"/>
       <c r="K160" s="66"/>
     </row>
-    <row r="161" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="161" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="67"/>
       <c r="B161" s="61"/>
       <c r="C161" s="62"/>
@@ -7731,7 +7799,7 @@
       <c r="J161" s="65"/>
       <c r="K161" s="66"/>
     </row>
-    <row r="162" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="162" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="67"/>
       <c r="B162" s="61"/>
       <c r="C162" s="62"/>
@@ -7744,7 +7812,7 @@
       <c r="J162" s="65"/>
       <c r="K162" s="66"/>
     </row>
-    <row r="163" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="163" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="67"/>
       <c r="B163" s="61"/>
       <c r="C163" s="62"/>
@@ -7757,7 +7825,7 @@
       <c r="J163" s="65"/>
       <c r="K163" s="66"/>
     </row>
-    <row r="164" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="164" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="67"/>
       <c r="B164" s="61"/>
       <c r="C164" s="62"/>
@@ -7770,7 +7838,7 @@
       <c r="J164" s="65"/>
       <c r="K164" s="66"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="165" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="67"/>
       <c r="B165" s="61"/>
       <c r="C165" s="62"/>
@@ -7783,7 +7851,7 @@
       <c r="J165" s="65"/>
       <c r="K165" s="66"/>
     </row>
-    <row r="166" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="166" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="67"/>
       <c r="B166" s="61"/>
       <c r="C166" s="62"/>
@@ -7796,7 +7864,7 @@
       <c r="J166" s="65"/>
       <c r="K166" s="66"/>
     </row>
-    <row r="167" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="167" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="67"/>
       <c r="B167" s="61"/>
       <c r="C167" s="62"/>
@@ -7809,7 +7877,7 @@
       <c r="J167" s="65"/>
       <c r="K167" s="66"/>
     </row>
-    <row r="168" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="168" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="67"/>
       <c r="B168" s="61"/>
       <c r="C168" s="62"/>
@@ -7822,7 +7890,7 @@
       <c r="J168" s="65"/>
       <c r="K168" s="66"/>
     </row>
-    <row r="169" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="169" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="67"/>
       <c r="B169" s="61"/>
       <c r="C169" s="62"/>
@@ -7835,7 +7903,7 @@
       <c r="J169" s="65"/>
       <c r="K169" s="66"/>
     </row>
-    <row r="170" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="170" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="67"/>
       <c r="B170" s="61"/>
       <c r="C170" s="62"/>
@@ -7848,7 +7916,7 @@
       <c r="J170" s="65"/>
       <c r="K170" s="66"/>
     </row>
-    <row r="171" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="171" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="67"/>
       <c r="B171" s="61"/>
       <c r="C171" s="62"/>
@@ -7861,7 +7929,7 @@
       <c r="J171" s="65"/>
       <c r="K171" s="66"/>
     </row>
-    <row r="172" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="172" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="67"/>
       <c r="B172" s="61"/>
       <c r="C172" s="62"/>
@@ -7874,7 +7942,7 @@
       <c r="J172" s="65"/>
       <c r="K172" s="66"/>
     </row>
-    <row r="173" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="173" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="67"/>
       <c r="B173" s="61"/>
       <c r="C173" s="62"/>
@@ -7887,7 +7955,7 @@
       <c r="J173" s="65"/>
       <c r="K173" s="66"/>
     </row>
-    <row r="174" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="174" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="67"/>
       <c r="B174" s="61"/>
       <c r="C174" s="62"/>
@@ -7900,7 +7968,7 @@
       <c r="J174" s="65"/>
       <c r="K174" s="66"/>
     </row>
-    <row r="175" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="175" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="67"/>
       <c r="B175" s="61"/>
       <c r="C175" s="62"/>
@@ -7913,7 +7981,7 @@
       <c r="J175" s="65"/>
       <c r="K175" s="66"/>
     </row>
-    <row r="176" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="176" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="67"/>
       <c r="B176" s="61"/>
       <c r="C176" s="62"/>
@@ -7926,7 +7994,7 @@
       <c r="J176" s="65"/>
       <c r="K176" s="66"/>
     </row>
-    <row r="177" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="177" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="67"/>
       <c r="B177" s="61"/>
       <c r="C177" s="62"/>
@@ -7939,7 +8007,7 @@
       <c r="J177" s="65"/>
       <c r="K177" s="66"/>
     </row>
-    <row r="178" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="178" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="67"/>
       <c r="B178" s="61"/>
       <c r="C178" s="62"/>
@@ -7952,7 +8020,7 @@
       <c r="J178" s="65"/>
       <c r="K178" s="66"/>
     </row>
-    <row r="179" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="179" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="67"/>
       <c r="B179" s="61"/>
       <c r="C179" s="62"/>
@@ -7965,7 +8033,7 @@
       <c r="J179" s="65"/>
       <c r="K179" s="66"/>
     </row>
-    <row r="180" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="180" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="67"/>
       <c r="B180" s="61"/>
       <c r="C180" s="62"/>
@@ -7978,7 +8046,7 @@
       <c r="J180" s="65"/>
       <c r="K180" s="66"/>
     </row>
-    <row r="181" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="181" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="67"/>
       <c r="B181" s="61"/>
       <c r="C181" s="62"/>
@@ -7991,7 +8059,7 @@
       <c r="J181" s="65"/>
       <c r="K181" s="66"/>
     </row>
-    <row r="182" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="182" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="67"/>
       <c r="B182" s="61"/>
       <c r="C182" s="62"/>
@@ -8004,7 +8072,7 @@
       <c r="J182" s="65"/>
       <c r="K182" s="66"/>
     </row>
-    <row r="183" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="183" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="67"/>
       <c r="B183" s="61"/>
       <c r="C183" s="62"/>
@@ -8017,7 +8085,7 @@
       <c r="J183" s="65"/>
       <c r="K183" s="66"/>
     </row>
-    <row r="184" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="184" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="67"/>
       <c r="B184" s="61"/>
       <c r="C184" s="62"/>
@@ -8030,7 +8098,7 @@
       <c r="J184" s="65"/>
       <c r="K184" s="66"/>
     </row>
-    <row r="185" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="185" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="67"/>
       <c r="B185" s="61"/>
       <c r="C185" s="62"/>
@@ -8043,7 +8111,7 @@
       <c r="J185" s="65"/>
       <c r="K185" s="66"/>
     </row>
-    <row r="186" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="186" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="67"/>
       <c r="B186" s="61"/>
       <c r="C186" s="62"/>
@@ -8056,7 +8124,7 @@
       <c r="J186" s="65"/>
       <c r="K186" s="66"/>
     </row>
-    <row r="187" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="187" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="67"/>
       <c r="B187" s="61"/>
       <c r="C187" s="62"/>
@@ -8069,7 +8137,7 @@
       <c r="J187" s="65"/>
       <c r="K187" s="66"/>
     </row>
-    <row r="188" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="188" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="67"/>
       <c r="B188" s="61"/>
       <c r="C188" s="62"/>
@@ -8082,7 +8150,7 @@
       <c r="J188" s="65"/>
       <c r="K188" s="66"/>
     </row>
-    <row r="189" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="189" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="67"/>
       <c r="B189" s="61"/>
       <c r="C189" s="62"/>
@@ -8095,7 +8163,7 @@
       <c r="J189" s="65"/>
       <c r="K189" s="66"/>
     </row>
-    <row r="190" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="190" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="67"/>
       <c r="B190" s="61"/>
       <c r="C190" s="62"/>
@@ -8108,7 +8176,7 @@
       <c r="J190" s="65"/>
       <c r="K190" s="66"/>
     </row>
-    <row r="191" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="191" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="67"/>
       <c r="B191" s="61"/>
       <c r="C191" s="62"/>
@@ -8121,7 +8189,7 @@
       <c r="J191" s="65"/>
       <c r="K191" s="66"/>
     </row>
-    <row r="192" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="192" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="67"/>
       <c r="B192" s="61"/>
       <c r="C192" s="62"/>
@@ -8134,7 +8202,7 @@
       <c r="J192" s="65"/>
       <c r="K192" s="66"/>
     </row>
-    <row r="193" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="193" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="67"/>
       <c r="B193" s="61"/>
       <c r="C193" s="62"/>
@@ -8147,7 +8215,7 @@
       <c r="J193" s="65"/>
       <c r="K193" s="66"/>
     </row>
-    <row r="194" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="194" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="67"/>
       <c r="B194" s="61"/>
       <c r="C194" s="62"/>
@@ -8160,7 +8228,7 @@
       <c r="J194" s="65"/>
       <c r="K194" s="66"/>
     </row>
-    <row r="195" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="195" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="67"/>
       <c r="B195" s="61"/>
       <c r="C195" s="62"/>
@@ -8173,7 +8241,7 @@
       <c r="J195" s="65"/>
       <c r="K195" s="66"/>
     </row>
-    <row r="196" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="196" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="67"/>
       <c r="B196" s="61"/>
       <c r="C196" s="62"/>
@@ -8186,7 +8254,7 @@
       <c r="J196" s="65"/>
       <c r="K196" s="66"/>
     </row>
-    <row r="197" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="197" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="67"/>
       <c r="B197" s="61"/>
       <c r="C197" s="62"/>
@@ -8199,7 +8267,7 @@
       <c r="J197" s="65"/>
       <c r="K197" s="66"/>
     </row>
-    <row r="198" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="198" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="67"/>
       <c r="B198" s="61"/>
       <c r="C198" s="62"/>
@@ -8212,7 +8280,7 @@
       <c r="J198" s="65"/>
       <c r="K198" s="66"/>
     </row>
-    <row r="199" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="199" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="67"/>
       <c r="B199" s="61"/>
       <c r="C199" s="62"/>
@@ -8225,7 +8293,7 @@
       <c r="J199" s="65"/>
       <c r="K199" s="66"/>
     </row>
-    <row r="200" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="200" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="67"/>
       <c r="B200" s="61"/>
       <c r="C200" s="62"/>
@@ -8238,7 +8306,7 @@
       <c r="J200" s="65"/>
       <c r="K200" s="66"/>
     </row>
-    <row r="201" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="201" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="67"/>
       <c r="B201" s="61"/>
       <c r="C201" s="62"/>
@@ -8251,7 +8319,7 @@
       <c r="J201" s="65"/>
       <c r="K201" s="66"/>
     </row>
-    <row r="202" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="202" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="67"/>
       <c r="B202" s="61"/>
       <c r="C202" s="62"/>
@@ -8264,7 +8332,7 @@
       <c r="J202" s="65"/>
       <c r="K202" s="66"/>
     </row>
-    <row r="203" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="203" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="67"/>
       <c r="B203" s="61"/>
       <c r="C203" s="62"/>
@@ -8277,7 +8345,7 @@
       <c r="J203" s="65"/>
       <c r="K203" s="66"/>
     </row>
-    <row r="204" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="204" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="67"/>
       <c r="B204" s="61"/>
       <c r="C204" s="62"/>
@@ -8290,7 +8358,7 @@
       <c r="J204" s="65"/>
       <c r="K204" s="66"/>
     </row>
-    <row r="205" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="205" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="67"/>
       <c r="B205" s="61"/>
       <c r="C205" s="62"/>
@@ -8303,7 +8371,7 @@
       <c r="J205" s="65"/>
       <c r="K205" s="66"/>
     </row>
-    <row r="206" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="206" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="67"/>
       <c r="B206" s="61"/>
       <c r="C206" s="62"/>
@@ -8316,7 +8384,7 @@
       <c r="J206" s="65"/>
       <c r="K206" s="66"/>
     </row>
-    <row r="207" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="207" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="67"/>
       <c r="B207" s="61"/>
       <c r="C207" s="62"/>
@@ -8329,7 +8397,7 @@
       <c r="J207" s="65"/>
       <c r="K207" s="66"/>
     </row>
-    <row r="208" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="208" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="67"/>
       <c r="B208" s="61"/>
       <c r="C208" s="62"/>
@@ -8342,7 +8410,7 @@
       <c r="J208" s="65"/>
       <c r="K208" s="66"/>
     </row>
-    <row r="209" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="209" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="67"/>
       <c r="B209" s="61"/>
       <c r="C209" s="62"/>
@@ -8355,7 +8423,7 @@
       <c r="J209" s="65"/>
       <c r="K209" s="66"/>
     </row>
-    <row r="210" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="210" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="67"/>
       <c r="B210" s="61"/>
       <c r="C210" s="62"/>
@@ -8368,7 +8436,7 @@
       <c r="J210" s="65"/>
       <c r="K210" s="66"/>
     </row>
-    <row r="211" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="211" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="67"/>
       <c r="B211" s="61"/>
       <c r="C211" s="62"/>
@@ -8381,7 +8449,7 @@
       <c r="J211" s="65"/>
       <c r="K211" s="66"/>
     </row>
-    <row r="212" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="212" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="67"/>
       <c r="B212" s="61"/>
       <c r="C212" s="62"/>
@@ -8394,7 +8462,7 @@
       <c r="J212" s="65"/>
       <c r="K212" s="66"/>
     </row>
-    <row r="213" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="213" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="67"/>
       <c r="B213" s="61"/>
       <c r="C213" s="62"/>
@@ -8407,7 +8475,7 @@
       <c r="J213" s="65"/>
       <c r="K213" s="66"/>
     </row>
-    <row r="214" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="214" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="67"/>
       <c r="B214" s="61"/>
       <c r="C214" s="62"/>
@@ -8420,7 +8488,7 @@
       <c r="J214" s="65"/>
       <c r="K214" s="66"/>
     </row>
-    <row r="215" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="215" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="67"/>
       <c r="B215" s="61"/>
       <c r="C215" s="62"/>
@@ -8433,7 +8501,7 @@
       <c r="J215" s="65"/>
       <c r="K215" s="66"/>
     </row>
-    <row r="216" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="216" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="67"/>
       <c r="B216" s="61"/>
       <c r="C216" s="62"/>
@@ -8446,7 +8514,7 @@
       <c r="J216" s="65"/>
       <c r="K216" s="66"/>
     </row>
-    <row r="217" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="217" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="67"/>
       <c r="B217" s="61"/>
       <c r="C217" s="62"/>
@@ -8459,7 +8527,7 @@
       <c r="J217" s="65"/>
       <c r="K217" s="66"/>
     </row>
-    <row r="218" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="218" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="67"/>
       <c r="B218" s="61"/>
       <c r="C218" s="62"/>
@@ -8472,7 +8540,7 @@
       <c r="J218" s="65"/>
       <c r="K218" s="66"/>
     </row>
-    <row r="219" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="219" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="67"/>
       <c r="B219" s="61"/>
       <c r="C219" s="62"/>
@@ -8485,7 +8553,7 @@
       <c r="J219" s="65"/>
       <c r="K219" s="66"/>
     </row>
-    <row r="220" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="220" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="67"/>
       <c r="B220" s="61"/>
       <c r="C220" s="62"/>
@@ -8498,7 +8566,7 @@
       <c r="J220" s="65"/>
       <c r="K220" s="66"/>
     </row>
-    <row r="221" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="221" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="67"/>
       <c r="B221" s="61"/>
       <c r="C221" s="62"/>
@@ -8511,7 +8579,7 @@
       <c r="J221" s="65"/>
       <c r="K221" s="66"/>
     </row>
-    <row r="222" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="222" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="67"/>
       <c r="B222" s="61"/>
       <c r="C222" s="62"/>
@@ -8524,7 +8592,7 @@
       <c r="J222" s="65"/>
       <c r="K222" s="66"/>
     </row>
-    <row r="223" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="223" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="67"/>
       <c r="B223" s="61"/>
       <c r="C223" s="62"/>
@@ -8537,7 +8605,7 @@
       <c r="J223" s="65"/>
       <c r="K223" s="66"/>
     </row>
-    <row r="224" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="224" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="67"/>
       <c r="B224" s="61"/>
       <c r="C224" s="62"/>
@@ -8550,7 +8618,7 @@
       <c r="J224" s="65"/>
       <c r="K224" s="66"/>
     </row>
-    <row r="225" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="225" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="67"/>
       <c r="B225" s="61"/>
       <c r="C225" s="62"/>
@@ -8563,7 +8631,7 @@
       <c r="J225" s="65"/>
       <c r="K225" s="66"/>
     </row>
-    <row r="226" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="226" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="67"/>
       <c r="B226" s="61"/>
       <c r="C226" s="62"/>
@@ -8576,7 +8644,7 @@
       <c r="J226" s="65"/>
       <c r="K226" s="66"/>
     </row>
-    <row r="227" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="227" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="67"/>
       <c r="B227" s="61"/>
       <c r="C227" s="62"/>
@@ -8589,7 +8657,7 @@
       <c r="J227" s="65"/>
       <c r="K227" s="66"/>
     </row>
-    <row r="228" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="228" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="67"/>
       <c r="B228" s="61"/>
       <c r="C228" s="62"/>
@@ -8602,7 +8670,7 @@
       <c r="J228" s="65"/>
       <c r="K228" s="66"/>
     </row>
-    <row r="229" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="229" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="67"/>
       <c r="B229" s="61"/>
       <c r="C229" s="62"/>
@@ -8615,7 +8683,7 @@
       <c r="J229" s="65"/>
       <c r="K229" s="66"/>
     </row>
-    <row r="230" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="230" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="67"/>
       <c r="B230" s="61"/>
       <c r="C230" s="62"/>
@@ -8628,7 +8696,7 @@
       <c r="J230" s="65"/>
       <c r="K230" s="66"/>
     </row>
-    <row r="231" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="231" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="67"/>
       <c r="B231" s="61"/>
       <c r="C231" s="62"/>
@@ -8641,7 +8709,7 @@
       <c r="J231" s="65"/>
       <c r="K231" s="66"/>
     </row>
-    <row r="232" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="232" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="67"/>
       <c r="B232" s="61"/>
       <c r="C232" s="62"/>
@@ -8654,7 +8722,7 @@
       <c r="J232" s="65"/>
       <c r="K232" s="66"/>
     </row>
-    <row r="233" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="233" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="67"/>
       <c r="B233" s="61"/>
       <c r="C233" s="62"/>
@@ -8667,7 +8735,7 @@
       <c r="J233" s="65"/>
       <c r="K233" s="66"/>
     </row>
-    <row r="234" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="234" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="67"/>
       <c r="B234" s="61"/>
       <c r="C234" s="62"/>
@@ -8680,7 +8748,7 @@
       <c r="J234" s="65"/>
       <c r="K234" s="66"/>
     </row>
-    <row r="235" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="235" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="67"/>
       <c r="B235" s="61"/>
       <c r="C235" s="62"/>
@@ -8693,7 +8761,7 @@
       <c r="J235" s="65"/>
       <c r="K235" s="66"/>
     </row>
-    <row r="236" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="236" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="67"/>
       <c r="B236" s="61"/>
       <c r="C236" s="62"/>
@@ -8706,7 +8774,7 @@
       <c r="J236" s="65"/>
       <c r="K236" s="66"/>
     </row>
-    <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="67"/>
       <c r="B237" s="61"/>
       <c r="C237" s="62"/>
@@ -8719,7 +8787,7 @@
       <c r="J237" s="65"/>
       <c r="K237" s="66"/>
     </row>
-    <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="67"/>
       <c r="B238" s="61"/>
       <c r="C238" s="62"/>
@@ -8732,7 +8800,7 @@
       <c r="J238" s="65"/>
       <c r="K238" s="66"/>
     </row>
-    <row r="239" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="239" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="67"/>
       <c r="B239" s="61"/>
       <c r="C239" s="62"/>
@@ -8745,7 +8813,7 @@
       <c r="J239" s="65"/>
       <c r="K239" s="66"/>
     </row>
-    <row r="240" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="240" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="67"/>
       <c r="B240" s="61"/>
       <c r="C240" s="62"/>
@@ -8758,7 +8826,7 @@
       <c r="J240" s="65"/>
       <c r="K240" s="66"/>
     </row>
-    <row r="241" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="241" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="67"/>
       <c r="B241" s="61"/>
       <c r="C241" s="62"/>
@@ -8771,7 +8839,7 @@
       <c r="J241" s="65"/>
       <c r="K241" s="66"/>
     </row>
-    <row r="242" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="242" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="67"/>
       <c r="B242" s="61"/>
       <c r="C242" s="62"/>
@@ -8784,7 +8852,7 @@
       <c r="J242" s="65"/>
       <c r="K242" s="66"/>
     </row>
-    <row r="243" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="243" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="67"/>
       <c r="B243" s="61"/>
       <c r="C243" s="62"/>
@@ -8797,7 +8865,7 @@
       <c r="J243" s="65"/>
       <c r="K243" s="66"/>
     </row>
-    <row r="244" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="244" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="67"/>
       <c r="B244" s="61"/>
       <c r="C244" s="62"/>
@@ -8810,7 +8878,7 @@
       <c r="J244" s="65"/>
       <c r="K244" s="66"/>
     </row>
-    <row r="245" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="245" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="67"/>
       <c r="B245" s="61"/>
       <c r="C245" s="62"/>
@@ -8823,7 +8891,7 @@
       <c r="J245" s="65"/>
       <c r="K245" s="66"/>
     </row>
-    <row r="246" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="246" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="67"/>
       <c r="B246" s="61"/>
       <c r="C246" s="62"/>
@@ -8836,7 +8904,7 @@
       <c r="J246" s="65"/>
       <c r="K246" s="66"/>
     </row>
-    <row r="247" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="247" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="67"/>
       <c r="B247" s="61"/>
       <c r="C247" s="62"/>
@@ -8849,7 +8917,7 @@
       <c r="J247" s="65"/>
       <c r="K247" s="66"/>
     </row>
-    <row r="248" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="248" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="67"/>
       <c r="B248" s="61"/>
       <c r="C248" s="62"/>
@@ -8862,7 +8930,7 @@
       <c r="J248" s="65"/>
       <c r="K248" s="66"/>
     </row>
-    <row r="249" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="249" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="67"/>
       <c r="B249" s="61"/>
       <c r="C249" s="62"/>
@@ -8875,7 +8943,7 @@
       <c r="J249" s="65"/>
       <c r="K249" s="66"/>
     </row>
-    <row r="250" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="250" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="67"/>
       <c r="B250" s="61"/>
       <c r="C250" s="62"/>
@@ -8888,7 +8956,7 @@
       <c r="J250" s="65"/>
       <c r="K250" s="66"/>
     </row>
-    <row r="251" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="251" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="67"/>
       <c r="B251" s="61"/>
       <c r="C251" s="62"/>
@@ -8901,7 +8969,7 @@
       <c r="J251" s="65"/>
       <c r="K251" s="66"/>
     </row>
-    <row r="252" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="252" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="67"/>
       <c r="B252" s="61"/>
       <c r="C252" s="62"/>
@@ -8914,7 +8982,7 @@
       <c r="J252" s="65"/>
       <c r="K252" s="66"/>
     </row>
-    <row r="253" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="253" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="67"/>
       <c r="B253" s="61"/>
       <c r="C253" s="62"/>
@@ -8927,7 +8995,7 @@
       <c r="J253" s="65"/>
       <c r="K253" s="66"/>
     </row>
-    <row r="254" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="254" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="67"/>
       <c r="B254" s="61"/>
       <c r="C254" s="62"/>
@@ -8940,7 +9008,7 @@
       <c r="J254" s="65"/>
       <c r="K254" s="66"/>
     </row>
-    <row r="255" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="255" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="67"/>
       <c r="B255" s="61"/>
       <c r="C255" s="62"/>
@@ -8953,7 +9021,7 @@
       <c r="J255" s="65"/>
       <c r="K255" s="66"/>
     </row>
-    <row r="256" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="256" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="67"/>
       <c r="B256" s="61"/>
       <c r="C256" s="62"/>
@@ -8966,7 +9034,7 @@
       <c r="J256" s="65"/>
       <c r="K256" s="66"/>
     </row>
-    <row r="257" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="257" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="67"/>
       <c r="B257" s="61"/>
       <c r="C257" s="62"/>
@@ -8979,7 +9047,7 @@
       <c r="J257" s="65"/>
       <c r="K257" s="66"/>
     </row>
-    <row r="258" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="258" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="67"/>
       <c r="B258" s="61"/>
       <c r="C258" s="62"/>
@@ -8992,7 +9060,7 @@
       <c r="J258" s="65"/>
       <c r="K258" s="66"/>
     </row>
-    <row r="259" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="259" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="67"/>
       <c r="B259" s="61"/>
       <c r="C259" s="62"/>
@@ -9005,7 +9073,7 @@
       <c r="J259" s="65"/>
       <c r="K259" s="66"/>
     </row>
-    <row r="260" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="260" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="67"/>
       <c r="B260" s="61"/>
       <c r="C260" s="62"/>
@@ -9018,7 +9086,7 @@
       <c r="J260" s="65"/>
       <c r="K260" s="66"/>
     </row>
-    <row r="261" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="261" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="67"/>
       <c r="B261" s="61"/>
       <c r="C261" s="62"/>
@@ -9031,7 +9099,7 @@
       <c r="J261" s="65"/>
       <c r="K261" s="66"/>
     </row>
-    <row r="262" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="262" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="67"/>
       <c r="B262" s="61"/>
       <c r="C262" s="62"/>
@@ -9044,7 +9112,7 @@
       <c r="J262" s="65"/>
       <c r="K262" s="66"/>
     </row>
-    <row r="263" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="263" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="67"/>
       <c r="B263" s="61"/>
       <c r="C263" s="62"/>
@@ -9057,7 +9125,7 @@
       <c r="J263" s="65"/>
       <c r="K263" s="66"/>
     </row>
-    <row r="264" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="264" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="67"/>
       <c r="B264" s="61"/>
       <c r="C264" s="62"/>
@@ -9070,7 +9138,7 @@
       <c r="J264" s="65"/>
       <c r="K264" s="66"/>
     </row>
-    <row r="265" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="265" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="67"/>
       <c r="B265" s="61"/>
       <c r="C265" s="62"/>
@@ -9083,7 +9151,7 @@
       <c r="J265" s="65"/>
       <c r="K265" s="66"/>
     </row>
-    <row r="266" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="266" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="67"/>
       <c r="B266" s="61"/>
       <c r="C266" s="62"/>
@@ -9096,7 +9164,7 @@
       <c r="J266" s="65"/>
       <c r="K266" s="66"/>
     </row>
-    <row r="267" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="267" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="67"/>
       <c r="B267" s="61"/>
       <c r="C267" s="62"/>
@@ -9109,7 +9177,7 @@
       <c r="J267" s="65"/>
       <c r="K267" s="66"/>
     </row>
-    <row r="268" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="268" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="67"/>
       <c r="B268" s="61"/>
       <c r="C268" s="62"/>
@@ -9122,7 +9190,7 @@
       <c r="J268" s="65"/>
       <c r="K268" s="66"/>
     </row>
-    <row r="269" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="269" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="67"/>
       <c r="B269" s="61"/>
       <c r="C269" s="62"/>
@@ -9135,7 +9203,7 @@
       <c r="J269" s="65"/>
       <c r="K269" s="66"/>
     </row>
-    <row r="270" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="270" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="67"/>
       <c r="B270" s="61"/>
       <c r="C270" s="62"/>
@@ -9148,7 +9216,7 @@
       <c r="J270" s="65"/>
       <c r="K270" s="66"/>
     </row>
-    <row r="271" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="271" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="67"/>
       <c r="B271" s="61"/>
       <c r="C271" s="62"/>
@@ -9161,7 +9229,7 @@
       <c r="J271" s="65"/>
       <c r="K271" s="66"/>
     </row>
-    <row r="272" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="272" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="67"/>
       <c r="B272" s="61"/>
       <c r="C272" s="62"/>
@@ -9174,7 +9242,7 @@
       <c r="J272" s="65"/>
       <c r="K272" s="66"/>
     </row>
-    <row r="273" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="273" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="67"/>
       <c r="B273" s="61"/>
       <c r="C273" s="62"/>
@@ -9187,7 +9255,7 @@
       <c r="J273" s="65"/>
       <c r="K273" s="66"/>
     </row>
-    <row r="274" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="274" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="67"/>
       <c r="B274" s="61"/>
       <c r="C274" s="62"/>
@@ -9200,7 +9268,7 @@
       <c r="J274" s="65"/>
       <c r="K274" s="66"/>
     </row>
-    <row r="275" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="275" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="67"/>
       <c r="B275" s="61"/>
       <c r="C275" s="62"/>
@@ -9213,7 +9281,7 @@
       <c r="J275" s="65"/>
       <c r="K275" s="66"/>
     </row>
-    <row r="276" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="276" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="67"/>
       <c r="B276" s="61"/>
       <c r="C276" s="62"/>
@@ -9226,7 +9294,7 @@
       <c r="J276" s="65"/>
       <c r="K276" s="66"/>
     </row>
-    <row r="277" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="277" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="67"/>
       <c r="B277" s="61"/>
       <c r="C277" s="62"/>
@@ -9239,7 +9307,7 @@
       <c r="J277" s="65"/>
       <c r="K277" s="66"/>
     </row>
-    <row r="278" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="278" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="67"/>
       <c r="B278" s="61"/>
       <c r="C278" s="62"/>
@@ -9252,7 +9320,7 @@
       <c r="J278" s="65"/>
       <c r="K278" s="66"/>
     </row>
-    <row r="279" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="279" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="67"/>
       <c r="B279" s="61"/>
       <c r="C279" s="62"/>
@@ -9265,7 +9333,7 @@
       <c r="J279" s="65"/>
       <c r="K279" s="66"/>
     </row>
-    <row r="280" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="280" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="67"/>
       <c r="B280" s="61"/>
       <c r="C280" s="62"/>
@@ -9278,7 +9346,7 @@
       <c r="J280" s="65"/>
       <c r="K280" s="66"/>
     </row>
-    <row r="281" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="281" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="67"/>
       <c r="B281" s="61"/>
       <c r="C281" s="62"/>
@@ -9291,7 +9359,7 @@
       <c r="J281" s="65"/>
       <c r="K281" s="66"/>
     </row>
-    <row r="282" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="282" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="67"/>
       <c r="B282" s="61"/>
       <c r="C282" s="62"/>
@@ -9304,7 +9372,7 @@
       <c r="J282" s="65"/>
       <c r="K282" s="66"/>
     </row>
-    <row r="283" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="283" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="67"/>
       <c r="B283" s="61"/>
       <c r="C283" s="62"/>
@@ -9317,7 +9385,7 @@
       <c r="J283" s="65"/>
       <c r="K283" s="66"/>
     </row>
-    <row r="284" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="284" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="67"/>
       <c r="B284" s="61"/>
       <c r="C284" s="62"/>
@@ -9330,7 +9398,7 @@
       <c r="J284" s="65"/>
       <c r="K284" s="66"/>
     </row>
-    <row r="285" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="285" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="67"/>
       <c r="B285" s="61"/>
       <c r="C285" s="62"/>
@@ -9343,7 +9411,7 @@
       <c r="J285" s="65"/>
       <c r="K285" s="66"/>
     </row>
-    <row r="286" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="286" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="67"/>
       <c r="B286" s="61"/>
       <c r="C286" s="62"/>
@@ -9356,7 +9424,7 @@
       <c r="J286" s="65"/>
       <c r="K286" s="66"/>
     </row>
-    <row r="287" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="287" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="67"/>
       <c r="B287" s="61"/>
       <c r="C287" s="62"/>
@@ -9369,7 +9437,7 @@
       <c r="J287" s="65"/>
       <c r="K287" s="66"/>
     </row>
-    <row r="288" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="288" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="67"/>
       <c r="B288" s="61"/>
       <c r="C288" s="62"/>
@@ -9382,7 +9450,7 @@
       <c r="J288" s="65"/>
       <c r="K288" s="66"/>
     </row>
-    <row r="289" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="289" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="67"/>
       <c r="B289" s="61"/>
       <c r="C289" s="62"/>
@@ -9395,7 +9463,7 @@
       <c r="J289" s="65"/>
       <c r="K289" s="66"/>
     </row>
-    <row r="290" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="290" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="67"/>
       <c r="B290" s="61"/>
       <c r="C290" s="62"/>
@@ -9408,7 +9476,7 @@
       <c r="J290" s="65"/>
       <c r="K290" s="66"/>
     </row>
-    <row r="291" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="291" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="67"/>
       <c r="B291" s="61"/>
       <c r="C291" s="62"/>
@@ -9421,7 +9489,7 @@
       <c r="J291" s="65"/>
       <c r="K291" s="66"/>
     </row>
-    <row r="292" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="292" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="67"/>
       <c r="B292" s="61"/>
       <c r="C292" s="62"/>
@@ -9434,7 +9502,7 @@
       <c r="J292" s="65"/>
       <c r="K292" s="66"/>
     </row>
-    <row r="293" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="293" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="67"/>
       <c r="B293" s="61"/>
       <c r="C293" s="62"/>
@@ -9447,7 +9515,7 @@
       <c r="J293" s="65"/>
       <c r="K293" s="66"/>
     </row>
-    <row r="294" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="294" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="67"/>
       <c r="B294" s="61"/>
       <c r="C294" s="62"/>
@@ -9460,7 +9528,7 @@
       <c r="J294" s="65"/>
       <c r="K294" s="66"/>
     </row>
-    <row r="295" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="295" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="67"/>
       <c r="B295" s="61"/>
       <c r="C295" s="62"/>
@@ -9473,7 +9541,7 @@
       <c r="J295" s="65"/>
       <c r="K295" s="66"/>
     </row>
-    <row r="296" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="296" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="67"/>
       <c r="B296" s="61"/>
       <c r="C296" s="62"/>
@@ -9486,7 +9554,7 @@
       <c r="J296" s="65"/>
       <c r="K296" s="66"/>
     </row>
-    <row r="297" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="297" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="67"/>
       <c r="B297" s="61"/>
       <c r="C297" s="62"/>
@@ -9499,7 +9567,7 @@
       <c r="J297" s="65"/>
       <c r="K297" s="66"/>
     </row>
-    <row r="298" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="298" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="67"/>
       <c r="B298" s="61"/>
       <c r="C298" s="62"/>
@@ -9512,7 +9580,7 @@
       <c r="J298" s="65"/>
       <c r="K298" s="66"/>
     </row>
-    <row r="299" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="299" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="67"/>
       <c r="B299" s="61"/>
       <c r="C299" s="62"/>
@@ -9525,7 +9593,7 @@
       <c r="J299" s="65"/>
       <c r="K299" s="66"/>
     </row>
-    <row r="300" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="300" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="67"/>
       <c r="B300" s="61"/>
       <c r="C300" s="62"/>
@@ -9538,7 +9606,7 @@
       <c r="J300" s="65"/>
       <c r="K300" s="66"/>
     </row>
-    <row r="301" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="301" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="67"/>
       <c r="B301" s="61"/>
       <c r="C301" s="62"/>
@@ -9551,7 +9619,7 @@
       <c r="J301" s="65"/>
       <c r="K301" s="66"/>
     </row>
-    <row r="302" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="302" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="67"/>
       <c r="B302" s="61"/>
       <c r="C302" s="62"/>
@@ -9564,7 +9632,7 @@
       <c r="J302" s="65"/>
       <c r="K302" s="66"/>
     </row>
-    <row r="303" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="303" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="67"/>
       <c r="B303" s="61"/>
       <c r="C303" s="62"/>
@@ -9577,7 +9645,7 @@
       <c r="J303" s="65"/>
       <c r="K303" s="66"/>
     </row>
-    <row r="304" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="304" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="67"/>
       <c r="B304" s="61"/>
       <c r="C304" s="62"/>
@@ -9590,7 +9658,7 @@
       <c r="J304" s="65"/>
       <c r="K304" s="66"/>
     </row>
-    <row r="305" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="305" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="67"/>
       <c r="B305" s="61"/>
       <c r="C305" s="62"/>
@@ -9603,7 +9671,7 @@
       <c r="J305" s="65"/>
       <c r="K305" s="66"/>
     </row>
-    <row r="306" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="306" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="67"/>
       <c r="B306" s="61"/>
       <c r="C306" s="62"/>
@@ -9616,7 +9684,7 @@
       <c r="J306" s="65"/>
       <c r="K306" s="66"/>
     </row>
-    <row r="307" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="307" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="67"/>
       <c r="B307" s="61"/>
       <c r="C307" s="62"/>
@@ -9629,7 +9697,7 @@
       <c r="J307" s="65"/>
       <c r="K307" s="66"/>
     </row>
-    <row r="308" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="308" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="67"/>
       <c r="B308" s="61"/>
       <c r="C308" s="62"/>
@@ -9642,7 +9710,7 @@
       <c r="J308" s="65"/>
       <c r="K308" s="66"/>
     </row>
-    <row r="309" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="309" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="67"/>
       <c r="B309" s="61"/>
       <c r="C309" s="62"/>
@@ -9655,7 +9723,7 @@
       <c r="J309" s="65"/>
       <c r="K309" s="66"/>
     </row>
-    <row r="310" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="310" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="67"/>
       <c r="B310" s="61"/>
       <c r="C310" s="62"/>
@@ -9668,7 +9736,7 @@
       <c r="J310" s="65"/>
       <c r="K310" s="66"/>
     </row>
-    <row r="311" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="311" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="67"/>
       <c r="B311" s="61"/>
       <c r="C311" s="62"/>
@@ -9681,7 +9749,7 @@
       <c r="J311" s="65"/>
       <c r="K311" s="66"/>
     </row>
-    <row r="312" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="312" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="67"/>
       <c r="B312" s="61"/>
       <c r="C312" s="62"/>
@@ -9694,7 +9762,7 @@
       <c r="J312" s="65"/>
       <c r="K312" s="66"/>
     </row>
-    <row r="313" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="313" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="67"/>
       <c r="B313" s="61"/>
       <c r="C313" s="62"/>
@@ -9707,7 +9775,7 @@
       <c r="J313" s="65"/>
       <c r="K313" s="66"/>
     </row>
-    <row r="314" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="314" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="67"/>
       <c r="B314" s="61"/>
       <c r="C314" s="62"/>
@@ -9720,7 +9788,7 @@
       <c r="J314" s="65"/>
       <c r="K314" s="66"/>
     </row>
-    <row r="315" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="315" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="67"/>
       <c r="B315" s="61"/>
       <c r="C315" s="62"/>
@@ -9733,7 +9801,7 @@
       <c r="J315" s="65"/>
       <c r="K315" s="66"/>
     </row>
-    <row r="316" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="316" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="67"/>
       <c r="B316" s="61"/>
       <c r="C316" s="62"/>
@@ -9746,7 +9814,7 @@
       <c r="J316" s="65"/>
       <c r="K316" s="66"/>
     </row>
-    <row r="317" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="317" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="67"/>
       <c r="B317" s="61"/>
       <c r="C317" s="62"/>
@@ -9759,7 +9827,7 @@
       <c r="J317" s="65"/>
       <c r="K317" s="66"/>
     </row>
-    <row r="318" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="318" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="67"/>
       <c r="B318" s="61"/>
       <c r="C318" s="62"/>
@@ -9772,7 +9840,7 @@
       <c r="J318" s="65"/>
       <c r="K318" s="66"/>
     </row>
-    <row r="319" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="319" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="67"/>
       <c r="B319" s="61"/>
       <c r="C319" s="62"/>
@@ -9785,7 +9853,7 @@
       <c r="J319" s="65"/>
       <c r="K319" s="66"/>
     </row>
-    <row r="320" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="320" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="67"/>
       <c r="B320" s="61"/>
       <c r="C320" s="62"/>
@@ -9798,7 +9866,7 @@
       <c r="J320" s="65"/>
       <c r="K320" s="66"/>
     </row>
-    <row r="321" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="321" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="67"/>
       <c r="B321" s="61"/>
       <c r="C321" s="62"/>
@@ -9811,7 +9879,7 @@
       <c r="J321" s="65"/>
       <c r="K321" s="66"/>
     </row>
-    <row r="322" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="322" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="67"/>
       <c r="B322" s="61"/>
       <c r="C322" s="62"/>
@@ -9824,7 +9892,7 @@
       <c r="J322" s="65"/>
       <c r="K322" s="66"/>
     </row>
-    <row r="323" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="323" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="67"/>
       <c r="B323" s="61"/>
       <c r="C323" s="62"/>
@@ -9837,7 +9905,7 @@
       <c r="J323" s="65"/>
       <c r="K323" s="66"/>
     </row>
-    <row r="324" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="324" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="67"/>
       <c r="B324" s="61"/>
       <c r="C324" s="62"/>
@@ -9850,7 +9918,7 @@
       <c r="J324" s="65"/>
       <c r="K324" s="66"/>
     </row>
-    <row r="325" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="325" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="67"/>
       <c r="B325" s="61"/>
       <c r="C325" s="62"/>
@@ -9863,7 +9931,7 @@
       <c r="J325" s="65"/>
       <c r="K325" s="66"/>
     </row>
-    <row r="326" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="326" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="67"/>
       <c r="B326" s="61"/>
       <c r="C326" s="62"/>
@@ -9876,7 +9944,7 @@
       <c r="J326" s="65"/>
       <c r="K326" s="66"/>
     </row>
-    <row r="327" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="327" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="67"/>
       <c r="B327" s="61"/>
       <c r="C327" s="62"/>
@@ -9889,7 +9957,7 @@
       <c r="J327" s="65"/>
       <c r="K327" s="66"/>
     </row>
-    <row r="328" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="328" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="67"/>
       <c r="B328" s="61"/>
       <c r="C328" s="62"/>
@@ -9902,7 +9970,7 @@
       <c r="J328" s="65"/>
       <c r="K328" s="66"/>
     </row>
-    <row r="329" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="329" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="67"/>
       <c r="B329" s="61"/>
       <c r="C329" s="62"/>
@@ -9915,7 +9983,7 @@
       <c r="J329" s="65"/>
       <c r="K329" s="66"/>
     </row>
-    <row r="330" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="330" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="67"/>
       <c r="B330" s="61"/>
       <c r="C330" s="62"/>
@@ -9928,7 +9996,7 @@
       <c r="J330" s="65"/>
       <c r="K330" s="66"/>
     </row>
-    <row r="331" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="331" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="67"/>
       <c r="B331" s="61"/>
       <c r="C331" s="62"/>
@@ -9941,7 +10009,7 @@
       <c r="J331" s="65"/>
       <c r="K331" s="66"/>
     </row>
-    <row r="332" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="332" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="67"/>
       <c r="B332" s="61"/>
       <c r="C332" s="62"/>
@@ -9954,7 +10022,7 @@
       <c r="J332" s="65"/>
       <c r="K332" s="66"/>
     </row>
-    <row r="333" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="333" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="67"/>
       <c r="B333" s="61"/>
       <c r="C333" s="62"/>
@@ -9967,7 +10035,7 @@
       <c r="J333" s="65"/>
       <c r="K333" s="66"/>
     </row>
-    <row r="334" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="334" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="67"/>
       <c r="B334" s="61"/>
       <c r="C334" s="62"/>
@@ -9980,7 +10048,7 @@
       <c r="J334" s="65"/>
       <c r="K334" s="66"/>
     </row>
-    <row r="335" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="335" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="67"/>
       <c r="B335" s="61"/>
       <c r="C335" s="62"/>
@@ -9993,7 +10061,7 @@
       <c r="J335" s="65"/>
       <c r="K335" s="66"/>
     </row>
-    <row r="336" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="336" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="67"/>
       <c r="B336" s="61"/>
       <c r="C336" s="62"/>
@@ -10006,7 +10074,7 @@
       <c r="J336" s="65"/>
       <c r="K336" s="66"/>
     </row>
-    <row r="337" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="337" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="67"/>
       <c r="B337" s="61"/>
       <c r="C337" s="62"/>
@@ -10019,7 +10087,7 @@
       <c r="J337" s="65"/>
       <c r="K337" s="66"/>
     </row>
-    <row r="338" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="338" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="67"/>
       <c r="B338" s="61"/>
       <c r="C338" s="62"/>
@@ -10032,7 +10100,7 @@
       <c r="J338" s="65"/>
       <c r="K338" s="66"/>
     </row>
-    <row r="339" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="339" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="67"/>
       <c r="B339" s="61"/>
       <c r="C339" s="62"/>
@@ -10045,7 +10113,7 @@
       <c r="J339" s="65"/>
       <c r="K339" s="66"/>
     </row>
-    <row r="340" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="340" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="67"/>
       <c r="B340" s="61"/>
       <c r="C340" s="62"/>
@@ -10058,7 +10126,7 @@
       <c r="J340" s="65"/>
       <c r="K340" s="66"/>
     </row>
-    <row r="341" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="341" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="67"/>
       <c r="B341" s="61"/>
       <c r="C341" s="62"/>
@@ -10071,7 +10139,7 @@
       <c r="J341" s="65"/>
       <c r="K341" s="66"/>
     </row>
-    <row r="342" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="342" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="67"/>
       <c r="B342" s="61"/>
       <c r="C342" s="62"/>
@@ -10084,7 +10152,7 @@
       <c r="J342" s="65"/>
       <c r="K342" s="66"/>
     </row>
-    <row r="343" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="343" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="67"/>
       <c r="B343" s="61"/>
       <c r="C343" s="62"/>
@@ -10097,7 +10165,7 @@
       <c r="J343" s="65"/>
       <c r="K343" s="66"/>
     </row>
-    <row r="344" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="344" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="67"/>
       <c r="B344" s="61"/>
       <c r="C344" s="62"/>
@@ -10110,7 +10178,7 @@
       <c r="J344" s="65"/>
       <c r="K344" s="66"/>
     </row>
-    <row r="345" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="345" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="67"/>
       <c r="B345" s="61"/>
       <c r="C345" s="62"/>
@@ -10123,7 +10191,7 @@
       <c r="J345" s="65"/>
       <c r="K345" s="66"/>
     </row>
-    <row r="346" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="346" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="67"/>
       <c r="B346" s="61"/>
       <c r="C346" s="62"/>
@@ -10136,7 +10204,7 @@
       <c r="J346" s="65"/>
       <c r="K346" s="66"/>
     </row>
-    <row r="347" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="347" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="67"/>
       <c r="B347" s="61"/>
       <c r="C347" s="62"/>
@@ -10149,7 +10217,7 @@
       <c r="J347" s="65"/>
       <c r="K347" s="66"/>
     </row>
-    <row r="348" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="348" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="67"/>
       <c r="B348" s="61"/>
       <c r="C348" s="62"/>
@@ -10162,7 +10230,7 @@
       <c r="J348" s="65"/>
       <c r="K348" s="66"/>
     </row>
-    <row r="349" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="349" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="67"/>
       <c r="B349" s="61"/>
       <c r="C349" s="62"/>
@@ -10175,7 +10243,7 @@
       <c r="J349" s="65"/>
       <c r="K349" s="66"/>
     </row>
-    <row r="350" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="350" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="67"/>
       <c r="B350" s="61"/>
       <c r="C350" s="62"/>
@@ -10188,7 +10256,7 @@
       <c r="J350" s="65"/>
       <c r="K350" s="66"/>
     </row>
-    <row r="351" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="351" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="67"/>
       <c r="B351" s="61"/>
       <c r="C351" s="62"/>
@@ -10201,7 +10269,7 @@
       <c r="J351" s="65"/>
       <c r="K351" s="66"/>
     </row>
-    <row r="352" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="352" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="67"/>
       <c r="B352" s="61"/>
       <c r="C352" s="62"/>
@@ -10214,7 +10282,7 @@
       <c r="J352" s="65"/>
       <c r="K352" s="66"/>
     </row>
-    <row r="353" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="353" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="67"/>
       <c r="B353" s="61"/>
       <c r="C353" s="62"/>
@@ -10227,7 +10295,7 @@
       <c r="J353" s="65"/>
       <c r="K353" s="66"/>
     </row>
-    <row r="354" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="354" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="67"/>
       <c r="B354" s="61"/>
       <c r="C354" s="62"/>
@@ -10240,7 +10308,7 @@
       <c r="J354" s="65"/>
       <c r="K354" s="66"/>
     </row>
-    <row r="355" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="355" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="67"/>
       <c r="B355" s="61"/>
       <c r="C355" s="62"/>
@@ -10253,7 +10321,7 @@
       <c r="J355" s="65"/>
       <c r="K355" s="66"/>
     </row>
-    <row r="356" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="356" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="67"/>
       <c r="B356" s="61"/>
       <c r="C356" s="62"/>
@@ -10266,7 +10334,7 @@
       <c r="J356" s="65"/>
       <c r="K356" s="66"/>
     </row>
-    <row r="357" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="357" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="67"/>
       <c r="B357" s="61"/>
       <c r="C357" s="62"/>
@@ -10279,7 +10347,7 @@
       <c r="J357" s="65"/>
       <c r="K357" s="66"/>
     </row>
-    <row r="358" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="358" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="67"/>
       <c r="B358" s="61"/>
       <c r="C358" s="62"/>
@@ -10292,7 +10360,7 @@
       <c r="J358" s="65"/>
       <c r="K358" s="66"/>
     </row>
-    <row r="359" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="359" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="67"/>
       <c r="B359" s="61"/>
       <c r="C359" s="62"/>
@@ -10305,7 +10373,7 @@
       <c r="J359" s="65"/>
       <c r="K359" s="66"/>
     </row>
-    <row r="360" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="360" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="67"/>
       <c r="B360" s="61"/>
       <c r="C360" s="62"/>
@@ -10318,7 +10386,7 @@
       <c r="J360" s="65"/>
       <c r="K360" s="66"/>
     </row>
-    <row r="361" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="361" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="67"/>
       <c r="B361" s="61"/>
       <c r="C361" s="62"/>
@@ -10331,7 +10399,7 @@
       <c r="J361" s="65"/>
       <c r="K361" s="66"/>
     </row>
-    <row r="362" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="362" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="67"/>
       <c r="B362" s="61"/>
       <c r="C362" s="62"/>
@@ -10344,7 +10412,7 @@
       <c r="J362" s="65"/>
       <c r="K362" s="66"/>
     </row>
-    <row r="363" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="363" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="67"/>
       <c r="B363" s="61"/>
       <c r="C363" s="62"/>
@@ -10357,7 +10425,7 @@
       <c r="J363" s="65"/>
       <c r="K363" s="66"/>
     </row>
-    <row r="364" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="364" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="67"/>
       <c r="B364" s="61"/>
       <c r="C364" s="62"/>
@@ -10370,7 +10438,7 @@
       <c r="J364" s="65"/>
       <c r="K364" s="66"/>
     </row>
-    <row r="365" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="365" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="67"/>
       <c r="B365" s="61"/>
       <c r="C365" s="62"/>
@@ -10383,7 +10451,7 @@
       <c r="J365" s="65"/>
       <c r="K365" s="66"/>
     </row>
-    <row r="366" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="366" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="67"/>
       <c r="B366" s="61"/>
       <c r="C366" s="62"/>
@@ -10396,7 +10464,7 @@
       <c r="J366" s="65"/>
       <c r="K366" s="66"/>
     </row>
-    <row r="367" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="367" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="67"/>
       <c r="B367" s="61"/>
       <c r="C367" s="62"/>
@@ -10409,7 +10477,7 @@
       <c r="J367" s="65"/>
       <c r="K367" s="66"/>
     </row>
-    <row r="368" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="368" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="67"/>
       <c r="B368" s="61"/>
       <c r="C368" s="62"/>
@@ -10422,7 +10490,7 @@
       <c r="J368" s="65"/>
       <c r="K368" s="66"/>
     </row>
-    <row r="369" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="369" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="67"/>
       <c r="B369" s="61"/>
       <c r="C369" s="62"/>
@@ -10435,7 +10503,7 @@
       <c r="J369" s="65"/>
       <c r="K369" s="66"/>
     </row>
-    <row r="370" spans="1:11" ht="15.75" thickTop="1"/>
+    <row r="370" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E3:F5">
     <cfRule type="colorScale" priority="4">

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1349,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E4" s="12">
         <f ca="1">TODAY()</f>
-        <v>43247</v>
+        <v>43249</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -2971,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="E4" s="12">
         <f ca="1">TODAY()</f>
-        <v>43247</v>
+        <v>43249</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ajay/Desktop/NEFARIOUS/Management &amp; Logging/Planning and Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\progr\Desktop\Nefarious\NEFARIOUS\Management &amp; Logging\Planning and Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35260" yWindow="-4600" windowWidth="25600" windowHeight="13580" activeTab="2"/>
+    <workbookView xWindow="35265" yWindow="-4605" windowWidth="25605" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint Journal" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>Task Name</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>This sprint is focused on finishing the main aspects of the Player Controller so that we have a smooth controller that interact generally with the world but not investing too much time into making it perfect, things such as ledge climbing and locomotion will come into it's own sprint later down the track - For the vertical slice all of this is not improtant yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Development Outline</t>
@@ -526,11 +523,32 @@
       <t xml:space="preserve"> for sure what i am doing for this game now. So finish the systems, do a vertical slice with all the features, put them together, polish and then stitch all the features, designs into one big level and optimise and vioalaaaaaa -- game.</t>
     </r>
   </si>
+  <si>
+    <t>Hours left</t>
+  </si>
+  <si>
+    <t>Fixing jump in consistancies</t>
+  </si>
+  <si>
+    <t>Remove from Updt</t>
+  </si>
+  <si>
+    <t>Fix any issues / cross platform</t>
+  </si>
+  <si>
+    <t>Fix it up, it's broken</t>
+  </si>
+  <si>
+    <t>Un-Needed</t>
+  </si>
+  <si>
+    <t>Custom Controller at Collider</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -652,7 +670,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +755,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +959,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1167,6 +1197,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1175,7 +1217,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1254,6 +1296,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1296,15 +1342,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:L238" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="C7:L238"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="REF TAG" dataDxfId="23"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="22"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="21"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="20"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="19"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:M239" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="C7:M239"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="REF TAG" dataDxfId="24"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="23"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="22"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="21"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="20"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="19"/>
+    <tableColumn id="11" name="Hours left" dataDxfId="18">
+      <calculatedColumnFormula>_xlfn.DAYS(TODAY(), L8)*24</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" name="Completion Hours" dataDxfId="17"/>
     <tableColumn id="8" name="Current Progress" dataDxfId="16"/>
     <tableColumn id="9" name="Expected Completion Date" dataDxfId="15"/>
@@ -1596,41 +1645,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="97" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="65.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="65.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:13" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:13" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:13" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43254</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -1642,7 +1692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" ht="90" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1679,19 +1729,22 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1699,1550 +1752,1858 @@
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="81">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L8)*24)</f>
+        <v>432</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="20">
+      <c r="L8" s="20">
         <v>43236</v>
       </c>
-      <c r="L8" s="29">
+      <c r="M8" s="29">
         <v>43236</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="12"/>
       <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7">
+      <c r="I9" s="81"/>
+      <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="7">
+      <c r="I10" s="81"/>
+      <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="12"/>
       <c r="D11" s="5"/>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="7">
+      <c r="I11" s="81"/>
+      <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="12"/>
       <c r="D12" s="5"/>
       <c r="E12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="I12" s="81"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="81"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="3:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="3:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="81">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L14)*24)</f>
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>0.2</v>
       </c>
-      <c r="K14" s="20">
+      <c r="L14" s="20">
         <v>43256</v>
       </c>
-      <c r="L14" s="28">
+      <c r="M14" s="28">
         <v>43256</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="7">
+      <c r="I15" s="81"/>
+      <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="5"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="7">
+      <c r="I16" s="81"/>
+      <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
       <c r="D17" s="5"/>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="7">
+      <c r="I17" s="81"/>
+      <c r="K17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="5"/>
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="7">
+      <c r="I18" s="81"/>
+      <c r="K18" s="7">
         <v>0.3</v>
       </c>
-      <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="5"/>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="7">
+      <c r="I19" s="81"/>
+      <c r="K19" s="7">
         <v>0.2</v>
       </c>
-      <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="7">
+      <c r="I20" s="81"/>
+      <c r="K20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J21" s="7"/>
-      <c r="K21" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="81"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="3:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="3:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="81">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L22)*24)</f>
+        <v>264</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>1</v>
       </c>
-      <c r="K22" s="20">
+      <c r="L22" s="20">
         <v>43243</v>
       </c>
-      <c r="L22" s="28">
+      <c r="M22" s="28">
         <v>43245</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="13"/>
       <c r="D23" s="5"/>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="7">
+      <c r="I23" s="81"/>
+      <c r="K23" s="7">
         <v>1</v>
       </c>
-      <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="13"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="7">
+      <c r="I24" s="81"/>
+      <c r="K24" s="7">
         <v>1</v>
       </c>
-      <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="13"/>
       <c r="D25" s="5"/>
       <c r="E25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="7">
+      <c r="I25" s="81"/>
+      <c r="K25" s="7">
         <v>1</v>
       </c>
-      <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="13"/>
       <c r="D26" s="5"/>
       <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="7">
+      <c r="I26" s="81"/>
+      <c r="K26" s="7">
         <v>1</v>
       </c>
-      <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="13"/>
       <c r="D27" s="5"/>
       <c r="E27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="7">
+      <c r="I27" s="81"/>
+      <c r="K27" s="7">
         <v>1</v>
       </c>
-      <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="13"/>
       <c r="D28" s="5"/>
       <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="7">
+      <c r="I28" s="81"/>
+      <c r="K28" s="7">
         <v>1</v>
       </c>
-      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="13"/>
       <c r="D29" s="5"/>
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="7">
+      <c r="I29" s="81"/>
+      <c r="K29" s="7">
         <v>1</v>
       </c>
-      <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="13"/>
       <c r="D30" s="5"/>
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="7">
+      <c r="I30" s="81"/>
+      <c r="K30" s="7">
         <v>1</v>
       </c>
-      <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
       <c r="D31" s="5"/>
       <c r="E31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="7">
+      <c r="I31" s="81"/>
+      <c r="K31" s="7">
         <v>1</v>
       </c>
-      <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J32" s="7"/>
-      <c r="K32" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="81"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="81">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L33)*24)</f>
+        <v>168</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="7">
         <v>0.1</v>
       </c>
-      <c r="K33" s="20">
+      <c r="L33" s="20">
         <v>43261</v>
       </c>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
       <c r="D34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="7">
+        <v>89</v>
+      </c>
+      <c r="I34" s="81"/>
+      <c r="K34" s="7">
         <v>0</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="20"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
       <c r="E35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="7">
+        <v>90</v>
+      </c>
+      <c r="I35" s="81"/>
+      <c r="K35" s="7">
         <v>0</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="20"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
       <c r="D36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="7">
+        <v>91</v>
+      </c>
+      <c r="I36" s="81"/>
+      <c r="K36" s="7">
         <v>1</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L36" s="20"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="13"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K37" s="9"/>
+      <c r="F37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="81"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
       <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="9">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9"/>
+      <c r="E38" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="81"/>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
       <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="13"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="81"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="13"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="66" t="s">
+      <c r="H40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="81"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="81"/>
+      <c r="K41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="9">
+        <v>43256</v>
+      </c>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="13"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="81"/>
+      <c r="K42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L42" s="9">
+        <v>43257</v>
+      </c>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="13"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="7">
+      <c r="I43" s="81"/>
+      <c r="K43" s="7">
         <v>1</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J43" s="7"/>
-      <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="16"/>
-      <c r="D44" s="1" t="s">
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="81"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="16"/>
+      <c r="D45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I45" s="81">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L45)*24)</f>
+        <v>1512</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="20">
+      <c r="K45" s="7"/>
+      <c r="L45" s="20">
         <v>43191</v>
       </c>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="3:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="16"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="3:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="16"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E46" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="81"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="3:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C47" s="16"/>
       <c r="D47" s="5"/>
       <c r="E47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="I47" s="81"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" s="16"/>
       <c r="D48" s="5"/>
       <c r="E48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="I48" s="81"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="3:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="16"/>
       <c r="D49" s="5"/>
-      <c r="F49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="9"/>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="81"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="3:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C50" s="16"/>
       <c r="D50" s="5"/>
-      <c r="G50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="9"/>
+      <c r="F50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="81"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="16"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="9"/>
+      <c r="G51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="81"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" s="16"/>
       <c r="D52" s="5"/>
       <c r="E52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="81"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="16"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J53" s="7"/>
-      <c r="K53" s="9"/>
+      <c r="I53" s="81"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="3:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="C54" s="17"/>
-      <c r="D54" s="1" t="s">
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I54" s="81"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C55" s="17"/>
+      <c r="D55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I55" s="81">
+        <f t="shared" ref="I55:I66" ca="1" si="0">_xlfn.DAYS(TODAY(), L55)*24</f>
+        <v>1416</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="20">
+      <c r="K55" s="7"/>
+      <c r="L55" s="20">
         <v>43195</v>
       </c>
-      <c r="L54" s="9"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55" s="17"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" s="17"/>
       <c r="D56" s="26"/>
       <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="I56" s="81"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="9"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" s="17"/>
       <c r="D57" s="26"/>
       <c r="E57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="I57" s="81"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="9"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58" s="17"/>
       <c r="D58" s="26"/>
-      <c r="F58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="9"/>
+      <c r="E58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="81"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59" s="17"/>
       <c r="D59" s="26"/>
       <c r="F59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="I59" s="81"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="9"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="17"/>
       <c r="D60" s="26"/>
-      <c r="E60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="9"/>
+      <c r="F60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="81"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" s="17"/>
       <c r="D61" s="26"/>
       <c r="E61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="I61" s="81"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="17"/>
       <c r="D62" s="26"/>
       <c r="E62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="I62" s="81"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" s="17"/>
       <c r="D63" s="26"/>
       <c r="E63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="81"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C64" s="17"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J64" s="7"/>
-      <c r="K64" s="9"/>
+      <c r="I64" s="81"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C65" s="19"/>
-      <c r="D65" s="1" t="s">
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I65" s="81"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C66" s="19"/>
+      <c r="D66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I66" s="81">
+        <f t="shared" ca="1" si="0"/>
+        <v>1344</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="20">
+      <c r="K66" s="7"/>
+      <c r="L66" s="20">
         <v>43198</v>
       </c>
-      <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C66" s="19"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" s="19"/>
       <c r="D67" s="5"/>
       <c r="E67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="I67" s="81"/>
+      <c r="K67" s="7"/>
       <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C68" s="19"/>
       <c r="D68" s="5"/>
       <c r="E68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="I68" s="81"/>
+      <c r="K68" s="7"/>
       <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C69" s="19"/>
       <c r="D69" s="5"/>
       <c r="E69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="I69" s="81"/>
+      <c r="K69" s="7"/>
       <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="3:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C70" s="19"/>
       <c r="D70" s="5"/>
       <c r="E70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="81"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+    </row>
+    <row r="71" spans="3:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="19"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="7"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J71" s="7"/>
-      <c r="K71" s="9"/>
+      <c r="I71" s="81"/>
+      <c r="K71" s="7"/>
       <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J72" s="7"/>
-      <c r="K72" s="9"/>
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I72" s="81"/>
+      <c r="K72" s="7"/>
       <c r="L72" s="9"/>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J73" s="7"/>
-      <c r="K73" s="9"/>
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I73" s="81"/>
+      <c r="K73" s="7"/>
       <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J74" s="7"/>
-      <c r="K74" s="9"/>
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I74" s="81"/>
+      <c r="K74" s="7"/>
       <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J75" s="7"/>
-      <c r="K75" s="9"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I75" s="81"/>
+      <c r="K75" s="7"/>
       <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J76" s="7"/>
-      <c r="K76" s="9"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I76" s="81"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J77" s="7"/>
-      <c r="K77" s="9"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I77" s="81"/>
+      <c r="K77" s="7"/>
       <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J78" s="7"/>
-      <c r="K78" s="9"/>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I78" s="81"/>
+      <c r="K78" s="7"/>
       <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J79" s="7"/>
-      <c r="K79" s="9"/>
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I79" s="81"/>
+      <c r="K79" s="7"/>
       <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="J80" s="7"/>
-      <c r="K80" s="9"/>
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I80" s="81"/>
+      <c r="K80" s="7"/>
       <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J81" s="7"/>
-      <c r="K81" s="9"/>
+      <c r="M80" s="9"/>
+    </row>
+    <row r="81" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I81" s="81"/>
+      <c r="K81" s="7"/>
       <c r="L81" s="9"/>
-    </row>
-    <row r="82" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J82" s="7"/>
-      <c r="K82" s="9"/>
+      <c r="M81" s="9"/>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I82" s="81"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="9"/>
-    </row>
-    <row r="83" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J83" s="7"/>
-      <c r="K83" s="9"/>
+      <c r="M82" s="9"/>
+    </row>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I83" s="81"/>
+      <c r="K83" s="7"/>
       <c r="L83" s="9"/>
-    </row>
-    <row r="84" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J84" s="7"/>
-      <c r="K84" s="9"/>
+      <c r="M83" s="9"/>
+    </row>
+    <row r="84" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I84" s="81"/>
+      <c r="K84" s="7"/>
       <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J85" s="7"/>
-      <c r="K85" s="9"/>
+      <c r="M84" s="9"/>
+    </row>
+    <row r="85" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I85" s="81"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="9"/>
-    </row>
-    <row r="86" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J86" s="7"/>
-      <c r="K86" s="9"/>
+      <c r="M85" s="9"/>
+    </row>
+    <row r="86" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I86" s="81"/>
+      <c r="K86" s="7"/>
       <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J87" s="7"/>
-      <c r="K87" s="9"/>
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I87" s="81"/>
+      <c r="K87" s="7"/>
       <c r="L87" s="9"/>
-    </row>
-    <row r="88" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J88" s="7"/>
-      <c r="K88" s="9"/>
+      <c r="M87" s="9"/>
+    </row>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I88" s="81"/>
+      <c r="K88" s="7"/>
       <c r="L88" s="9"/>
-    </row>
-    <row r="89" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J89" s="7"/>
-      <c r="K89" s="9"/>
+      <c r="M88" s="9"/>
+    </row>
+    <row r="89" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I89" s="81"/>
+      <c r="K89" s="7"/>
       <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J90" s="7"/>
-      <c r="K90" s="9"/>
+      <c r="M89" s="9"/>
+    </row>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I90" s="81"/>
+      <c r="K90" s="7"/>
       <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J91" s="7"/>
-      <c r="K91" s="9"/>
+      <c r="M90" s="9"/>
+    </row>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I91" s="81"/>
+      <c r="K91" s="7"/>
       <c r="L91" s="9"/>
-    </row>
-    <row r="92" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J92" s="7"/>
-      <c r="K92" s="9"/>
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I92" s="81"/>
+      <c r="K92" s="7"/>
       <c r="L92" s="9"/>
-    </row>
-    <row r="93" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J93" s="7"/>
-      <c r="K93" s="9"/>
+      <c r="M92" s="9"/>
+    </row>
+    <row r="93" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I93" s="81"/>
+      <c r="K93" s="7"/>
       <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J94" s="7"/>
-      <c r="K94" s="9"/>
+      <c r="M93" s="9"/>
+    </row>
+    <row r="94" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I94" s="81"/>
+      <c r="K94" s="7"/>
       <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J95" s="7"/>
-      <c r="K95" s="9"/>
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I95" s="81"/>
+      <c r="K95" s="7"/>
       <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J96" s="7"/>
-      <c r="K96" s="9"/>
+      <c r="M95" s="9"/>
+    </row>
+    <row r="96" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I96" s="81"/>
+      <c r="K96" s="7"/>
       <c r="L96" s="9"/>
-    </row>
-    <row r="97" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J97" s="7"/>
-      <c r="K97" s="9"/>
+      <c r="M96" s="9"/>
+    </row>
+    <row r="97" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I97" s="81"/>
+      <c r="K97" s="7"/>
       <c r="L97" s="9"/>
-    </row>
-    <row r="98" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J98" s="7"/>
-      <c r="K98" s="9"/>
+      <c r="M97" s="9"/>
+    </row>
+    <row r="98" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I98" s="81"/>
+      <c r="K98" s="7"/>
       <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J99" s="7"/>
-      <c r="K99" s="9"/>
+      <c r="M98" s="9"/>
+    </row>
+    <row r="99" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I99" s="81"/>
+      <c r="K99" s="7"/>
       <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J100" s="7"/>
-      <c r="K100" s="9"/>
+      <c r="M99" s="9"/>
+    </row>
+    <row r="100" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I100" s="81"/>
+      <c r="K100" s="7"/>
       <c r="L100" s="9"/>
-    </row>
-    <row r="101" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J101" s="7"/>
-      <c r="K101" s="9"/>
+      <c r="M100" s="9"/>
+    </row>
+    <row r="101" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I101" s="81"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="9"/>
-    </row>
-    <row r="102" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J102" s="7"/>
-      <c r="K102" s="9"/>
+      <c r="M101" s="9"/>
+    </row>
+    <row r="102" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I102" s="81"/>
+      <c r="K102" s="7"/>
       <c r="L102" s="9"/>
-    </row>
-    <row r="103" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J103" s="7"/>
-      <c r="K103" s="9"/>
+      <c r="M102" s="9"/>
+    </row>
+    <row r="103" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I103" s="81"/>
+      <c r="K103" s="7"/>
       <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J104" s="7"/>
-      <c r="K104" s="9"/>
+      <c r="M103" s="9"/>
+    </row>
+    <row r="104" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I104" s="81"/>
+      <c r="K104" s="7"/>
       <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J105" s="7"/>
-      <c r="K105" s="9"/>
+      <c r="M104" s="9"/>
+    </row>
+    <row r="105" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I105" s="81"/>
+      <c r="K105" s="7"/>
       <c r="L105" s="9"/>
-    </row>
-    <row r="106" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J106" s="7"/>
-      <c r="K106" s="9"/>
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I106" s="81"/>
+      <c r="K106" s="7"/>
       <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J107" s="7"/>
-      <c r="K107" s="9"/>
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I107" s="81"/>
+      <c r="K107" s="7"/>
       <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J108" s="7"/>
-      <c r="K108" s="9"/>
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I108" s="81"/>
+      <c r="K108" s="7"/>
       <c r="L108" s="9"/>
-    </row>
-    <row r="109" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J109" s="7"/>
-      <c r="K109" s="9"/>
+      <c r="M108" s="9"/>
+    </row>
+    <row r="109" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I109" s="81"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="9"/>
-    </row>
-    <row r="110" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J110" s="7"/>
-      <c r="K110" s="9"/>
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I110" s="81"/>
+      <c r="K110" s="7"/>
       <c r="L110" s="9"/>
-    </row>
-    <row r="111" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J111" s="7"/>
-      <c r="K111" s="9"/>
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I111" s="81"/>
+      <c r="K111" s="7"/>
       <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J112" s="7"/>
-      <c r="K112" s="9"/>
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I112" s="81"/>
+      <c r="K112" s="7"/>
       <c r="L112" s="9"/>
-    </row>
-    <row r="113" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J113" s="7"/>
-      <c r="K113" s="9"/>
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I113" s="81"/>
+      <c r="K113" s="7"/>
       <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J114" s="7"/>
-      <c r="K114" s="9"/>
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I114" s="81"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J115" s="7"/>
-      <c r="K115" s="9"/>
+      <c r="M114" s="9"/>
+    </row>
+    <row r="115" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I115" s="81"/>
+      <c r="K115" s="7"/>
       <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J116" s="7"/>
-      <c r="K116" s="9"/>
+      <c r="M115" s="9"/>
+    </row>
+    <row r="116" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I116" s="81"/>
+      <c r="K116" s="7"/>
       <c r="L116" s="9"/>
-    </row>
-    <row r="117" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J117" s="7"/>
-      <c r="K117" s="9"/>
+      <c r="M116" s="9"/>
+    </row>
+    <row r="117" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I117" s="81"/>
+      <c r="K117" s="7"/>
       <c r="L117" s="9"/>
-    </row>
-    <row r="118" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J118" s="7"/>
-      <c r="K118" s="9"/>
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I118" s="81"/>
+      <c r="K118" s="7"/>
       <c r="L118" s="9"/>
-    </row>
-    <row r="119" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J119" s="7"/>
-      <c r="K119" s="9"/>
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I119" s="81"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="9"/>
-    </row>
-    <row r="120" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J120" s="7"/>
-      <c r="K120" s="9"/>
+      <c r="M119" s="9"/>
+    </row>
+    <row r="120" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I120" s="81"/>
+      <c r="K120" s="7"/>
       <c r="L120" s="9"/>
-    </row>
-    <row r="121" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J121" s="7"/>
-      <c r="K121" s="9"/>
+      <c r="M120" s="9"/>
+    </row>
+    <row r="121" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I121" s="81"/>
+      <c r="K121" s="7"/>
       <c r="L121" s="9"/>
-    </row>
-    <row r="122" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J122" s="7"/>
-      <c r="K122" s="9"/>
+      <c r="M121" s="9"/>
+    </row>
+    <row r="122" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I122" s="81"/>
+      <c r="K122" s="7"/>
       <c r="L122" s="9"/>
-    </row>
-    <row r="123" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J123" s="7"/>
-      <c r="K123" s="9"/>
+      <c r="M122" s="9"/>
+    </row>
+    <row r="123" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I123" s="81"/>
+      <c r="K123" s="7"/>
       <c r="L123" s="9"/>
-    </row>
-    <row r="124" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J124" s="7"/>
-      <c r="K124" s="9"/>
+      <c r="M123" s="9"/>
+    </row>
+    <row r="124" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I124" s="81"/>
+      <c r="K124" s="7"/>
       <c r="L124" s="9"/>
-    </row>
-    <row r="125" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J125" s="7"/>
-      <c r="K125" s="9"/>
+      <c r="M124" s="9"/>
+    </row>
+    <row r="125" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I125" s="81"/>
+      <c r="K125" s="7"/>
       <c r="L125" s="9"/>
-    </row>
-    <row r="126" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J126" s="7"/>
-      <c r="K126" s="9"/>
+      <c r="M125" s="9"/>
+    </row>
+    <row r="126" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I126" s="81"/>
+      <c r="K126" s="7"/>
       <c r="L126" s="9"/>
-    </row>
-    <row r="127" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J127" s="7"/>
-      <c r="K127" s="9"/>
+      <c r="M126" s="9"/>
+    </row>
+    <row r="127" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I127" s="81"/>
+      <c r="K127" s="7"/>
       <c r="L127" s="9"/>
-    </row>
-    <row r="128" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J128" s="7"/>
-      <c r="K128" s="9"/>
+      <c r="M127" s="9"/>
+    </row>
+    <row r="128" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I128" s="81"/>
+      <c r="K128" s="7"/>
       <c r="L128" s="9"/>
-    </row>
-    <row r="129" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J129" s="7"/>
-      <c r="K129" s="9"/>
+      <c r="M128" s="9"/>
+    </row>
+    <row r="129" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I129" s="81"/>
+      <c r="K129" s="7"/>
       <c r="L129" s="9"/>
-    </row>
-    <row r="130" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J130" s="7"/>
-      <c r="K130" s="9"/>
+      <c r="M129" s="9"/>
+    </row>
+    <row r="130" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I130" s="81"/>
+      <c r="K130" s="7"/>
       <c r="L130" s="9"/>
-    </row>
-    <row r="131" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J131" s="7"/>
-      <c r="K131" s="9"/>
+      <c r="M130" s="9"/>
+    </row>
+    <row r="131" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I131" s="81"/>
+      <c r="K131" s="7"/>
       <c r="L131" s="9"/>
-    </row>
-    <row r="132" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J132" s="7"/>
-      <c r="K132" s="9"/>
+      <c r="M131" s="9"/>
+    </row>
+    <row r="132" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I132" s="81"/>
+      <c r="K132" s="7"/>
       <c r="L132" s="9"/>
-    </row>
-    <row r="133" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J133" s="7"/>
-      <c r="K133" s="9"/>
+      <c r="M132" s="9"/>
+    </row>
+    <row r="133" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I133" s="81"/>
+      <c r="K133" s="7"/>
       <c r="L133" s="9"/>
-    </row>
-    <row r="134" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J134" s="7"/>
-      <c r="K134" s="9"/>
+      <c r="M133" s="9"/>
+    </row>
+    <row r="134" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I134" s="81"/>
+      <c r="K134" s="7"/>
       <c r="L134" s="9"/>
-    </row>
-    <row r="135" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J135" s="7"/>
-      <c r="K135" s="9"/>
+      <c r="M134" s="9"/>
+    </row>
+    <row r="135" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I135" s="81"/>
+      <c r="K135" s="7"/>
       <c r="L135" s="9"/>
-    </row>
-    <row r="136" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J136" s="7"/>
-      <c r="K136" s="9"/>
+      <c r="M135" s="9"/>
+    </row>
+    <row r="136" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I136" s="81"/>
+      <c r="K136" s="7"/>
       <c r="L136" s="9"/>
-    </row>
-    <row r="137" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J137" s="7"/>
-      <c r="K137" s="9"/>
+      <c r="M136" s="9"/>
+    </row>
+    <row r="137" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I137" s="81"/>
+      <c r="K137" s="7"/>
       <c r="L137" s="9"/>
-    </row>
-    <row r="138" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J138" s="7"/>
-      <c r="K138" s="9"/>
+      <c r="M137" s="9"/>
+    </row>
+    <row r="138" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I138" s="81"/>
+      <c r="K138" s="7"/>
       <c r="L138" s="9"/>
-    </row>
-    <row r="139" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J139" s="7"/>
-      <c r="K139" s="9"/>
+      <c r="M138" s="9"/>
+    </row>
+    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I139" s="81"/>
+      <c r="K139" s="7"/>
       <c r="L139" s="9"/>
-    </row>
-    <row r="140" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J140" s="7"/>
-      <c r="K140" s="9"/>
+      <c r="M139" s="9"/>
+    </row>
+    <row r="140" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I140" s="81"/>
+      <c r="K140" s="7"/>
       <c r="L140" s="9"/>
-    </row>
-    <row r="141" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J141" s="7"/>
-      <c r="K141" s="9"/>
+      <c r="M140" s="9"/>
+    </row>
+    <row r="141" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I141" s="81"/>
+      <c r="K141" s="7"/>
       <c r="L141" s="9"/>
-    </row>
-    <row r="142" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J142" s="7"/>
-      <c r="K142" s="9"/>
+      <c r="M141" s="9"/>
+    </row>
+    <row r="142" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I142" s="81"/>
+      <c r="K142" s="7"/>
       <c r="L142" s="9"/>
-    </row>
-    <row r="143" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J143" s="7"/>
-      <c r="K143" s="9"/>
+      <c r="M142" s="9"/>
+    </row>
+    <row r="143" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I143" s="81"/>
+      <c r="K143" s="7"/>
       <c r="L143" s="9"/>
-    </row>
-    <row r="144" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J144" s="7"/>
-      <c r="K144" s="9"/>
+      <c r="M143" s="9"/>
+    </row>
+    <row r="144" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I144" s="81"/>
+      <c r="K144" s="7"/>
       <c r="L144" s="9"/>
-    </row>
-    <row r="145" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J145" s="7"/>
-      <c r="K145" s="9"/>
+      <c r="M144" s="9"/>
+    </row>
+    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I145" s="81"/>
+      <c r="K145" s="7"/>
       <c r="L145" s="9"/>
-    </row>
-    <row r="146" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J146" s="7"/>
-      <c r="K146" s="9"/>
+      <c r="M145" s="9"/>
+    </row>
+    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I146" s="81"/>
+      <c r="K146" s="7"/>
       <c r="L146" s="9"/>
-    </row>
-    <row r="147" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J147" s="7"/>
-      <c r="K147" s="9"/>
+      <c r="M146" s="9"/>
+    </row>
+    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I147" s="81"/>
+      <c r="K147" s="7"/>
       <c r="L147" s="9"/>
-    </row>
-    <row r="148" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J148" s="7"/>
-      <c r="K148" s="9"/>
+      <c r="M147" s="9"/>
+    </row>
+    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I148" s="81"/>
+      <c r="K148" s="7"/>
       <c r="L148" s="9"/>
-    </row>
-    <row r="149" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J149" s="7"/>
-      <c r="K149" s="9"/>
+      <c r="M148" s="9"/>
+    </row>
+    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I149" s="81"/>
+      <c r="K149" s="7"/>
       <c r="L149" s="9"/>
-    </row>
-    <row r="150" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J150" s="7"/>
-      <c r="K150" s="9"/>
+      <c r="M149" s="9"/>
+    </row>
+    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I150" s="81"/>
+      <c r="K150" s="7"/>
       <c r="L150" s="9"/>
-    </row>
-    <row r="151" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J151" s="7"/>
-      <c r="K151" s="9"/>
+      <c r="M150" s="9"/>
+    </row>
+    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I151" s="81"/>
+      <c r="K151" s="7"/>
       <c r="L151" s="9"/>
-    </row>
-    <row r="152" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J152" s="7"/>
-      <c r="K152" s="9"/>
+      <c r="M151" s="9"/>
+    </row>
+    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I152" s="81"/>
+      <c r="K152" s="7"/>
       <c r="L152" s="9"/>
-    </row>
-    <row r="153" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J153" s="7"/>
-      <c r="K153" s="9"/>
+      <c r="M152" s="9"/>
+    </row>
+    <row r="153" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I153" s="81"/>
+      <c r="K153" s="7"/>
       <c r="L153" s="9"/>
-    </row>
-    <row r="154" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J154" s="7"/>
-      <c r="K154" s="9"/>
+      <c r="M153" s="9"/>
+    </row>
+    <row r="154" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I154" s="81"/>
+      <c r="K154" s="7"/>
       <c r="L154" s="9"/>
-    </row>
-    <row r="155" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J155" s="7"/>
-      <c r="K155" s="9"/>
+      <c r="M154" s="9"/>
+    </row>
+    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I155" s="81"/>
+      <c r="K155" s="7"/>
       <c r="L155" s="9"/>
-    </row>
-    <row r="156" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J156" s="7"/>
-      <c r="K156" s="9"/>
+      <c r="M155" s="9"/>
+    </row>
+    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I156" s="81"/>
+      <c r="K156" s="7"/>
       <c r="L156" s="9"/>
-    </row>
-    <row r="157" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J157" s="7"/>
-      <c r="K157" s="9"/>
+      <c r="M156" s="9"/>
+    </row>
+    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I157" s="81"/>
+      <c r="K157" s="7"/>
       <c r="L157" s="9"/>
-    </row>
-    <row r="158" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J158" s="7"/>
-      <c r="K158" s="9"/>
+      <c r="M157" s="9"/>
+    </row>
+    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I158" s="81"/>
+      <c r="K158" s="7"/>
       <c r="L158" s="9"/>
-    </row>
-    <row r="159" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J159" s="7"/>
-      <c r="K159" s="9"/>
+      <c r="M158" s="9"/>
+    </row>
+    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I159" s="81"/>
+      <c r="K159" s="7"/>
       <c r="L159" s="9"/>
-    </row>
-    <row r="160" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J160" s="7"/>
-      <c r="K160" s="9"/>
+      <c r="M159" s="9"/>
+    </row>
+    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I160" s="81"/>
+      <c r="K160" s="7"/>
       <c r="L160" s="9"/>
-    </row>
-    <row r="161" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J161" s="7"/>
-      <c r="K161" s="9"/>
+      <c r="M160" s="9"/>
+    </row>
+    <row r="161" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I161" s="81"/>
+      <c r="K161" s="7"/>
       <c r="L161" s="9"/>
-    </row>
-    <row r="162" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J162" s="7"/>
-      <c r="K162" s="9"/>
+      <c r="M161" s="9"/>
+    </row>
+    <row r="162" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I162" s="81"/>
+      <c r="K162" s="7"/>
       <c r="L162" s="9"/>
-    </row>
-    <row r="163" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J163" s="7"/>
-      <c r="K163" s="9"/>
+      <c r="M162" s="9"/>
+    </row>
+    <row r="163" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I163" s="81"/>
+      <c r="K163" s="7"/>
       <c r="L163" s="9"/>
-    </row>
-    <row r="164" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J164" s="7"/>
-      <c r="K164" s="9"/>
+      <c r="M163" s="9"/>
+    </row>
+    <row r="164" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I164" s="81"/>
+      <c r="K164" s="7"/>
       <c r="L164" s="9"/>
-    </row>
-    <row r="165" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J165" s="7"/>
-      <c r="K165" s="9"/>
+      <c r="M164" s="9"/>
+    </row>
+    <row r="165" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I165" s="81"/>
+      <c r="K165" s="7"/>
       <c r="L165" s="9"/>
-    </row>
-    <row r="166" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J166" s="7"/>
-      <c r="K166" s="9"/>
+      <c r="M165" s="9"/>
+    </row>
+    <row r="166" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I166" s="81"/>
+      <c r="K166" s="7"/>
       <c r="L166" s="9"/>
-    </row>
-    <row r="167" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J167" s="7"/>
-      <c r="K167" s="9"/>
+      <c r="M166" s="9"/>
+    </row>
+    <row r="167" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I167" s="81"/>
+      <c r="K167" s="7"/>
       <c r="L167" s="9"/>
-    </row>
-    <row r="168" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J168" s="7"/>
-      <c r="K168" s="9"/>
+      <c r="M167" s="9"/>
+    </row>
+    <row r="168" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I168" s="81"/>
+      <c r="K168" s="7"/>
       <c r="L168" s="9"/>
-    </row>
-    <row r="169" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J169" s="7"/>
-      <c r="K169" s="9"/>
+      <c r="M168" s="9"/>
+    </row>
+    <row r="169" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I169" s="81"/>
+      <c r="K169" s="7"/>
       <c r="L169" s="9"/>
-    </row>
-    <row r="170" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J170" s="7"/>
-      <c r="K170" s="9"/>
+      <c r="M169" s="9"/>
+    </row>
+    <row r="170" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I170" s="81"/>
+      <c r="K170" s="7"/>
       <c r="L170" s="9"/>
-    </row>
-    <row r="171" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J171" s="7"/>
-      <c r="K171" s="9"/>
+      <c r="M170" s="9"/>
+    </row>
+    <row r="171" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I171" s="81"/>
+      <c r="K171" s="7"/>
       <c r="L171" s="9"/>
-    </row>
-    <row r="172" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J172" s="7"/>
-      <c r="K172" s="9"/>
+      <c r="M171" s="9"/>
+    </row>
+    <row r="172" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I172" s="81"/>
+      <c r="K172" s="7"/>
       <c r="L172" s="9"/>
-    </row>
-    <row r="173" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J173" s="7"/>
-      <c r="K173" s="9"/>
+      <c r="M172" s="9"/>
+    </row>
+    <row r="173" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I173" s="81"/>
+      <c r="K173" s="7"/>
       <c r="L173" s="9"/>
-    </row>
-    <row r="174" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J174" s="7"/>
-      <c r="K174" s="9"/>
+      <c r="M173" s="9"/>
+    </row>
+    <row r="174" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I174" s="81"/>
+      <c r="K174" s="7"/>
       <c r="L174" s="9"/>
-    </row>
-    <row r="175" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J175" s="7"/>
-      <c r="K175" s="9"/>
+      <c r="M174" s="9"/>
+    </row>
+    <row r="175" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I175" s="81"/>
+      <c r="K175" s="7"/>
       <c r="L175" s="9"/>
-    </row>
-    <row r="176" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J176" s="7"/>
-      <c r="K176" s="9"/>
+      <c r="M175" s="9"/>
+    </row>
+    <row r="176" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I176" s="81"/>
+      <c r="K176" s="7"/>
       <c r="L176" s="9"/>
-    </row>
-    <row r="177" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J177" s="7"/>
-      <c r="K177" s="9"/>
+      <c r="M176" s="9"/>
+    </row>
+    <row r="177" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I177" s="81"/>
+      <c r="K177" s="7"/>
       <c r="L177" s="9"/>
-    </row>
-    <row r="178" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J178" s="7"/>
-      <c r="K178" s="9"/>
+      <c r="M177" s="9"/>
+    </row>
+    <row r="178" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I178" s="81"/>
+      <c r="K178" s="7"/>
       <c r="L178" s="9"/>
-    </row>
-    <row r="179" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J179" s="7"/>
-      <c r="K179" s="9"/>
+      <c r="M178" s="9"/>
+    </row>
+    <row r="179" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I179" s="81"/>
+      <c r="K179" s="7"/>
       <c r="L179" s="9"/>
-    </row>
-    <row r="180" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J180" s="7"/>
-      <c r="K180" s="9"/>
+      <c r="M179" s="9"/>
+    </row>
+    <row r="180" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I180" s="81"/>
+      <c r="K180" s="7"/>
       <c r="L180" s="9"/>
-    </row>
-    <row r="181" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J181" s="7"/>
-      <c r="K181" s="9"/>
+      <c r="M180" s="9"/>
+    </row>
+    <row r="181" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I181" s="81"/>
+      <c r="K181" s="7"/>
       <c r="L181" s="9"/>
-    </row>
-    <row r="182" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J182" s="7"/>
-      <c r="K182" s="9"/>
+      <c r="M181" s="9"/>
+    </row>
+    <row r="182" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I182" s="81"/>
+      <c r="K182" s="7"/>
       <c r="L182" s="9"/>
-    </row>
-    <row r="183" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J183" s="7"/>
-      <c r="K183" s="9"/>
+      <c r="M182" s="9"/>
+    </row>
+    <row r="183" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I183" s="81"/>
+      <c r="K183" s="7"/>
       <c r="L183" s="9"/>
-    </row>
-    <row r="184" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J184" s="7"/>
-      <c r="K184" s="9"/>
+      <c r="M183" s="9"/>
+    </row>
+    <row r="184" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I184" s="81"/>
+      <c r="K184" s="7"/>
       <c r="L184" s="9"/>
-    </row>
-    <row r="185" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J185" s="7"/>
-      <c r="K185" s="9"/>
+      <c r="M184" s="9"/>
+    </row>
+    <row r="185" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I185" s="81"/>
+      <c r="K185" s="7"/>
       <c r="L185" s="9"/>
-    </row>
-    <row r="186" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J186" s="7"/>
-      <c r="K186" s="9"/>
+      <c r="M185" s="9"/>
+    </row>
+    <row r="186" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I186" s="81"/>
+      <c r="K186" s="7"/>
       <c r="L186" s="9"/>
-    </row>
-    <row r="187" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J187" s="7"/>
-      <c r="K187" s="9"/>
+      <c r="M186" s="9"/>
+    </row>
+    <row r="187" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I187" s="81"/>
+      <c r="K187" s="7"/>
       <c r="L187" s="9"/>
-    </row>
-    <row r="188" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J188" s="7"/>
-      <c r="K188" s="9"/>
+      <c r="M187" s="9"/>
+    </row>
+    <row r="188" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I188" s="81"/>
+      <c r="K188" s="7"/>
       <c r="L188" s="9"/>
-    </row>
-    <row r="189" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J189" s="7"/>
-      <c r="K189" s="9"/>
+      <c r="M188" s="9"/>
+    </row>
+    <row r="189" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I189" s="81"/>
+      <c r="K189" s="7"/>
       <c r="L189" s="9"/>
-    </row>
-    <row r="190" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J190" s="7"/>
-      <c r="K190" s="9"/>
+      <c r="M189" s="9"/>
+    </row>
+    <row r="190" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I190" s="81"/>
+      <c r="K190" s="7"/>
       <c r="L190" s="9"/>
-    </row>
-    <row r="191" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J191" s="7"/>
-      <c r="K191" s="9"/>
+      <c r="M190" s="9"/>
+    </row>
+    <row r="191" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I191" s="81"/>
+      <c r="K191" s="7"/>
       <c r="L191" s="9"/>
-    </row>
-    <row r="192" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J192" s="7"/>
-      <c r="K192" s="9"/>
+      <c r="M191" s="9"/>
+    </row>
+    <row r="192" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I192" s="81"/>
+      <c r="K192" s="7"/>
       <c r="L192" s="9"/>
-    </row>
-    <row r="193" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J193" s="7"/>
-      <c r="K193" s="9"/>
+      <c r="M192" s="9"/>
+    </row>
+    <row r="193" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I193" s="81"/>
+      <c r="K193" s="7"/>
       <c r="L193" s="9"/>
-    </row>
-    <row r="194" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J194" s="7"/>
-      <c r="K194" s="9"/>
+      <c r="M193" s="9"/>
+    </row>
+    <row r="194" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I194" s="81"/>
+      <c r="K194" s="7"/>
       <c r="L194" s="9"/>
-    </row>
-    <row r="195" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J195" s="7"/>
-      <c r="K195" s="9"/>
+      <c r="M194" s="9"/>
+    </row>
+    <row r="195" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I195" s="81"/>
+      <c r="K195" s="7"/>
       <c r="L195" s="9"/>
-    </row>
-    <row r="196" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J196" s="7"/>
-      <c r="K196" s="9"/>
+      <c r="M195" s="9"/>
+    </row>
+    <row r="196" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I196" s="81"/>
+      <c r="K196" s="7"/>
       <c r="L196" s="9"/>
-    </row>
-    <row r="197" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J197" s="7"/>
-      <c r="K197" s="9"/>
+      <c r="M196" s="9"/>
+    </row>
+    <row r="197" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I197" s="81"/>
+      <c r="K197" s="7"/>
       <c r="L197" s="9"/>
-    </row>
-    <row r="198" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J198" s="7"/>
-      <c r="K198" s="9"/>
+      <c r="M197" s="9"/>
+    </row>
+    <row r="198" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I198" s="81"/>
+      <c r="K198" s="7"/>
       <c r="L198" s="9"/>
-    </row>
-    <row r="199" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J199" s="7"/>
-      <c r="K199" s="9"/>
+      <c r="M198" s="9"/>
+    </row>
+    <row r="199" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I199" s="81"/>
+      <c r="K199" s="7"/>
       <c r="L199" s="9"/>
-    </row>
-    <row r="200" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J200" s="7"/>
-      <c r="K200" s="9"/>
+      <c r="M199" s="9"/>
+    </row>
+    <row r="200" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I200" s="81"/>
+      <c r="K200" s="7"/>
       <c r="L200" s="9"/>
-    </row>
-    <row r="201" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J201" s="7"/>
-      <c r="K201" s="9"/>
+      <c r="M200" s="9"/>
+    </row>
+    <row r="201" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I201" s="81"/>
+      <c r="K201" s="7"/>
       <c r="L201" s="9"/>
-    </row>
-    <row r="202" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J202" s="7"/>
-      <c r="K202" s="9"/>
+      <c r="M201" s="9"/>
+    </row>
+    <row r="202" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I202" s="81"/>
+      <c r="K202" s="7"/>
       <c r="L202" s="9"/>
-    </row>
-    <row r="203" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J203" s="7"/>
-      <c r="K203" s="9"/>
+      <c r="M202" s="9"/>
+    </row>
+    <row r="203" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I203" s="81"/>
+      <c r="K203" s="7"/>
       <c r="L203" s="9"/>
-    </row>
-    <row r="204" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J204" s="7"/>
-      <c r="K204" s="9"/>
+      <c r="M203" s="9"/>
+    </row>
+    <row r="204" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I204" s="81"/>
+      <c r="K204" s="7"/>
       <c r="L204" s="9"/>
-    </row>
-    <row r="205" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J205" s="7"/>
-      <c r="K205" s="9"/>
+      <c r="M204" s="9"/>
+    </row>
+    <row r="205" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I205" s="81"/>
+      <c r="K205" s="7"/>
       <c r="L205" s="9"/>
-    </row>
-    <row r="206" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J206" s="7"/>
-      <c r="K206" s="9"/>
+      <c r="M205" s="9"/>
+    </row>
+    <row r="206" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I206" s="81"/>
+      <c r="K206" s="7"/>
       <c r="L206" s="9"/>
-    </row>
-    <row r="207" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J207" s="7"/>
-      <c r="K207" s="9"/>
+      <c r="M206" s="9"/>
+    </row>
+    <row r="207" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I207" s="81"/>
+      <c r="K207" s="7"/>
       <c r="L207" s="9"/>
-    </row>
-    <row r="208" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J208" s="7"/>
-      <c r="K208" s="9"/>
+      <c r="M207" s="9"/>
+    </row>
+    <row r="208" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I208" s="81"/>
+      <c r="K208" s="7"/>
       <c r="L208" s="9"/>
-    </row>
-    <row r="209" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J209" s="7"/>
-      <c r="K209" s="9"/>
+      <c r="M208" s="9"/>
+    </row>
+    <row r="209" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I209" s="81"/>
+      <c r="K209" s="7"/>
       <c r="L209" s="9"/>
-    </row>
-    <row r="210" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J210" s="7"/>
-      <c r="K210" s="9"/>
+      <c r="M209" s="9"/>
+    </row>
+    <row r="210" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I210" s="81"/>
+      <c r="K210" s="7"/>
       <c r="L210" s="9"/>
-    </row>
-    <row r="211" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J211" s="7"/>
-      <c r="K211" s="9"/>
+      <c r="M210" s="9"/>
+    </row>
+    <row r="211" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I211" s="81"/>
+      <c r="K211" s="7"/>
       <c r="L211" s="9"/>
-    </row>
-    <row r="212" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J212" s="7"/>
-      <c r="K212" s="9"/>
+      <c r="M211" s="9"/>
+    </row>
+    <row r="212" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I212" s="81"/>
+      <c r="K212" s="7"/>
       <c r="L212" s="9"/>
-    </row>
-    <row r="213" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J213" s="7"/>
-      <c r="K213" s="9"/>
+      <c r="M212" s="9"/>
+    </row>
+    <row r="213" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I213" s="81"/>
+      <c r="K213" s="7"/>
       <c r="L213" s="9"/>
-    </row>
-    <row r="214" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J214" s="7"/>
-      <c r="K214" s="9"/>
+      <c r="M213" s="9"/>
+    </row>
+    <row r="214" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I214" s="81"/>
+      <c r="K214" s="7"/>
       <c r="L214" s="9"/>
-    </row>
-    <row r="215" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J215" s="7"/>
-      <c r="K215" s="9"/>
+      <c r="M214" s="9"/>
+    </row>
+    <row r="215" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I215" s="81"/>
+      <c r="K215" s="7"/>
       <c r="L215" s="9"/>
-    </row>
-    <row r="216" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J216" s="7"/>
-      <c r="K216" s="9"/>
+      <c r="M215" s="9"/>
+    </row>
+    <row r="216" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I216" s="81"/>
+      <c r="K216" s="7"/>
       <c r="L216" s="9"/>
-    </row>
-    <row r="217" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J217" s="7"/>
-      <c r="K217" s="9"/>
+      <c r="M216" s="9"/>
+    </row>
+    <row r="217" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I217" s="81"/>
+      <c r="K217" s="7"/>
       <c r="L217" s="9"/>
-    </row>
-    <row r="218" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J218" s="7"/>
-      <c r="K218" s="9"/>
+      <c r="M217" s="9"/>
+    </row>
+    <row r="218" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I218" s="81"/>
+      <c r="K218" s="7"/>
       <c r="L218" s="9"/>
-    </row>
-    <row r="219" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J219" s="7"/>
-      <c r="K219" s="9"/>
+      <c r="M218" s="9"/>
+    </row>
+    <row r="219" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I219" s="81"/>
+      <c r="K219" s="7"/>
       <c r="L219" s="9"/>
-    </row>
-    <row r="220" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J220" s="7"/>
-      <c r="K220" s="9"/>
+      <c r="M219" s="9"/>
+    </row>
+    <row r="220" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I220" s="81"/>
+      <c r="K220" s="7"/>
       <c r="L220" s="9"/>
-    </row>
-    <row r="221" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J221" s="7"/>
-      <c r="K221" s="9"/>
+      <c r="M220" s="9"/>
+    </row>
+    <row r="221" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I221" s="81"/>
+      <c r="K221" s="7"/>
       <c r="L221" s="9"/>
-    </row>
-    <row r="222" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J222" s="7"/>
-      <c r="K222" s="9"/>
+      <c r="M221" s="9"/>
+    </row>
+    <row r="222" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I222" s="81"/>
+      <c r="K222" s="7"/>
       <c r="L222" s="9"/>
-    </row>
-    <row r="223" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J223" s="7"/>
-      <c r="K223" s="9"/>
+      <c r="M222" s="9"/>
+    </row>
+    <row r="223" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I223" s="81"/>
+      <c r="K223" s="7"/>
       <c r="L223" s="9"/>
-    </row>
-    <row r="224" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J224" s="7"/>
-      <c r="K224" s="9"/>
+      <c r="M223" s="9"/>
+    </row>
+    <row r="224" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I224" s="81"/>
+      <c r="K224" s="7"/>
       <c r="L224" s="9"/>
-    </row>
-    <row r="225" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J225" s="7"/>
-      <c r="K225" s="9"/>
+      <c r="M224" s="9"/>
+    </row>
+    <row r="225" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I225" s="81"/>
+      <c r="K225" s="7"/>
       <c r="L225" s="9"/>
-    </row>
-    <row r="226" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J226" s="7"/>
-      <c r="K226" s="9"/>
+      <c r="M225" s="9"/>
+    </row>
+    <row r="226" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I226" s="81"/>
+      <c r="K226" s="7"/>
       <c r="L226" s="9"/>
-    </row>
-    <row r="227" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J227" s="7"/>
-      <c r="K227" s="9"/>
+      <c r="M226" s="9"/>
+    </row>
+    <row r="227" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I227" s="81"/>
+      <c r="K227" s="7"/>
       <c r="L227" s="9"/>
-    </row>
-    <row r="228" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J228" s="7"/>
-      <c r="K228" s="9"/>
+      <c r="M227" s="9"/>
+    </row>
+    <row r="228" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I228" s="81"/>
+      <c r="K228" s="7"/>
       <c r="L228" s="9"/>
-    </row>
-    <row r="229" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J229" s="7"/>
-      <c r="K229" s="9"/>
+      <c r="M228" s="9"/>
+    </row>
+    <row r="229" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I229" s="81"/>
+      <c r="K229" s="7"/>
       <c r="L229" s="9"/>
-    </row>
-    <row r="230" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J230" s="7"/>
-      <c r="K230" s="9"/>
+      <c r="M229" s="9"/>
+    </row>
+    <row r="230" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I230" s="81"/>
+      <c r="K230" s="7"/>
       <c r="L230" s="9"/>
-    </row>
-    <row r="231" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J231" s="7"/>
-      <c r="K231" s="9"/>
+      <c r="M230" s="9"/>
+    </row>
+    <row r="231" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I231" s="81"/>
+      <c r="K231" s="7"/>
       <c r="L231" s="9"/>
-    </row>
-    <row r="232" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J232" s="7"/>
-      <c r="K232" s="9"/>
+      <c r="M231" s="9"/>
+    </row>
+    <row r="232" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I232" s="81"/>
+      <c r="K232" s="7"/>
       <c r="L232" s="9"/>
-    </row>
-    <row r="233" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J233" s="7"/>
-      <c r="K233" s="9"/>
+      <c r="M232" s="9"/>
+    </row>
+    <row r="233" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I233" s="81"/>
+      <c r="K233" s="7"/>
       <c r="L233" s="9"/>
-    </row>
-    <row r="234" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J234" s="7"/>
-      <c r="K234" s="9"/>
+      <c r="M233" s="9"/>
+    </row>
+    <row r="234" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I234" s="81"/>
+      <c r="K234" s="7"/>
       <c r="L234" s="9"/>
-    </row>
-    <row r="235" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J235" s="7"/>
-      <c r="K235" s="9"/>
+      <c r="M234" s="9"/>
+    </row>
+    <row r="235" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I235" s="81"/>
+      <c r="K235" s="7"/>
       <c r="L235" s="9"/>
-    </row>
-    <row r="236" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J236" s="7"/>
-      <c r="K236" s="9"/>
+      <c r="M235" s="9"/>
+    </row>
+    <row r="236" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I236" s="81"/>
+      <c r="K236" s="7"/>
       <c r="L236" s="9"/>
-    </row>
-    <row r="237" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J237" s="7"/>
-      <c r="K237" s="9"/>
+      <c r="M236" s="9"/>
+    </row>
+    <row r="237" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I237" s="81"/>
+      <c r="K237" s="7"/>
       <c r="L237" s="9"/>
-    </row>
-    <row r="238" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J238" s="7"/>
-      <c r="K238" s="9"/>
+      <c r="M237" s="9"/>
+    </row>
+    <row r="238" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I238" s="81"/>
+      <c r="K238" s="7"/>
       <c r="L238" s="9"/>
+      <c r="M238" s="9"/>
+    </row>
+    <row r="239" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I239" s="81"/>
+      <c r="K239" s="7"/>
+      <c r="L239" s="9"/>
+      <c r="M239" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J8:J238">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K8:K239">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="300"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3259,7 +3620,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L233"/>
@@ -3268,36 +3629,36 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" style="70" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="70" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="29.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="67"/>
     </row>
-    <row r="2" spans="3:12" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:12" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="67"/>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D4" s="68" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43254</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -3306,14 +3667,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="29" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="D5" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3345,10 +3706,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="14"/>
       <c r="D8" s="71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -3359,10 +3720,10 @@
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="D9" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -3373,10 +3734,10 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
       <c r="D10" s="72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -3387,10 +3748,10 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="D11" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -3401,10 +3762,10 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
       <c r="D12" s="72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -3415,10 +3776,10 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="3:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="D13" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -3429,10 +3790,10 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="D14" s="72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -3443,10 +3804,10 @@
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="3:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="D15" s="72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -3457,7 +3818,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -3468,7 +3829,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="3:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -3479,7 +3840,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -3490,7 +3851,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -3501,7 +3862,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -3512,7 +3873,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -3523,7 +3884,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3534,7 +3895,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -3545,7 +3906,7 @@
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -3556,7 +3917,7 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="E25" s="25"/>
       <c r="F25" s="14"/>
@@ -3567,7 +3928,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -3578,7 +3939,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -3589,7 +3950,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -3600,7 +3961,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -3611,7 +3972,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -3622,7 +3983,7 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -3633,7 +3994,7 @@
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -3644,7 +4005,7 @@
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -3655,7 +4016,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -3666,7 +4027,7 @@
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -3677,7 +4038,7 @@
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -3688,7 +4049,7 @@
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -3699,7 +4060,7 @@
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -3710,7 +4071,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -3721,7 +4082,7 @@
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -3732,7 +4093,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -3743,7 +4104,7 @@
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -3754,7 +4115,7 @@
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -3765,7 +4126,7 @@
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -3776,7 +4137,7 @@
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -3787,7 +4148,7 @@
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -3798,7 +4159,7 @@
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -3809,7 +4170,7 @@
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="14"/>
       <c r="D48" s="71"/>
       <c r="E48" s="14"/>
@@ -3821,7 +4182,7 @@
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="14"/>
       <c r="D49" s="71"/>
       <c r="E49" s="14"/>
@@ -3833,7 +4194,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="14"/>
       <c r="D50" s="71"/>
       <c r="E50" s="14"/>
@@ -3845,7 +4206,7 @@
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="14"/>
       <c r="D51" s="71"/>
       <c r="E51" s="14"/>
@@ -3857,7 +4218,7 @@
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="14"/>
       <c r="D52" s="71"/>
       <c r="E52" s="14"/>
@@ -3869,7 +4230,7 @@
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="14"/>
       <c r="D53" s="71"/>
       <c r="E53" s="14"/>
@@ -3881,7 +4242,7 @@
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="14"/>
       <c r="D54" s="71"/>
       <c r="E54" s="14"/>
@@ -3893,7 +4254,7 @@
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="14"/>
       <c r="D55" s="71"/>
       <c r="E55" s="14"/>
@@ -3905,7 +4266,7 @@
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="14"/>
       <c r="D56" s="71"/>
       <c r="E56" s="14"/>
@@ -3917,7 +4278,7 @@
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="14"/>
       <c r="D57" s="71"/>
       <c r="E57" s="14"/>
@@ -3929,7 +4290,7 @@
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="14"/>
       <c r="D58" s="71"/>
       <c r="E58" s="14"/>
@@ -3941,7 +4302,7 @@
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="14"/>
       <c r="D59" s="71"/>
       <c r="E59" s="14"/>
@@ -3953,7 +4314,7 @@
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="14"/>
       <c r="D60" s="71"/>
       <c r="E60" s="14"/>
@@ -3965,7 +4326,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="14"/>
       <c r="D61" s="71"/>
       <c r="E61" s="14"/>
@@ -3977,7 +4338,7 @@
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="14"/>
       <c r="D62" s="71"/>
       <c r="E62" s="14"/>
@@ -3989,7 +4350,7 @@
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="14"/>
       <c r="D63" s="71"/>
       <c r="E63" s="14"/>
@@ -4001,7 +4362,7 @@
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="14"/>
       <c r="D64" s="71"/>
       <c r="E64" s="14"/>
@@ -4013,7 +4374,7 @@
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
     </row>
-    <row r="65" spans="3:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="14"/>
       <c r="D65" s="71"/>
       <c r="E65" s="14"/>
@@ -4025,7 +4386,7 @@
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="14"/>
       <c r="D66" s="71"/>
       <c r="E66" s="14"/>
@@ -4037,7 +4398,7 @@
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="14"/>
       <c r="D67" s="71"/>
       <c r="E67" s="14"/>
@@ -4049,7 +4410,7 @@
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" s="14"/>
       <c r="D68" s="71"/>
       <c r="E68" s="14"/>
@@ -4061,7 +4422,7 @@
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" s="14"/>
       <c r="D69" s="71"/>
       <c r="E69" s="14"/>
@@ -4073,7 +4434,7 @@
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" s="14"/>
       <c r="D70" s="71"/>
       <c r="E70" s="14"/>
@@ -4085,7 +4446,7 @@
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="14"/>
       <c r="D71" s="71"/>
       <c r="E71" s="14"/>
@@ -4097,7 +4458,7 @@
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="14"/>
       <c r="D72" s="71"/>
       <c r="E72" s="14"/>
@@ -4109,7 +4470,7 @@
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="14"/>
       <c r="D73" s="71"/>
       <c r="E73" s="14"/>
@@ -4121,7 +4482,7 @@
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="14"/>
       <c r="D74" s="71"/>
       <c r="E74" s="14"/>
@@ -4133,7 +4494,7 @@
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="14"/>
       <c r="D75" s="71"/>
       <c r="E75" s="14"/>
@@ -4145,7 +4506,7 @@
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="14"/>
       <c r="D76" s="71"/>
       <c r="E76" s="14"/>
@@ -4157,7 +4518,7 @@
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="14"/>
       <c r="D77" s="71"/>
       <c r="E77" s="14"/>
@@ -4169,7 +4530,7 @@
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="14"/>
       <c r="D78" s="71"/>
       <c r="E78" s="14"/>
@@ -4181,7 +4542,7 @@
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="14"/>
       <c r="D79" s="71"/>
       <c r="E79" s="14"/>
@@ -4193,7 +4554,7 @@
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="14"/>
       <c r="D80" s="71"/>
       <c r="E80" s="14"/>
@@ -4205,7 +4566,7 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C81" s="14"/>
       <c r="D81" s="71"/>
       <c r="E81" s="14"/>
@@ -4217,7 +4578,7 @@
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82" s="14"/>
       <c r="D82" s="71"/>
       <c r="E82" s="14"/>
@@ -4229,7 +4590,7 @@
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C83" s="14"/>
       <c r="D83" s="71"/>
       <c r="E83" s="14"/>
@@ -4241,7 +4602,7 @@
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" s="14"/>
       <c r="D84" s="71"/>
       <c r="E84" s="14"/>
@@ -4253,7 +4614,7 @@
       <c r="K84" s="23"/>
       <c r="L84" s="23"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" s="14"/>
       <c r="D85" s="71"/>
       <c r="E85" s="14"/>
@@ -4265,7 +4626,7 @@
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C86" s="14"/>
       <c r="D86" s="71"/>
       <c r="E86" s="14"/>
@@ -4277,7 +4638,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C87" s="14"/>
       <c r="D87" s="71"/>
       <c r="E87" s="14"/>
@@ -4289,7 +4650,7 @@
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88" s="14"/>
       <c r="D88" s="71"/>
       <c r="E88" s="14"/>
@@ -4301,7 +4662,7 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C89" s="14"/>
       <c r="D89" s="71"/>
       <c r="E89" s="14"/>
@@ -4313,7 +4674,7 @@
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90" s="14"/>
       <c r="D90" s="71"/>
       <c r="E90" s="14"/>
@@ -4325,7 +4686,7 @@
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91" s="14"/>
       <c r="D91" s="71"/>
       <c r="E91" s="14"/>
@@ -4337,7 +4698,7 @@
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C92" s="14"/>
       <c r="D92" s="71"/>
       <c r="E92" s="14"/>
@@ -4349,7 +4710,7 @@
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C93" s="14"/>
       <c r="D93" s="71"/>
       <c r="E93" s="14"/>
@@ -4361,7 +4722,7 @@
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C94" s="14"/>
       <c r="D94" s="71"/>
       <c r="E94" s="14"/>
@@ -4373,7 +4734,7 @@
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C95" s="14"/>
       <c r="D95" s="71"/>
       <c r="E95" s="14"/>
@@ -4385,7 +4746,7 @@
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96" s="14"/>
       <c r="D96" s="71"/>
       <c r="E96" s="14"/>
@@ -4397,7 +4758,7 @@
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97" s="14"/>
       <c r="D97" s="71"/>
       <c r="E97" s="14"/>
@@ -4409,7 +4770,7 @@
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98" s="14"/>
       <c r="D98" s="71"/>
       <c r="E98" s="14"/>
@@ -4421,7 +4782,7 @@
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99" s="14"/>
       <c r="D99" s="71"/>
       <c r="E99" s="14"/>
@@ -4433,7 +4794,7 @@
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100" s="14"/>
       <c r="D100" s="71"/>
       <c r="E100" s="14"/>
@@ -4445,7 +4806,7 @@
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101" s="14"/>
       <c r="D101" s="71"/>
       <c r="E101" s="14"/>
@@ -4457,7 +4818,7 @@
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102" s="14"/>
       <c r="D102" s="71"/>
       <c r="E102" s="14"/>
@@ -4469,7 +4830,7 @@
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C103" s="14"/>
       <c r="D103" s="71"/>
       <c r="E103" s="14"/>
@@ -4481,7 +4842,7 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C104" s="14"/>
       <c r="D104" s="71"/>
       <c r="E104" s="14"/>
@@ -4493,7 +4854,7 @@
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105" s="14"/>
       <c r="D105" s="71"/>
       <c r="E105" s="14"/>
@@ -4505,7 +4866,7 @@
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C106" s="14"/>
       <c r="D106" s="71"/>
       <c r="E106" s="14"/>
@@ -4517,7 +4878,7 @@
       <c r="K106" s="23"/>
       <c r="L106" s="23"/>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C107" s="14"/>
       <c r="D107" s="71"/>
       <c r="E107" s="14"/>
@@ -4529,7 +4890,7 @@
       <c r="K107" s="23"/>
       <c r="L107" s="23"/>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C108" s="14"/>
       <c r="D108" s="71"/>
       <c r="E108" s="14"/>
@@ -4541,7 +4902,7 @@
       <c r="K108" s="23"/>
       <c r="L108" s="23"/>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C109" s="14"/>
       <c r="D109" s="71"/>
       <c r="E109" s="14"/>
@@ -4553,7 +4914,7 @@
       <c r="K109" s="23"/>
       <c r="L109" s="23"/>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C110" s="14"/>
       <c r="D110" s="71"/>
       <c r="E110" s="14"/>
@@ -4565,7 +4926,7 @@
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C111" s="14"/>
       <c r="D111" s="71"/>
       <c r="E111" s="14"/>
@@ -4577,7 +4938,7 @@
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C112" s="14"/>
       <c r="D112" s="71"/>
       <c r="E112" s="14"/>
@@ -4589,7 +4950,7 @@
       <c r="K112" s="23"/>
       <c r="L112" s="23"/>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C113" s="14"/>
       <c r="D113" s="71"/>
       <c r="E113" s="14"/>
@@ -4601,7 +4962,7 @@
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C114" s="14"/>
       <c r="D114" s="71"/>
       <c r="E114" s="14"/>
@@ -4613,7 +4974,7 @@
       <c r="K114" s="23"/>
       <c r="L114" s="23"/>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C115" s="14"/>
       <c r="D115" s="71"/>
       <c r="E115" s="14"/>
@@ -4625,7 +4986,7 @@
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C116" s="14"/>
       <c r="D116" s="71"/>
       <c r="E116" s="14"/>
@@ -4637,7 +4998,7 @@
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C117" s="14"/>
       <c r="D117" s="71"/>
       <c r="E117" s="14"/>
@@ -4649,7 +5010,7 @@
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C118" s="14"/>
       <c r="D118" s="71"/>
       <c r="E118" s="14"/>
@@ -4661,7 +5022,7 @@
       <c r="K118" s="23"/>
       <c r="L118" s="23"/>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C119" s="14"/>
       <c r="D119" s="71"/>
       <c r="E119" s="14"/>
@@ -4673,7 +5034,7 @@
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C120" s="14"/>
       <c r="D120" s="71"/>
       <c r="E120" s="14"/>
@@ -4685,7 +5046,7 @@
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C121" s="14"/>
       <c r="D121" s="71"/>
       <c r="E121" s="14"/>
@@ -4697,7 +5058,7 @@
       <c r="K121" s="23"/>
       <c r="L121" s="23"/>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C122" s="14"/>
       <c r="D122" s="71"/>
       <c r="E122" s="14"/>
@@ -4709,7 +5070,7 @@
       <c r="K122" s="23"/>
       <c r="L122" s="23"/>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C123" s="14"/>
       <c r="D123" s="71"/>
       <c r="E123" s="14"/>
@@ -4721,7 +5082,7 @@
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
     </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C124" s="14"/>
       <c r="D124" s="71"/>
       <c r="E124" s="14"/>
@@ -4733,7 +5094,7 @@
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
     </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C125" s="14"/>
       <c r="D125" s="71"/>
       <c r="E125" s="14"/>
@@ -4745,7 +5106,7 @@
       <c r="K125" s="23"/>
       <c r="L125" s="23"/>
     </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C126" s="14"/>
       <c r="D126" s="71"/>
       <c r="E126" s="14"/>
@@ -4757,7 +5118,7 @@
       <c r="K126" s="23"/>
       <c r="L126" s="23"/>
     </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C127" s="14"/>
       <c r="D127" s="71"/>
       <c r="E127" s="14"/>
@@ -4769,7 +5130,7 @@
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
     </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C128" s="14"/>
       <c r="D128" s="71"/>
       <c r="E128" s="14"/>
@@ -4781,7 +5142,7 @@
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
     </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C129" s="14"/>
       <c r="D129" s="71"/>
       <c r="E129" s="14"/>
@@ -4793,7 +5154,7 @@
       <c r="K129" s="23"/>
       <c r="L129" s="23"/>
     </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C130" s="14"/>
       <c r="D130" s="71"/>
       <c r="E130" s="14"/>
@@ -4805,7 +5166,7 @@
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
     </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C131" s="14"/>
       <c r="D131" s="71"/>
       <c r="E131" s="14"/>
@@ -4817,7 +5178,7 @@
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
     </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C132" s="14"/>
       <c r="D132" s="71"/>
       <c r="E132" s="14"/>
@@ -4829,7 +5190,7 @@
       <c r="K132" s="23"/>
       <c r="L132" s="23"/>
     </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C133" s="14"/>
       <c r="D133" s="71"/>
       <c r="E133" s="14"/>
@@ -4841,7 +5202,7 @@
       <c r="K133" s="23"/>
       <c r="L133" s="23"/>
     </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C134" s="14"/>
       <c r="D134" s="71"/>
       <c r="E134" s="14"/>
@@ -4853,7 +5214,7 @@
       <c r="K134" s="23"/>
       <c r="L134" s="23"/>
     </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C135" s="14"/>
       <c r="D135" s="71"/>
       <c r="E135" s="14"/>
@@ -4865,7 +5226,7 @@
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
     </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C136" s="14"/>
       <c r="D136" s="71"/>
       <c r="E136" s="14"/>
@@ -4877,7 +5238,7 @@
       <c r="K136" s="23"/>
       <c r="L136" s="23"/>
     </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C137" s="14"/>
       <c r="D137" s="71"/>
       <c r="E137" s="14"/>
@@ -4889,7 +5250,7 @@
       <c r="K137" s="23"/>
       <c r="L137" s="23"/>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C138" s="14"/>
       <c r="D138" s="71"/>
       <c r="E138" s="14"/>
@@ -4901,7 +5262,7 @@
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C139" s="14"/>
       <c r="D139" s="71"/>
       <c r="E139" s="14"/>
@@ -4913,7 +5274,7 @@
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
     </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C140" s="14"/>
       <c r="D140" s="71"/>
       <c r="E140" s="14"/>
@@ -4925,7 +5286,7 @@
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
     </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C141" s="14"/>
       <c r="D141" s="71"/>
       <c r="E141" s="14"/>
@@ -4937,7 +5298,7 @@
       <c r="K141" s="23"/>
       <c r="L141" s="23"/>
     </row>
-    <row r="142" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C142" s="14"/>
       <c r="D142" s="71"/>
       <c r="E142" s="14"/>
@@ -4949,7 +5310,7 @@
       <c r="K142" s="23"/>
       <c r="L142" s="23"/>
     </row>
-    <row r="143" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C143" s="14"/>
       <c r="D143" s="71"/>
       <c r="E143" s="14"/>
@@ -4961,7 +5322,7 @@
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
     </row>
-    <row r="144" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C144" s="14"/>
       <c r="D144" s="71"/>
       <c r="E144" s="14"/>
@@ -4973,7 +5334,7 @@
       <c r="K144" s="23"/>
       <c r="L144" s="23"/>
     </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C145" s="14"/>
       <c r="D145" s="71"/>
       <c r="E145" s="14"/>
@@ -4985,7 +5346,7 @@
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
     </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C146" s="14"/>
       <c r="D146" s="71"/>
       <c r="E146" s="14"/>
@@ -4997,7 +5358,7 @@
       <c r="K146" s="23"/>
       <c r="L146" s="23"/>
     </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C147" s="14"/>
       <c r="D147" s="71"/>
       <c r="E147" s="14"/>
@@ -5009,7 +5370,7 @@
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
     </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C148" s="14"/>
       <c r="D148" s="71"/>
       <c r="E148" s="14"/>
@@ -5021,7 +5382,7 @@
       <c r="K148" s="23"/>
       <c r="L148" s="23"/>
     </row>
-    <row r="149" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C149" s="14"/>
       <c r="D149" s="71"/>
       <c r="E149" s="14"/>
@@ -5033,7 +5394,7 @@
       <c r="K149" s="23"/>
       <c r="L149" s="23"/>
     </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C150" s="14"/>
       <c r="D150" s="71"/>
       <c r="E150" s="14"/>
@@ -5045,7 +5406,7 @@
       <c r="K150" s="23"/>
       <c r="L150" s="23"/>
     </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C151" s="14"/>
       <c r="D151" s="71"/>
       <c r="E151" s="14"/>
@@ -5057,7 +5418,7 @@
       <c r="K151" s="23"/>
       <c r="L151" s="23"/>
     </row>
-    <row r="152" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C152" s="14"/>
       <c r="D152" s="71"/>
       <c r="E152" s="14"/>
@@ -5069,7 +5430,7 @@
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
     </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C153" s="14"/>
       <c r="D153" s="71"/>
       <c r="E153" s="14"/>
@@ -5081,7 +5442,7 @@
       <c r="K153" s="23"/>
       <c r="L153" s="23"/>
     </row>
-    <row r="154" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C154" s="14"/>
       <c r="D154" s="71"/>
       <c r="E154" s="14"/>
@@ -5093,7 +5454,7 @@
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
     </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C155" s="14"/>
       <c r="D155" s="71"/>
       <c r="E155" s="14"/>
@@ -5105,7 +5466,7 @@
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
     </row>
-    <row r="156" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C156" s="14"/>
       <c r="D156" s="71"/>
       <c r="E156" s="14"/>
@@ -5117,7 +5478,7 @@
       <c r="K156" s="23"/>
       <c r="L156" s="23"/>
     </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C157" s="14"/>
       <c r="D157" s="71"/>
       <c r="E157" s="14"/>
@@ -5129,7 +5490,7 @@
       <c r="K157" s="23"/>
       <c r="L157" s="23"/>
     </row>
-    <row r="158" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C158" s="14"/>
       <c r="D158" s="71"/>
       <c r="E158" s="14"/>
@@ -5141,7 +5502,7 @@
       <c r="K158" s="23"/>
       <c r="L158" s="23"/>
     </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C159" s="14"/>
       <c r="D159" s="71"/>
       <c r="E159" s="14"/>
@@ -5153,7 +5514,7 @@
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
     </row>
-    <row r="160" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C160" s="14"/>
       <c r="D160" s="71"/>
       <c r="E160" s="14"/>
@@ -5165,7 +5526,7 @@
       <c r="K160" s="23"/>
       <c r="L160" s="23"/>
     </row>
-    <row r="161" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C161" s="14"/>
       <c r="D161" s="71"/>
       <c r="E161" s="14"/>
@@ -5177,7 +5538,7 @@
       <c r="K161" s="23"/>
       <c r="L161" s="23"/>
     </row>
-    <row r="162" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C162" s="14"/>
       <c r="D162" s="71"/>
       <c r="E162" s="14"/>
@@ -5189,7 +5550,7 @@
       <c r="K162" s="23"/>
       <c r="L162" s="23"/>
     </row>
-    <row r="163" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C163" s="14"/>
       <c r="D163" s="71"/>
       <c r="E163" s="14"/>
@@ -5201,7 +5562,7 @@
       <c r="K163" s="23"/>
       <c r="L163" s="23"/>
     </row>
-    <row r="164" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C164" s="14"/>
       <c r="D164" s="71"/>
       <c r="E164" s="14"/>
@@ -5213,7 +5574,7 @@
       <c r="K164" s="23"/>
       <c r="L164" s="23"/>
     </row>
-    <row r="165" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C165" s="14"/>
       <c r="D165" s="71"/>
       <c r="E165" s="14"/>
@@ -5225,7 +5586,7 @@
       <c r="K165" s="23"/>
       <c r="L165" s="23"/>
     </row>
-    <row r="166" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C166" s="14"/>
       <c r="D166" s="71"/>
       <c r="E166" s="14"/>
@@ -5237,7 +5598,7 @@
       <c r="K166" s="23"/>
       <c r="L166" s="23"/>
     </row>
-    <row r="167" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C167" s="14"/>
       <c r="D167" s="71"/>
       <c r="E167" s="14"/>
@@ -5249,7 +5610,7 @@
       <c r="K167" s="23"/>
       <c r="L167" s="23"/>
     </row>
-    <row r="168" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C168" s="14"/>
       <c r="D168" s="71"/>
       <c r="E168" s="14"/>
@@ -5261,7 +5622,7 @@
       <c r="K168" s="23"/>
       <c r="L168" s="23"/>
     </row>
-    <row r="169" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C169" s="14"/>
       <c r="D169" s="71"/>
       <c r="E169" s="14"/>
@@ -5273,7 +5634,7 @@
       <c r="K169" s="23"/>
       <c r="L169" s="23"/>
     </row>
-    <row r="170" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C170" s="14"/>
       <c r="D170" s="71"/>
       <c r="E170" s="14"/>
@@ -5285,7 +5646,7 @@
       <c r="K170" s="23"/>
       <c r="L170" s="23"/>
     </row>
-    <row r="171" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C171" s="14"/>
       <c r="D171" s="71"/>
       <c r="E171" s="14"/>
@@ -5297,7 +5658,7 @@
       <c r="K171" s="23"/>
       <c r="L171" s="23"/>
     </row>
-    <row r="172" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C172" s="14"/>
       <c r="D172" s="71"/>
       <c r="E172" s="14"/>
@@ -5309,7 +5670,7 @@
       <c r="K172" s="23"/>
       <c r="L172" s="23"/>
     </row>
-    <row r="173" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C173" s="14"/>
       <c r="D173" s="71"/>
       <c r="E173" s="14"/>
@@ -5321,7 +5682,7 @@
       <c r="K173" s="23"/>
       <c r="L173" s="23"/>
     </row>
-    <row r="174" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C174" s="14"/>
       <c r="D174" s="71"/>
       <c r="E174" s="14"/>
@@ -5333,7 +5694,7 @@
       <c r="K174" s="23"/>
       <c r="L174" s="23"/>
     </row>
-    <row r="175" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C175" s="14"/>
       <c r="D175" s="71"/>
       <c r="E175" s="14"/>
@@ -5345,7 +5706,7 @@
       <c r="K175" s="23"/>
       <c r="L175" s="23"/>
     </row>
-    <row r="176" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C176" s="14"/>
       <c r="D176" s="71"/>
       <c r="E176" s="14"/>
@@ -5357,7 +5718,7 @@
       <c r="K176" s="23"/>
       <c r="L176" s="23"/>
     </row>
-    <row r="177" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C177" s="14"/>
       <c r="D177" s="71"/>
       <c r="E177" s="14"/>
@@ -5369,7 +5730,7 @@
       <c r="K177" s="23"/>
       <c r="L177" s="23"/>
     </row>
-    <row r="178" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C178" s="14"/>
       <c r="D178" s="71"/>
       <c r="E178" s="14"/>
@@ -5381,7 +5742,7 @@
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
     </row>
-    <row r="179" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C179" s="14"/>
       <c r="D179" s="71"/>
       <c r="E179" s="14"/>
@@ -5393,7 +5754,7 @@
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
     </row>
-    <row r="180" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C180" s="14"/>
       <c r="D180" s="71"/>
       <c r="E180" s="14"/>
@@ -5405,7 +5766,7 @@
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
     </row>
-    <row r="181" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C181" s="14"/>
       <c r="D181" s="71"/>
       <c r="E181" s="14"/>
@@ -5417,7 +5778,7 @@
       <c r="K181" s="23"/>
       <c r="L181" s="23"/>
     </row>
-    <row r="182" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C182" s="14"/>
       <c r="D182" s="71"/>
       <c r="E182" s="14"/>
@@ -5429,7 +5790,7 @@
       <c r="K182" s="23"/>
       <c r="L182" s="23"/>
     </row>
-    <row r="183" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C183" s="14"/>
       <c r="D183" s="71"/>
       <c r="E183" s="14"/>
@@ -5441,7 +5802,7 @@
       <c r="K183" s="23"/>
       <c r="L183" s="23"/>
     </row>
-    <row r="184" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C184" s="14"/>
       <c r="D184" s="71"/>
       <c r="E184" s="14"/>
@@ -5453,7 +5814,7 @@
       <c r="K184" s="23"/>
       <c r="L184" s="23"/>
     </row>
-    <row r="185" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C185" s="14"/>
       <c r="D185" s="71"/>
       <c r="E185" s="14"/>
@@ -5465,7 +5826,7 @@
       <c r="K185" s="23"/>
       <c r="L185" s="23"/>
     </row>
-    <row r="186" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C186" s="14"/>
       <c r="D186" s="71"/>
       <c r="E186" s="14"/>
@@ -5477,7 +5838,7 @@
       <c r="K186" s="23"/>
       <c r="L186" s="23"/>
     </row>
-    <row r="187" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C187" s="14"/>
       <c r="D187" s="71"/>
       <c r="E187" s="14"/>
@@ -5489,7 +5850,7 @@
       <c r="K187" s="23"/>
       <c r="L187" s="23"/>
     </row>
-    <row r="188" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C188" s="14"/>
       <c r="D188" s="71"/>
       <c r="E188" s="14"/>
@@ -5501,7 +5862,7 @@
       <c r="K188" s="23"/>
       <c r="L188" s="23"/>
     </row>
-    <row r="189" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C189" s="14"/>
       <c r="D189" s="71"/>
       <c r="E189" s="14"/>
@@ -5513,7 +5874,7 @@
       <c r="K189" s="23"/>
       <c r="L189" s="23"/>
     </row>
-    <row r="190" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C190" s="14"/>
       <c r="D190" s="71"/>
       <c r="E190" s="14"/>
@@ -5525,7 +5886,7 @@
       <c r="K190" s="23"/>
       <c r="L190" s="23"/>
     </row>
-    <row r="191" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C191" s="14"/>
       <c r="D191" s="71"/>
       <c r="E191" s="14"/>
@@ -5537,7 +5898,7 @@
       <c r="K191" s="23"/>
       <c r="L191" s="23"/>
     </row>
-    <row r="192" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C192" s="14"/>
       <c r="D192" s="71"/>
       <c r="E192" s="14"/>
@@ -5549,7 +5910,7 @@
       <c r="K192" s="23"/>
       <c r="L192" s="23"/>
     </row>
-    <row r="193" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C193" s="14"/>
       <c r="D193" s="71"/>
       <c r="E193" s="14"/>
@@ -5561,7 +5922,7 @@
       <c r="K193" s="23"/>
       <c r="L193" s="23"/>
     </row>
-    <row r="194" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C194" s="14"/>
       <c r="D194" s="71"/>
       <c r="E194" s="14"/>
@@ -5573,7 +5934,7 @@
       <c r="K194" s="23"/>
       <c r="L194" s="23"/>
     </row>
-    <row r="195" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C195" s="14"/>
       <c r="D195" s="71"/>
       <c r="E195" s="14"/>
@@ -5585,7 +5946,7 @@
       <c r="K195" s="23"/>
       <c r="L195" s="23"/>
     </row>
-    <row r="196" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C196" s="14"/>
       <c r="D196" s="71"/>
       <c r="E196" s="14"/>
@@ -5597,7 +5958,7 @@
       <c r="K196" s="23"/>
       <c r="L196" s="23"/>
     </row>
-    <row r="197" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C197" s="14"/>
       <c r="D197" s="71"/>
       <c r="E197" s="14"/>
@@ -5609,7 +5970,7 @@
       <c r="K197" s="23"/>
       <c r="L197" s="23"/>
     </row>
-    <row r="198" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C198" s="14"/>
       <c r="D198" s="71"/>
       <c r="E198" s="14"/>
@@ -5621,7 +5982,7 @@
       <c r="K198" s="23"/>
       <c r="L198" s="23"/>
     </row>
-    <row r="199" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C199" s="14"/>
       <c r="D199" s="71"/>
       <c r="E199" s="14"/>
@@ -5633,7 +5994,7 @@
       <c r="K199" s="23"/>
       <c r="L199" s="23"/>
     </row>
-    <row r="200" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C200" s="14"/>
       <c r="D200" s="71"/>
       <c r="E200" s="14"/>
@@ -5645,7 +6006,7 @@
       <c r="K200" s="23"/>
       <c r="L200" s="23"/>
     </row>
-    <row r="201" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C201" s="14"/>
       <c r="D201" s="71"/>
       <c r="E201" s="14"/>
@@ -5657,7 +6018,7 @@
       <c r="K201" s="23"/>
       <c r="L201" s="23"/>
     </row>
-    <row r="202" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C202" s="14"/>
       <c r="D202" s="71"/>
       <c r="E202" s="14"/>
@@ -5669,7 +6030,7 @@
       <c r="K202" s="23"/>
       <c r="L202" s="23"/>
     </row>
-    <row r="203" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C203" s="14"/>
       <c r="D203" s="71"/>
       <c r="E203" s="14"/>
@@ -5681,7 +6042,7 @@
       <c r="K203" s="23"/>
       <c r="L203" s="23"/>
     </row>
-    <row r="204" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C204" s="14"/>
       <c r="D204" s="71"/>
       <c r="E204" s="14"/>
@@ -5693,7 +6054,7 @@
       <c r="K204" s="23"/>
       <c r="L204" s="23"/>
     </row>
-    <row r="205" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C205" s="14"/>
       <c r="D205" s="71"/>
       <c r="E205" s="14"/>
@@ -5705,7 +6066,7 @@
       <c r="K205" s="23"/>
       <c r="L205" s="23"/>
     </row>
-    <row r="206" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C206" s="14"/>
       <c r="D206" s="71"/>
       <c r="E206" s="14"/>
@@ -5717,7 +6078,7 @@
       <c r="K206" s="23"/>
       <c r="L206" s="23"/>
     </row>
-    <row r="207" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C207" s="14"/>
       <c r="D207" s="71"/>
       <c r="E207" s="14"/>
@@ -5729,7 +6090,7 @@
       <c r="K207" s="23"/>
       <c r="L207" s="23"/>
     </row>
-    <row r="208" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C208" s="14"/>
       <c r="D208" s="71"/>
       <c r="E208" s="14"/>
@@ -5741,7 +6102,7 @@
       <c r="K208" s="23"/>
       <c r="L208" s="23"/>
     </row>
-    <row r="209" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C209" s="14"/>
       <c r="D209" s="71"/>
       <c r="E209" s="14"/>
@@ -5753,7 +6114,7 @@
       <c r="K209" s="23"/>
       <c r="L209" s="23"/>
     </row>
-    <row r="210" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C210" s="14"/>
       <c r="D210" s="71"/>
       <c r="E210" s="14"/>
@@ -5765,7 +6126,7 @@
       <c r="K210" s="23"/>
       <c r="L210" s="23"/>
     </row>
-    <row r="211" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C211" s="14"/>
       <c r="D211" s="71"/>
       <c r="E211" s="14"/>
@@ -5777,7 +6138,7 @@
       <c r="K211" s="23"/>
       <c r="L211" s="23"/>
     </row>
-    <row r="212" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C212" s="14"/>
       <c r="D212" s="71"/>
       <c r="E212" s="14"/>
@@ -5789,107 +6150,107 @@
       <c r="K212" s="23"/>
       <c r="L212" s="23"/>
     </row>
-    <row r="213" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J213" s="7"/>
       <c r="K213" s="9"/>
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J214" s="7"/>
       <c r="K214" s="9"/>
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J215" s="7"/>
       <c r="K215" s="9"/>
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J216" s="7"/>
       <c r="K216" s="9"/>
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J217" s="7"/>
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J218" s="7"/>
       <c r="K218" s="9"/>
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J219" s="7"/>
       <c r="K219" s="9"/>
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J220" s="7"/>
       <c r="K220" s="9"/>
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J221" s="7"/>
       <c r="K221" s="9"/>
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J222" s="7"/>
       <c r="K222" s="9"/>
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J223" s="7"/>
       <c r="K223" s="9"/>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J224" s="7"/>
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J225" s="7"/>
       <c r="K225" s="9"/>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J226" s="7"/>
       <c r="K226" s="9"/>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J227" s="7"/>
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J228" s="7"/>
       <c r="K228" s="9"/>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J229" s="7"/>
       <c r="K229" s="9"/>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J230" s="7"/>
       <c r="K230" s="9"/>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J231" s="7"/>
       <c r="K231" s="9"/>
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J232" s="7"/>
       <c r="K232" s="9"/>
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J233" s="7"/>
       <c r="K233" s="9"/>
       <c r="L233" s="9"/>
@@ -5918,27 +6279,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="56.5" customWidth="1"/>
-    <col min="5" max="5" width="51.33203125" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="29"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="29"/>
       <c r="C2" s="31"/>
@@ -5946,30 +6307,30 @@
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="1:11" s="43" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="43" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="42"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="45"/>
       <c r="C5" s="40"/>
@@ -5981,12 +6342,12 @@
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="47"/>
       <c r="C6" s="48"/>
       <c r="D6" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="48">
         <f>SUM(F9:F531)</f>
@@ -5998,7 +6359,7 @@
       <c r="I6" s="51"/>
       <c r="J6" s="52"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="53"/>
       <c r="C7" s="48"/>
@@ -6010,41 +6371,41 @@
       <c r="I7" s="51"/>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="27.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="D8" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="E8" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>84</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>85</v>
       </c>
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="208.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="208.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" s="59">
         <v>43128</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="61"/>
@@ -6056,14 +6417,14 @@
       <c r="J9" s="63"/>
       <c r="K9" s="64"/>
     </row>
-    <row r="10" spans="1:11" ht="62" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="59">
         <v>43129</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
@@ -6075,17 +6436,17 @@
       <c r="J10" s="63"/>
       <c r="K10" s="64"/>
     </row>
-    <row r="11" spans="1:11" ht="89" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
       <c r="B11" s="59">
         <v>43250</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="62"/>
@@ -6094,19 +6455,19 @@
       <c r="J11" s="63"/>
       <c r="K11" s="64"/>
     </row>
-    <row r="12" spans="1:11" s="80" customFormat="1" ht="287" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="80" customFormat="1" ht="346.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="73"/>
       <c r="B12" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="E12" s="76" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>111</v>
       </c>
       <c r="F12" s="76"/>
       <c r="G12" s="77"/>
@@ -6115,7 +6476,7 @@
       <c r="J12" s="78"/>
       <c r="K12" s="79"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="59"/>
       <c r="C13" s="60"/>
@@ -6128,7 +6489,7 @@
       <c r="J13" s="63"/>
       <c r="K13" s="64"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60"/>
@@ -6141,7 +6502,7 @@
       <c r="J14" s="63"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
@@ -6154,7 +6515,7 @@
       <c r="J15" s="63"/>
       <c r="K15" s="64"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="59"/>
       <c r="C16" s="60"/>
@@ -6167,7 +6528,7 @@
       <c r="J16" s="63"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="59"/>
       <c r="C17" s="60"/>
@@ -6180,7 +6541,7 @@
       <c r="J17" s="63"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
@@ -6193,7 +6554,7 @@
       <c r="J18" s="63"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="59"/>
       <c r="C19" s="60"/>
@@ -6206,7 +6567,7 @@
       <c r="J19" s="63"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="59"/>
       <c r="C20" s="60"/>
@@ -6219,7 +6580,7 @@
       <c r="J20" s="63"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="59"/>
       <c r="C21" s="60"/>
@@ -6232,7 +6593,7 @@
       <c r="J21" s="63"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="59"/>
       <c r="C22" s="60"/>
@@ -6245,7 +6606,7 @@
       <c r="J22" s="63"/>
       <c r="K22" s="64"/>
     </row>
-    <row r="23" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="59"/>
       <c r="C23" s="60"/>
@@ -6258,7 +6619,7 @@
       <c r="J23" s="63"/>
       <c r="K23" s="64"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="59"/>
       <c r="C24" s="60"/>
@@ -6271,7 +6632,7 @@
       <c r="J24" s="63"/>
       <c r="K24" s="64"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
@@ -6284,7 +6645,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="65"/>
       <c r="B26" s="59"/>
       <c r="C26" s="60"/>
@@ -6297,7 +6658,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="65"/>
       <c r="B27" s="59"/>
       <c r="C27" s="60"/>
@@ -6310,7 +6671,7 @@
       <c r="J27" s="63"/>
       <c r="K27" s="64"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
@@ -6323,7 +6684,7 @@
       <c r="J28" s="63"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
@@ -6336,7 +6697,7 @@
       <c r="J29" s="63"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="59"/>
       <c r="C30" s="60"/>
@@ -6349,7 +6710,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="59"/>
       <c r="C31" s="60"/>
@@ -6362,7 +6723,7 @@
       <c r="J31" s="63"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="65"/>
       <c r="B32" s="59"/>
       <c r="C32" s="60"/>
@@ -6375,7 +6736,7 @@
       <c r="J32" s="63"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="65"/>
       <c r="B33" s="59"/>
       <c r="C33" s="60"/>
@@ -6388,7 +6749,7 @@
       <c r="J33" s="63"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="65"/>
       <c r="B34" s="59"/>
       <c r="C34" s="60"/>
@@ -6401,7 +6762,7 @@
       <c r="J34" s="63"/>
       <c r="K34" s="64"/>
     </row>
-    <row r="35" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="59"/>
       <c r="C35" s="60"/>
@@ -6414,7 +6775,7 @@
       <c r="J35" s="63"/>
       <c r="K35" s="64"/>
     </row>
-    <row r="36" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="59"/>
       <c r="C36" s="60"/>
@@ -6427,7 +6788,7 @@
       <c r="J36" s="63"/>
       <c r="K36" s="64"/>
     </row>
-    <row r="37" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="59"/>
       <c r="C37" s="60"/>
@@ -6440,7 +6801,7 @@
       <c r="J37" s="63"/>
       <c r="K37" s="64"/>
     </row>
-    <row r="38" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="59"/>
       <c r="C38" s="60"/>
@@ -6453,7 +6814,7 @@
       <c r="J38" s="63"/>
       <c r="K38" s="64"/>
     </row>
-    <row r="39" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65"/>
       <c r="B39" s="59"/>
       <c r="C39" s="60"/>
@@ -6466,7 +6827,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="64"/>
     </row>
-    <row r="40" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
       <c r="B40" s="59"/>
       <c r="C40" s="60"/>
@@ -6479,7 +6840,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="64"/>
     </row>
-    <row r="41" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="59"/>
       <c r="C41" s="60"/>
@@ -6492,7 +6853,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="64"/>
     </row>
-    <row r="42" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="59"/>
       <c r="C42" s="60"/>
@@ -6505,7 +6866,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="64"/>
     </row>
-    <row r="43" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="59"/>
       <c r="C43" s="60"/>
@@ -6518,7 +6879,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="64"/>
     </row>
-    <row r="44" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="59"/>
       <c r="C44" s="60"/>
@@ -6531,7 +6892,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="64"/>
     </row>
-    <row r="45" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="59"/>
       <c r="C45" s="60"/>
@@ -6544,7 +6905,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="64"/>
     </row>
-    <row r="46" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="65"/>
       <c r="B46" s="59"/>
       <c r="C46" s="60"/>
@@ -6557,7 +6918,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="64"/>
     </row>
-    <row r="47" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="59"/>
       <c r="C47" s="60"/>
@@ -6570,7 +6931,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="64"/>
     </row>
-    <row r="48" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="59"/>
       <c r="C48" s="60"/>
@@ -6583,7 +6944,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="64"/>
     </row>
-    <row r="49" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
       <c r="B49" s="59"/>
       <c r="C49" s="60"/>
@@ -6596,7 +6957,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="64"/>
     </row>
-    <row r="50" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="59"/>
       <c r="C50" s="60"/>
@@ -6609,7 +6970,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="64"/>
     </row>
-    <row r="51" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="65"/>
       <c r="B51" s="59"/>
       <c r="C51" s="60"/>
@@ -6622,7 +6983,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="64"/>
     </row>
-    <row r="52" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="59"/>
       <c r="C52" s="60"/>
@@ -6635,7 +6996,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="64"/>
     </row>
-    <row r="53" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="59"/>
       <c r="C53" s="60"/>
@@ -6648,7 +7009,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="64"/>
     </row>
-    <row r="54" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="59"/>
       <c r="C54" s="60"/>
@@ -6661,7 +7022,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="64"/>
     </row>
-    <row r="55" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="59"/>
       <c r="C55" s="60"/>
@@ -6674,7 +7035,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="64"/>
     </row>
-    <row r="56" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="59"/>
       <c r="C56" s="60"/>
@@ -6687,7 +7048,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="64"/>
     </row>
-    <row r="57" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="59"/>
       <c r="C57" s="60"/>
@@ -6700,7 +7061,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="64"/>
     </row>
-    <row r="58" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
@@ -6713,7 +7074,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="64"/>
     </row>
-    <row r="59" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="59"/>
       <c r="C59" s="60"/>
@@ -6726,7 +7087,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="64"/>
     </row>
-    <row r="60" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="59"/>
       <c r="C60" s="60"/>
@@ -6739,7 +7100,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="64"/>
     </row>
-    <row r="61" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="59"/>
       <c r="C61" s="60"/>
@@ -6752,7 +7113,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="64"/>
     </row>
-    <row r="62" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="65"/>
       <c r="B62" s="59"/>
       <c r="C62" s="60"/>
@@ -6765,7 +7126,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="64"/>
     </row>
-    <row r="63" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="65"/>
       <c r="B63" s="59"/>
       <c r="C63" s="60"/>
@@ -6778,7 +7139,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="64"/>
     </row>
-    <row r="64" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="65"/>
       <c r="B64" s="59"/>
       <c r="C64" s="60"/>
@@ -6791,7 +7152,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="64"/>
     </row>
-    <row r="65" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="59"/>
       <c r="C65" s="60"/>
@@ -6804,7 +7165,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="64"/>
     </row>
-    <row r="66" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="59"/>
       <c r="C66" s="60"/>
@@ -6817,7 +7178,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="64"/>
     </row>
-    <row r="67" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
       <c r="B67" s="59"/>
       <c r="C67" s="60"/>
@@ -6830,7 +7191,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="64"/>
     </row>
-    <row r="68" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="65"/>
       <c r="B68" s="59"/>
       <c r="C68" s="60"/>
@@ -6843,7 +7204,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="64"/>
     </row>
-    <row r="69" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="65"/>
       <c r="B69" s="59"/>
       <c r="C69" s="60"/>
@@ -6856,7 +7217,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="64"/>
     </row>
-    <row r="70" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="59"/>
       <c r="C70" s="60"/>
@@ -6869,7 +7230,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="64"/>
     </row>
-    <row r="71" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
       <c r="B71" s="59"/>
       <c r="C71" s="60"/>
@@ -6882,7 +7243,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="64"/>
     </row>
-    <row r="72" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="65"/>
       <c r="B72" s="59"/>
       <c r="C72" s="60"/>
@@ -6895,7 +7256,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="64"/>
     </row>
-    <row r="73" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="65"/>
       <c r="B73" s="59"/>
       <c r="C73" s="60"/>
@@ -6908,7 +7269,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="64"/>
     </row>
-    <row r="74" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="65"/>
       <c r="B74" s="59"/>
       <c r="C74" s="60"/>
@@ -6921,7 +7282,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="64"/>
     </row>
-    <row r="75" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="59"/>
       <c r="C75" s="60"/>
@@ -6934,7 +7295,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="64"/>
     </row>
-    <row r="76" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
       <c r="B76" s="59"/>
       <c r="C76" s="60"/>
@@ -6947,7 +7308,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="64"/>
     </row>
-    <row r="77" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="65"/>
       <c r="B77" s="59"/>
       <c r="C77" s="60"/>
@@ -6960,7 +7321,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="64"/>
     </row>
-    <row r="78" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="65"/>
       <c r="B78" s="59"/>
       <c r="C78" s="60"/>
@@ -6973,7 +7334,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="64"/>
     </row>
-    <row r="79" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="59"/>
       <c r="C79" s="60"/>
@@ -6986,7 +7347,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="64"/>
     </row>
-    <row r="80" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="65"/>
       <c r="B80" s="59"/>
       <c r="C80" s="60"/>
@@ -6999,7 +7360,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="64"/>
     </row>
-    <row r="81" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="59"/>
       <c r="C81" s="60"/>
@@ -7012,7 +7373,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="64"/>
     </row>
-    <row r="82" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="65"/>
       <c r="B82" s="59"/>
       <c r="C82" s="60"/>
@@ -7025,7 +7386,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="64"/>
     </row>
-    <row r="83" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="65"/>
       <c r="B83" s="59"/>
       <c r="C83" s="60"/>
@@ -7038,7 +7399,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="64"/>
     </row>
-    <row r="84" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="65"/>
       <c r="B84" s="59"/>
       <c r="C84" s="60"/>
@@ -7051,7 +7412,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="64"/>
     </row>
-    <row r="85" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="65"/>
       <c r="B85" s="59"/>
       <c r="C85" s="60"/>
@@ -7064,7 +7425,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="64"/>
     </row>
-    <row r="86" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="65"/>
       <c r="B86" s="59"/>
       <c r="C86" s="60"/>
@@ -7077,7 +7438,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="64"/>
     </row>
-    <row r="87" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="65"/>
       <c r="B87" s="59"/>
       <c r="C87" s="60"/>
@@ -7090,7 +7451,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="64"/>
     </row>
-    <row r="88" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="65"/>
       <c r="B88" s="59"/>
       <c r="C88" s="60"/>
@@ -7103,7 +7464,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="64"/>
     </row>
-    <row r="89" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="65"/>
       <c r="B89" s="59"/>
       <c r="C89" s="60"/>
@@ -7116,7 +7477,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="64"/>
     </row>
-    <row r="90" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="65"/>
       <c r="B90" s="59"/>
       <c r="C90" s="60"/>
@@ -7129,7 +7490,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="64"/>
     </row>
-    <row r="91" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="65"/>
       <c r="B91" s="59"/>
       <c r="C91" s="60"/>
@@ -7142,7 +7503,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="64"/>
     </row>
-    <row r="92" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="65"/>
       <c r="B92" s="59"/>
       <c r="C92" s="60"/>
@@ -7155,7 +7516,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="64"/>
     </row>
-    <row r="93" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="65"/>
       <c r="B93" s="59"/>
       <c r="C93" s="60"/>
@@ -7168,7 +7529,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="64"/>
     </row>
-    <row r="94" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="65"/>
       <c r="B94" s="59"/>
       <c r="C94" s="60"/>
@@ -7181,7 +7542,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="64"/>
     </row>
-    <row r="95" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="65"/>
       <c r="B95" s="59"/>
       <c r="C95" s="60"/>
@@ -7194,7 +7555,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="64"/>
     </row>
-    <row r="96" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="65"/>
       <c r="B96" s="59"/>
       <c r="C96" s="60"/>
@@ -7207,7 +7568,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="64"/>
     </row>
-    <row r="97" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="65"/>
       <c r="B97" s="59"/>
       <c r="C97" s="60"/>
@@ -7220,7 +7581,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="64"/>
     </row>
-    <row r="98" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="65"/>
       <c r="B98" s="59"/>
       <c r="C98" s="60"/>
@@ -7233,7 +7594,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="64"/>
     </row>
-    <row r="99" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="65"/>
       <c r="B99" s="59"/>
       <c r="C99" s="60"/>
@@ -7246,7 +7607,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="64"/>
     </row>
-    <row r="100" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="65"/>
       <c r="B100" s="59"/>
       <c r="C100" s="60"/>
@@ -7259,7 +7620,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="64"/>
     </row>
-    <row r="101" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="65"/>
       <c r="B101" s="59"/>
       <c r="C101" s="60"/>
@@ -7272,7 +7633,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="64"/>
     </row>
-    <row r="102" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="65"/>
       <c r="B102" s="59"/>
       <c r="C102" s="60"/>
@@ -7285,7 +7646,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="64"/>
     </row>
-    <row r="103" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="65"/>
       <c r="B103" s="59"/>
       <c r="C103" s="60"/>
@@ -7298,7 +7659,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="64"/>
     </row>
-    <row r="104" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="65"/>
       <c r="B104" s="59"/>
       <c r="C104" s="60"/>
@@ -7311,7 +7672,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="64"/>
     </row>
-    <row r="105" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="59"/>
       <c r="C105" s="60"/>
@@ -7324,7 +7685,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="64"/>
     </row>
-    <row r="106" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="65"/>
       <c r="B106" s="59"/>
       <c r="C106" s="60"/>
@@ -7337,7 +7698,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="64"/>
     </row>
-    <row r="107" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="65"/>
       <c r="B107" s="59"/>
       <c r="C107" s="60"/>
@@ -7350,7 +7711,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="64"/>
     </row>
-    <row r="108" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="65"/>
       <c r="B108" s="59"/>
       <c r="C108" s="60"/>
@@ -7363,7 +7724,7 @@
       <c r="J108" s="63"/>
       <c r="K108" s="64"/>
     </row>
-    <row r="109" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="65"/>
       <c r="B109" s="59"/>
       <c r="C109" s="60"/>
@@ -7376,7 +7737,7 @@
       <c r="J109" s="63"/>
       <c r="K109" s="64"/>
     </row>
-    <row r="110" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="65"/>
       <c r="B110" s="59"/>
       <c r="C110" s="60"/>
@@ -7389,7 +7750,7 @@
       <c r="J110" s="63"/>
       <c r="K110" s="64"/>
     </row>
-    <row r="111" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="65"/>
       <c r="B111" s="59"/>
       <c r="C111" s="60"/>
@@ -7402,7 +7763,7 @@
       <c r="J111" s="63"/>
       <c r="K111" s="64"/>
     </row>
-    <row r="112" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="65"/>
       <c r="B112" s="59"/>
       <c r="C112" s="60"/>
@@ -7415,7 +7776,7 @@
       <c r="J112" s="63"/>
       <c r="K112" s="64"/>
     </row>
-    <row r="113" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="65"/>
       <c r="B113" s="59"/>
       <c r="C113" s="60"/>
@@ -7428,7 +7789,7 @@
       <c r="J113" s="63"/>
       <c r="K113" s="64"/>
     </row>
-    <row r="114" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="65"/>
       <c r="B114" s="59"/>
       <c r="C114" s="60"/>
@@ -7441,7 +7802,7 @@
       <c r="J114" s="63"/>
       <c r="K114" s="64"/>
     </row>
-    <row r="115" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="65"/>
       <c r="B115" s="59"/>
       <c r="C115" s="60"/>
@@ -7454,7 +7815,7 @@
       <c r="J115" s="63"/>
       <c r="K115" s="64"/>
     </row>
-    <row r="116" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="65"/>
       <c r="B116" s="59"/>
       <c r="C116" s="60"/>
@@ -7467,7 +7828,7 @@
       <c r="J116" s="63"/>
       <c r="K116" s="64"/>
     </row>
-    <row r="117" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="65"/>
       <c r="B117" s="59"/>
       <c r="C117" s="60"/>
@@ -7480,7 +7841,7 @@
       <c r="J117" s="63"/>
       <c r="K117" s="64"/>
     </row>
-    <row r="118" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="65"/>
       <c r="B118" s="59"/>
       <c r="C118" s="60"/>
@@ -7493,7 +7854,7 @@
       <c r="J118" s="63"/>
       <c r="K118" s="64"/>
     </row>
-    <row r="119" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="65"/>
       <c r="B119" s="59"/>
       <c r="C119" s="60"/>
@@ -7506,7 +7867,7 @@
       <c r="J119" s="63"/>
       <c r="K119" s="64"/>
     </row>
-    <row r="120" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="65"/>
       <c r="B120" s="59"/>
       <c r="C120" s="60"/>
@@ -7519,7 +7880,7 @@
       <c r="J120" s="63"/>
       <c r="K120" s="64"/>
     </row>
-    <row r="121" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="65"/>
       <c r="B121" s="59"/>
       <c r="C121" s="60"/>
@@ -7532,7 +7893,7 @@
       <c r="J121" s="63"/>
       <c r="K121" s="64"/>
     </row>
-    <row r="122" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="65"/>
       <c r="B122" s="59"/>
       <c r="C122" s="60"/>
@@ -7545,7 +7906,7 @@
       <c r="J122" s="63"/>
       <c r="K122" s="64"/>
     </row>
-    <row r="123" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="65"/>
       <c r="B123" s="59"/>
       <c r="C123" s="60"/>
@@ -7558,7 +7919,7 @@
       <c r="J123" s="63"/>
       <c r="K123" s="64"/>
     </row>
-    <row r="124" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="65"/>
       <c r="B124" s="59"/>
       <c r="C124" s="60"/>
@@ -7571,7 +7932,7 @@
       <c r="J124" s="63"/>
       <c r="K124" s="64"/>
     </row>
-    <row r="125" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="65"/>
       <c r="B125" s="59"/>
       <c r="C125" s="60"/>
@@ -7584,7 +7945,7 @@
       <c r="J125" s="63"/>
       <c r="K125" s="64"/>
     </row>
-    <row r="126" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="65"/>
       <c r="B126" s="59"/>
       <c r="C126" s="60"/>
@@ -7597,7 +7958,7 @@
       <c r="J126" s="63"/>
       <c r="K126" s="64"/>
     </row>
-    <row r="127" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="65"/>
       <c r="B127" s="59"/>
       <c r="C127" s="60"/>
@@ -7610,7 +7971,7 @@
       <c r="J127" s="63"/>
       <c r="K127" s="64"/>
     </row>
-    <row r="128" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="65"/>
       <c r="B128" s="59"/>
       <c r="C128" s="60"/>
@@ -7623,7 +7984,7 @@
       <c r="J128" s="63"/>
       <c r="K128" s="64"/>
     </row>
-    <row r="129" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="65"/>
       <c r="B129" s="59"/>
       <c r="C129" s="60"/>
@@ -7636,7 +7997,7 @@
       <c r="J129" s="63"/>
       <c r="K129" s="64"/>
     </row>
-    <row r="130" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="65"/>
       <c r="B130" s="59"/>
       <c r="C130" s="60"/>
@@ -7649,7 +8010,7 @@
       <c r="J130" s="63"/>
       <c r="K130" s="64"/>
     </row>
-    <row r="131" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="65"/>
       <c r="B131" s="59"/>
       <c r="C131" s="60"/>
@@ -7662,7 +8023,7 @@
       <c r="J131" s="63"/>
       <c r="K131" s="64"/>
     </row>
-    <row r="132" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="65"/>
       <c r="B132" s="59"/>
       <c r="C132" s="60"/>
@@ -7675,7 +8036,7 @@
       <c r="J132" s="63"/>
       <c r="K132" s="64"/>
     </row>
-    <row r="133" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="65"/>
       <c r="B133" s="59"/>
       <c r="C133" s="60"/>
@@ -7688,7 +8049,7 @@
       <c r="J133" s="63"/>
       <c r="K133" s="64"/>
     </row>
-    <row r="134" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="65"/>
       <c r="B134" s="59"/>
       <c r="C134" s="60"/>
@@ -7701,7 +8062,7 @@
       <c r="J134" s="63"/>
       <c r="K134" s="64"/>
     </row>
-    <row r="135" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="65"/>
       <c r="B135" s="59"/>
       <c r="C135" s="60"/>
@@ -7714,7 +8075,7 @@
       <c r="J135" s="63"/>
       <c r="K135" s="64"/>
     </row>
-    <row r="136" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="65"/>
       <c r="B136" s="59"/>
       <c r="C136" s="60"/>
@@ -7727,7 +8088,7 @@
       <c r="J136" s="63"/>
       <c r="K136" s="64"/>
     </row>
-    <row r="137" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="65"/>
       <c r="B137" s="59"/>
       <c r="C137" s="60"/>
@@ -7740,7 +8101,7 @@
       <c r="J137" s="63"/>
       <c r="K137" s="64"/>
     </row>
-    <row r="138" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="65"/>
       <c r="B138" s="59"/>
       <c r="C138" s="60"/>
@@ -7753,7 +8114,7 @@
       <c r="J138" s="63"/>
       <c r="K138" s="64"/>
     </row>
-    <row r="139" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="65"/>
       <c r="B139" s="59"/>
       <c r="C139" s="60"/>
@@ -7766,7 +8127,7 @@
       <c r="J139" s="63"/>
       <c r="K139" s="64"/>
     </row>
-    <row r="140" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="65"/>
       <c r="B140" s="59"/>
       <c r="C140" s="60"/>
@@ -7779,7 +8140,7 @@
       <c r="J140" s="63"/>
       <c r="K140" s="64"/>
     </row>
-    <row r="141" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="65"/>
       <c r="B141" s="59"/>
       <c r="C141" s="60"/>
@@ -7792,7 +8153,7 @@
       <c r="J141" s="63"/>
       <c r="K141" s="64"/>
     </row>
-    <row r="142" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="65"/>
       <c r="B142" s="59"/>
       <c r="C142" s="60"/>
@@ -7805,7 +8166,7 @@
       <c r="J142" s="63"/>
       <c r="K142" s="64"/>
     </row>
-    <row r="143" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="65"/>
       <c r="B143" s="59"/>
       <c r="C143" s="60"/>
@@ -7818,7 +8179,7 @@
       <c r="J143" s="63"/>
       <c r="K143" s="64"/>
     </row>
-    <row r="144" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="65"/>
       <c r="B144" s="59"/>
       <c r="C144" s="60"/>
@@ -7831,7 +8192,7 @@
       <c r="J144" s="63"/>
       <c r="K144" s="64"/>
     </row>
-    <row r="145" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="65"/>
       <c r="B145" s="59"/>
       <c r="C145" s="60"/>
@@ -7844,7 +8205,7 @@
       <c r="J145" s="63"/>
       <c r="K145" s="64"/>
     </row>
-    <row r="146" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="65"/>
       <c r="B146" s="59"/>
       <c r="C146" s="60"/>
@@ -7857,7 +8218,7 @@
       <c r="J146" s="63"/>
       <c r="K146" s="64"/>
     </row>
-    <row r="147" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="65"/>
       <c r="B147" s="59"/>
       <c r="C147" s="60"/>
@@ -7870,7 +8231,7 @@
       <c r="J147" s="63"/>
       <c r="K147" s="64"/>
     </row>
-    <row r="148" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="65"/>
       <c r="B148" s="59"/>
       <c r="C148" s="60"/>
@@ -7883,7 +8244,7 @@
       <c r="J148" s="63"/>
       <c r="K148" s="64"/>
     </row>
-    <row r="149" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="65"/>
       <c r="B149" s="59"/>
       <c r="C149" s="60"/>
@@ -7896,7 +8257,7 @@
       <c r="J149" s="63"/>
       <c r="K149" s="64"/>
     </row>
-    <row r="150" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="65"/>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -7909,7 +8270,7 @@
       <c r="J150" s="63"/>
       <c r="K150" s="64"/>
     </row>
-    <row r="151" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="65"/>
       <c r="B151" s="59"/>
       <c r="C151" s="60"/>
@@ -7922,7 +8283,7 @@
       <c r="J151" s="63"/>
       <c r="K151" s="64"/>
     </row>
-    <row r="152" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="65"/>
       <c r="B152" s="59"/>
       <c r="C152" s="60"/>
@@ -7935,7 +8296,7 @@
       <c r="J152" s="63"/>
       <c r="K152" s="64"/>
     </row>
-    <row r="153" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="65"/>
       <c r="B153" s="59"/>
       <c r="C153" s="60"/>
@@ -7948,7 +8309,7 @@
       <c r="J153" s="63"/>
       <c r="K153" s="64"/>
     </row>
-    <row r="154" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="65"/>
       <c r="B154" s="59"/>
       <c r="C154" s="60"/>
@@ -7961,7 +8322,7 @@
       <c r="J154" s="63"/>
       <c r="K154" s="64"/>
     </row>
-    <row r="155" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="65"/>
       <c r="B155" s="59"/>
       <c r="C155" s="60"/>
@@ -7974,7 +8335,7 @@
       <c r="J155" s="63"/>
       <c r="K155" s="64"/>
     </row>
-    <row r="156" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="65"/>
       <c r="B156" s="59"/>
       <c r="C156" s="60"/>
@@ -7987,7 +8348,7 @@
       <c r="J156" s="63"/>
       <c r="K156" s="64"/>
     </row>
-    <row r="157" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="65"/>
       <c r="B157" s="59"/>
       <c r="C157" s="60"/>
@@ -8000,7 +8361,7 @@
       <c r="J157" s="63"/>
       <c r="K157" s="64"/>
     </row>
-    <row r="158" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="65"/>
       <c r="B158" s="59"/>
       <c r="C158" s="60"/>
@@ -8013,7 +8374,7 @@
       <c r="J158" s="63"/>
       <c r="K158" s="64"/>
     </row>
-    <row r="159" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="65"/>
       <c r="B159" s="59"/>
       <c r="C159" s="60"/>
@@ -8026,7 +8387,7 @@
       <c r="J159" s="63"/>
       <c r="K159" s="64"/>
     </row>
-    <row r="160" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="65"/>
       <c r="B160" s="59"/>
       <c r="C160" s="60"/>
@@ -8039,7 +8400,7 @@
       <c r="J160" s="63"/>
       <c r="K160" s="64"/>
     </row>
-    <row r="161" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="65"/>
       <c r="B161" s="59"/>
       <c r="C161" s="60"/>
@@ -8052,7 +8413,7 @@
       <c r="J161" s="63"/>
       <c r="K161" s="64"/>
     </row>
-    <row r="162" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="65"/>
       <c r="B162" s="59"/>
       <c r="C162" s="60"/>
@@ -8065,7 +8426,7 @@
       <c r="J162" s="63"/>
       <c r="K162" s="64"/>
     </row>
-    <row r="163" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="65"/>
       <c r="B163" s="59"/>
       <c r="C163" s="60"/>
@@ -8078,7 +8439,7 @@
       <c r="J163" s="63"/>
       <c r="K163" s="64"/>
     </row>
-    <row r="164" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="65"/>
       <c r="B164" s="59"/>
       <c r="C164" s="60"/>
@@ -8091,7 +8452,7 @@
       <c r="J164" s="63"/>
       <c r="K164" s="64"/>
     </row>
-    <row r="165" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="65"/>
       <c r="B165" s="59"/>
       <c r="C165" s="60"/>
@@ -8104,7 +8465,7 @@
       <c r="J165" s="63"/>
       <c r="K165" s="64"/>
     </row>
-    <row r="166" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="65"/>
       <c r="B166" s="59"/>
       <c r="C166" s="60"/>
@@ -8117,7 +8478,7 @@
       <c r="J166" s="63"/>
       <c r="K166" s="64"/>
     </row>
-    <row r="167" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="65"/>
       <c r="B167" s="59"/>
       <c r="C167" s="60"/>
@@ -8130,7 +8491,7 @@
       <c r="J167" s="63"/>
       <c r="K167" s="64"/>
     </row>
-    <row r="168" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="65"/>
       <c r="B168" s="59"/>
       <c r="C168" s="60"/>
@@ -8143,7 +8504,7 @@
       <c r="J168" s="63"/>
       <c r="K168" s="64"/>
     </row>
-    <row r="169" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="65"/>
       <c r="B169" s="59"/>
       <c r="C169" s="60"/>
@@ -8156,7 +8517,7 @@
       <c r="J169" s="63"/>
       <c r="K169" s="64"/>
     </row>
-    <row r="170" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="65"/>
       <c r="B170" s="59"/>
       <c r="C170" s="60"/>
@@ -8169,7 +8530,7 @@
       <c r="J170" s="63"/>
       <c r="K170" s="64"/>
     </row>
-    <row r="171" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="65"/>
       <c r="B171" s="59"/>
       <c r="C171" s="60"/>
@@ -8182,7 +8543,7 @@
       <c r="J171" s="63"/>
       <c r="K171" s="64"/>
     </row>
-    <row r="172" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="65"/>
       <c r="B172" s="59"/>
       <c r="C172" s="60"/>
@@ -8195,7 +8556,7 @@
       <c r="J172" s="63"/>
       <c r="K172" s="64"/>
     </row>
-    <row r="173" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="65"/>
       <c r="B173" s="59"/>
       <c r="C173" s="60"/>
@@ -8208,7 +8569,7 @@
       <c r="J173" s="63"/>
       <c r="K173" s="64"/>
     </row>
-    <row r="174" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="65"/>
       <c r="B174" s="59"/>
       <c r="C174" s="60"/>
@@ -8221,7 +8582,7 @@
       <c r="J174" s="63"/>
       <c r="K174" s="64"/>
     </row>
-    <row r="175" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="65"/>
       <c r="B175" s="59"/>
       <c r="C175" s="60"/>
@@ -8234,7 +8595,7 @@
       <c r="J175" s="63"/>
       <c r="K175" s="64"/>
     </row>
-    <row r="176" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="65"/>
       <c r="B176" s="59"/>
       <c r="C176" s="60"/>
@@ -8247,7 +8608,7 @@
       <c r="J176" s="63"/>
       <c r="K176" s="64"/>
     </row>
-    <row r="177" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="65"/>
       <c r="B177" s="59"/>
       <c r="C177" s="60"/>
@@ -8260,7 +8621,7 @@
       <c r="J177" s="63"/>
       <c r="K177" s="64"/>
     </row>
-    <row r="178" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="65"/>
       <c r="B178" s="59"/>
       <c r="C178" s="60"/>
@@ -8273,7 +8634,7 @@
       <c r="J178" s="63"/>
       <c r="K178" s="64"/>
     </row>
-    <row r="179" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="65"/>
       <c r="B179" s="59"/>
       <c r="C179" s="60"/>
@@ -8286,7 +8647,7 @@
       <c r="J179" s="63"/>
       <c r="K179" s="64"/>
     </row>
-    <row r="180" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="65"/>
       <c r="B180" s="59"/>
       <c r="C180" s="60"/>
@@ -8299,7 +8660,7 @@
       <c r="J180" s="63"/>
       <c r="K180" s="64"/>
     </row>
-    <row r="181" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="65"/>
       <c r="B181" s="59"/>
       <c r="C181" s="60"/>
@@ -8312,7 +8673,7 @@
       <c r="J181" s="63"/>
       <c r="K181" s="64"/>
     </row>
-    <row r="182" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="65"/>
       <c r="B182" s="59"/>
       <c r="C182" s="60"/>
@@ -8325,7 +8686,7 @@
       <c r="J182" s="63"/>
       <c r="K182" s="64"/>
     </row>
-    <row r="183" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="65"/>
       <c r="B183" s="59"/>
       <c r="C183" s="60"/>
@@ -8338,7 +8699,7 @@
       <c r="J183" s="63"/>
       <c r="K183" s="64"/>
     </row>
-    <row r="184" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="65"/>
       <c r="B184" s="59"/>
       <c r="C184" s="60"/>
@@ -8351,7 +8712,7 @@
       <c r="J184" s="63"/>
       <c r="K184" s="64"/>
     </row>
-    <row r="185" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="65"/>
       <c r="B185" s="59"/>
       <c r="C185" s="60"/>
@@ -8364,7 +8725,7 @@
       <c r="J185" s="63"/>
       <c r="K185" s="64"/>
     </row>
-    <row r="186" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="65"/>
       <c r="B186" s="59"/>
       <c r="C186" s="60"/>
@@ -8377,7 +8738,7 @@
       <c r="J186" s="63"/>
       <c r="K186" s="64"/>
     </row>
-    <row r="187" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="65"/>
       <c r="B187" s="59"/>
       <c r="C187" s="60"/>
@@ -8390,7 +8751,7 @@
       <c r="J187" s="63"/>
       <c r="K187" s="64"/>
     </row>
-    <row r="188" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="65"/>
       <c r="B188" s="59"/>
       <c r="C188" s="60"/>
@@ -8403,7 +8764,7 @@
       <c r="J188" s="63"/>
       <c r="K188" s="64"/>
     </row>
-    <row r="189" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="65"/>
       <c r="B189" s="59"/>
       <c r="C189" s="60"/>
@@ -8416,7 +8777,7 @@
       <c r="J189" s="63"/>
       <c r="K189" s="64"/>
     </row>
-    <row r="190" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="65"/>
       <c r="B190" s="59"/>
       <c r="C190" s="60"/>
@@ -8429,7 +8790,7 @@
       <c r="J190" s="63"/>
       <c r="K190" s="64"/>
     </row>
-    <row r="191" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="65"/>
       <c r="B191" s="59"/>
       <c r="C191" s="60"/>
@@ -8442,7 +8803,7 @@
       <c r="J191" s="63"/>
       <c r="K191" s="64"/>
     </row>
-    <row r="192" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="65"/>
       <c r="B192" s="59"/>
       <c r="C192" s="60"/>
@@ -8455,7 +8816,7 @@
       <c r="J192" s="63"/>
       <c r="K192" s="64"/>
     </row>
-    <row r="193" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="65"/>
       <c r="B193" s="59"/>
       <c r="C193" s="60"/>
@@ -8468,7 +8829,7 @@
       <c r="J193" s="63"/>
       <c r="K193" s="64"/>
     </row>
-    <row r="194" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="65"/>
       <c r="B194" s="59"/>
       <c r="C194" s="60"/>
@@ -8481,7 +8842,7 @@
       <c r="J194" s="63"/>
       <c r="K194" s="64"/>
     </row>
-    <row r="195" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="65"/>
       <c r="B195" s="59"/>
       <c r="C195" s="60"/>
@@ -8494,7 +8855,7 @@
       <c r="J195" s="63"/>
       <c r="K195" s="64"/>
     </row>
-    <row r="196" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="65"/>
       <c r="B196" s="59"/>
       <c r="C196" s="60"/>
@@ -8507,7 +8868,7 @@
       <c r="J196" s="63"/>
       <c r="K196" s="64"/>
     </row>
-    <row r="197" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="65"/>
       <c r="B197" s="59"/>
       <c r="C197" s="60"/>
@@ -8520,7 +8881,7 @@
       <c r="J197" s="63"/>
       <c r="K197" s="64"/>
     </row>
-    <row r="198" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="65"/>
       <c r="B198" s="59"/>
       <c r="C198" s="60"/>
@@ -8533,7 +8894,7 @@
       <c r="J198" s="63"/>
       <c r="K198" s="64"/>
     </row>
-    <row r="199" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="65"/>
       <c r="B199" s="59"/>
       <c r="C199" s="60"/>
@@ -8546,7 +8907,7 @@
       <c r="J199" s="63"/>
       <c r="K199" s="64"/>
     </row>
-    <row r="200" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="65"/>
       <c r="B200" s="59"/>
       <c r="C200" s="60"/>
@@ -8559,7 +8920,7 @@
       <c r="J200" s="63"/>
       <c r="K200" s="64"/>
     </row>
-    <row r="201" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="65"/>
       <c r="B201" s="59"/>
       <c r="C201" s="60"/>
@@ -8572,7 +8933,7 @@
       <c r="J201" s="63"/>
       <c r="K201" s="64"/>
     </row>
-    <row r="202" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="65"/>
       <c r="B202" s="59"/>
       <c r="C202" s="60"/>
@@ -8585,7 +8946,7 @@
       <c r="J202" s="63"/>
       <c r="K202" s="64"/>
     </row>
-    <row r="203" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="65"/>
       <c r="B203" s="59"/>
       <c r="C203" s="60"/>
@@ -8598,7 +8959,7 @@
       <c r="J203" s="63"/>
       <c r="K203" s="64"/>
     </row>
-    <row r="204" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="65"/>
       <c r="B204" s="59"/>
       <c r="C204" s="60"/>
@@ -8611,7 +8972,7 @@
       <c r="J204" s="63"/>
       <c r="K204" s="64"/>
     </row>
-    <row r="205" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="65"/>
       <c r="B205" s="59"/>
       <c r="C205" s="60"/>
@@ -8624,7 +8985,7 @@
       <c r="J205" s="63"/>
       <c r="K205" s="64"/>
     </row>
-    <row r="206" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="65"/>
       <c r="B206" s="59"/>
       <c r="C206" s="60"/>
@@ -8637,7 +8998,7 @@
       <c r="J206" s="63"/>
       <c r="K206" s="64"/>
     </row>
-    <row r="207" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="65"/>
       <c r="B207" s="59"/>
       <c r="C207" s="60"/>
@@ -8650,7 +9011,7 @@
       <c r="J207" s="63"/>
       <c r="K207" s="64"/>
     </row>
-    <row r="208" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="65"/>
       <c r="B208" s="59"/>
       <c r="C208" s="60"/>
@@ -8663,7 +9024,7 @@
       <c r="J208" s="63"/>
       <c r="K208" s="64"/>
     </row>
-    <row r="209" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="65"/>
       <c r="B209" s="59"/>
       <c r="C209" s="60"/>
@@ -8676,7 +9037,7 @@
       <c r="J209" s="63"/>
       <c r="K209" s="64"/>
     </row>
-    <row r="210" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="65"/>
       <c r="B210" s="59"/>
       <c r="C210" s="60"/>
@@ -8689,7 +9050,7 @@
       <c r="J210" s="63"/>
       <c r="K210" s="64"/>
     </row>
-    <row r="211" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="65"/>
       <c r="B211" s="59"/>
       <c r="C211" s="60"/>
@@ -8702,7 +9063,7 @@
       <c r="J211" s="63"/>
       <c r="K211" s="64"/>
     </row>
-    <row r="212" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="65"/>
       <c r="B212" s="59"/>
       <c r="C212" s="60"/>
@@ -8715,7 +9076,7 @@
       <c r="J212" s="63"/>
       <c r="K212" s="64"/>
     </row>
-    <row r="213" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="65"/>
       <c r="B213" s="59"/>
       <c r="C213" s="60"/>
@@ -8728,7 +9089,7 @@
       <c r="J213" s="63"/>
       <c r="K213" s="64"/>
     </row>
-    <row r="214" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="65"/>
       <c r="B214" s="59"/>
       <c r="C214" s="60"/>
@@ -8741,7 +9102,7 @@
       <c r="J214" s="63"/>
       <c r="K214" s="64"/>
     </row>
-    <row r="215" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="65"/>
       <c r="B215" s="59"/>
       <c r="C215" s="60"/>
@@ -8754,7 +9115,7 @@
       <c r="J215" s="63"/>
       <c r="K215" s="64"/>
     </row>
-    <row r="216" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="65"/>
       <c r="B216" s="59"/>
       <c r="C216" s="60"/>
@@ -8767,7 +9128,7 @@
       <c r="J216" s="63"/>
       <c r="K216" s="64"/>
     </row>
-    <row r="217" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="65"/>
       <c r="B217" s="59"/>
       <c r="C217" s="60"/>
@@ -8780,7 +9141,7 @@
       <c r="J217" s="63"/>
       <c r="K217" s="64"/>
     </row>
-    <row r="218" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="65"/>
       <c r="B218" s="59"/>
       <c r="C218" s="60"/>
@@ -8793,7 +9154,7 @@
       <c r="J218" s="63"/>
       <c r="K218" s="64"/>
     </row>
-    <row r="219" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="65"/>
       <c r="B219" s="59"/>
       <c r="C219" s="60"/>
@@ -8806,7 +9167,7 @@
       <c r="J219" s="63"/>
       <c r="K219" s="64"/>
     </row>
-    <row r="220" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="65"/>
       <c r="B220" s="59"/>
       <c r="C220" s="60"/>
@@ -8819,7 +9180,7 @@
       <c r="J220" s="63"/>
       <c r="K220" s="64"/>
     </row>
-    <row r="221" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="65"/>
       <c r="B221" s="59"/>
       <c r="C221" s="60"/>
@@ -8832,7 +9193,7 @@
       <c r="J221" s="63"/>
       <c r="K221" s="64"/>
     </row>
-    <row r="222" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="65"/>
       <c r="B222" s="59"/>
       <c r="C222" s="60"/>
@@ -8845,7 +9206,7 @@
       <c r="J222" s="63"/>
       <c r="K222" s="64"/>
     </row>
-    <row r="223" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="65"/>
       <c r="B223" s="59"/>
       <c r="C223" s="60"/>
@@ -8858,7 +9219,7 @@
       <c r="J223" s="63"/>
       <c r="K223" s="64"/>
     </row>
-    <row r="224" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="65"/>
       <c r="B224" s="59"/>
       <c r="C224" s="60"/>
@@ -8871,7 +9232,7 @@
       <c r="J224" s="63"/>
       <c r="K224" s="64"/>
     </row>
-    <row r="225" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="65"/>
       <c r="B225" s="59"/>
       <c r="C225" s="60"/>
@@ -8884,7 +9245,7 @@
       <c r="J225" s="63"/>
       <c r="K225" s="64"/>
     </row>
-    <row r="226" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="65"/>
       <c r="B226" s="59"/>
       <c r="C226" s="60"/>
@@ -8897,7 +9258,7 @@
       <c r="J226" s="63"/>
       <c r="K226" s="64"/>
     </row>
-    <row r="227" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="65"/>
       <c r="B227" s="59"/>
       <c r="C227" s="60"/>
@@ -8910,7 +9271,7 @@
       <c r="J227" s="63"/>
       <c r="K227" s="64"/>
     </row>
-    <row r="228" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="65"/>
       <c r="B228" s="59"/>
       <c r="C228" s="60"/>
@@ -8923,7 +9284,7 @@
       <c r="J228" s="63"/>
       <c r="K228" s="64"/>
     </row>
-    <row r="229" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="65"/>
       <c r="B229" s="59"/>
       <c r="C229" s="60"/>
@@ -8936,7 +9297,7 @@
       <c r="J229" s="63"/>
       <c r="K229" s="64"/>
     </row>
-    <row r="230" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="65"/>
       <c r="B230" s="59"/>
       <c r="C230" s="60"/>
@@ -8949,7 +9310,7 @@
       <c r="J230" s="63"/>
       <c r="K230" s="64"/>
     </row>
-    <row r="231" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="65"/>
       <c r="B231" s="59"/>
       <c r="C231" s="60"/>
@@ -8962,7 +9323,7 @@
       <c r="J231" s="63"/>
       <c r="K231" s="64"/>
     </row>
-    <row r="232" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="65"/>
       <c r="B232" s="59"/>
       <c r="C232" s="60"/>
@@ -8975,7 +9336,7 @@
       <c r="J232" s="63"/>
       <c r="K232" s="64"/>
     </row>
-    <row r="233" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="65"/>
       <c r="B233" s="59"/>
       <c r="C233" s="60"/>
@@ -8988,7 +9349,7 @@
       <c r="J233" s="63"/>
       <c r="K233" s="64"/>
     </row>
-    <row r="234" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="65"/>
       <c r="B234" s="59"/>
       <c r="C234" s="60"/>
@@ -9001,7 +9362,7 @@
       <c r="J234" s="63"/>
       <c r="K234" s="64"/>
     </row>
-    <row r="235" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="65"/>
       <c r="B235" s="59"/>
       <c r="C235" s="60"/>
@@ -9014,7 +9375,7 @@
       <c r="J235" s="63"/>
       <c r="K235" s="64"/>
     </row>
-    <row r="236" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="65"/>
       <c r="B236" s="59"/>
       <c r="C236" s="60"/>
@@ -9027,7 +9388,7 @@
       <c r="J236" s="63"/>
       <c r="K236" s="64"/>
     </row>
-    <row r="237" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="65"/>
       <c r="B237" s="59"/>
       <c r="C237" s="60"/>
@@ -9040,7 +9401,7 @@
       <c r="J237" s="63"/>
       <c r="K237" s="64"/>
     </row>
-    <row r="238" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="65"/>
       <c r="B238" s="59"/>
       <c r="C238" s="60"/>
@@ -9053,7 +9414,7 @@
       <c r="J238" s="63"/>
       <c r="K238" s="64"/>
     </row>
-    <row r="239" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="65"/>
       <c r="B239" s="59"/>
       <c r="C239" s="60"/>
@@ -9066,7 +9427,7 @@
       <c r="J239" s="63"/>
       <c r="K239" s="64"/>
     </row>
-    <row r="240" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="65"/>
       <c r="B240" s="59"/>
       <c r="C240" s="60"/>
@@ -9079,7 +9440,7 @@
       <c r="J240" s="63"/>
       <c r="K240" s="64"/>
     </row>
-    <row r="241" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="65"/>
       <c r="B241" s="59"/>
       <c r="C241" s="60"/>
@@ -9092,7 +9453,7 @@
       <c r="J241" s="63"/>
       <c r="K241" s="64"/>
     </row>
-    <row r="242" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="65"/>
       <c r="B242" s="59"/>
       <c r="C242" s="60"/>
@@ -9105,7 +9466,7 @@
       <c r="J242" s="63"/>
       <c r="K242" s="64"/>
     </row>
-    <row r="243" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="65"/>
       <c r="B243" s="59"/>
       <c r="C243" s="60"/>
@@ -9118,7 +9479,7 @@
       <c r="J243" s="63"/>
       <c r="K243" s="64"/>
     </row>
-    <row r="244" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="65"/>
       <c r="B244" s="59"/>
       <c r="C244" s="60"/>
@@ -9131,7 +9492,7 @@
       <c r="J244" s="63"/>
       <c r="K244" s="64"/>
     </row>
-    <row r="245" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="65"/>
       <c r="B245" s="59"/>
       <c r="C245" s="60"/>
@@ -9144,7 +9505,7 @@
       <c r="J245" s="63"/>
       <c r="K245" s="64"/>
     </row>
-    <row r="246" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="65"/>
       <c r="B246" s="59"/>
       <c r="C246" s="60"/>
@@ -9157,7 +9518,7 @@
       <c r="J246" s="63"/>
       <c r="K246" s="64"/>
     </row>
-    <row r="247" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="65"/>
       <c r="B247" s="59"/>
       <c r="C247" s="60"/>
@@ -9170,7 +9531,7 @@
       <c r="J247" s="63"/>
       <c r="K247" s="64"/>
     </row>
-    <row r="248" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="65"/>
       <c r="B248" s="59"/>
       <c r="C248" s="60"/>
@@ -9183,7 +9544,7 @@
       <c r="J248" s="63"/>
       <c r="K248" s="64"/>
     </row>
-    <row r="249" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="65"/>
       <c r="B249" s="59"/>
       <c r="C249" s="60"/>
@@ -9196,7 +9557,7 @@
       <c r="J249" s="63"/>
       <c r="K249" s="64"/>
     </row>
-    <row r="250" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="65"/>
       <c r="B250" s="59"/>
       <c r="C250" s="60"/>
@@ -9209,7 +9570,7 @@
       <c r="J250" s="63"/>
       <c r="K250" s="64"/>
     </row>
-    <row r="251" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="65"/>
       <c r="B251" s="59"/>
       <c r="C251" s="60"/>
@@ -9222,7 +9583,7 @@
       <c r="J251" s="63"/>
       <c r="K251" s="64"/>
     </row>
-    <row r="252" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="65"/>
       <c r="B252" s="59"/>
       <c r="C252" s="60"/>
@@ -9235,7 +9596,7 @@
       <c r="J252" s="63"/>
       <c r="K252" s="64"/>
     </row>
-    <row r="253" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="65"/>
       <c r="B253" s="59"/>
       <c r="C253" s="60"/>
@@ -9248,7 +9609,7 @@
       <c r="J253" s="63"/>
       <c r="K253" s="64"/>
     </row>
-    <row r="254" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="65"/>
       <c r="B254" s="59"/>
       <c r="C254" s="60"/>
@@ -9261,7 +9622,7 @@
       <c r="J254" s="63"/>
       <c r="K254" s="64"/>
     </row>
-    <row r="255" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="65"/>
       <c r="B255" s="59"/>
       <c r="C255" s="60"/>
@@ -9274,7 +9635,7 @@
       <c r="J255" s="63"/>
       <c r="K255" s="64"/>
     </row>
-    <row r="256" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="65"/>
       <c r="B256" s="59"/>
       <c r="C256" s="60"/>
@@ -9287,7 +9648,7 @@
       <c r="J256" s="63"/>
       <c r="K256" s="64"/>
     </row>
-    <row r="257" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="65"/>
       <c r="B257" s="59"/>
       <c r="C257" s="60"/>
@@ -9300,7 +9661,7 @@
       <c r="J257" s="63"/>
       <c r="K257" s="64"/>
     </row>
-    <row r="258" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="65"/>
       <c r="B258" s="59"/>
       <c r="C258" s="60"/>
@@ -9313,7 +9674,7 @@
       <c r="J258" s="63"/>
       <c r="K258" s="64"/>
     </row>
-    <row r="259" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="65"/>
       <c r="B259" s="59"/>
       <c r="C259" s="60"/>
@@ -9326,7 +9687,7 @@
       <c r="J259" s="63"/>
       <c r="K259" s="64"/>
     </row>
-    <row r="260" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="65"/>
       <c r="B260" s="59"/>
       <c r="C260" s="60"/>
@@ -9339,7 +9700,7 @@
       <c r="J260" s="63"/>
       <c r="K260" s="64"/>
     </row>
-    <row r="261" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="65"/>
       <c r="B261" s="59"/>
       <c r="C261" s="60"/>
@@ -9352,7 +9713,7 @@
       <c r="J261" s="63"/>
       <c r="K261" s="64"/>
     </row>
-    <row r="262" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="65"/>
       <c r="B262" s="59"/>
       <c r="C262" s="60"/>
@@ -9365,7 +9726,7 @@
       <c r="J262" s="63"/>
       <c r="K262" s="64"/>
     </row>
-    <row r="263" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="65"/>
       <c r="B263" s="59"/>
       <c r="C263" s="60"/>
@@ -9378,7 +9739,7 @@
       <c r="J263" s="63"/>
       <c r="K263" s="64"/>
     </row>
-    <row r="264" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="65"/>
       <c r="B264" s="59"/>
       <c r="C264" s="60"/>
@@ -9391,7 +9752,7 @@
       <c r="J264" s="63"/>
       <c r="K264" s="64"/>
     </row>
-    <row r="265" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="65"/>
       <c r="B265" s="59"/>
       <c r="C265" s="60"/>
@@ -9404,7 +9765,7 @@
       <c r="J265" s="63"/>
       <c r="K265" s="64"/>
     </row>
-    <row r="266" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="65"/>
       <c r="B266" s="59"/>
       <c r="C266" s="60"/>
@@ -9417,7 +9778,7 @@
       <c r="J266" s="63"/>
       <c r="K266" s="64"/>
     </row>
-    <row r="267" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="65"/>
       <c r="B267" s="59"/>
       <c r="C267" s="60"/>
@@ -9430,7 +9791,7 @@
       <c r="J267" s="63"/>
       <c r="K267" s="64"/>
     </row>
-    <row r="268" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="65"/>
       <c r="B268" s="59"/>
       <c r="C268" s="60"/>
@@ -9443,7 +9804,7 @@
       <c r="J268" s="63"/>
       <c r="K268" s="64"/>
     </row>
-    <row r="269" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="65"/>
       <c r="B269" s="59"/>
       <c r="C269" s="60"/>
@@ -9456,7 +9817,7 @@
       <c r="J269" s="63"/>
       <c r="K269" s="64"/>
     </row>
-    <row r="270" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="65"/>
       <c r="B270" s="59"/>
       <c r="C270" s="60"/>
@@ -9469,7 +9830,7 @@
       <c r="J270" s="63"/>
       <c r="K270" s="64"/>
     </row>
-    <row r="271" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="65"/>
       <c r="B271" s="59"/>
       <c r="C271" s="60"/>
@@ -9482,7 +9843,7 @@
       <c r="J271" s="63"/>
       <c r="K271" s="64"/>
     </row>
-    <row r="272" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="65"/>
       <c r="B272" s="59"/>
       <c r="C272" s="60"/>
@@ -9495,7 +9856,7 @@
       <c r="J272" s="63"/>
       <c r="K272" s="64"/>
     </row>
-    <row r="273" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="65"/>
       <c r="B273" s="59"/>
       <c r="C273" s="60"/>
@@ -9508,7 +9869,7 @@
       <c r="J273" s="63"/>
       <c r="K273" s="64"/>
     </row>
-    <row r="274" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="65"/>
       <c r="B274" s="59"/>
       <c r="C274" s="60"/>
@@ -9521,7 +9882,7 @@
       <c r="J274" s="63"/>
       <c r="K274" s="64"/>
     </row>
-    <row r="275" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="65"/>
       <c r="B275" s="59"/>
       <c r="C275" s="60"/>
@@ -9534,7 +9895,7 @@
       <c r="J275" s="63"/>
       <c r="K275" s="64"/>
     </row>
-    <row r="276" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="65"/>
       <c r="B276" s="59"/>
       <c r="C276" s="60"/>
@@ -9547,7 +9908,7 @@
       <c r="J276" s="63"/>
       <c r="K276" s="64"/>
     </row>
-    <row r="277" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="65"/>
       <c r="B277" s="59"/>
       <c r="C277" s="60"/>
@@ -9560,7 +9921,7 @@
       <c r="J277" s="63"/>
       <c r="K277" s="64"/>
     </row>
-    <row r="278" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="65"/>
       <c r="B278" s="59"/>
       <c r="C278" s="60"/>
@@ -9573,7 +9934,7 @@
       <c r="J278" s="63"/>
       <c r="K278" s="64"/>
     </row>
-    <row r="279" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="65"/>
       <c r="B279" s="59"/>
       <c r="C279" s="60"/>
@@ -9586,7 +9947,7 @@
       <c r="J279" s="63"/>
       <c r="K279" s="64"/>
     </row>
-    <row r="280" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="65"/>
       <c r="B280" s="59"/>
       <c r="C280" s="60"/>
@@ -9599,7 +9960,7 @@
       <c r="J280" s="63"/>
       <c r="K280" s="64"/>
     </row>
-    <row r="281" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="65"/>
       <c r="B281" s="59"/>
       <c r="C281" s="60"/>
@@ -9612,7 +9973,7 @@
       <c r="J281" s="63"/>
       <c r="K281" s="64"/>
     </row>
-    <row r="282" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="65"/>
       <c r="B282" s="59"/>
       <c r="C282" s="60"/>
@@ -9625,7 +9986,7 @@
       <c r="J282" s="63"/>
       <c r="K282" s="64"/>
     </row>
-    <row r="283" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="65"/>
       <c r="B283" s="59"/>
       <c r="C283" s="60"/>
@@ -9638,7 +9999,7 @@
       <c r="J283" s="63"/>
       <c r="K283" s="64"/>
     </row>
-    <row r="284" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="65"/>
       <c r="B284" s="59"/>
       <c r="C284" s="60"/>
@@ -9651,7 +10012,7 @@
       <c r="J284" s="63"/>
       <c r="K284" s="64"/>
     </row>
-    <row r="285" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="65"/>
       <c r="B285" s="59"/>
       <c r="C285" s="60"/>
@@ -9664,7 +10025,7 @@
       <c r="J285" s="63"/>
       <c r="K285" s="64"/>
     </row>
-    <row r="286" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="65"/>
       <c r="B286" s="59"/>
       <c r="C286" s="60"/>
@@ -9677,7 +10038,7 @@
       <c r="J286" s="63"/>
       <c r="K286" s="64"/>
     </row>
-    <row r="287" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="65"/>
       <c r="B287" s="59"/>
       <c r="C287" s="60"/>
@@ -9690,7 +10051,7 @@
       <c r="J287" s="63"/>
       <c r="K287" s="64"/>
     </row>
-    <row r="288" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="65"/>
       <c r="B288" s="59"/>
       <c r="C288" s="60"/>
@@ -9703,7 +10064,7 @@
       <c r="J288" s="63"/>
       <c r="K288" s="64"/>
     </row>
-    <row r="289" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="65"/>
       <c r="B289" s="59"/>
       <c r="C289" s="60"/>
@@ -9716,7 +10077,7 @@
       <c r="J289" s="63"/>
       <c r="K289" s="64"/>
     </row>
-    <row r="290" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="65"/>
       <c r="B290" s="59"/>
       <c r="C290" s="60"/>
@@ -9729,7 +10090,7 @@
       <c r="J290" s="63"/>
       <c r="K290" s="64"/>
     </row>
-    <row r="291" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="65"/>
       <c r="B291" s="59"/>
       <c r="C291" s="60"/>
@@ -9742,7 +10103,7 @@
       <c r="J291" s="63"/>
       <c r="K291" s="64"/>
     </row>
-    <row r="292" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="65"/>
       <c r="B292" s="59"/>
       <c r="C292" s="60"/>
@@ -9755,7 +10116,7 @@
       <c r="J292" s="63"/>
       <c r="K292" s="64"/>
     </row>
-    <row r="293" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="65"/>
       <c r="B293" s="59"/>
       <c r="C293" s="60"/>
@@ -9768,7 +10129,7 @@
       <c r="J293" s="63"/>
       <c r="K293" s="64"/>
     </row>
-    <row r="294" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="65"/>
       <c r="B294" s="59"/>
       <c r="C294" s="60"/>
@@ -9781,7 +10142,7 @@
       <c r="J294" s="63"/>
       <c r="K294" s="64"/>
     </row>
-    <row r="295" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="65"/>
       <c r="B295" s="59"/>
       <c r="C295" s="60"/>
@@ -9794,7 +10155,7 @@
       <c r="J295" s="63"/>
       <c r="K295" s="64"/>
     </row>
-    <row r="296" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="65"/>
       <c r="B296" s="59"/>
       <c r="C296" s="60"/>
@@ -9807,7 +10168,7 @@
       <c r="J296" s="63"/>
       <c r="K296" s="64"/>
     </row>
-    <row r="297" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="65"/>
       <c r="B297" s="59"/>
       <c r="C297" s="60"/>
@@ -9820,7 +10181,7 @@
       <c r="J297" s="63"/>
       <c r="K297" s="64"/>
     </row>
-    <row r="298" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="65"/>
       <c r="B298" s="59"/>
       <c r="C298" s="60"/>
@@ -9833,7 +10194,7 @@
       <c r="J298" s="63"/>
       <c r="K298" s="64"/>
     </row>
-    <row r="299" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="65"/>
       <c r="B299" s="59"/>
       <c r="C299" s="60"/>
@@ -9846,7 +10207,7 @@
       <c r="J299" s="63"/>
       <c r="K299" s="64"/>
     </row>
-    <row r="300" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="65"/>
       <c r="B300" s="59"/>
       <c r="C300" s="60"/>
@@ -9859,7 +10220,7 @@
       <c r="J300" s="63"/>
       <c r="K300" s="64"/>
     </row>
-    <row r="301" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="65"/>
       <c r="B301" s="59"/>
       <c r="C301" s="60"/>
@@ -9872,7 +10233,7 @@
       <c r="J301" s="63"/>
       <c r="K301" s="64"/>
     </row>
-    <row r="302" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="65"/>
       <c r="B302" s="59"/>
       <c r="C302" s="60"/>
@@ -9885,7 +10246,7 @@
       <c r="J302" s="63"/>
       <c r="K302" s="64"/>
     </row>
-    <row r="303" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="65"/>
       <c r="B303" s="59"/>
       <c r="C303" s="60"/>
@@ -9898,7 +10259,7 @@
       <c r="J303" s="63"/>
       <c r="K303" s="64"/>
     </row>
-    <row r="304" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="65"/>
       <c r="B304" s="59"/>
       <c r="C304" s="60"/>
@@ -9911,7 +10272,7 @@
       <c r="J304" s="63"/>
       <c r="K304" s="64"/>
     </row>
-    <row r="305" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="65"/>
       <c r="B305" s="59"/>
       <c r="C305" s="60"/>
@@ -9924,7 +10285,7 @@
       <c r="J305" s="63"/>
       <c r="K305" s="64"/>
     </row>
-    <row r="306" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="65"/>
       <c r="B306" s="59"/>
       <c r="C306" s="60"/>
@@ -9937,7 +10298,7 @@
       <c r="J306" s="63"/>
       <c r="K306" s="64"/>
     </row>
-    <row r="307" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="65"/>
       <c r="B307" s="59"/>
       <c r="C307" s="60"/>
@@ -9950,7 +10311,7 @@
       <c r="J307" s="63"/>
       <c r="K307" s="64"/>
     </row>
-    <row r="308" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="65"/>
       <c r="B308" s="59"/>
       <c r="C308" s="60"/>
@@ -9963,7 +10324,7 @@
       <c r="J308" s="63"/>
       <c r="K308" s="64"/>
     </row>
-    <row r="309" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="65"/>
       <c r="B309" s="59"/>
       <c r="C309" s="60"/>
@@ -9976,7 +10337,7 @@
       <c r="J309" s="63"/>
       <c r="K309" s="64"/>
     </row>
-    <row r="310" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="65"/>
       <c r="B310" s="59"/>
       <c r="C310" s="60"/>
@@ -9989,7 +10350,7 @@
       <c r="J310" s="63"/>
       <c r="K310" s="64"/>
     </row>
-    <row r="311" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="65"/>
       <c r="B311" s="59"/>
       <c r="C311" s="60"/>
@@ -10002,7 +10363,7 @@
       <c r="J311" s="63"/>
       <c r="K311" s="64"/>
     </row>
-    <row r="312" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="65"/>
       <c r="B312" s="59"/>
       <c r="C312" s="60"/>
@@ -10015,7 +10376,7 @@
       <c r="J312" s="63"/>
       <c r="K312" s="64"/>
     </row>
-    <row r="313" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="65"/>
       <c r="B313" s="59"/>
       <c r="C313" s="60"/>
@@ -10028,7 +10389,7 @@
       <c r="J313" s="63"/>
       <c r="K313" s="64"/>
     </row>
-    <row r="314" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="65"/>
       <c r="B314" s="59"/>
       <c r="C314" s="60"/>
@@ -10041,7 +10402,7 @@
       <c r="J314" s="63"/>
       <c r="K314" s="64"/>
     </row>
-    <row r="315" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="65"/>
       <c r="B315" s="59"/>
       <c r="C315" s="60"/>
@@ -10054,7 +10415,7 @@
       <c r="J315" s="63"/>
       <c r="K315" s="64"/>
     </row>
-    <row r="316" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="65"/>
       <c r="B316" s="59"/>
       <c r="C316" s="60"/>
@@ -10067,7 +10428,7 @@
       <c r="J316" s="63"/>
       <c r="K316" s="64"/>
     </row>
-    <row r="317" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="65"/>
       <c r="B317" s="59"/>
       <c r="C317" s="60"/>
@@ -10080,7 +10441,7 @@
       <c r="J317" s="63"/>
       <c r="K317" s="64"/>
     </row>
-    <row r="318" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="65"/>
       <c r="B318" s="59"/>
       <c r="C318" s="60"/>
@@ -10093,7 +10454,7 @@
       <c r="J318" s="63"/>
       <c r="K318" s="64"/>
     </row>
-    <row r="319" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="65"/>
       <c r="B319" s="59"/>
       <c r="C319" s="60"/>
@@ -10106,7 +10467,7 @@
       <c r="J319" s="63"/>
       <c r="K319" s="64"/>
     </row>
-    <row r="320" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="65"/>
       <c r="B320" s="59"/>
       <c r="C320" s="60"/>
@@ -10119,7 +10480,7 @@
       <c r="J320" s="63"/>
       <c r="K320" s="64"/>
     </row>
-    <row r="321" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="65"/>
       <c r="B321" s="59"/>
       <c r="C321" s="60"/>
@@ -10132,7 +10493,7 @@
       <c r="J321" s="63"/>
       <c r="K321" s="64"/>
     </row>
-    <row r="322" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="65"/>
       <c r="B322" s="59"/>
       <c r="C322" s="60"/>
@@ -10145,7 +10506,7 @@
       <c r="J322" s="63"/>
       <c r="K322" s="64"/>
     </row>
-    <row r="323" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="65"/>
       <c r="B323" s="59"/>
       <c r="C323" s="60"/>
@@ -10158,7 +10519,7 @@
       <c r="J323" s="63"/>
       <c r="K323" s="64"/>
     </row>
-    <row r="324" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="65"/>
       <c r="B324" s="59"/>
       <c r="C324" s="60"/>
@@ -10171,7 +10532,7 @@
       <c r="J324" s="63"/>
       <c r="K324" s="64"/>
     </row>
-    <row r="325" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="65"/>
       <c r="B325" s="59"/>
       <c r="C325" s="60"/>
@@ -10184,7 +10545,7 @@
       <c r="J325" s="63"/>
       <c r="K325" s="64"/>
     </row>
-    <row r="326" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="65"/>
       <c r="B326" s="59"/>
       <c r="C326" s="60"/>
@@ -10197,7 +10558,7 @@
       <c r="J326" s="63"/>
       <c r="K326" s="64"/>
     </row>
-    <row r="327" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="65"/>
       <c r="B327" s="59"/>
       <c r="C327" s="60"/>
@@ -10210,7 +10571,7 @@
       <c r="J327" s="63"/>
       <c r="K327" s="64"/>
     </row>
-    <row r="328" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="65"/>
       <c r="B328" s="59"/>
       <c r="C328" s="60"/>
@@ -10223,7 +10584,7 @@
       <c r="J328" s="63"/>
       <c r="K328" s="64"/>
     </row>
-    <row r="329" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="65"/>
       <c r="B329" s="59"/>
       <c r="C329" s="60"/>
@@ -10236,7 +10597,7 @@
       <c r="J329" s="63"/>
       <c r="K329" s="64"/>
     </row>
-    <row r="330" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="65"/>
       <c r="B330" s="59"/>
       <c r="C330" s="60"/>
@@ -10249,7 +10610,7 @@
       <c r="J330" s="63"/>
       <c r="K330" s="64"/>
     </row>
-    <row r="331" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="65"/>
       <c r="B331" s="59"/>
       <c r="C331" s="60"/>
@@ -10262,7 +10623,7 @@
       <c r="J331" s="63"/>
       <c r="K331" s="64"/>
     </row>
-    <row r="332" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="65"/>
       <c r="B332" s="59"/>
       <c r="C332" s="60"/>
@@ -10275,7 +10636,7 @@
       <c r="J332" s="63"/>
       <c r="K332" s="64"/>
     </row>
-    <row r="333" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="65"/>
       <c r="B333" s="59"/>
       <c r="C333" s="60"/>
@@ -10288,7 +10649,7 @@
       <c r="J333" s="63"/>
       <c r="K333" s="64"/>
     </row>
-    <row r="334" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="65"/>
       <c r="B334" s="59"/>
       <c r="C334" s="60"/>
@@ -10301,7 +10662,7 @@
       <c r="J334" s="63"/>
       <c r="K334" s="64"/>
     </row>
-    <row r="335" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="65"/>
       <c r="B335" s="59"/>
       <c r="C335" s="60"/>
@@ -10314,7 +10675,7 @@
       <c r="J335" s="63"/>
       <c r="K335" s="64"/>
     </row>
-    <row r="336" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="65"/>
       <c r="B336" s="59"/>
       <c r="C336" s="60"/>
@@ -10327,7 +10688,7 @@
       <c r="J336" s="63"/>
       <c r="K336" s="64"/>
     </row>
-    <row r="337" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="65"/>
       <c r="B337" s="59"/>
       <c r="C337" s="60"/>
@@ -10340,7 +10701,7 @@
       <c r="J337" s="63"/>
       <c r="K337" s="64"/>
     </row>
-    <row r="338" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="65"/>
       <c r="B338" s="59"/>
       <c r="C338" s="60"/>
@@ -10353,7 +10714,7 @@
       <c r="J338" s="63"/>
       <c r="K338" s="64"/>
     </row>
-    <row r="339" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="65"/>
       <c r="B339" s="59"/>
       <c r="C339" s="60"/>
@@ -10366,7 +10727,7 @@
       <c r="J339" s="63"/>
       <c r="K339" s="64"/>
     </row>
-    <row r="340" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="65"/>
       <c r="B340" s="59"/>
       <c r="C340" s="60"/>
@@ -10379,7 +10740,7 @@
       <c r="J340" s="63"/>
       <c r="K340" s="64"/>
     </row>
-    <row r="341" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="65"/>
       <c r="B341" s="59"/>
       <c r="C341" s="60"/>
@@ -10392,7 +10753,7 @@
       <c r="J341" s="63"/>
       <c r="K341" s="64"/>
     </row>
-    <row r="342" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="65"/>
       <c r="B342" s="59"/>
       <c r="C342" s="60"/>
@@ -10405,7 +10766,7 @@
       <c r="J342" s="63"/>
       <c r="K342" s="64"/>
     </row>
-    <row r="343" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="65"/>
       <c r="B343" s="59"/>
       <c r="C343" s="60"/>
@@ -10418,7 +10779,7 @@
       <c r="J343" s="63"/>
       <c r="K343" s="64"/>
     </row>
-    <row r="344" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="65"/>
       <c r="B344" s="59"/>
       <c r="C344" s="60"/>
@@ -10431,7 +10792,7 @@
       <c r="J344" s="63"/>
       <c r="K344" s="64"/>
     </row>
-    <row r="345" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="65"/>
       <c r="B345" s="59"/>
       <c r="C345" s="60"/>
@@ -10444,7 +10805,7 @@
       <c r="J345" s="63"/>
       <c r="K345" s="64"/>
     </row>
-    <row r="346" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="65"/>
       <c r="B346" s="59"/>
       <c r="C346" s="60"/>
@@ -10457,7 +10818,7 @@
       <c r="J346" s="63"/>
       <c r="K346" s="64"/>
     </row>
-    <row r="347" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="65"/>
       <c r="B347" s="59"/>
       <c r="C347" s="60"/>
@@ -10470,7 +10831,7 @@
       <c r="J347" s="63"/>
       <c r="K347" s="64"/>
     </row>
-    <row r="348" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="65"/>
       <c r="B348" s="59"/>
       <c r="C348" s="60"/>
@@ -10483,7 +10844,7 @@
       <c r="J348" s="63"/>
       <c r="K348" s="64"/>
     </row>
-    <row r="349" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="65"/>
       <c r="B349" s="59"/>
       <c r="C349" s="60"/>
@@ -10496,7 +10857,7 @@
       <c r="J349" s="63"/>
       <c r="K349" s="64"/>
     </row>
-    <row r="350" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="65"/>
       <c r="B350" s="59"/>
       <c r="C350" s="60"/>
@@ -10509,7 +10870,7 @@
       <c r="J350" s="63"/>
       <c r="K350" s="64"/>
     </row>
-    <row r="351" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="65"/>
       <c r="B351" s="59"/>
       <c r="C351" s="60"/>
@@ -10522,7 +10883,7 @@
       <c r="J351" s="63"/>
       <c r="K351" s="64"/>
     </row>
-    <row r="352" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="65"/>
       <c r="B352" s="59"/>
       <c r="C352" s="60"/>
@@ -10535,7 +10896,7 @@
       <c r="J352" s="63"/>
       <c r="K352" s="64"/>
     </row>
-    <row r="353" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="65"/>
       <c r="B353" s="59"/>
       <c r="C353" s="60"/>
@@ -10548,7 +10909,7 @@
       <c r="J353" s="63"/>
       <c r="K353" s="64"/>
     </row>
-    <row r="354" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="65"/>
       <c r="B354" s="59"/>
       <c r="C354" s="60"/>
@@ -10561,7 +10922,7 @@
       <c r="J354" s="63"/>
       <c r="K354" s="64"/>
     </row>
-    <row r="355" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="65"/>
       <c r="B355" s="59"/>
       <c r="C355" s="60"/>
@@ -10574,7 +10935,7 @@
       <c r="J355" s="63"/>
       <c r="K355" s="64"/>
     </row>
-    <row r="356" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="65"/>
       <c r="B356" s="59"/>
       <c r="C356" s="60"/>
@@ -10587,7 +10948,7 @@
       <c r="J356" s="63"/>
       <c r="K356" s="64"/>
     </row>
-    <row r="357" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="65"/>
       <c r="B357" s="59"/>
       <c r="C357" s="60"/>
@@ -10600,7 +10961,7 @@
       <c r="J357" s="63"/>
       <c r="K357" s="64"/>
     </row>
-    <row r="358" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="65"/>
       <c r="B358" s="59"/>
       <c r="C358" s="60"/>
@@ -10613,7 +10974,7 @@
       <c r="J358" s="63"/>
       <c r="K358" s="64"/>
     </row>
-    <row r="359" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="65"/>
       <c r="B359" s="59"/>
       <c r="C359" s="60"/>
@@ -10626,7 +10987,7 @@
       <c r="J359" s="63"/>
       <c r="K359" s="64"/>
     </row>
-    <row r="360" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="65"/>
       <c r="B360" s="59"/>
       <c r="C360" s="60"/>
@@ -10639,7 +11000,7 @@
       <c r="J360" s="63"/>
       <c r="K360" s="64"/>
     </row>
-    <row r="361" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="65"/>
       <c r="B361" s="59"/>
       <c r="C361" s="60"/>
@@ -10652,7 +11013,7 @@
       <c r="J361" s="63"/>
       <c r="K361" s="64"/>
     </row>
-    <row r="362" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="65"/>
       <c r="B362" s="59"/>
       <c r="C362" s="60"/>
@@ -10665,7 +11026,7 @@
       <c r="J362" s="63"/>
       <c r="K362" s="64"/>
     </row>
-    <row r="363" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="65"/>
       <c r="B363" s="59"/>
       <c r="C363" s="60"/>
@@ -10678,7 +11039,7 @@
       <c r="J363" s="63"/>
       <c r="K363" s="64"/>
     </row>
-    <row r="364" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="65"/>
       <c r="B364" s="59"/>
       <c r="C364" s="60"/>
@@ -10691,7 +11052,7 @@
       <c r="J364" s="63"/>
       <c r="K364" s="64"/>
     </row>
-    <row r="365" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="65"/>
       <c r="B365" s="59"/>
       <c r="C365" s="60"/>
@@ -10704,7 +11065,7 @@
       <c r="J365" s="63"/>
       <c r="K365" s="64"/>
     </row>
-    <row r="366" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="65"/>
       <c r="B366" s="59"/>
       <c r="C366" s="60"/>
@@ -10717,7 +11078,7 @@
       <c r="J366" s="63"/>
       <c r="K366" s="64"/>
     </row>
-    <row r="367" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="65"/>
       <c r="B367" s="59"/>
       <c r="C367" s="60"/>
@@ -10730,7 +11091,7 @@
       <c r="J367" s="63"/>
       <c r="K367" s="64"/>
     </row>
-    <row r="368" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="65"/>
       <c r="B368" s="59"/>
       <c r="C368" s="60"/>
@@ -10743,7 +11104,7 @@
       <c r="J368" s="63"/>
       <c r="K368" s="64"/>
     </row>
-    <row r="369" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="65"/>
       <c r="B369" s="59"/>
       <c r="C369" s="60"/>
@@ -10756,7 +11117,7 @@
       <c r="J369" s="63"/>
       <c r="K369" s="64"/>
     </row>
-    <row r="370" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E3:F5">
     <cfRule type="colorScale" priority="4">

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="186">
   <si>
     <t>Task Name</t>
   </si>
@@ -334,6 +334,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -342,6 +343,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Behaviour Editor</t>
@@ -356,6 +358,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -364,6 +367,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Custom Regional Path finding</t>
@@ -378,6 +382,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -386,6 +391,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Build upon dialogue system</t>
@@ -400,6 +406,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -408,6 +415,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Designing the AI States and beginning proceduralised states</t>
@@ -422,6 +430,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -430,6 +439,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Writing the complex + dynamic combat system.</t>
@@ -444,6 +454,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -452,6 +463,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Realistic NPC (Friend)</t>
@@ -466,6 +478,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -474,6 +487,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Writing the communication system what each hand signal means and how  your friend will react to each one.</t>
@@ -504,6 +518,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>KNOW for sure</t>
@@ -719,6 +734,43 @@
   </si>
   <si>
     <t>The player fallst through the ground, so you need to check and fix it…</t>
+  </si>
+  <si>
+    <t>Fix the player clipping through the ground</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YixF6p7YVeU</t>
+  </si>
+  <si>
+    <t>Issues/Notes</t>
+  </si>
+  <si>
+    <t>The pivoting system is just proceudrally done for now, it isn't perfect but it's fine. It works for now, the next thing I have to do now is the IK System. I cannottt wait. FABRIK here we come.</t>
+  </si>
+  <si>
+    <t>The procedural part of this will come when we finish the IK system and things like pivoting can be done through curves and rotating the pelvis and transitioning and changing to backward walk etc..</t>
+  </si>
+  <si>
+    <t>The player snaps through the floor sometimes, so check if input is affecting the instantaneous velocity which is measured each frame</t>
+  </si>
+  <si>
+    <t>This is important to make sure that the player isn't using up too many resources, make sure you disable features on the update when they aren't being used etc…</t>
+  </si>
+  <si>
+    <t>The IK system needs to be very flexible, with an editor that can attach bones, etc. New menu's and using normals to rotate the feet and then lift up the feet. Nice.</t>
+  </si>
+  <si>
+    <t>Using the blend trees and offsets to allow you to grab onto ledges, new controller.</t>
+  </si>
+  <si>
+    <t>By the end of this section you need, a simple walking animation that is smooth with pivoting and foot ik implemented with FABRIK. It also needs to have a rudimentary ledge climbing system that can hold onto ledges and hoist yourself up. This also needs to be displayed in a video, of him climbing up a ledge.</t>
+  </si>
+  <si>
+    <t>The end of this section also requires - 
+An animation for all states, and independent of movement blending between states procedurally using curves. Learn about masks and seperating upper/Lower body movement.</t>
   </si>
 </sst>
 </file>
@@ -831,11 +883,13 @@
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,6 +897,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,7 +940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,8 +1045,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1307,8 +1367,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,8 +1396,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1678,18 +1754,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Seperator" xfId="7"/>
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFDDAB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1727,31 +1835,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFDDAB"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1814,41 +1897,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:M253" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="C7:M253"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="REF TAG" dataDxfId="24"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="23"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="22"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="21"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="20"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="19"/>
-    <tableColumn id="11" name="Hours left" dataDxfId="18">
-      <calculatedColumnFormula>_xlfn.DAYS(TODAY(), L8)*24</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:N253" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="C7:N253"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="REF TAG" dataDxfId="25"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="24"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="23"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="22"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="21"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="20"/>
+    <tableColumn id="12" name="Issues/Notes" dataDxfId="0"/>
+    <tableColumn id="11" name="Hours left" dataDxfId="19">
+      <calculatedColumnFormula>_xlfn.DAYS(TODAY(), M8)*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="17"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="16"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="15"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="14"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="18"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="17"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="16"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="C7:L233"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="REF TAG" dataDxfId="9"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="8"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="7"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="6"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="5"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="4"/>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="3"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="2"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="1"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="0"/>
+    <tableColumn id="1" name="REF TAG" dataDxfId="12"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="11"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="10"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="9"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="8"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="7"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="6"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="5"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="4"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2120,10 +2204,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="97" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="97" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,52 +2220,54 @@
     <col min="6" max="6" width="29.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="48.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:13" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:14" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:14" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43257</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>43258</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4">
-        <v>43198</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="4">
+        <v>43290</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2201,22 +2287,25 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -2224,387 +2313,387 @@
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="80">
-        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L8)*24)</f>
-        <v>504</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="80">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M8)*24)</f>
+        <v>528</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="20">
+      <c r="M8" s="20">
         <v>43236</v>
       </c>
-      <c r="M8" s="29">
+      <c r="N8" s="29">
         <v>43236</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="12"/>
       <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="K9" s="7">
+      <c r="J9" s="80"/>
+      <c r="L9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="K10" s="7">
+      <c r="J10" s="80"/>
+      <c r="L10" s="7">
         <v>1</v>
       </c>
-      <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="12"/>
       <c r="D11" s="5"/>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="K11" s="7">
+      <c r="J11" s="80"/>
+      <c r="L11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="12"/>
       <c r="D12" s="5"/>
       <c r="E12" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="9"/>
+      <c r="J12" s="80"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
-      <c r="I13" s="80"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9"/>
+      <c r="J13" s="80"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="3:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="3:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="80">
-        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L14)*24)</f>
-        <v>24</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="80">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M14)*24)</f>
+        <v>48</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>0.2</v>
       </c>
-      <c r="L14" s="20">
+      <c r="M14" s="20">
         <v>43256</v>
       </c>
-      <c r="M14" s="28">
+      <c r="N14" s="28">
         <v>43256</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="K15" s="7">
+      <c r="J15" s="80"/>
+      <c r="L15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="5"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="K16" s="7">
+      <c r="J16" s="80"/>
+      <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
       <c r="D17" s="5"/>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="K17" s="7">
+      <c r="J17" s="80"/>
+      <c r="L17" s="7">
         <v>0</v>
       </c>
-      <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="5"/>
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="80"/>
-      <c r="K18" s="7">
+      <c r="J18" s="80"/>
+      <c r="L18" s="7">
         <v>0.3</v>
       </c>
-      <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="5"/>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="80"/>
-      <c r="K19" s="7">
+      <c r="J19" s="80"/>
+      <c r="L19" s="7">
         <v>0.2</v>
       </c>
-      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="80"/>
-      <c r="K20" s="7">
+      <c r="J20" s="80"/>
+      <c r="L20" s="7">
         <v>0</v>
       </c>
-      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="80"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="80"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="3:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="80">
-        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L22)*24)</f>
-        <v>336</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="80">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M22)*24)</f>
+        <v>360</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L22" s="7">
         <v>1</v>
       </c>
-      <c r="L22" s="20">
+      <c r="M22" s="20">
         <v>43243</v>
       </c>
-      <c r="M22" s="28">
+      <c r="N22" s="28">
         <v>43245</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="13"/>
       <c r="D23" s="5"/>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="K23" s="7">
+      <c r="J23" s="80"/>
+      <c r="L23" s="7">
         <v>1</v>
       </c>
-      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="13"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="80"/>
-      <c r="K24" s="7">
+      <c r="J24" s="80"/>
+      <c r="L24" s="7">
         <v>1</v>
       </c>
-      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="13"/>
       <c r="D25" s="5"/>
       <c r="E25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="80"/>
-      <c r="K25" s="7">
+      <c r="J25" s="80"/>
+      <c r="L25" s="7">
         <v>1</v>
       </c>
-      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="13"/>
       <c r="D26" s="5"/>
       <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="80"/>
-      <c r="K26" s="7">
+      <c r="J26" s="80"/>
+      <c r="L26" s="7">
         <v>1</v>
       </c>
-      <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="13"/>
       <c r="D27" s="5"/>
       <c r="E27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="K27" s="7">
+      <c r="J27" s="80"/>
+      <c r="L27" s="7">
         <v>1</v>
       </c>
-      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="13"/>
       <c r="D28" s="5"/>
       <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="80"/>
-      <c r="K28" s="7">
+      <c r="J28" s="80"/>
+      <c r="L28" s="7">
         <v>1</v>
       </c>
-      <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="13"/>
       <c r="D29" s="5"/>
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="80"/>
-      <c r="K29" s="7">
+      <c r="J29" s="80"/>
+      <c r="L29" s="7">
         <v>1</v>
       </c>
-      <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="13"/>
       <c r="D30" s="5"/>
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="80"/>
-      <c r="K30" s="7">
+      <c r="J30" s="80"/>
+      <c r="L30" s="7">
         <v>1</v>
       </c>
-      <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
       <c r="D31" s="5"/>
       <c r="E31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="80"/>
-      <c r="K31" s="7">
+      <c r="J31" s="80"/>
+      <c r="L31" s="7">
         <v>1</v>
       </c>
-      <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I32" s="80"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="80"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="80">
-        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L33)*24)</f>
-        <v>96</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="80">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M33)*24)</f>
+        <v>72</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="7">
+      <c r="L33" s="7">
         <v>0.1</v>
       </c>
-      <c r="L33" s="20">
+      <c r="M33" s="20">
         <v>43261</v>
       </c>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
       <c r="D34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="80"/>
-      <c r="K34" s="7">
+      <c r="J34" s="80"/>
+      <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="L34" s="20"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="20"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="80"/>
-      <c r="K35" s="7">
+      <c r="J35" s="80"/>
+      <c r="L35" s="7">
         <v>0</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="20"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
       <c r="D36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="80"/>
-      <c r="K36" s="7">
+      <c r="J36" s="80"/>
+      <c r="L36" s="7">
         <v>1</v>
       </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="3:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="20"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="3:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="13"/>
       <c r="D37" s="5"/>
       <c r="E37" s="120" t="s">
@@ -2613,16 +2702,16 @@
       <c r="F37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="80"/>
-      <c r="K37" s="7">
+      <c r="J37" s="80"/>
+      <c r="L37" s="7">
         <v>1</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9">
+      <c r="M37" s="9"/>
+      <c r="N37" s="9">
         <v>43254</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
       <c r="D38" s="5"/>
       <c r="E38" s="120" t="s">
@@ -2631,14 +2720,14 @@
       <c r="H38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="80"/>
-      <c r="K38" s="7">
+      <c r="J38" s="80"/>
+      <c r="L38" s="7">
         <v>1</v>
       </c>
-      <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="13"/>
       <c r="D39" s="5"/>
       <c r="E39" s="120" t="s">
@@ -2647,12 +2736,12 @@
       <c r="H39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="80"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="9"/>
+      <c r="J39" s="80"/>
+      <c r="L39" s="7"/>
       <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="13"/>
       <c r="D40" s="5"/>
       <c r="E40" s="120" t="s">
@@ -2661,12 +2750,12 @@
       <c r="H40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I40" s="80"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="9"/>
+      <c r="J40" s="80"/>
+      <c r="L40" s="7"/>
       <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="119"/>
       <c r="D41" s="5"/>
       <c r="E41" s="120" t="s">
@@ -2675,16 +2764,16 @@
       <c r="H41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="80"/>
-      <c r="K41" s="7">
+      <c r="J41" s="80"/>
+      <c r="L41" s="7">
         <v>0.1</v>
       </c>
-      <c r="L41" s="9">
+      <c r="M41" s="9">
         <v>43256</v>
       </c>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="119"/>
       <c r="D42" s="5"/>
       <c r="E42" s="120" t="s">
@@ -2693,80 +2782,83 @@
       <c r="H42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="80"/>
-      <c r="K42" s="7">
+      <c r="J42" s="80"/>
+      <c r="L42" s="7">
         <v>0.1</v>
       </c>
-      <c r="L42" s="9">
+      <c r="M42" s="9">
         <v>43257</v>
       </c>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="119"/>
       <c r="D43" s="5"/>
       <c r="E43" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="80"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="9"/>
+      <c r="J43" s="80"/>
+      <c r="L43" s="7"/>
       <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="5"/>
       <c r="E44" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="80"/>
-      <c r="K44" s="7">
+      <c r="J44" s="80"/>
+      <c r="L44" s="7">
         <v>1</v>
       </c>
-      <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="120"/>
-      <c r="I45" s="80"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="9"/>
+      <c r="J45" s="80"/>
+      <c r="L45" s="7"/>
       <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="14"/>
-      <c r="I46" s="80"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="9"/>
+      <c r="J46" s="80"/>
+      <c r="L46" s="7"/>
       <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="92"/>
       <c r="E47" s="14"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="1">
+      <c r="J47" s="80">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M47)*24)</f>
+        <v>120</v>
+      </c>
+      <c r="K47" s="1">
         <v>50</v>
       </c>
-      <c r="K47" s="7">
+      <c r="L47" s="7">
         <v>0.2</v>
       </c>
-      <c r="L47" s="9">
+      <c r="M47" s="9">
         <v>43263</v>
       </c>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="92"/>
       <c r="D48" s="82" t="s">
         <v>121</v>
       </c>
       <c r="E48" s="14"/>
-      <c r="I48" s="80"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="9"/>
+      <c r="J48" s="80"/>
+      <c r="L48" s="7"/>
       <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="3:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C49" s="92"/>
       <c r="D49" s="1" t="s">
         <v>172</v>
@@ -2775,14 +2867,22 @@
       <c r="H49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I49" s="80"/>
-      <c r="K49" s="7">
+      <c r="I49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="80">
+        <f t="shared" ref="J48:J55" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
+        <v>192</v>
+      </c>
+      <c r="L49" s="7">
         <v>0</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M49" s="9">
+        <v>43266</v>
+      </c>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C50" s="92"/>
       <c r="D50" s="1" t="s">
         <v>122</v>
@@ -2796,14 +2896,22 @@
       <c r="G50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I50" s="80"/>
-      <c r="K50" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M50" s="9">
+        <v>43263</v>
+      </c>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C51" s="92"/>
       <c r="D51" s="1" t="s">
         <v>126</v>
@@ -2820,14 +2928,22 @@
       <c r="H51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I51" s="80"/>
-      <c r="K51" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M51" s="9">
+        <v>43263</v>
+      </c>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C52" s="92"/>
       <c r="D52" s="1" t="s">
         <v>130</v>
@@ -2841,14 +2957,22 @@
       <c r="G52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I52" s="80"/>
-      <c r="K52" s="7">
+      <c r="I52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J52" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L52" s="7">
         <v>0</v>
       </c>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M52" s="9">
+        <v>43263</v>
+      </c>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C53" s="92"/>
       <c r="D53" s="1" t="s">
         <v>134</v>
@@ -2859,170 +2983,197 @@
       <c r="F53" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I53" s="80"/>
-      <c r="K53" s="7">
+      <c r="I53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J53" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L53" s="7">
         <v>0</v>
       </c>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="9">
+        <v>43263</v>
+      </c>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="92"/>
       <c r="E54" s="14"/>
-      <c r="I54" s="80"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="80"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="9">
+        <v>43263</v>
+      </c>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C55" s="92"/>
+      <c r="D55" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E55" s="14"/>
-      <c r="I55" s="80"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="9">
+        <v>43263</v>
+      </c>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="92"/>
       <c r="E56" s="14"/>
-      <c r="I56" s="80"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="9"/>
+      <c r="J56" s="80"/>
+      <c r="L56" s="7"/>
       <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="3:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="14"/>
-      <c r="I57" s="80"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="9"/>
+      <c r="H57" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57" s="80"/>
+      <c r="L57" s="7"/>
       <c r="M57" s="9"/>
-    </row>
-    <row r="58" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E58" s="14"/>
-      <c r="I58" s="80"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="9"/>
+      <c r="J58" s="80"/>
+      <c r="L58" s="7"/>
       <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C59" s="16"/>
       <c r="D59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="80">
-        <f ca="1">ABS(_xlfn.DAYS(TODAY(), L59)*24)</f>
-        <v>1584</v>
-      </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="80">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M59)*24)</f>
+        <v>1608</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="20">
+      <c r="L59" s="7"/>
+      <c r="M59" s="20">
         <v>43191</v>
       </c>
-      <c r="M59" s="9"/>
-    </row>
-    <row r="60" spans="3:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="3:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
       <c r="D60" s="5"/>
       <c r="E60" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="I60" s="80"/>
-      <c r="K60" s="7">
+      <c r="J60" s="80"/>
+      <c r="L60" s="7">
         <v>1</v>
       </c>
-      <c r="L60" s="20"/>
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M60" s="20"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="3:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C61" s="16"/>
       <c r="D61" s="5"/>
       <c r="E61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="80"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="9"/>
+      <c r="J61" s="80"/>
+      <c r="L61" s="7"/>
       <c r="M61" s="9"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C62" s="16"/>
       <c r="D62" s="5"/>
       <c r="E62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="80"/>
-      <c r="K62" s="7">
+      <c r="J62" s="80"/>
+      <c r="L62" s="7">
         <v>1</v>
       </c>
-      <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C63" s="16"/>
       <c r="D63" s="5"/>
       <c r="E63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="80"/>
-      <c r="K63" s="7">
+      <c r="J63" s="80"/>
+      <c r="L63" s="7">
         <v>0</v>
       </c>
-      <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-    </row>
-    <row r="64" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C64" s="16"/>
       <c r="D64" s="5"/>
       <c r="F64" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="80"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="9"/>
+      <c r="J64" s="80"/>
+      <c r="L64" s="7"/>
       <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="16"/>
       <c r="D65" s="5"/>
       <c r="G65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I65" s="80"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="9"/>
+      <c r="J65" s="80"/>
+      <c r="L65" s="7"/>
       <c r="M65" s="9"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C66" s="16"/>
       <c r="D66" s="5"/>
       <c r="E66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I66" s="80"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="9"/>
+      <c r="J66" s="80"/>
+      <c r="L66" s="7"/>
       <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="16"/>
       <c r="D67" s="5"/>
       <c r="E67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I67" s="80"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="9"/>
+      <c r="J67" s="80"/>
+      <c r="L67" s="7"/>
       <c r="M67" s="9"/>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I68" s="80"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J68" s="80"/>
+      <c r="L68" s="7"/>
       <c r="M68" s="9"/>
-    </row>
-    <row r="69" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="3:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C69" s="17"/>
       <c r="D69" s="1" t="s">
         <v>43</v>
@@ -3030,1207 +3181,1201 @@
       <c r="H69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="80">
-        <f t="shared" ref="I69:I80" ca="1" si="0">_xlfn.DAYS(TODAY(), L69)*24</f>
-        <v>1488</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="80"/>
+      <c r="K69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="20">
+      <c r="L69" s="7"/>
+      <c r="M69" s="20">
         <v>43195</v>
       </c>
-      <c r="M69" s="9"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C70" s="17"/>
       <c r="D70" s="26"/>
       <c r="E70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I70" s="80"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="9"/>
+      <c r="J70" s="80"/>
+      <c r="L70" s="7"/>
       <c r="M70" s="9"/>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" s="17"/>
       <c r="D71" s="26"/>
       <c r="E71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I71" s="80"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="9"/>
+      <c r="J71" s="80"/>
+      <c r="L71" s="7"/>
       <c r="M71" s="9"/>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C72" s="17"/>
       <c r="D72" s="26"/>
       <c r="E72" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I72" s="80"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="9"/>
+      <c r="J72" s="80"/>
+      <c r="L72" s="7"/>
       <c r="M72" s="9"/>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73" s="17"/>
       <c r="D73" s="26"/>
       <c r="F73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I73" s="80"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="9"/>
+      <c r="J73" s="80"/>
+      <c r="L73" s="7"/>
       <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C74" s="17"/>
       <c r="D74" s="26"/>
       <c r="F74" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I74" s="80"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="9"/>
+      <c r="J74" s="80"/>
+      <c r="L74" s="7"/>
       <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="17"/>
       <c r="D75" s="26"/>
       <c r="E75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I75" s="80"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="9"/>
+      <c r="J75" s="80"/>
+      <c r="L75" s="7"/>
       <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C76" s="17"/>
       <c r="D76" s="26"/>
       <c r="E76" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I76" s="80"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="9"/>
+      <c r="J76" s="80"/>
+      <c r="L76" s="7"/>
       <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C77" s="17"/>
       <c r="D77" s="26"/>
       <c r="E77" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I77" s="80"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="9"/>
+      <c r="J77" s="80"/>
+      <c r="L77" s="7"/>
       <c r="M77" s="9"/>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C78" s="17"/>
       <c r="D78" s="26"/>
       <c r="E78" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I78" s="80"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="9"/>
+      <c r="J78" s="80"/>
+      <c r="L78" s="7"/>
       <c r="M78" s="9"/>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I79" s="80"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J79" s="80"/>
+      <c r="L79" s="7"/>
       <c r="M79" s="9"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C80" s="19"/>
       <c r="D80" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I80" s="80">
-        <f t="shared" ca="1" si="0"/>
-        <v>1416</v>
-      </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="80"/>
+      <c r="K80" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K80" s="7"/>
-      <c r="L80" s="20">
+      <c r="L80" s="7"/>
+      <c r="M80" s="20">
         <v>43198</v>
       </c>
-      <c r="M80" s="9"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C81" s="19"/>
       <c r="D81" s="5"/>
       <c r="E81" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I81" s="80"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="9"/>
+      <c r="J81" s="80"/>
+      <c r="L81" s="7"/>
       <c r="M81" s="9"/>
-    </row>
-    <row r="82" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C82" s="19"/>
       <c r="D82" s="5"/>
       <c r="E82" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I82" s="80"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="9"/>
+      <c r="J82" s="80"/>
+      <c r="L82" s="7"/>
       <c r="M82" s="9"/>
-    </row>
-    <row r="83" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C83" s="19"/>
       <c r="D83" s="5"/>
       <c r="E83" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I83" s="80"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="9"/>
+      <c r="J83" s="80"/>
+      <c r="L83" s="7"/>
       <c r="M83" s="9"/>
-    </row>
-    <row r="84" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C84" s="19"/>
       <c r="D84" s="5"/>
       <c r="E84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I84" s="80"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="9"/>
+      <c r="J84" s="80"/>
+      <c r="L84" s="7"/>
       <c r="M84" s="9"/>
-    </row>
-    <row r="85" spans="3:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="3:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="19"/>
       <c r="D85" s="5"/>
       <c r="E85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I85" s="80"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="9"/>
+      <c r="J85" s="80"/>
+      <c r="L85" s="7"/>
       <c r="M85" s="9"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I86" s="80"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J86" s="80"/>
+      <c r="L86" s="7"/>
       <c r="M86" s="9"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I87" s="80"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J87" s="80"/>
+      <c r="L87" s="7"/>
       <c r="M87" s="9"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I88" s="80"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J88" s="80"/>
+      <c r="L88" s="7"/>
       <c r="M88" s="9"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I89" s="80"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J89" s="80"/>
+      <c r="L89" s="7"/>
       <c r="M89" s="9"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I90" s="80"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J90" s="80"/>
+      <c r="L90" s="7"/>
       <c r="M90" s="9"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I91" s="80"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J91" s="80"/>
+      <c r="L91" s="7"/>
       <c r="M91" s="9"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I92" s="80"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J92" s="80"/>
+      <c r="L92" s="7"/>
       <c r="M92" s="9"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I93" s="80"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J93" s="80"/>
+      <c r="L93" s="7"/>
       <c r="M93" s="9"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I94" s="80"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J94" s="80"/>
+      <c r="L94" s="7"/>
       <c r="M94" s="9"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I95" s="80"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J95" s="80"/>
+      <c r="L95" s="7"/>
       <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I96" s="80"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J96" s="80"/>
+      <c r="L96" s="7"/>
       <c r="M96" s="9"/>
-    </row>
-    <row r="97" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I97" s="80"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J97" s="80"/>
+      <c r="L97" s="7"/>
       <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I98" s="80"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="9"/>
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J98" s="80"/>
+      <c r="L98" s="7"/>
       <c r="M98" s="9"/>
-    </row>
-    <row r="99" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I99" s="80"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="9"/>
+      <c r="N98" s="9"/>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J99" s="80"/>
+      <c r="L99" s="7"/>
       <c r="M99" s="9"/>
-    </row>
-    <row r="100" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I100" s="80"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J100" s="80"/>
+      <c r="L100" s="7"/>
       <c r="M100" s="9"/>
-    </row>
-    <row r="101" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I101" s="80"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="9"/>
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J101" s="80"/>
+      <c r="L101" s="7"/>
       <c r="M101" s="9"/>
-    </row>
-    <row r="102" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I102" s="80"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J102" s="80"/>
+      <c r="L102" s="7"/>
       <c r="M102" s="9"/>
-    </row>
-    <row r="103" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I103" s="80"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J103" s="80"/>
+      <c r="L103" s="7"/>
       <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I104" s="80"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="9"/>
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J104" s="80"/>
+      <c r="L104" s="7"/>
       <c r="M104" s="9"/>
-    </row>
-    <row r="105" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I105" s="80"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J105" s="80"/>
+      <c r="L105" s="7"/>
       <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I106" s="80"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="9"/>
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J106" s="80"/>
+      <c r="L106" s="7"/>
       <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I107" s="80"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="9"/>
+      <c r="N106" s="9"/>
+    </row>
+    <row r="107" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J107" s="80"/>
+      <c r="L107" s="7"/>
       <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I108" s="80"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="9"/>
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J108" s="80"/>
+      <c r="L108" s="7"/>
       <c r="M108" s="9"/>
-    </row>
-    <row r="109" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I109" s="80"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J109" s="80"/>
+      <c r="L109" s="7"/>
       <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I110" s="80"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="9"/>
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J110" s="80"/>
+      <c r="L110" s="7"/>
       <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I111" s="80"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="9"/>
+      <c r="N110" s="9"/>
+    </row>
+    <row r="111" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J111" s="80"/>
+      <c r="L111" s="7"/>
       <c r="M111" s="9"/>
-    </row>
-    <row r="112" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I112" s="80"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="9"/>
+      <c r="N111" s="9"/>
+    </row>
+    <row r="112" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J112" s="80"/>
+      <c r="L112" s="7"/>
       <c r="M112" s="9"/>
-    </row>
-    <row r="113" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I113" s="80"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="9"/>
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J113" s="80"/>
+      <c r="L113" s="7"/>
       <c r="M113" s="9"/>
-    </row>
-    <row r="114" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I114" s="80"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="9"/>
+      <c r="N113" s="9"/>
+    </row>
+    <row r="114" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J114" s="80"/>
+      <c r="L114" s="7"/>
       <c r="M114" s="9"/>
-    </row>
-    <row r="115" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I115" s="80"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="9"/>
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J115" s="80"/>
+      <c r="L115" s="7"/>
       <c r="M115" s="9"/>
-    </row>
-    <row r="116" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I116" s="80"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="9"/>
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J116" s="80"/>
+      <c r="L116" s="7"/>
       <c r="M116" s="9"/>
-    </row>
-    <row r="117" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I117" s="80"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="9"/>
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J117" s="80"/>
+      <c r="L117" s="7"/>
       <c r="M117" s="9"/>
-    </row>
-    <row r="118" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I118" s="80"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="9"/>
+      <c r="N117" s="9"/>
+    </row>
+    <row r="118" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J118" s="80"/>
+      <c r="L118" s="7"/>
       <c r="M118" s="9"/>
-    </row>
-    <row r="119" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I119" s="80"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="9"/>
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J119" s="80"/>
+      <c r="L119" s="7"/>
       <c r="M119" s="9"/>
-    </row>
-    <row r="120" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I120" s="80"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="9"/>
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J120" s="80"/>
+      <c r="L120" s="7"/>
       <c r="M120" s="9"/>
-    </row>
-    <row r="121" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I121" s="80"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="9"/>
+      <c r="N120" s="9"/>
+    </row>
+    <row r="121" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J121" s="80"/>
+      <c r="L121" s="7"/>
       <c r="M121" s="9"/>
-    </row>
-    <row r="122" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I122" s="80"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="9"/>
+      <c r="N121" s="9"/>
+    </row>
+    <row r="122" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J122" s="80"/>
+      <c r="L122" s="7"/>
       <c r="M122" s="9"/>
-    </row>
-    <row r="123" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I123" s="80"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="9"/>
+      <c r="N122" s="9"/>
+    </row>
+    <row r="123" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J123" s="80"/>
+      <c r="L123" s="7"/>
       <c r="M123" s="9"/>
-    </row>
-    <row r="124" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I124" s="80"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="9"/>
+      <c r="N123" s="9"/>
+    </row>
+    <row r="124" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J124" s="80"/>
+      <c r="L124" s="7"/>
       <c r="M124" s="9"/>
-    </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I125" s="80"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="9"/>
+      <c r="N124" s="9"/>
+    </row>
+    <row r="125" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J125" s="80"/>
+      <c r="L125" s="7"/>
       <c r="M125" s="9"/>
-    </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I126" s="80"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="9"/>
+      <c r="N125" s="9"/>
+    </row>
+    <row r="126" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J126" s="80"/>
+      <c r="L126" s="7"/>
       <c r="M126" s="9"/>
-    </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I127" s="80"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="9"/>
+      <c r="N126" s="9"/>
+    </row>
+    <row r="127" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J127" s="80"/>
+      <c r="L127" s="7"/>
       <c r="M127" s="9"/>
-    </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I128" s="80"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="9"/>
+      <c r="N127" s="9"/>
+    </row>
+    <row r="128" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J128" s="80"/>
+      <c r="L128" s="7"/>
       <c r="M128" s="9"/>
-    </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I129" s="80"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="9"/>
+      <c r="N128" s="9"/>
+    </row>
+    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J129" s="80"/>
+      <c r="L129" s="7"/>
       <c r="M129" s="9"/>
-    </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I130" s="80"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="9"/>
+      <c r="N129" s="9"/>
+    </row>
+    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J130" s="80"/>
+      <c r="L130" s="7"/>
       <c r="M130" s="9"/>
-    </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I131" s="80"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="9"/>
+      <c r="N130" s="9"/>
+    </row>
+    <row r="131" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J131" s="80"/>
+      <c r="L131" s="7"/>
       <c r="M131" s="9"/>
-    </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I132" s="80"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="9"/>
+      <c r="N131" s="9"/>
+    </row>
+    <row r="132" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J132" s="80"/>
+      <c r="L132" s="7"/>
       <c r="M132" s="9"/>
-    </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I133" s="80"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="9"/>
+      <c r="N132" s="9"/>
+    </row>
+    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J133" s="80"/>
+      <c r="L133" s="7"/>
       <c r="M133" s="9"/>
-    </row>
-    <row r="134" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I134" s="80"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="9"/>
+      <c r="N133" s="9"/>
+    </row>
+    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J134" s="80"/>
+      <c r="L134" s="7"/>
       <c r="M134" s="9"/>
-    </row>
-    <row r="135" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I135" s="80"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="9"/>
+      <c r="N134" s="9"/>
+    </row>
+    <row r="135" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J135" s="80"/>
+      <c r="L135" s="7"/>
       <c r="M135" s="9"/>
-    </row>
-    <row r="136" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I136" s="80"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="9"/>
+      <c r="N135" s="9"/>
+    </row>
+    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J136" s="80"/>
+      <c r="L136" s="7"/>
       <c r="M136" s="9"/>
-    </row>
-    <row r="137" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I137" s="80"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="9"/>
+      <c r="N136" s="9"/>
+    </row>
+    <row r="137" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J137" s="80"/>
+      <c r="L137" s="7"/>
       <c r="M137" s="9"/>
-    </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I138" s="80"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="9"/>
+      <c r="N137" s="9"/>
+    </row>
+    <row r="138" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J138" s="80"/>
+      <c r="L138" s="7"/>
       <c r="M138" s="9"/>
-    </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I139" s="80"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="9"/>
+      <c r="N138" s="9"/>
+    </row>
+    <row r="139" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J139" s="80"/>
+      <c r="L139" s="7"/>
       <c r="M139" s="9"/>
-    </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I140" s="80"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="9"/>
+      <c r="N139" s="9"/>
+    </row>
+    <row r="140" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J140" s="80"/>
+      <c r="L140" s="7"/>
       <c r="M140" s="9"/>
-    </row>
-    <row r="141" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I141" s="80"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="9"/>
+      <c r="N140" s="9"/>
+    </row>
+    <row r="141" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J141" s="80"/>
+      <c r="L141" s="7"/>
       <c r="M141" s="9"/>
-    </row>
-    <row r="142" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I142" s="80"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="9"/>
+      <c r="N141" s="9"/>
+    </row>
+    <row r="142" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J142" s="80"/>
+      <c r="L142" s="7"/>
       <c r="M142" s="9"/>
-    </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I143" s="80"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="9"/>
+      <c r="N142" s="9"/>
+    </row>
+    <row r="143" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J143" s="80"/>
+      <c r="L143" s="7"/>
       <c r="M143" s="9"/>
-    </row>
-    <row r="144" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I144" s="80"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="9"/>
+      <c r="N143" s="9"/>
+    </row>
+    <row r="144" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J144" s="80"/>
+      <c r="L144" s="7"/>
       <c r="M144" s="9"/>
-    </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I145" s="80"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="9"/>
+      <c r="N144" s="9"/>
+    </row>
+    <row r="145" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J145" s="80"/>
+      <c r="L145" s="7"/>
       <c r="M145" s="9"/>
-    </row>
-    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I146" s="80"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="9"/>
+      <c r="N145" s="9"/>
+    </row>
+    <row r="146" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J146" s="80"/>
+      <c r="L146" s="7"/>
       <c r="M146" s="9"/>
-    </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I147" s="80"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="9"/>
+      <c r="N146" s="9"/>
+    </row>
+    <row r="147" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J147" s="80"/>
+      <c r="L147" s="7"/>
       <c r="M147" s="9"/>
-    </row>
-    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I148" s="80"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="9"/>
+      <c r="N147" s="9"/>
+    </row>
+    <row r="148" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J148" s="80"/>
+      <c r="L148" s="7"/>
       <c r="M148" s="9"/>
-    </row>
-    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I149" s="80"/>
-      <c r="K149" s="7"/>
-      <c r="L149" s="9"/>
+      <c r="N148" s="9"/>
+    </row>
+    <row r="149" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J149" s="80"/>
+      <c r="L149" s="7"/>
       <c r="M149" s="9"/>
-    </row>
-    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I150" s="80"/>
-      <c r="K150" s="7"/>
-      <c r="L150" s="9"/>
+      <c r="N149" s="9"/>
+    </row>
+    <row r="150" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J150" s="80"/>
+      <c r="L150" s="7"/>
       <c r="M150" s="9"/>
-    </row>
-    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I151" s="80"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="9"/>
+      <c r="N150" s="9"/>
+    </row>
+    <row r="151" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J151" s="80"/>
+      <c r="L151" s="7"/>
       <c r="M151" s="9"/>
-    </row>
-    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I152" s="80"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="9"/>
+      <c r="N151" s="9"/>
+    </row>
+    <row r="152" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J152" s="80"/>
+      <c r="L152" s="7"/>
       <c r="M152" s="9"/>
-    </row>
-    <row r="153" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I153" s="80"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="9"/>
+      <c r="N152" s="9"/>
+    </row>
+    <row r="153" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J153" s="80"/>
+      <c r="L153" s="7"/>
       <c r="M153" s="9"/>
-    </row>
-    <row r="154" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I154" s="80"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="9"/>
+      <c r="N153" s="9"/>
+    </row>
+    <row r="154" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J154" s="80"/>
+      <c r="L154" s="7"/>
       <c r="M154" s="9"/>
-    </row>
-    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I155" s="80"/>
-      <c r="K155" s="7"/>
-      <c r="L155" s="9"/>
+      <c r="N154" s="9"/>
+    </row>
+    <row r="155" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J155" s="80"/>
+      <c r="L155" s="7"/>
       <c r="M155" s="9"/>
-    </row>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I156" s="80"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="9"/>
+      <c r="N155" s="9"/>
+    </row>
+    <row r="156" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J156" s="80"/>
+      <c r="L156" s="7"/>
       <c r="M156" s="9"/>
-    </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I157" s="80"/>
-      <c r="K157" s="7"/>
-      <c r="L157" s="9"/>
+      <c r="N156" s="9"/>
+    </row>
+    <row r="157" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J157" s="80"/>
+      <c r="L157" s="7"/>
       <c r="M157" s="9"/>
-    </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I158" s="80"/>
-      <c r="K158" s="7"/>
-      <c r="L158" s="9"/>
+      <c r="N157" s="9"/>
+    </row>
+    <row r="158" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J158" s="80"/>
+      <c r="L158" s="7"/>
       <c r="M158" s="9"/>
-    </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I159" s="80"/>
-      <c r="K159" s="7"/>
-      <c r="L159" s="9"/>
+      <c r="N158" s="9"/>
+    </row>
+    <row r="159" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J159" s="80"/>
+      <c r="L159" s="7"/>
       <c r="M159" s="9"/>
-    </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I160" s="80"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="9"/>
+      <c r="N159" s="9"/>
+    </row>
+    <row r="160" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J160" s="80"/>
+      <c r="L160" s="7"/>
       <c r="M160" s="9"/>
-    </row>
-    <row r="161" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I161" s="80"/>
-      <c r="K161" s="7"/>
-      <c r="L161" s="9"/>
+      <c r="N160" s="9"/>
+    </row>
+    <row r="161" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J161" s="80"/>
+      <c r="L161" s="7"/>
       <c r="M161" s="9"/>
-    </row>
-    <row r="162" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I162" s="80"/>
-      <c r="K162" s="7"/>
-      <c r="L162" s="9"/>
+      <c r="N161" s="9"/>
+    </row>
+    <row r="162" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J162" s="80"/>
+      <c r="L162" s="7"/>
       <c r="M162" s="9"/>
-    </row>
-    <row r="163" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I163" s="80"/>
-      <c r="K163" s="7"/>
-      <c r="L163" s="9"/>
+      <c r="N162" s="9"/>
+    </row>
+    <row r="163" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J163" s="80"/>
+      <c r="L163" s="7"/>
       <c r="M163" s="9"/>
-    </row>
-    <row r="164" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I164" s="80"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="9"/>
+      <c r="N163" s="9"/>
+    </row>
+    <row r="164" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J164" s="80"/>
+      <c r="L164" s="7"/>
       <c r="M164" s="9"/>
-    </row>
-    <row r="165" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I165" s="80"/>
-      <c r="K165" s="7"/>
-      <c r="L165" s="9"/>
+      <c r="N164" s="9"/>
+    </row>
+    <row r="165" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J165" s="80"/>
+      <c r="L165" s="7"/>
       <c r="M165" s="9"/>
-    </row>
-    <row r="166" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I166" s="80"/>
-      <c r="K166" s="7"/>
-      <c r="L166" s="9"/>
+      <c r="N165" s="9"/>
+    </row>
+    <row r="166" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J166" s="80"/>
+      <c r="L166" s="7"/>
       <c r="M166" s="9"/>
-    </row>
-    <row r="167" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I167" s="80"/>
-      <c r="K167" s="7"/>
-      <c r="L167" s="9"/>
+      <c r="N166" s="9"/>
+    </row>
+    <row r="167" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J167" s="80"/>
+      <c r="L167" s="7"/>
       <c r="M167" s="9"/>
-    </row>
-    <row r="168" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I168" s="80"/>
-      <c r="K168" s="7"/>
-      <c r="L168" s="9"/>
+      <c r="N167" s="9"/>
+    </row>
+    <row r="168" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J168" s="80"/>
+      <c r="L168" s="7"/>
       <c r="M168" s="9"/>
-    </row>
-    <row r="169" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I169" s="80"/>
-      <c r="K169" s="7"/>
-      <c r="L169" s="9"/>
+      <c r="N168" s="9"/>
+    </row>
+    <row r="169" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J169" s="80"/>
+      <c r="L169" s="7"/>
       <c r="M169" s="9"/>
-    </row>
-    <row r="170" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I170" s="80"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="9"/>
+      <c r="N169" s="9"/>
+    </row>
+    <row r="170" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J170" s="80"/>
+      <c r="L170" s="7"/>
       <c r="M170" s="9"/>
-    </row>
-    <row r="171" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I171" s="80"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="9"/>
+      <c r="N170" s="9"/>
+    </row>
+    <row r="171" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J171" s="80"/>
+      <c r="L171" s="7"/>
       <c r="M171" s="9"/>
-    </row>
-    <row r="172" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I172" s="80"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="9"/>
+      <c r="N171" s="9"/>
+    </row>
+    <row r="172" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J172" s="80"/>
+      <c r="L172" s="7"/>
       <c r="M172" s="9"/>
-    </row>
-    <row r="173" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I173" s="80"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="9"/>
+      <c r="N172" s="9"/>
+    </row>
+    <row r="173" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J173" s="80"/>
+      <c r="L173" s="7"/>
       <c r="M173" s="9"/>
-    </row>
-    <row r="174" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I174" s="80"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="9"/>
+      <c r="N173" s="9"/>
+    </row>
+    <row r="174" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J174" s="80"/>
+      <c r="L174" s="7"/>
       <c r="M174" s="9"/>
-    </row>
-    <row r="175" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I175" s="80"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="9"/>
+      <c r="N174" s="9"/>
+    </row>
+    <row r="175" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J175" s="80"/>
+      <c r="L175" s="7"/>
       <c r="M175" s="9"/>
-    </row>
-    <row r="176" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I176" s="80"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="9"/>
+      <c r="N175" s="9"/>
+    </row>
+    <row r="176" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J176" s="80"/>
+      <c r="L176" s="7"/>
       <c r="M176" s="9"/>
-    </row>
-    <row r="177" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I177" s="80"/>
-      <c r="K177" s="7"/>
-      <c r="L177" s="9"/>
+      <c r="N176" s="9"/>
+    </row>
+    <row r="177" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J177" s="80"/>
+      <c r="L177" s="7"/>
       <c r="M177" s="9"/>
-    </row>
-    <row r="178" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I178" s="80"/>
-      <c r="K178" s="7"/>
-      <c r="L178" s="9"/>
+      <c r="N177" s="9"/>
+    </row>
+    <row r="178" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J178" s="80"/>
+      <c r="L178" s="7"/>
       <c r="M178" s="9"/>
-    </row>
-    <row r="179" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I179" s="80"/>
-      <c r="K179" s="7"/>
-      <c r="L179" s="9"/>
+      <c r="N178" s="9"/>
+    </row>
+    <row r="179" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J179" s="80"/>
+      <c r="L179" s="7"/>
       <c r="M179" s="9"/>
-    </row>
-    <row r="180" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I180" s="80"/>
-      <c r="K180" s="7"/>
-      <c r="L180" s="9"/>
+      <c r="N179" s="9"/>
+    </row>
+    <row r="180" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J180" s="80"/>
+      <c r="L180" s="7"/>
       <c r="M180" s="9"/>
-    </row>
-    <row r="181" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I181" s="80"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="9"/>
+      <c r="N180" s="9"/>
+    </row>
+    <row r="181" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J181" s="80"/>
+      <c r="L181" s="7"/>
       <c r="M181" s="9"/>
-    </row>
-    <row r="182" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I182" s="80"/>
-      <c r="K182" s="7"/>
-      <c r="L182" s="9"/>
+      <c r="N181" s="9"/>
+    </row>
+    <row r="182" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J182" s="80"/>
+      <c r="L182" s="7"/>
       <c r="M182" s="9"/>
-    </row>
-    <row r="183" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I183" s="80"/>
-      <c r="K183" s="7"/>
-      <c r="L183" s="9"/>
+      <c r="N182" s="9"/>
+    </row>
+    <row r="183" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J183" s="80"/>
+      <c r="L183" s="7"/>
       <c r="M183" s="9"/>
-    </row>
-    <row r="184" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I184" s="80"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="9"/>
+      <c r="N183" s="9"/>
+    </row>
+    <row r="184" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J184" s="80"/>
+      <c r="L184" s="7"/>
       <c r="M184" s="9"/>
-    </row>
-    <row r="185" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I185" s="80"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="9"/>
+      <c r="N184" s="9"/>
+    </row>
+    <row r="185" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J185" s="80"/>
+      <c r="L185" s="7"/>
       <c r="M185" s="9"/>
-    </row>
-    <row r="186" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I186" s="80"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="9"/>
+      <c r="N185" s="9"/>
+    </row>
+    <row r="186" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J186" s="80"/>
+      <c r="L186" s="7"/>
       <c r="M186" s="9"/>
-    </row>
-    <row r="187" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I187" s="80"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="9"/>
+      <c r="N186" s="9"/>
+    </row>
+    <row r="187" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J187" s="80"/>
+      <c r="L187" s="7"/>
       <c r="M187" s="9"/>
-    </row>
-    <row r="188" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I188" s="80"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="9"/>
+      <c r="N187" s="9"/>
+    </row>
+    <row r="188" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J188" s="80"/>
+      <c r="L188" s="7"/>
       <c r="M188" s="9"/>
-    </row>
-    <row r="189" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I189" s="80"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="9"/>
+      <c r="N188" s="9"/>
+    </row>
+    <row r="189" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J189" s="80"/>
+      <c r="L189" s="7"/>
       <c r="M189" s="9"/>
-    </row>
-    <row r="190" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I190" s="80"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="9"/>
+      <c r="N189" s="9"/>
+    </row>
+    <row r="190" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J190" s="80"/>
+      <c r="L190" s="7"/>
       <c r="M190" s="9"/>
-    </row>
-    <row r="191" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I191" s="80"/>
-      <c r="K191" s="7"/>
-      <c r="L191" s="9"/>
+      <c r="N190" s="9"/>
+    </row>
+    <row r="191" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J191" s="80"/>
+      <c r="L191" s="7"/>
       <c r="M191" s="9"/>
-    </row>
-    <row r="192" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I192" s="80"/>
-      <c r="K192" s="7"/>
-      <c r="L192" s="9"/>
+      <c r="N191" s="9"/>
+    </row>
+    <row r="192" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J192" s="80"/>
+      <c r="L192" s="7"/>
       <c r="M192" s="9"/>
-    </row>
-    <row r="193" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I193" s="80"/>
-      <c r="K193" s="7"/>
-      <c r="L193" s="9"/>
+      <c r="N192" s="9"/>
+    </row>
+    <row r="193" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J193" s="80"/>
+      <c r="L193" s="7"/>
       <c r="M193" s="9"/>
-    </row>
-    <row r="194" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I194" s="80"/>
-      <c r="K194" s="7"/>
-      <c r="L194" s="9"/>
+      <c r="N193" s="9"/>
+    </row>
+    <row r="194" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J194" s="80"/>
+      <c r="L194" s="7"/>
       <c r="M194" s="9"/>
-    </row>
-    <row r="195" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I195" s="80"/>
-      <c r="K195" s="7"/>
-      <c r="L195" s="9"/>
+      <c r="N194" s="9"/>
+    </row>
+    <row r="195" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J195" s="80"/>
+      <c r="L195" s="7"/>
       <c r="M195" s="9"/>
-    </row>
-    <row r="196" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I196" s="80"/>
-      <c r="K196" s="7"/>
-      <c r="L196" s="9"/>
+      <c r="N195" s="9"/>
+    </row>
+    <row r="196" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J196" s="80"/>
+      <c r="L196" s="7"/>
       <c r="M196" s="9"/>
-    </row>
-    <row r="197" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I197" s="80"/>
-      <c r="K197" s="7"/>
-      <c r="L197" s="9"/>
+      <c r="N196" s="9"/>
+    </row>
+    <row r="197" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J197" s="80"/>
+      <c r="L197" s="7"/>
       <c r="M197" s="9"/>
-    </row>
-    <row r="198" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I198" s="80"/>
-      <c r="K198" s="7"/>
-      <c r="L198" s="9"/>
+      <c r="N197" s="9"/>
+    </row>
+    <row r="198" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J198" s="80"/>
+      <c r="L198" s="7"/>
       <c r="M198" s="9"/>
-    </row>
-    <row r="199" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I199" s="80"/>
-      <c r="K199" s="7"/>
-      <c r="L199" s="9"/>
+      <c r="N198" s="9"/>
+    </row>
+    <row r="199" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J199" s="80"/>
+      <c r="L199" s="7"/>
       <c r="M199" s="9"/>
-    </row>
-    <row r="200" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I200" s="80"/>
-      <c r="K200" s="7"/>
-      <c r="L200" s="9"/>
+      <c r="N199" s="9"/>
+    </row>
+    <row r="200" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J200" s="80"/>
+      <c r="L200" s="7"/>
       <c r="M200" s="9"/>
-    </row>
-    <row r="201" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I201" s="80"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="9"/>
+      <c r="N200" s="9"/>
+    </row>
+    <row r="201" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J201" s="80"/>
+      <c r="L201" s="7"/>
       <c r="M201" s="9"/>
-    </row>
-    <row r="202" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I202" s="80"/>
-      <c r="K202" s="7"/>
-      <c r="L202" s="9"/>
+      <c r="N201" s="9"/>
+    </row>
+    <row r="202" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J202" s="80"/>
+      <c r="L202" s="7"/>
       <c r="M202" s="9"/>
-    </row>
-    <row r="203" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I203" s="80"/>
-      <c r="K203" s="7"/>
-      <c r="L203" s="9"/>
+      <c r="N202" s="9"/>
+    </row>
+    <row r="203" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J203" s="80"/>
+      <c r="L203" s="7"/>
       <c r="M203" s="9"/>
-    </row>
-    <row r="204" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I204" s="80"/>
-      <c r="K204" s="7"/>
-      <c r="L204" s="9"/>
+      <c r="N203" s="9"/>
+    </row>
+    <row r="204" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J204" s="80"/>
+      <c r="L204" s="7"/>
       <c r="M204" s="9"/>
-    </row>
-    <row r="205" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I205" s="80"/>
-      <c r="K205" s="7"/>
-      <c r="L205" s="9"/>
+      <c r="N204" s="9"/>
+    </row>
+    <row r="205" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J205" s="80"/>
+      <c r="L205" s="7"/>
       <c r="M205" s="9"/>
-    </row>
-    <row r="206" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I206" s="80"/>
-      <c r="K206" s="7"/>
-      <c r="L206" s="9"/>
+      <c r="N205" s="9"/>
+    </row>
+    <row r="206" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J206" s="80"/>
+      <c r="L206" s="7"/>
       <c r="M206" s="9"/>
-    </row>
-    <row r="207" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I207" s="80"/>
-      <c r="K207" s="7"/>
-      <c r="L207" s="9"/>
+      <c r="N206" s="9"/>
+    </row>
+    <row r="207" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J207" s="80"/>
+      <c r="L207" s="7"/>
       <c r="M207" s="9"/>
-    </row>
-    <row r="208" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I208" s="80"/>
-      <c r="K208" s="7"/>
-      <c r="L208" s="9"/>
+      <c r="N207" s="9"/>
+    </row>
+    <row r="208" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J208" s="80"/>
+      <c r="L208" s="7"/>
       <c r="M208" s="9"/>
-    </row>
-    <row r="209" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I209" s="80"/>
-      <c r="K209" s="7"/>
-      <c r="L209" s="9"/>
+      <c r="N208" s="9"/>
+    </row>
+    <row r="209" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J209" s="80"/>
+      <c r="L209" s="7"/>
       <c r="M209" s="9"/>
-    </row>
-    <row r="210" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I210" s="80"/>
-      <c r="K210" s="7"/>
-      <c r="L210" s="9"/>
+      <c r="N209" s="9"/>
+    </row>
+    <row r="210" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J210" s="80"/>
+      <c r="L210" s="7"/>
       <c r="M210" s="9"/>
-    </row>
-    <row r="211" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I211" s="80"/>
-      <c r="K211" s="7"/>
-      <c r="L211" s="9"/>
+      <c r="N210" s="9"/>
+    </row>
+    <row r="211" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J211" s="80"/>
+      <c r="L211" s="7"/>
       <c r="M211" s="9"/>
-    </row>
-    <row r="212" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I212" s="80"/>
-      <c r="K212" s="7"/>
-      <c r="L212" s="9"/>
+      <c r="N211" s="9"/>
+    </row>
+    <row r="212" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J212" s="80"/>
+      <c r="L212" s="7"/>
       <c r="M212" s="9"/>
-    </row>
-    <row r="213" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I213" s="80"/>
-      <c r="K213" s="7"/>
-      <c r="L213" s="9"/>
+      <c r="N212" s="9"/>
+    </row>
+    <row r="213" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J213" s="80"/>
+      <c r="L213" s="7"/>
       <c r="M213" s="9"/>
-    </row>
-    <row r="214" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I214" s="80"/>
-      <c r="K214" s="7"/>
-      <c r="L214" s="9"/>
+      <c r="N213" s="9"/>
+    </row>
+    <row r="214" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J214" s="80"/>
+      <c r="L214" s="7"/>
       <c r="M214" s="9"/>
-    </row>
-    <row r="215" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I215" s="80"/>
-      <c r="K215" s="7"/>
-      <c r="L215" s="9"/>
+      <c r="N214" s="9"/>
+    </row>
+    <row r="215" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J215" s="80"/>
+      <c r="L215" s="7"/>
       <c r="M215" s="9"/>
-    </row>
-    <row r="216" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I216" s="80"/>
-      <c r="K216" s="7"/>
-      <c r="L216" s="9"/>
+      <c r="N215" s="9"/>
+    </row>
+    <row r="216" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J216" s="80"/>
+      <c r="L216" s="7"/>
       <c r="M216" s="9"/>
-    </row>
-    <row r="217" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I217" s="80"/>
-      <c r="K217" s="7"/>
-      <c r="L217" s="9"/>
+      <c r="N216" s="9"/>
+    </row>
+    <row r="217" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J217" s="80"/>
+      <c r="L217" s="7"/>
       <c r="M217" s="9"/>
-    </row>
-    <row r="218" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I218" s="80"/>
-      <c r="K218" s="7"/>
-      <c r="L218" s="9"/>
+      <c r="N217" s="9"/>
+    </row>
+    <row r="218" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J218" s="80"/>
+      <c r="L218" s="7"/>
       <c r="M218" s="9"/>
-    </row>
-    <row r="219" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I219" s="80"/>
-      <c r="K219" s="7"/>
-      <c r="L219" s="9"/>
+      <c r="N218" s="9"/>
+    </row>
+    <row r="219" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J219" s="80"/>
+      <c r="L219" s="7"/>
       <c r="M219" s="9"/>
-    </row>
-    <row r="220" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I220" s="80"/>
-      <c r="K220" s="7"/>
-      <c r="L220" s="9"/>
+      <c r="N219" s="9"/>
+    </row>
+    <row r="220" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J220" s="80"/>
+      <c r="L220" s="7"/>
       <c r="M220" s="9"/>
-    </row>
-    <row r="221" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I221" s="80"/>
-      <c r="K221" s="7"/>
-      <c r="L221" s="9"/>
+      <c r="N220" s="9"/>
+    </row>
+    <row r="221" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J221" s="80"/>
+      <c r="L221" s="7"/>
       <c r="M221" s="9"/>
-    </row>
-    <row r="222" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I222" s="80"/>
-      <c r="K222" s="7"/>
-      <c r="L222" s="9"/>
+      <c r="N221" s="9"/>
+    </row>
+    <row r="222" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J222" s="80"/>
+      <c r="L222" s="7"/>
       <c r="M222" s="9"/>
-    </row>
-    <row r="223" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I223" s="80"/>
-      <c r="K223" s="7"/>
-      <c r="L223" s="9"/>
+      <c r="N222" s="9"/>
+    </row>
+    <row r="223" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J223" s="80"/>
+      <c r="L223" s="7"/>
       <c r="M223" s="9"/>
-    </row>
-    <row r="224" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I224" s="80"/>
-      <c r="K224" s="7"/>
-      <c r="L224" s="9"/>
+      <c r="N223" s="9"/>
+    </row>
+    <row r="224" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J224" s="80"/>
+      <c r="L224" s="7"/>
       <c r="M224" s="9"/>
-    </row>
-    <row r="225" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I225" s="80"/>
-      <c r="K225" s="7"/>
-      <c r="L225" s="9"/>
+      <c r="N224" s="9"/>
+    </row>
+    <row r="225" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J225" s="80"/>
+      <c r="L225" s="7"/>
       <c r="M225" s="9"/>
-    </row>
-    <row r="226" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I226" s="80"/>
-      <c r="K226" s="7"/>
-      <c r="L226" s="9"/>
+      <c r="N225" s="9"/>
+    </row>
+    <row r="226" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J226" s="80"/>
+      <c r="L226" s="7"/>
       <c r="M226" s="9"/>
-    </row>
-    <row r="227" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I227" s="80"/>
-      <c r="K227" s="7"/>
-      <c r="L227" s="9"/>
+      <c r="N226" s="9"/>
+    </row>
+    <row r="227" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J227" s="80"/>
+      <c r="L227" s="7"/>
       <c r="M227" s="9"/>
-    </row>
-    <row r="228" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I228" s="80"/>
-      <c r="K228" s="7"/>
-      <c r="L228" s="9"/>
+      <c r="N227" s="9"/>
+    </row>
+    <row r="228" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J228" s="80"/>
+      <c r="L228" s="7"/>
       <c r="M228" s="9"/>
-    </row>
-    <row r="229" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I229" s="80"/>
-      <c r="K229" s="7"/>
-      <c r="L229" s="9"/>
+      <c r="N228" s="9"/>
+    </row>
+    <row r="229" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J229" s="80"/>
+      <c r="L229" s="7"/>
       <c r="M229" s="9"/>
-    </row>
-    <row r="230" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I230" s="80"/>
-      <c r="K230" s="7"/>
-      <c r="L230" s="9"/>
+      <c r="N229" s="9"/>
+    </row>
+    <row r="230" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J230" s="80"/>
+      <c r="L230" s="7"/>
       <c r="M230" s="9"/>
-    </row>
-    <row r="231" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I231" s="80"/>
-      <c r="K231" s="7"/>
-      <c r="L231" s="9"/>
+      <c r="N230" s="9"/>
+    </row>
+    <row r="231" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J231" s="80"/>
+      <c r="L231" s="7"/>
       <c r="M231" s="9"/>
-    </row>
-    <row r="232" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I232" s="80"/>
-      <c r="K232" s="7"/>
-      <c r="L232" s="9"/>
+      <c r="N231" s="9"/>
+    </row>
+    <row r="232" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J232" s="80"/>
+      <c r="L232" s="7"/>
       <c r="M232" s="9"/>
-    </row>
-    <row r="233" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I233" s="80"/>
-      <c r="K233" s="7"/>
-      <c r="L233" s="9"/>
+      <c r="N232" s="9"/>
+    </row>
+    <row r="233" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J233" s="80"/>
+      <c r="L233" s="7"/>
       <c r="M233" s="9"/>
-    </row>
-    <row r="234" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I234" s="80"/>
-      <c r="K234" s="7"/>
-      <c r="L234" s="9"/>
+      <c r="N233" s="9"/>
+    </row>
+    <row r="234" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J234" s="80"/>
+      <c r="L234" s="7"/>
       <c r="M234" s="9"/>
-    </row>
-    <row r="235" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I235" s="80"/>
-      <c r="K235" s="7"/>
-      <c r="L235" s="9"/>
+      <c r="N234" s="9"/>
+    </row>
+    <row r="235" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J235" s="80"/>
+      <c r="L235" s="7"/>
       <c r="M235" s="9"/>
-    </row>
-    <row r="236" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I236" s="80"/>
-      <c r="K236" s="7"/>
-      <c r="L236" s="9"/>
+      <c r="N235" s="9"/>
+    </row>
+    <row r="236" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J236" s="80"/>
+      <c r="L236" s="7"/>
       <c r="M236" s="9"/>
-    </row>
-    <row r="237" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I237" s="80"/>
-      <c r="K237" s="7"/>
-      <c r="L237" s="9"/>
+      <c r="N236" s="9"/>
+    </row>
+    <row r="237" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J237" s="80"/>
+      <c r="L237" s="7"/>
       <c r="M237" s="9"/>
-    </row>
-    <row r="238" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I238" s="80"/>
-      <c r="K238" s="7"/>
-      <c r="L238" s="9"/>
+      <c r="N237" s="9"/>
+    </row>
+    <row r="238" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J238" s="80"/>
+      <c r="L238" s="7"/>
       <c r="M238" s="9"/>
-    </row>
-    <row r="239" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I239" s="80"/>
-      <c r="K239" s="7"/>
-      <c r="L239" s="9"/>
+      <c r="N238" s="9"/>
+    </row>
+    <row r="239" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J239" s="80"/>
+      <c r="L239" s="7"/>
       <c r="M239" s="9"/>
-    </row>
-    <row r="240" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I240" s="80"/>
-      <c r="K240" s="7"/>
-      <c r="L240" s="9"/>
+      <c r="N239" s="9"/>
+    </row>
+    <row r="240" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J240" s="80"/>
+      <c r="L240" s="7"/>
       <c r="M240" s="9"/>
-    </row>
-    <row r="241" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I241" s="80"/>
-      <c r="K241" s="7"/>
-      <c r="L241" s="9"/>
+      <c r="N240" s="9"/>
+    </row>
+    <row r="241" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J241" s="80"/>
+      <c r="L241" s="7"/>
       <c r="M241" s="9"/>
-    </row>
-    <row r="242" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I242" s="80"/>
-      <c r="K242" s="7"/>
-      <c r="L242" s="9"/>
+      <c r="N241" s="9"/>
+    </row>
+    <row r="242" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J242" s="80"/>
+      <c r="L242" s="7"/>
       <c r="M242" s="9"/>
-    </row>
-    <row r="243" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I243" s="80"/>
-      <c r="K243" s="7"/>
-      <c r="L243" s="9"/>
+      <c r="N242" s="9"/>
+    </row>
+    <row r="243" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J243" s="80"/>
+      <c r="L243" s="7"/>
       <c r="M243" s="9"/>
-    </row>
-    <row r="244" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I244" s="80"/>
-      <c r="K244" s="7"/>
-      <c r="L244" s="9"/>
+      <c r="N243" s="9"/>
+    </row>
+    <row r="244" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J244" s="80"/>
+      <c r="L244" s="7"/>
       <c r="M244" s="9"/>
-    </row>
-    <row r="245" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I245" s="80"/>
-      <c r="K245" s="7"/>
-      <c r="L245" s="9"/>
+      <c r="N244" s="9"/>
+    </row>
+    <row r="245" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J245" s="80"/>
+      <c r="L245" s="7"/>
       <c r="M245" s="9"/>
-    </row>
-    <row r="246" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I246" s="80"/>
-      <c r="K246" s="7"/>
-      <c r="L246" s="9"/>
+      <c r="N245" s="9"/>
+    </row>
+    <row r="246" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J246" s="80"/>
+      <c r="L246" s="7"/>
       <c r="M246" s="9"/>
-    </row>
-    <row r="247" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I247" s="80"/>
-      <c r="K247" s="7"/>
-      <c r="L247" s="9"/>
+      <c r="N246" s="9"/>
+    </row>
+    <row r="247" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J247" s="80"/>
+      <c r="L247" s="7"/>
       <c r="M247" s="9"/>
-    </row>
-    <row r="248" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I248" s="80"/>
-      <c r="K248" s="7"/>
-      <c r="L248" s="9"/>
+      <c r="N247" s="9"/>
+    </row>
+    <row r="248" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J248" s="80"/>
+      <c r="L248" s="7"/>
       <c r="M248" s="9"/>
-    </row>
-    <row r="249" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I249" s="80"/>
-      <c r="K249" s="7"/>
-      <c r="L249" s="9"/>
+      <c r="N248" s="9"/>
+    </row>
+    <row r="249" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J249" s="80"/>
+      <c r="L249" s="7"/>
       <c r="M249" s="9"/>
-    </row>
-    <row r="250" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I250" s="80"/>
-      <c r="K250" s="7"/>
-      <c r="L250" s="9"/>
+      <c r="N249" s="9"/>
+    </row>
+    <row r="250" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J250" s="80"/>
+      <c r="L250" s="7"/>
       <c r="M250" s="9"/>
-    </row>
-    <row r="251" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I251" s="80"/>
-      <c r="K251" s="7"/>
-      <c r="L251" s="9"/>
+      <c r="N250" s="9"/>
+    </row>
+    <row r="251" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J251" s="80"/>
+      <c r="L251" s="7"/>
       <c r="M251" s="9"/>
-    </row>
-    <row r="252" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I252" s="80"/>
-      <c r="K252" s="7"/>
-      <c r="L252" s="9"/>
+      <c r="N251" s="9"/>
+    </row>
+    <row r="252" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J252" s="80"/>
+      <c r="L252" s="7"/>
       <c r="M252" s="9"/>
-    </row>
-    <row r="253" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I253" s="80"/>
-      <c r="K253" s="7"/>
-      <c r="L253" s="9"/>
+      <c r="N252" s="9"/>
+    </row>
+    <row r="253" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J253" s="80"/>
+      <c r="L253" s="7"/>
       <c r="M253" s="9"/>
+      <c r="N253" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K8:K253">
+  <conditionalFormatting sqref="L8:L253">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4242,7 +4387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4277,10 +4422,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B3:O27"/>
+  <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4312,7 +4457,7 @@
       </c>
       <c r="G3" s="95">
         <f ca="1">TODAY()</f>
-        <v>43257</v>
+        <v>43258</v>
       </c>
       <c r="H3" s="117" t="s">
         <v>74</v>
@@ -4325,7 +4470,7 @@
       </c>
       <c r="L3" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="M3" s="117" t="s">
         <v>74</v>
@@ -4351,7 +4496,7 @@
       <c r="N4" s="94"/>
       <c r="O4" s="99"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>151</v>
       </c>
@@ -4362,8 +4507,12 @@
       <c r="E5" s="109">
         <v>1</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>176</v>
+      </c>
       <c r="I5" s="43"/>
       <c r="J5" s="101"/>
       <c r="L5" s="100"/>
@@ -4442,7 +4591,7 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="100"/>
       <c r="H9" s="43"/>
@@ -4462,7 +4611,7 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="100"/>
       <c r="H10" s="43"/>
@@ -4484,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="100"/>
       <c r="H11" s="43"/>
@@ -4495,15 +4644,15 @@
       <c r="N11" s="43"/>
       <c r="O11" s="101"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="113"/>
-      <c r="C12" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="114">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E12" s="115"/>
+    <row r="12" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109">
+        <v>0</v>
+      </c>
       <c r="G12" s="100"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -4514,16 +4663,14 @@
       <c r="O12" s="101"/>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="109">
-        <v>0</v>
-      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="114">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E13" s="115"/>
       <c r="G13" s="100"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
@@ -4535,11 +4682,11 @@
     </row>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="109">
         <v>0</v>
@@ -4555,7 +4702,7 @@
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108">
@@ -4574,14 +4721,16 @@
       <c r="O15" s="101"/>
     </row>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="113"/>
-      <c r="C16" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="114">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E16" s="115"/>
+      <c r="B16" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="109">
+        <v>0</v>
+      </c>
       <c r="G16" s="100"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
@@ -4592,10 +4741,14 @@
       <c r="O16" s="101"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="114">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E17" s="115"/>
       <c r="G17" s="100"/>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
@@ -4732,21 +4885,35 @@
       <c r="O26" s="101"/>
     </row>
     <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="104"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="109"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="101"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="101"/>
+    </row>
+    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="104"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5:E15 E17:E27">
+  <conditionalFormatting sqref="E5:E16 E18:E28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4758,7 +4925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O27">
+  <conditionalFormatting sqref="O5:O28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4770,7 +4937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J27">
+  <conditionalFormatting sqref="J5:J28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4782,7 +4949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="E17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4803,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A16" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9693,12 +9860,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G369">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>INDIRECT("B"&amp;ROW())=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B369">
-    <cfRule type="timePeriod" dxfId="12" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="today">
       <formula>FLOOR(B9,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9749,7 +9916,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43257</v>
+        <v>43258</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -1398,7 +1398,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1757,6 +1757,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1770,6 +1773,41 @@
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1813,45 +1851,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1906,33 +1909,33 @@
     <tableColumn id="4" name="BT 0.2" dataDxfId="22"/>
     <tableColumn id="5" name="BT 0.3" dataDxfId="21"/>
     <tableColumn id="6" name="Break Down Notes" dataDxfId="20"/>
-    <tableColumn id="12" name="Issues/Notes" dataDxfId="0"/>
-    <tableColumn id="11" name="Hours left" dataDxfId="19">
+    <tableColumn id="12" name="Issues/Notes" dataDxfId="19"/>
+    <tableColumn id="11" name="Hours left" dataDxfId="18">
       <calculatedColumnFormula>_xlfn.DAYS(TODAY(), M8)*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="18"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="17"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="16"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="15"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="17"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="16"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="15"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C7:L233"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="REF TAG" dataDxfId="12"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="11"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="10"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="9"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="8"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="7"/>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="6"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="5"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="4"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="3"/>
+    <tableColumn id="1" name="REF TAG" dataDxfId="9"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="8"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="7"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="6"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="5"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="4"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="3"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="2"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="1"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2206,8 +2209,8 @@
   </sheetPr>
   <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="97" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2240,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43266</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
@@ -2315,7 +2318,7 @@
       </c>
       <c r="J8" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M8)*24)</f>
-        <v>528</v>
+        <v>720</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
@@ -2394,7 +2397,7 @@
       </c>
       <c r="J14" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M14)*24)</f>
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
@@ -2500,7 +2503,7 @@
       </c>
       <c r="J22" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M22)*24)</f>
-        <v>360</v>
+        <v>552</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>64</v>
@@ -2644,7 +2647,7 @@
       </c>
       <c r="J33" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M33)*24)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>65</v>
@@ -2834,7 +2837,7 @@
       <c r="E47" s="14"/>
       <c r="J47" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M47)*24)</f>
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="K47" s="1">
         <v>50</v>
@@ -2871,14 +2874,14 @@
         <v>180</v>
       </c>
       <c r="J49" s="80">
-        <f t="shared" ref="J48:J55" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
-        <v>192</v>
+        <f t="shared" ref="J49:J55" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
+        <v>360</v>
       </c>
       <c r="L49" s="7">
         <v>0</v>
       </c>
       <c r="M49" s="9">
-        <v>43266</v>
+        <v>43281</v>
       </c>
       <c r="N49" s="9"/>
     </row>
@@ -2900,14 +2903,14 @@
         <v>179</v>
       </c>
       <c r="J50" s="80">
-        <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M50)*24)</f>
+        <v>240</v>
       </c>
       <c r="L50" s="7">
         <v>0.75</v>
       </c>
       <c r="M50" s="9">
-        <v>43263</v>
+        <v>43276</v>
       </c>
       <c r="N50" s="9"/>
     </row>
@@ -2933,13 +2936,13 @@
       </c>
       <c r="J51" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="L51" s="7">
         <v>0.75</v>
       </c>
       <c r="M51" s="9">
-        <v>43263</v>
+        <v>43277</v>
       </c>
       <c r="N51" s="9"/>
     </row>
@@ -2962,13 +2965,13 @@
       </c>
       <c r="J52" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="L52" s="7">
         <v>0</v>
       </c>
       <c r="M52" s="9">
-        <v>43263</v>
+        <v>43278</v>
       </c>
       <c r="N52" s="9"/>
     </row>
@@ -2988,13 +2991,13 @@
       </c>
       <c r="J53" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>1584</v>
       </c>
       <c r="L53" s="7">
         <v>0</v>
       </c>
       <c r="M53" s="9">
-        <v>43263</v>
+        <v>43200</v>
       </c>
       <c r="N53" s="9"/>
     </row>
@@ -3010,19 +3013,23 @@
     </row>
     <row r="55" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C55" s="92"/>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="I55" s="1" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="J55" s="80">
+      <c r="J55" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="L55" s="7"/>
-      <c r="M55" s="9">
+        <v>72</v>
+      </c>
+      <c r="K55" s="30"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="29">
         <v>43263</v>
       </c>
       <c r="N55" s="9"/>
@@ -3035,7 +3042,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="3:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="14"/>
       <c r="H57" s="121" t="s">
         <v>185</v>
@@ -3062,7 +3069,7 @@
       </c>
       <c r="J59" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M59)*24)</f>
-        <v>1608</v>
+        <v>1800</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>66</v>
@@ -4457,7 +4464,7 @@
       </c>
       <c r="G3" s="95">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43266</v>
       </c>
       <c r="H3" s="117" t="s">
         <v>74</v>
@@ -4470,7 +4477,7 @@
       </c>
       <c r="L3" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43259</v>
+        <v>43267</v>
       </c>
       <c r="M3" s="117" t="s">
         <v>74</v>
@@ -9860,12 +9867,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G369">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>INDIRECT("B"&amp;ROW())=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B369">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="12" priority="1" timePeriod="today">
       <formula>FLOOR(B9,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9916,7 +9923,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43266</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="192">
   <si>
     <t>Task Name</t>
   </si>
@@ -771,6 +771,24 @@
   <si>
     <t>The end of this section also requires - 
 An animation for all states, and independent of movement blending between states procedurally using curves. Learn about masks and seperating upper/Lower body movement.</t>
+  </si>
+  <si>
+    <t>IK System Clarifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay there are two types of control I will have over the animations on my controller. One is IK and Animation Blending. Which will allow me to gain access to the IK targets which were used to animate the character in blender to calculate the positons. This will allow for seamless blending between IK and animations for quick and seamless changing. This can be used for picking things up and slowly tweening to Ik when bending over to pick something up. This can also be used for foot IK using curves when reaching the ground etc... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next way I will control motion is through blend trees - where I will just interpolate the legs from an extreme down slope -&gt; up slope using mask only the legs will be affected. I will have two variables (slope normal which will be used to calculate the angle of the feet and the distance of the foot away from the y of the center which can be used to calculate how much the feet should be increaseed. </t>
+  </si>
+  <si>
+    <t>But this won't be as effective as using blend trees. But beofre I reach that. I will need a Locomotion System where I can say (Look At () Blah) and the animator controller + IK will change the body to do that function... Then Things like move hand to, and you pass in an animation curve showing the animation to IK change. You can do this for feet, and arms. You will also allow direct access from the Static locomotion system to any IK Chain needed. All of this will be organised in one script. Blending can also be part of the IK system, choosing to disable and enable foot IK. changing the masking layer weights. You got this boi.</t>
+  </si>
+  <si>
+    <t>Foot Placement w/ Blend Trees</t>
+  </si>
+  <si>
+    <t>Locomotion System</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1790,47 @@
     <cellStyle name="Seperator" xfId="7"/>
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFDDAB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFDDAB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1810,31 +1868,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFDDAB"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1900,42 +1933,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:N253" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="C7:N253"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:N255" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="C7:N255"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="REF TAG" dataDxfId="25"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="24"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="23"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="22"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="21"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="20"/>
-    <tableColumn id="12" name="Issues/Notes" dataDxfId="19"/>
-    <tableColumn id="11" name="Hours left" dataDxfId="18">
+    <tableColumn id="1" name="REF TAG" dataDxfId="26"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="25"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="24"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="23"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="22"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="21"/>
+    <tableColumn id="12" name="Issues/Notes" dataDxfId="20"/>
+    <tableColumn id="11" name="Hours left" dataDxfId="19">
       <calculatedColumnFormula>_xlfn.DAYS(TODAY(), M8)*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="17"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="16"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="15"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="14"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="18"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="17"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="16"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="C7:L233"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="REF TAG" dataDxfId="9"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="8"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="7"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="6"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="5"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="4"/>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="3"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="2"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="1"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="0"/>
+    <tableColumn id="1" name="REF TAG" dataDxfId="12"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="11"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="10"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="9"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="8"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="7"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="6"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="5"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="4"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2207,10 +2240,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N253"/>
+  <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2273,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
@@ -2318,7 +2351,7 @@
       </c>
       <c r="J8" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M8)*24)</f>
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
@@ -2397,7 +2430,7 @@
       </c>
       <c r="J14" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M14)*24)</f>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
@@ -2503,7 +2536,7 @@
       </c>
       <c r="J22" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M22)*24)</f>
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>64</v>
@@ -2647,7 +2680,7 @@
       </c>
       <c r="J33" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M33)*24)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>65</v>
@@ -2837,7 +2870,7 @@
       <c r="E47" s="14"/>
       <c r="J47" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M47)*24)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="K47" s="1">
         <v>50</v>
@@ -2874,8 +2907,8 @@
         <v>180</v>
       </c>
       <c r="J49" s="80">
-        <f t="shared" ref="J49:J55" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
-        <v>360</v>
+        <f t="shared" ref="J49:J57" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
+        <v>336</v>
       </c>
       <c r="L49" s="7">
         <v>0</v>
@@ -2904,10 +2937,10 @@
       </c>
       <c r="J50" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M50)*24)</f>
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L50" s="7">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M50" s="9">
         <v>43276</v>
@@ -2936,10 +2969,10 @@
       </c>
       <c r="J51" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="L51" s="7">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M51" s="9">
         <v>43277</v>
@@ -2965,72 +2998,75 @@
       </c>
       <c r="J52" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="L52" s="7">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M52" s="9">
         <v>43278</v>
       </c>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="3:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="92"/>
       <c r="D53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E53" s="14"/>
       <c r="J53" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>1584</v>
+        <v>48</v>
       </c>
       <c r="L53" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M53" s="9">
-        <v>43200</v>
+        <v>43269</v>
       </c>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="92"/>
+      <c r="D54" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="E54" s="14"/>
-      <c r="J54" s="80"/>
-      <c r="L54" s="7"/>
+      <c r="J54" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.5</v>
+      </c>
       <c r="M54" s="9">
-        <v>43263</v>
+        <v>43269</v>
       </c>
       <c r="N54" s="9"/>
     </row>
     <row r="55" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C55" s="92"/>
-      <c r="D55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="J55" s="32">
+      <c r="D55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="29">
-        <v>43263</v>
+        <v>1608</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>43200</v>
       </c>
       <c r="N55" s="9"/>
     </row>
@@ -3039,124 +3075,135 @@
       <c r="E56" s="14"/>
       <c r="J56" s="80"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="9"/>
+      <c r="M56" s="9">
+        <v>43263</v>
+      </c>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="3:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="14"/>
-      <c r="H57" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="I57" s="121" t="s">
-        <v>184</v>
-      </c>
-      <c r="J57" s="80"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="9"/>
+    <row r="57" spans="3:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="C57" s="92"/>
+      <c r="D57" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J57" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="K57" s="30"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="29">
+        <v>43263</v>
+      </c>
       <c r="N57" s="9"/>
     </row>
     <row r="58" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="92"/>
       <c r="E58" s="14"/>
       <c r="J58" s="80"/>
       <c r="L58" s="7"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="16"/>
-      <c r="D59" s="1" t="s">
+    <row r="59" spans="3:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="14"/>
+      <c r="H59" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59" s="80"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="14"/>
+      <c r="J60" s="80"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C61" s="16"/>
+      <c r="D61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="80">
-        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M59)*24)</f>
-        <v>1800</v>
-      </c>
-      <c r="K59" s="1" t="s">
+      <c r="J61" s="80">
+        <f ca="1">ABS(_xlfn.DAYS(TODAY(), M61)*24)</f>
+        <v>1824</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L59" s="7"/>
-      <c r="M59" s="20">
+      <c r="L61" s="7"/>
+      <c r="M61" s="20">
         <v>43191</v>
       </c>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="3:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="16"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="J60" s="80"/>
-      <c r="L60" s="7">
-        <v>1</v>
-      </c>
-      <c r="M60" s="20"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="3:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="16"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J61" s="80"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="16"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="1" t="s">
-        <v>55</v>
+      <c r="E62" s="81" t="s">
+        <v>120</v>
       </c>
       <c r="J62" s="80"/>
       <c r="L62" s="7">
         <v>1</v>
       </c>
-      <c r="M62" s="9"/>
+      <c r="M62" s="20"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C63" s="16"/>
       <c r="D63" s="5"/>
       <c r="E63" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J63" s="80"/>
-      <c r="L63" s="7">
-        <v>0</v>
-      </c>
+      <c r="L63" s="7"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C64" s="16"/>
       <c r="D64" s="5"/>
-      <c r="F64" s="1" t="s">
-        <v>57</v>
+      <c r="E64" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="J64" s="80"/>
-      <c r="L64" s="7"/>
+      <c r="L64" s="7">
+        <v>1</v>
+      </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="16"/>
       <c r="D65" s="5"/>
-      <c r="G65" s="1" t="s">
-        <v>58</v>
+      <c r="E65" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J65" s="80"/>
-      <c r="L65" s="7"/>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C66" s="16"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="1" t="s">
-        <v>59</v>
+      <c r="F66" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="J66" s="80"/>
       <c r="L66" s="7"/>
@@ -3166,8 +3213,8 @@
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="16"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="1" t="s">
-        <v>35</v>
+      <c r="G67" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="J67" s="80"/>
       <c r="L67" s="7"/>
@@ -3175,56 +3222,56 @@
       <c r="N67" s="9"/>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C68" s="16"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J68" s="80"/>
       <c r="L68" s="7"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="3:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="C69" s="17"/>
-      <c r="D69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>53</v>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="16"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J69" s="80"/>
-      <c r="K69" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="L69" s="7"/>
-      <c r="M69" s="20">
-        <v>43195</v>
-      </c>
+      <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C70" s="17"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J70" s="80"/>
       <c r="L70" s="7"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C71" s="17"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="1" t="s">
-        <v>45</v>
+      <c r="D71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J71" s="80"/>
+      <c r="K71" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L71" s="7"/>
-      <c r="M71" s="9"/>
+      <c r="M71" s="20">
+        <v>43195</v>
+      </c>
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C72" s="17"/>
       <c r="D72" s="26"/>
       <c r="E72" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72" s="80"/>
       <c r="L72" s="7"/>
@@ -3234,8 +3281,8 @@
     <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73" s="17"/>
       <c r="D73" s="26"/>
-      <c r="F73" s="1" t="s">
-        <v>51</v>
+      <c r="E73" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="J73" s="80"/>
       <c r="L73" s="7"/>
@@ -3245,8 +3292,8 @@
     <row r="74" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C74" s="17"/>
       <c r="D74" s="26"/>
-      <c r="F74" s="1" t="s">
-        <v>52</v>
+      <c r="E74" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J74" s="80"/>
       <c r="L74" s="7"/>
@@ -3256,8 +3303,8 @@
     <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="17"/>
       <c r="D75" s="26"/>
-      <c r="E75" s="1" t="s">
-        <v>47</v>
+      <c r="F75" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J75" s="80"/>
       <c r="L75" s="7"/>
@@ -3267,8 +3314,8 @@
     <row r="76" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C76" s="17"/>
       <c r="D76" s="26"/>
-      <c r="E76" s="1" t="s">
-        <v>48</v>
+      <c r="F76" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J76" s="80"/>
       <c r="L76" s="7"/>
@@ -3279,7 +3326,7 @@
       <c r="C77" s="17"/>
       <c r="D77" s="26"/>
       <c r="E77" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J77" s="80"/>
       <c r="L77" s="7"/>
@@ -3290,7 +3337,7 @@
       <c r="C78" s="17"/>
       <c r="D78" s="26"/>
       <c r="E78" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J78" s="80"/>
       <c r="L78" s="7"/>
@@ -3298,53 +3345,53 @@
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="17"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="J79" s="80"/>
       <c r="L79" s="7"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C80" s="19"/>
-      <c r="D80" s="1" t="s">
-        <v>60</v>
+      <c r="C80" s="17"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J80" s="80"/>
-      <c r="K80" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="L80" s="7"/>
-      <c r="M80" s="20">
-        <v>43198</v>
-      </c>
+      <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="19"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J81" s="80"/>
       <c r="L81" s="7"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C82" s="19"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="1" t="s">
-        <v>62</v>
+      <c r="D82" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="J82" s="80"/>
+      <c r="K82" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L82" s="7"/>
-      <c r="M82" s="9"/>
+      <c r="M82" s="20">
+        <v>43198</v>
+      </c>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C83" s="19"/>
       <c r="D83" s="5"/>
       <c r="E83" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J83" s="80"/>
       <c r="L83" s="7"/>
@@ -3355,31 +3402,41 @@
       <c r="C84" s="19"/>
       <c r="D84" s="5"/>
       <c r="E84" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J84" s="80"/>
       <c r="L84" s="7"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="3:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C85" s="19"/>
       <c r="D85" s="5"/>
       <c r="E85" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J85" s="80"/>
       <c r="L85" s="7"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C86" s="19"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="J86" s="80"/>
       <c r="L86" s="7"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="19"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J87" s="80"/>
       <c r="L87" s="7"/>
       <c r="M87" s="9"/>
@@ -4381,8 +4438,20 @@
       <c r="M253" s="9"/>
       <c r="N253" s="9"/>
     </row>
+    <row r="254" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J254" s="80"/>
+      <c r="L254" s="7"/>
+      <c r="M254" s="9"/>
+      <c r="N254" s="9"/>
+    </row>
+    <row r="255" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J255" s="80"/>
+      <c r="L255" s="7"/>
+      <c r="M255" s="9"/>
+      <c r="N255" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L8:L253">
+  <conditionalFormatting sqref="L8:L255">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4432,7 +4501,7 @@
   <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4464,7 +4533,7 @@
       </c>
       <c r="G3" s="95">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="H3" s="117" t="s">
         <v>74</v>
@@ -4477,7 +4546,7 @@
       </c>
       <c r="L3" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43267</v>
+        <v>43268</v>
       </c>
       <c r="M3" s="117" t="s">
         <v>74</v>
@@ -4978,7 +5047,7 @@
   <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,12 +5340,20 @@
       <c r="J17" s="89"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="230.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>188</v>
+      </c>
       <c r="F18" s="61"/>
       <c r="G18" s="62"/>
       <c r="H18" s="63"/>
@@ -9850,7 +9927,7 @@
     <row r="370" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E3:F5">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -9862,18 +9939,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" priority="3" operator="lessThan">
+    <cfRule type="cellIs" priority="4" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G369">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>INDIRECT("B"&amp;ROW())=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B369">
-    <cfRule type="timePeriod" dxfId="12" priority="1" timePeriod="today">
+  <conditionalFormatting sqref="B9:B17 B19:B369">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
       <formula>FLOOR(B9,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>INDIRECT("B"&amp;ROW())=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -9923,7 +10005,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35265" yWindow="-4605" windowWidth="25605" windowHeight="13575"/>
+    <workbookView xWindow="35265" yWindow="-4605" windowWidth="25605" windowHeight="13575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="198">
   <si>
     <t>Task Name</t>
   </si>
@@ -789,6 +789,24 @@
   </si>
   <si>
     <t>Locomotion System</t>
+  </si>
+  <si>
+    <t>The Issues</t>
+  </si>
+  <si>
+    <t>Okay so I am having trouble with making the foot ik work, it's complicated on how I would make this work.</t>
+  </si>
+  <si>
+    <t>We can do IK animation blending through two ways I know, we can animate the entire rig in Unity through the use of IK and animate the IK to follow how the animation works but also interpoalte through to the expected position or use IK just as the feet hits the ground to fix it up.</t>
+  </si>
+  <si>
+    <t>Eng goal is to have dynamic foot ik that can rise and lift based on terrain and flow with the animation while doing so… try it. Im hungry rn tho</t>
+  </si>
+  <si>
+    <t>I am going to have a lot of issues with the blending, what I am trying to do is use IK to blend from the target animation to the desired position without having any affect on jittering.</t>
+  </si>
+  <si>
+    <t>DO I just blend the animation or use foot IK when it hits or what the hell do I do?? I am so lost with this concept of blending into position and out. I might have to build a custom editor in order to blend the animation seamlessly.  I might actually do that.</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1434,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1778,6 +1796,19 @@
     <xf numFmtId="9" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1791,6 +1822,44 @@
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1830,44 +1899,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1956,19 +1987,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="C7:L233" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C7:L233"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="REF TAG" dataDxfId="12"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="11"/>
-    <tableColumn id="3" name="BT 0.1" dataDxfId="10"/>
-    <tableColumn id="4" name="BT 0.2" dataDxfId="9"/>
-    <tableColumn id="5" name="BT 0.3" dataDxfId="8"/>
-    <tableColumn id="6" name="Break Down Notes" dataDxfId="7"/>
-    <tableColumn id="7" name="Completion Hours" dataDxfId="6"/>
-    <tableColumn id="8" name="Current Progress" dataDxfId="5"/>
-    <tableColumn id="9" name="Expected Completion Date" dataDxfId="4"/>
-    <tableColumn id="10" name="Real Completion Date" dataDxfId="3"/>
+    <tableColumn id="1" name="REF TAG" dataDxfId="9"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="8"/>
+    <tableColumn id="3" name="BT 0.1" dataDxfId="7"/>
+    <tableColumn id="4" name="BT 0.2" dataDxfId="6"/>
+    <tableColumn id="5" name="BT 0.3" dataDxfId="5"/>
+    <tableColumn id="6" name="Break Down Notes" dataDxfId="4"/>
+    <tableColumn id="7" name="Completion Hours" dataDxfId="3"/>
+    <tableColumn id="8" name="Current Progress" dataDxfId="2"/>
+    <tableColumn id="9" name="Expected Completion Date" dataDxfId="1"/>
+    <tableColumn id="10" name="Real Completion Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2242,7 +2273,7 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -2273,7 +2304,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43267</v>
+        <v>43269</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
@@ -2351,7 +2382,7 @@
       </c>
       <c r="J8" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M8)*24)</f>
-        <v>744</v>
+        <v>792</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
@@ -2430,7 +2461,7 @@
       </c>
       <c r="J14" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M14)*24)</f>
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
@@ -2536,7 +2567,7 @@
       </c>
       <c r="J22" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M22)*24)</f>
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>64</v>
@@ -2680,7 +2711,7 @@
       </c>
       <c r="J33" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M33)*24)</f>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>65</v>
@@ -2870,7 +2901,7 @@
       <c r="E47" s="14"/>
       <c r="J47" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M47)*24)</f>
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="K47" s="1">
         <v>50</v>
@@ -2908,7 +2939,7 @@
       </c>
       <c r="J49" s="80">
         <f t="shared" ref="J49:J57" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="L49" s="7">
         <v>0</v>
@@ -2937,7 +2968,7 @@
       </c>
       <c r="J50" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M50)*24)</f>
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="L50" s="7">
         <v>0.9</v>
@@ -2969,7 +3000,7 @@
       </c>
       <c r="J51" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="L51" s="7">
         <v>0.9</v>
@@ -2998,7 +3029,7 @@
       </c>
       <c r="J52" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="L52" s="7">
         <v>0.9</v>
@@ -3016,7 +3047,7 @@
       <c r="E53" s="14"/>
       <c r="J53" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L53" s="7">
         <v>0.3</v>
@@ -3034,7 +3065,7 @@
       <c r="E54" s="14"/>
       <c r="J54" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L54" s="7">
         <v>0.5</v>
@@ -3060,7 +3091,7 @@
       </c>
       <c r="J55" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>1608</v>
+        <v>1656</v>
       </c>
       <c r="L55" s="7">
         <v>0</v>
@@ -3094,7 +3125,7 @@
       </c>
       <c r="J57" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="K57" s="30"/>
       <c r="L57" s="122"/>
@@ -3138,7 +3169,7 @@
       </c>
       <c r="J61" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M61)*24)</f>
-        <v>1824</v>
+        <v>1872</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>66</v>
@@ -4533,7 +4564,7 @@
       </c>
       <c r="G3" s="95">
         <f ca="1">TODAY()</f>
-        <v>43267</v>
+        <v>43269</v>
       </c>
       <c r="H3" s="117" t="s">
         <v>74</v>
@@ -4546,7 +4577,7 @@
       </c>
       <c r="L3" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43268</v>
+        <v>43270</v>
       </c>
       <c r="M3" s="117" t="s">
         <v>74</v>
@@ -5046,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,39 +5371,51 @@
       <c r="J17" s="89"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" ht="230.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="60" t="s">
+    <row r="18" spans="1:11" s="79" customFormat="1" ht="261" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="72"/>
+      <c r="B18" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="F18" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
+    </row>
+    <row r="19" spans="1:11" s="127" customFormat="1" ht="165" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="123"/>
+      <c r="B19" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="126"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
@@ -9944,17 +9987,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G369">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>INDIRECT("B"&amp;ROW())=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B17 B19:B369">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="13" priority="2" timePeriod="today">
       <formula>FLOOR(B9,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>INDIRECT("B"&amp;ROW())=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10005,7 +10048,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43267</v>
+        <v>43269</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35265" yWindow="-4605" windowWidth="25605" windowHeight="13575" activeTab="2"/>
+    <workbookView xWindow="35265" yWindow="-4605" windowWidth="25605" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="204">
   <si>
     <t>Task Name</t>
   </si>
@@ -807,6 +807,24 @@
   </si>
   <si>
     <t>DO I just blend the animation or use foot IK when it hits or what the hell do I do?? I am so lost with this concept of blending into position and out. I might have to build a custom editor in order to blend the animation seamlessly.  I might actually do that.</t>
+  </si>
+  <si>
+    <t>IK Blending System</t>
+  </si>
+  <si>
+    <t>Okay so I have all the systems setup for the IK system, I just need to connect themtogether in order to build a very smooth system. This is what I need to do, I need to build a matrix of arrays around the player which indicate the ground. So what will happen is, the foot Ik will take place when the value of the distance is lower than &lt; x and the animation curve of the foot Ik starts going, the animation curve is for the blend and the double blend. It will make sure that the blending is smooth.</t>
+  </si>
+  <si>
+    <t>Make the IK work better without the elbow, add a new chain that manages the elbow instead of using stupid elbow offsets, you also need to make sure that the feet are oriented in the correct direction. Make sure everything is nicely iinterpolated as well.</t>
+  </si>
+  <si>
+    <t>So what should be happening is that when you are moving, your velocity is predicted and then the next future foot position is predicted, once this is done, then the walk animation is played and towards the end of that animation (normalise dtime) you should blend towards the required point. This is a bit complicated but the basis for this is that you have the good IK system ready and setup.</t>
+  </si>
+  <si>
+    <t>Make the IK  work on the Unity Asset Store Bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course I haven't been able to focus on this for a while because I have revision work. I am sorry but I will get back to building this Ik system as soon as </t>
   </si>
 </sst>
 </file>
@@ -2273,8 +2291,8 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2322,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43269</v>
+        <v>43279</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
@@ -2382,7 +2400,7 @@
       </c>
       <c r="J8" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M8)*24)</f>
-        <v>792</v>
+        <v>1032</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
@@ -2461,7 +2479,7 @@
       </c>
       <c r="J14" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M14)*24)</f>
-        <v>312</v>
+        <v>552</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
@@ -2567,7 +2585,7 @@
       </c>
       <c r="J22" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M22)*24)</f>
-        <v>624</v>
+        <v>864</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>64</v>
@@ -2711,7 +2729,7 @@
       </c>
       <c r="J33" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M33)*24)</f>
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>65</v>
@@ -2901,7 +2919,7 @@
       <c r="E47" s="14"/>
       <c r="J47" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M47)*24)</f>
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="K47" s="1">
         <v>50</v>
@@ -2939,7 +2957,7 @@
       </c>
       <c r="J49" s="80">
         <f t="shared" ref="J49:J57" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="L49" s="7">
         <v>0</v>
@@ -2968,7 +2986,7 @@
       </c>
       <c r="J50" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M50)*24)</f>
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="L50" s="7">
         <v>0.9</v>
@@ -3000,7 +3018,7 @@
       </c>
       <c r="J51" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="L51" s="7">
         <v>0.9</v>
@@ -3029,7 +3047,7 @@
       </c>
       <c r="J52" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="L52" s="7">
         <v>0.9</v>
@@ -3047,7 +3065,7 @@
       <c r="E53" s="14"/>
       <c r="J53" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L53" s="7">
         <v>0.3</v>
@@ -3065,7 +3083,7 @@
       <c r="E54" s="14"/>
       <c r="J54" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L54" s="7">
         <v>0.5</v>
@@ -3091,7 +3109,7 @@
       </c>
       <c r="J55" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>1656</v>
+        <v>1896</v>
       </c>
       <c r="L55" s="7">
         <v>0</v>
@@ -3125,7 +3143,7 @@
       </c>
       <c r="J57" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="K57" s="30"/>
       <c r="L57" s="122"/>
@@ -3169,7 +3187,7 @@
       </c>
       <c r="J61" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M61)*24)</f>
-        <v>1872</v>
+        <v>2112</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>66</v>
@@ -4532,7 +4550,7 @@
   <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4582,7 @@
       </c>
       <c r="G3" s="95">
         <f ca="1">TODAY()</f>
-        <v>43269</v>
+        <v>43279</v>
       </c>
       <c r="H3" s="117" t="s">
         <v>74</v>
@@ -4577,7 +4595,7 @@
       </c>
       <c r="L3" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43270</v>
+        <v>43280</v>
       </c>
       <c r="M3" s="117" t="s">
         <v>74</v>
@@ -5077,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5417,12 +5435,20 @@
       <c r="J19" s="123"/>
       <c r="K19" s="123"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="165" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>201</v>
+      </c>
       <c r="F20" s="61"/>
       <c r="G20" s="62"/>
       <c r="H20" s="63"/>
@@ -5430,11 +5456,15 @@
       <c r="J20" s="63"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
-      <c r="B21" s="59"/>
+      <c r="B21" s="59" t="s">
+        <v>198</v>
+      </c>
       <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
+      <c r="D21" s="61" t="s">
+        <v>202</v>
+      </c>
       <c r="E21" s="61"/>
       <c r="F21" s="61"/>
       <c r="G21" s="62"/>
@@ -5443,10 +5473,15 @@
       <c r="J21" s="63"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="59">
+        <f ca="1" xml:space="preserve"> TODAY()</f>
+        <v>43279</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>203</v>
+      </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
       <c r="F22" s="61"/>
@@ -10048,7 +10083,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43269</v>
+        <v>43279</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>

--- a/Management & Logging/Planning and Management/AgilePlanning.xlsx
+++ b/Management & Logging/Planning and Management/AgilePlanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35265" yWindow="-4605" windowWidth="25605" windowHeight="13575"/>
+    <workbookView xWindow="35265" yWindow="-4605" windowWidth="25605" windowHeight="13575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="195">
   <si>
     <t>Task Name</t>
   </si>
@@ -604,9 +604,6 @@
     <t>Trying out current IK System with mecanim masks (Foot and Wrists)</t>
   </si>
   <si>
-    <t xml:space="preserve">Building own one using the proper algorithm and constraints etc, with an editor </t>
-  </si>
-  <si>
     <t>Making it work with all animations and proper foot correction etc with optimisation</t>
   </si>
   <si>
@@ -667,51 +664,9 @@
     <t>Procedural Movement System</t>
   </si>
   <si>
-    <t>Plan out the camera system</t>
-  </si>
-  <si>
-    <t>How to make it realistic</t>
-  </si>
-  <si>
-    <t>Implement the camera orbitting w/ Lag</t>
-  </si>
-  <si>
-    <t>Using lag, increased fov, speed, motion blur, auto movement…</t>
-  </si>
-  <si>
-    <t>Changing the movement system relative to camera</t>
-  </si>
-  <si>
-    <t>Adding discrepancies for big movement changes</t>
-  </si>
-  <si>
-    <t>Making the animations work while turning around</t>
-  </si>
-  <si>
-    <t>Begin the IK System</t>
-  </si>
-  <si>
-    <t>Planning how FABRIK will work</t>
-  </si>
-  <si>
-    <t>Planning out the editor and how to make it comprehensicve</t>
-  </si>
-  <si>
-    <t>What functions and limitations the system will have</t>
-  </si>
-  <si>
-    <t>Begin Writing the IK System</t>
-  </si>
-  <si>
     <t>Now this is all just really building up to finishing the player system off, so I will finish the camera system and make that work all nicely with FOV transofrmations etc… It will all be very ncie. Then I will get ledge climbing and ladder climbing to work seamlessly. Then I will get a quick parkour system running with smooth animations by then</t>
   </si>
   <si>
-    <t xml:space="preserve">Pivoting System for Direction Changes </t>
-  </si>
-  <si>
-    <t>You will have to create individual ones that make sense</t>
-  </si>
-  <si>
     <t>Issue Log</t>
   </si>
   <si>
@@ -734,9 +689,6 @@
   </si>
   <si>
     <t>The player fallst through the ground, so you need to check and fix it…</t>
-  </si>
-  <si>
-    <t>Fix the player clipping through the ground</t>
   </si>
   <si>
     <t>Expected Result</t>
@@ -825,6 +777,27 @@
   </si>
   <si>
     <t xml:space="preserve">Of course I haven't been able to focus on this for a while because I have revision work. I am sorry but I will get back to building this Ik system as soon as </t>
+  </si>
+  <si>
+    <t>nefar</t>
+  </si>
+  <si>
+    <t>Creating the IK Window System</t>
+  </si>
+  <si>
+    <t>Moving Hips for the time</t>
+  </si>
+  <si>
+    <t>Creating a slope animation</t>
+  </si>
+  <si>
+    <t>Changing the feet smoothly in order to place in the correct place with ray casting</t>
+  </si>
+  <si>
+    <t>Foot Contact Point Detection + Future prediction based on last step point.</t>
+  </si>
+  <si>
+    <t>This will create the most realistic lerping</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2264,7 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="C52" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -2322,7 +2295,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
@@ -2372,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>109</v>
@@ -2400,7 +2373,7 @@
       </c>
       <c r="J8" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M8)*24)</f>
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
@@ -2479,7 +2452,7 @@
       </c>
       <c r="J14" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M14)*24)</f>
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
@@ -2585,7 +2558,7 @@
       </c>
       <c r="J22" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M22)*24)</f>
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>64</v>
@@ -2729,7 +2702,7 @@
       </c>
       <c r="J33" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M33)*24)</f>
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>65</v>
@@ -2919,7 +2892,7 @@
       <c r="E47" s="14"/>
       <c r="J47" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M47)*24)</f>
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="K47" s="1">
         <v>50</v>
@@ -2946,18 +2919,18 @@
     <row r="49" spans="3:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C49" s="92"/>
       <c r="D49" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E49" s="14"/>
       <c r="H49" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="J49" s="80">
         <f t="shared" ref="J49:J57" ca="1" si="0">ABS(_xlfn.DAYS(TODAY(), M49)*24)</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L49" s="7">
         <v>0</v>
@@ -2982,11 +2955,11 @@
         <v>124</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J50" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M50)*24)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="L50" s="7">
         <v>0.9</v>
@@ -3011,14 +2984,14 @@
         <v>129</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J51" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="L51" s="7">
         <v>0.9</v>
@@ -3037,17 +3010,17 @@
         <v>131</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J52" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L52" s="7">
         <v>0.9</v>
@@ -3060,12 +3033,12 @@
     <row r="53" spans="3:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="92"/>
       <c r="D53" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E53" s="14"/>
       <c r="J53" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L53" s="7">
         <v>0.3</v>
@@ -3078,12 +3051,12 @@
     <row r="54" spans="3:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="92"/>
       <c r="D54" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E54" s="14"/>
       <c r="J54" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L54" s="7">
         <v>0.5</v>
@@ -3096,20 +3069,20 @@
     <row r="55" spans="3:14" ht="60" x14ac:dyDescent="0.25">
       <c r="C55" s="92"/>
       <c r="D55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="J55" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>1896</v>
+        <v>1920</v>
       </c>
       <c r="L55" s="7">
         <v>0</v>
@@ -3139,11 +3112,11 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="K57" s="30"/>
       <c r="L57" s="122"/>
@@ -3163,10 +3136,10 @@
     <row r="59" spans="3:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="14"/>
       <c r="H59" s="121" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I59" s="121" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J59" s="80"/>
       <c r="L59" s="7"/>
@@ -3187,7 +3160,7 @@
       </c>
       <c r="J61" s="80">
         <f ca="1">ABS(_xlfn.DAYS(TODAY(), M61)*24)</f>
-        <v>2112</v>
+        <v>2136</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>66</v>
@@ -4549,8 +4522,8 @@
   </sheetPr>
   <dimension ref="B3:O28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4569,42 +4542,42 @@
   <sheetData>
     <row r="3" spans="2:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="106" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="97" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>149</v>
       </c>
       <c r="G3" s="95">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="H3" s="117" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="97" t="s">
         <v>148</v>
-      </c>
-      <c r="J3" s="97" t="s">
-        <v>149</v>
       </c>
       <c r="L3" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="M3" s="117" t="s">
         <v>74</v>
       </c>
       <c r="N3" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="97" t="s">
         <v>148</v>
-      </c>
-      <c r="O3" s="97" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4623,20 +4596,16 @@
     </row>
     <row r="5" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="C5" s="108"/>
-      <c r="D5" s="108">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="109">
-        <v>1</v>
-      </c>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
       <c r="G5" s="100" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="101"/>
@@ -4645,19 +4614,15 @@
       <c r="N5" s="43"/>
       <c r="O5" s="101"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="107" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="108">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="109">
-        <v>1</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
       <c r="G6" s="100"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -4669,15 +4634,11 @@
     </row>
     <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="107" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="C7" s="108"/>
-      <c r="D7" s="108">
-        <v>1</v>
-      </c>
-      <c r="E7" s="109">
-        <v>1</v>
-      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109"/>
       <c r="G7" s="100"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
@@ -4689,15 +4650,11 @@
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="107" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C8" s="108"/>
-      <c r="D8" s="108">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="109">
-        <v>1</v>
-      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="100"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
@@ -4707,17 +4664,13 @@
       <c r="N8" s="43"/>
       <c r="O8" s="101"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.25">
       <c r="B9" s="107" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C9" s="108"/>
-      <c r="D9" s="108">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="109">
-        <v>1</v>
-      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
       <c r="G9" s="100"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -4728,16 +4681,10 @@
       <c r="O9" s="101"/>
     </row>
     <row r="10" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="107" t="s">
-        <v>157</v>
-      </c>
+      <c r="B10" s="107"/>
       <c r="C10" s="108"/>
-      <c r="D10" s="108">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="109">
-        <v>1</v>
-      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="G10" s="100"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
@@ -4748,18 +4695,10 @@
       <c r="O10" s="101"/>
     </row>
     <row r="11" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="108">
-        <v>1</v>
-      </c>
-      <c r="E11" s="109">
-        <v>1</v>
-      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
       <c r="G11" s="100"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
@@ -4770,14 +4709,10 @@
       <c r="O11" s="101"/>
     </row>
     <row r="12" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="107" t="s">
-        <v>174</v>
-      </c>
+      <c r="B12" s="107"/>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
-      <c r="E12" s="109">
-        <v>0</v>
-      </c>
+      <c r="E12" s="109"/>
       <c r="G12" s="100"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -4789,12 +4724,8 @@
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="113"/>
-      <c r="C13" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="114">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="115"/>
       <c r="G13" s="100"/>
       <c r="H13" s="43"/>
@@ -4806,16 +4737,10 @@
       <c r="O13" s="101"/>
     </row>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="107" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" s="107"/>
       <c r="C14" s="108"/>
-      <c r="D14" s="108">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="109">
-        <v>0</v>
-      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
       <c r="G14" s="100"/>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
@@ -4826,16 +4751,10 @@
       <c r="O14" s="101"/>
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="107" t="s">
-        <v>160</v>
-      </c>
+      <c r="B15" s="107"/>
       <c r="C15" s="108"/>
-      <c r="D15" s="108">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="109">
-        <v>0</v>
-      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
       <c r="G15" s="100"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
@@ -4846,16 +4765,10 @@
       <c r="O15" s="101"/>
     </row>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="107" t="s">
-        <v>161</v>
-      </c>
+      <c r="B16" s="107"/>
       <c r="C16" s="108"/>
-      <c r="D16" s="108">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="109">
-        <v>0</v>
-      </c>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
       <c r="G16" s="100"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
@@ -4867,12 +4780,8 @@
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="113"/>
-      <c r="C17" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="114">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="C17" s="116"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="115"/>
       <c r="G17" s="100"/>
       <c r="H17" s="43"/>
@@ -5316,11 +5225,11 @@
     <row r="14" spans="1:11" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
@@ -5333,19 +5242,19 @@
     <row r="15" spans="1:11" ht="66.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="61" t="s">
+      <c r="E15" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="F15" s="61" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>141</v>
       </c>
       <c r="G15" s="62"/>
       <c r="H15" s="63"/>
@@ -5356,14 +5265,14 @@
     <row r="16" spans="1:11" ht="90" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="83" t="s">
         <v>144</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>145</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="62"/>
@@ -5377,10 +5286,10 @@
       <c r="B17" s="85"/>
       <c r="C17" s="86"/>
       <c r="D17" s="87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F17" s="87"/>
       <c r="G17" s="88"/>
@@ -5392,19 +5301,19 @@
     <row r="18" spans="1:11" s="79" customFormat="1" ht="261" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="72"/>
       <c r="B18" s="74" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
@@ -5415,19 +5324,19 @@
     <row r="19" spans="1:11" s="127" customFormat="1" ht="165" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="123"/>
       <c r="B19" s="124" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D19" s="125" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F19" s="125" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G19" s="126"/>
       <c r="H19" s="123"/>
@@ -5438,16 +5347,16 @@
     <row r="20" spans="1:11" ht="165" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="59" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F20" s="61"/>
       <c r="G20" s="62"/>
@@ -5459,11 +5368,11 @@
     <row r="21" spans="1:11" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="59" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E21" s="61"/>
       <c r="F21" s="61"/>
@@ -5477,10 +5386,10 @@
       <c r="A22" s="65"/>
       <c r="B22" s="59">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -10083,7 +9992,7 @@
       </c>
       <c r="E4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -12717,23 +12626,23 @@
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="118" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D4" s="118" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E4" s="118" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
